--- a/git-terminal-commands.xlsx
+++ b/git-terminal-commands.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Goofy/GIT/steves-git-shortcuts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1743FABC-5A43-C548-A358-AD52F4C159CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031CA0AE-1631-6B4D-BDDF-20F38C398F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25400" yWindow="460" windowWidth="25780" windowHeight="28340" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
+    <workbookView xWindow="12240" yWindow="460" windowWidth="34960" windowHeight="28340" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$89:$F$384</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$93:$F$388</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="656">
   <si>
     <t>Configuration</t>
   </si>
@@ -10202,25 +10202,9 @@
     <t>Repo Connection</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Git Credential Manager </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>(using HomeBrew)</t>
-    </r>
-  </si>
-  <si>
     <t>docs.github.com/en/get-started/getting-started-with-git/caching-your-github-credentials-in-git</t>
   </si>
   <si>
-    <t>Instructions to install Git Credential Manager (GCM) on github.com</t>
-  </si>
-  <si>
     <t>brew tap microsoft/git</t>
   </si>
   <si>
@@ -10247,13 +10231,31 @@
     </r>
   </si>
   <si>
-    <t>The next time you interact with a repo a PAC will be required</t>
-  </si>
-  <si>
     <t>docs.github.com/en/authentication/keeping-your-account-and-data-secure/creating-a-personal-access-token</t>
   </si>
   <si>
-    <t>Instructions to create a Personal Access Token (PAC) on github.com</t>
+    <t>Instructions to install Git Credential Manager (GCM) on github.com (using HomeBrew)</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>GitLab</t>
+  </si>
+  <si>
+    <t>docs.gitlab.com/ee/user/profile/personal_access_tokens.html#create-a-personal-access-token</t>
+  </si>
+  <si>
+    <t>Instructions to create a Personal Access Token (PAT) on gitlab.com</t>
+  </si>
+  <si>
+    <t>The next time you interact with a repo a PAT will be required instead of the account password</t>
+  </si>
+  <si>
+    <t>The next time you interact with a repo a Personal Access Token (PAC) will be required instead of the account password</t>
+  </si>
+  <si>
+    <t>Instructions to create a PAC on github.com</t>
   </si>
 </sst>
 </file>
@@ -10627,9 +10629,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10664,10 +10668,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -10683,14 +10683,27 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11010,10 +11023,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G437"/>
+  <dimension ref="A1:G441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="33" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD78"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="33" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11090,14 +11103,14 @@
       <c r="A8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="27" thickBot="1">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="1" t="s">
@@ -11119,14 +11132,14 @@
       <c r="A12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="27" thickBot="1">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="1" t="s">
@@ -11353,7 +11366,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="33"/>
-      <c r="C31" s="38"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="21" t="s">
@@ -11362,7 +11375,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="33"/>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="35" t="s">
         <v>614</v>
       </c>
       <c r="F32" s="31" t="s">
@@ -11375,16 +11388,16 @@
     </row>
     <row r="34" spans="1:6" ht="20" thickBot="1">
       <c r="A34" s="33"/>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="36" t="s">
         <v>616</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="42"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="33"/>
-      <c r="C35" s="38"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="21" t="s">
@@ -11402,7 +11415,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="33"/>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="39" t="s">
         <v>620</v>
       </c>
       <c r="F37" s="14" t="s">
@@ -11411,12 +11424,12 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="33"/>
-      <c r="C38" s="44"/>
+      <c r="C38" s="40"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="33"/>
-      <c r="C39" s="38"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="21" t="s">
@@ -11425,7 +11438,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="33"/>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="41" t="s">
         <v>623</v>
       </c>
       <c r="F40" s="14" t="s">
@@ -11452,39 +11465,39 @@
     </row>
     <row r="43" spans="1:6" ht="40">
       <c r="A43" s="33"/>
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="39" t="s">
         <v>629</v>
       </c>
-      <c r="F43" s="46" t="s">
+      <c r="F43" s="42" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="33"/>
-      <c r="C44" s="43"/>
-      <c r="F44" s="46"/>
+      <c r="C44" s="39"/>
+      <c r="F44" s="42"/>
     </row>
     <row r="45" spans="1:6" ht="20" thickBot="1">
       <c r="A45" s="33"/>
-      <c r="C45" s="47" t="s">
+      <c r="C45" s="50" t="s">
         <v>631</v>
       </c>
-      <c r="D45" s="48"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="49"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="43"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="33"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="52" t="s">
+      <c r="C46" s="44"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="46" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="33"/>
-      <c r="C47" s="45" t="s">
+      <c r="C47" s="41" t="s">
         <v>623</v>
       </c>
       <c r="F47" s="14" t="s">
@@ -11511,514 +11524,490 @@
     </row>
     <row r="50" spans="1:6" ht="40">
       <c r="A50" s="33"/>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="39" t="s">
         <v>636</v>
       </c>
-      <c r="F50" s="46" t="s">
+      <c r="F50" s="42" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="40">
       <c r="A51" s="33"/>
-      <c r="C51" s="43" t="s">
+      <c r="C51" s="39" t="s">
         <v>638</v>
       </c>
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="42" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="33"/>
-      <c r="C52" s="43"/>
-      <c r="F52" s="46"/>
+      <c r="C52" s="39"/>
+      <c r="F52" s="42"/>
     </row>
     <row r="53" spans="1:6" ht="20" thickBot="1">
       <c r="A53" s="33"/>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="36" t="s">
         <v>640</v>
       </c>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="49"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="43"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="33"/>
-      <c r="C54" s="38"/>
+      <c r="C54" s="34"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="21" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="27">
       <c r="A55" s="33"/>
-      <c r="C55" s="45" t="s">
-        <v>642</v>
-      </c>
-      <c r="F55" s="53" t="s">
-        <v>643</v>
+      <c r="C55" s="41" t="s">
+        <v>641</v>
+      </c>
+      <c r="F55" s="47" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="33"/>
-      <c r="C56" s="43" t="s">
-        <v>644</v>
-      </c>
-      <c r="F56" s="46" t="s">
-        <v>645</v>
+      <c r="C56" s="39" t="s">
+        <v>642</v>
+      </c>
+      <c r="F56" s="42" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="33"/>
-      <c r="C57" s="43" t="s">
+      <c r="C57" s="39" t="s">
+        <v>644</v>
+      </c>
+      <c r="F57" s="42" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="26">
+      <c r="A58" s="33"/>
+      <c r="C58" s="56" t="s">
         <v>646</v>
       </c>
-      <c r="F57" s="46" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="33"/>
-      <c r="C58" s="43" t="s">
-        <v>648</v>
-      </c>
-      <c r="F58" s="46" t="s">
-        <v>649</v>
+      <c r="F58" s="55" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="40">
       <c r="A59" s="33"/>
-      <c r="C59" s="45" t="s">
-        <v>650</v>
-      </c>
-      <c r="F59" s="53" t="s">
-        <v>651</v>
+      <c r="C59" s="41" t="s">
+        <v>647</v>
+      </c>
+      <c r="F59" s="47" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="33"/>
-    </row>
-    <row r="61" spans="1:6" ht="27" thickBot="1">
-      <c r="A61" s="36" t="s">
+      <c r="C60" s="41"/>
+      <c r="F60" s="47"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="33"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="21" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="27">
+      <c r="A62" s="33"/>
+      <c r="C62" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="F62" s="47" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="26">
+      <c r="A63" s="33"/>
+      <c r="C63" s="56" t="s">
+        <v>646</v>
+      </c>
+      <c r="F63" s="55" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="33"/>
+    </row>
+    <row r="65" spans="1:6" ht="27" thickBot="1">
+      <c r="A65" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="37"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="C62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="C63" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="C64" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="C65" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>443</v>
-      </c>
+      <c r="B65" s="48"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="49"/>
     </row>
     <row r="66" spans="1:6">
       <c r="C66" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="C67" s="1" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="C68" s="1" t="s">
-        <v>12</v>
+        <v>552</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="C69" s="1" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="C70" s="1" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="17">
-      <c r="C71" s="9" t="s">
-        <v>612</v>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="C71" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="C72" s="1" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="C73" s="1" t="s">
-        <v>456</v>
+        <v>13</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="C74" s="1" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="C75" s="1" t="s">
-        <v>157</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="17">
+      <c r="C75" s="9" t="s">
+        <v>612</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="C76" s="1" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="20"/>
-    </row>
-    <row r="78" spans="1:6" ht="27" thickBot="1">
-      <c r="A78" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="37"/>
+      <c r="C77" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="C78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="79" spans="1:6">
       <c r="C79" s="1" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="C80" s="1" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="C81" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="C82" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>460</v>
-      </c>
+      <c r="A81" s="20"/>
+    </row>
+    <row r="82" spans="1:6" ht="27" thickBot="1">
+      <c r="A82" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="48"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="49"/>
     </row>
     <row r="83" spans="1:6">
       <c r="C83" s="1" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="C84" s="1" t="s">
-        <v>303</v>
+        <v>18</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="C85" s="1" t="s">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="C86" s="1" t="s">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="C87" s="3" t="s">
-        <v>25</v>
+      <c r="C87" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="27" thickBot="1">
-      <c r="A89" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B89" s="36"/>
-      <c r="C89" s="36"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="C88" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="C89" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="90" spans="1:6">
       <c r="C90" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>329</v>
+        <v>464</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="C91" s="1" t="s">
-        <v>33</v>
+      <c r="C91" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="C92" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F92" s="14" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="C93" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F93" s="14" t="s">
-        <v>332</v>
-      </c>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="27" thickBot="1">
+      <c r="A93" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" s="48"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
     </row>
     <row r="94" spans="1:6">
       <c r="C94" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="C95" s="1" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="C96" s="1" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="C97" s="1" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="C98" s="1" t="s">
-        <v>246</v>
+        <v>22</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="C99" s="1" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="C100" s="11" t="s">
-        <v>213</v>
+      <c r="C100" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>467</v>
+        <v>336</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="C101" s="11" t="s">
-        <v>214</v>
+      <c r="C101" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="C102" s="1" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="C103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="C104" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="C105" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="C106" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="C107" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F103" s="14" t="s">
+      <c r="F107" s="14" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
-      <c r="C104" s="1" t="s">
+    <row r="108" spans="1:6">
+      <c r="C108" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F104" s="14" t="s">
+      <c r="F108" s="14" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="C105" s="1" t="s">
+    <row r="109" spans="1:6">
+      <c r="C109" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F105" s="14" t="s">
+      <c r="F109" s="14" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
-      <c r="C107" s="13" t="s">
+    <row r="111" spans="1:6">
+      <c r="C111" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="D107" s="13" t="s">
+      <c r="D111" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E107" s="13" t="s">
+      <c r="E111" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="F107" s="21" t="s">
+      <c r="F111" s="21" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F108" s="14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F109" s="14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F110" s="14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F111" s="14" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -12029,10 +12018,10 @@
         <v>4</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -12043,80 +12032,80 @@
         <v>4</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>345</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="C115" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="D115" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E115" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F115" s="21" t="s">
-        <v>378</v>
+      <c r="A115" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
-        <v>26</v>
+        <v>314</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>64</v>
+      <c r="C116" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="C119" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F117" s="14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F118" s="14" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F119" s="14" t="s">
-        <v>350</v>
+      <c r="F119" s="21" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -12127,10 +12116,10 @@
         <v>4</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -12141,101 +12130,101 @@
         <v>4</v>
       </c>
       <c r="C121" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F122" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F121" s="14" t="s">
+      <c r="F125" s="14" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
-      <c r="C122" s="3"/>
-    </row>
-    <row r="123" spans="1:6" ht="27" thickBot="1">
-      <c r="A123" s="36" t="s">
+    <row r="126" spans="1:6">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="1:6" ht="27" thickBot="1">
+      <c r="A127" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B123" s="36"/>
-      <c r="C123" s="36"/>
-      <c r="D123" s="36"/>
-      <c r="E123" s="36"/>
-      <c r="F123" s="37"/>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="C124" s="1" t="s">
+      <c r="B127" s="48"/>
+      <c r="C127" s="48"/>
+      <c r="D127" s="48"/>
+      <c r="E127" s="48"/>
+      <c r="F127" s="49"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="C128" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F124" s="14" t="s">
+      <c r="F128" s="14" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
-      <c r="C126" s="13" t="s">
+    <row r="130" spans="1:6">
+      <c r="C130" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="D126" s="13" t="s">
+      <c r="D130" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E126" s="13" t="s">
+      <c r="E130" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F126" s="15" t="s">
+      <c r="F130" s="15" t="s">
         <v>353</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F127" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F128" s="31" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F129" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F130" s="14" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -12246,15 +12235,24 @@
         <v>4</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>68</v>
+        <v>248</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="C132" s="6" t="s">
-        <v>69</v>
+      <c r="A132" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F132" s="31" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -12265,10 +12263,10 @@
         <v>4</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -12279,10 +12277,10 @@
         <v>4</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -12293,24 +12291,15 @@
         <v>4</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F136" s="14" t="s">
-        <v>385</v>
+      <c r="C136" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -12321,10 +12310,10 @@
         <v>4</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>468</v>
+        <v>71</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -12335,10 +12324,10 @@
         <v>4</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -12349,10 +12338,10 @@
         <v>4</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -12363,10 +12352,10 @@
         <v>4</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -12377,10 +12366,10 @@
         <v>4</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>56</v>
+        <v>468</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -12391,10 +12380,10 @@
         <v>4</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -12404,11 +12393,11 @@
       <c r="B143" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C143" s="5" t="s">
-        <v>66</v>
+      <c r="C143" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -12418,151 +12407,151 @@
       <c r="B144" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C144" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F144" s="14" t="s">
+      <c r="F148" s="14" t="s">
         <v>391</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="C146" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F146" s="22" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="C147" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F147" s="14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="C148" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F148" s="14" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="C149" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F149" s="22" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="C150" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E150" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F150" s="22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="C151" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F151" s="14" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="C152" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F152" s="14" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="C153" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F153" s="22" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="C154" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F150" s="14" t="s">
+      <c r="F154" s="14" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
-      <c r="C151" s="13" t="s">
+    <row r="155" spans="1:6">
+      <c r="C155" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D151" s="13" t="s">
+      <c r="D155" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E151" s="13" t="s">
+      <c r="E155" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F151" s="15" t="s">
+      <c r="F155" s="15" t="s">
         <v>420</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F152" s="14" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F153" s="14" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F154" s="14" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F155" s="14" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -12572,11 +12561,11 @@
       <c r="B156" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>89</v>
+      <c r="C156" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -12587,10 +12576,10 @@
         <v>4</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>417</v>
+        <v>87</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -12601,10 +12590,10 @@
         <v>4</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>90</v>
+        <v>416</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>474</v>
+        <v>415</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -12614,11 +12603,11 @@
       <c r="B159" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>91</v>
+      <c r="C159" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -12629,10 +12618,10 @@
         <v>4</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>481</v>
+        <v>89</v>
       </c>
       <c r="F160" s="14" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -12643,10 +12632,10 @@
         <v>4</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>92</v>
+        <v>417</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -12657,10 +12646,10 @@
         <v>4</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -12670,11 +12659,11 @@
       <c r="B163" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>94</v>
+      <c r="C163" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -12685,10 +12674,10 @@
         <v>4</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>95</v>
+        <v>481</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -12699,10 +12688,10 @@
         <v>4</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>482</v>
+        <v>92</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -12713,10 +12702,10 @@
         <v>4</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>483</v>
+        <v>93</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -12726,11 +12715,11 @@
       <c r="B167" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C167" s="4" t="s">
-        <v>207</v>
+      <c r="C167" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -12740,11 +12729,11 @@
       <c r="B168" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C168" s="4" t="s">
-        <v>208</v>
+      <c r="C168" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -12755,178 +12744,178 @@
         <v>4</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>209</v>
+        <v>482</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>487</v>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F170" s="14" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="C171" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="D171" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E171" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="F171" s="21" t="s">
-        <v>426</v>
+      <c r="A171" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F171" s="14" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1" t="s">
-        <v>425</v>
+        <v>6</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C172" s="8" t="s">
-        <v>431</v>
+      <c r="C172" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F173" s="14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="C175" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="D175" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E175" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C173" s="8" t="s">
+      <c r="F175" s="21" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="F176" s="14" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="F173" s="14" t="s">
+      <c r="F177" s="14" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
-      <c r="A174" s="1" t="s">
+    <row r="178" spans="1:6">
+      <c r="A178" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C174" s="8" t="s">
+      <c r="B178" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="F174" s="14" t="s">
+      <c r="F178" s="14" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
-      <c r="A175" s="1" t="s">
+    <row r="179" spans="1:6">
+      <c r="A179" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C175" s="8" t="s">
+      <c r="B179" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="F175" s="14" t="s">
+      <c r="F179" s="14" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
-      <c r="C177" s="8" t="s">
+    <row r="181" spans="1:6">
+      <c r="C181" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F177" s="22" t="s">
+      <c r="F181" s="22" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
-      <c r="C178" s="26" t="s">
+    <row r="182" spans="1:6">
+      <c r="C182" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="D178" s="25" t="s">
+      <c r="D182" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E178" s="25" t="s">
+      <c r="E182" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F178" s="27" t="s">
+      <c r="F182" s="27" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
-      <c r="C179" s="8" t="s">
+    <row r="183" spans="1:6">
+      <c r="C183" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="E183" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F179" s="22" t="s">
+      <c r="F183" s="22" t="s">
         <v>497</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C180" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="F180" s="14" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C181" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="F181" s="14" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="F182" s="14" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="F183" s="14" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -12936,11 +12925,11 @@
       <c r="B184" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C184" s="5" t="s">
-        <v>312</v>
+      <c r="C184" s="12" t="s">
+        <v>306</v>
       </c>
       <c r="F184" s="14" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -12950,174 +12939,150 @@
       <c r="B185" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C185" s="5" t="s">
+      <c r="C185" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="F185" s="14" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F186" s="14" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F187" s="14" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F188" s="14" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="F185" s="14" t="s">
+      <c r="F189" s="14" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
-      <c r="C186" s="3"/>
-    </row>
-    <row r="187" spans="1:6" ht="27" thickBot="1">
-      <c r="A187" s="36" t="s">
+    <row r="190" spans="1:6">
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="1:6" ht="27" thickBot="1">
+      <c r="A191" s="48" t="s">
         <v>433</v>
       </c>
-      <c r="B187" s="36"/>
-      <c r="C187" s="36"/>
-      <c r="D187" s="36"/>
-      <c r="E187" s="36"/>
-      <c r="F187" s="36"/>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="C188" s="8" t="s">
+      <c r="B191" s="48"/>
+      <c r="C191" s="48"/>
+      <c r="D191" s="48"/>
+      <c r="E191" s="48"/>
+      <c r="F191" s="48"/>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="C192" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="F188" s="28" t="s">
+      <c r="F192" s="28" t="s">
         <v>507</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="F189" s="1"/>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="C190" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D190" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E190" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F190" s="21" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C191" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="F191" s="14" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C192" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="F192" s="14" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="F193" s="1"/>
     </row>
     <row r="194" spans="1:6">
-      <c r="C194" s="24" t="s">
-        <v>421</v>
+      <c r="C194" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="D194" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E194" s="13" t="s">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="F194" s="21" t="s">
-        <v>521</v>
+        <v>234</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1" t="s">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>513</v>
+        <v>247</v>
       </c>
       <c r="F195" s="14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F196" s="14" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="F197" s="1"/>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="C198" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="D198" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E198" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="F196" s="14" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C197" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="F197" s="14" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C198" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="F198" s="14" t="s">
-        <v>517</v>
+      <c r="F198" s="21" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -13128,7 +13093,7 @@
         <v>4</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>5</v>
@@ -13137,7 +13102,7 @@
         <v>513</v>
       </c>
       <c r="F199" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -13147,188 +13112,212 @@
       <c r="B200" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C200" s="24" t="s">
-        <v>515</v>
-      </c>
-      <c r="D200" s="13" t="s">
+      <c r="C200" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E200" s="13" t="s">
+      <c r="E200" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="F200" s="15" t="s">
-        <v>516</v>
+      <c r="F200" s="14" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E201" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C201" s="8" t="s">
-        <v>558</v>
-      </c>
       <c r="F201" s="14" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E202" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C202" s="8" t="s">
-        <v>559</v>
-      </c>
       <c r="F202" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="C203" s="8"/>
+      <c r="A203" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F203" s="14" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="C204" s="13" t="s">
-        <v>422</v>
+      <c r="A204" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" s="24" t="s">
+        <v>515</v>
       </c>
       <c r="D204" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E204" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="F204" s="21" t="s">
-        <v>427</v>
+        <v>513</v>
+      </c>
+      <c r="F204" s="15" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1" t="s">
-        <v>424</v>
+        <v>513</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C205" s="11" t="s">
-        <v>428</v>
+      <c r="C205" s="8" t="s">
+        <v>558</v>
       </c>
       <c r="F205" s="14" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="F206" s="14" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="C207" s="8"/>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="C208" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="D208" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E208" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C206" s="11" t="s">
+      <c r="F208" s="21" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C209" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="F209" s="14" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="F206" s="14" t="s">
+      <c r="F210" s="14" t="s">
         <v>522</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="A207" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C207" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="F207" s="14" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C208" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="F208" s="14" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="C210" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="D210" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E210" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F210" s="21" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1" t="s">
-        <v>1</v>
+        <v>424</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C211" s="1" t="s">
-        <v>101</v>
+      <c r="C211" s="8" t="s">
+        <v>273</v>
       </c>
       <c r="F211" s="14" t="s">
-        <v>381</v>
+        <v>523</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="F212" s="14" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="C214" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="D214" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E214" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F212" s="14" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F213" s="14" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F214" s="14" t="s">
-        <v>361</v>
+      <c r="F214" s="21" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -13339,10 +13328,10 @@
         <v>4</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>249</v>
+        <v>101</v>
       </c>
       <c r="F215" s="14" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -13353,10 +13342,10 @@
         <v>4</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F216" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -13367,10 +13356,10 @@
         <v>4</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F217" s="14" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -13381,10 +13370,10 @@
         <v>4</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F218" s="14" t="s">
-        <v>525</v>
+        <v>361</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -13395,10 +13384,10 @@
         <v>4</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>108</v>
+        <v>249</v>
       </c>
       <c r="F219" s="14" t="s">
-        <v>526</v>
+        <v>362</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -13408,11 +13397,11 @@
       <c r="B220" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C220" s="7" t="s">
-        <v>109</v>
+      <c r="C220" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="F220" s="14" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -13423,82 +13412,82 @@
         <v>4</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F221" s="14" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="C222" s="8"/>
+      <c r="A222" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F222" s="14" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="C223" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D223" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E223" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="F223" s="15"/>
+      <c r="A223" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F223" s="14" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="1" t="s">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C224" s="10" t="s">
-        <v>201</v>
+      <c r="C224" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="F224" s="14" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F225" s="14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="C226" s="8"/>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="C227" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="D227" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E227" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="B225" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F225" s="14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="A226" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F226" s="14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
-      <c r="A227" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F227" s="14" t="s">
-        <v>398</v>
-      </c>
+      <c r="F227" s="15"/>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="1" t="s">
@@ -13507,223 +13496,228 @@
       <c r="B228" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C228" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="D228" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E228" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="F228" s="15" t="s">
-        <v>365</v>
+      <c r="C228" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F228" s="14" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C229" s="1" t="s">
-        <v>204</v>
+      <c r="C229" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="F229" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F230" s="14" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F231" s="14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C232" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D232" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E232" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="B231" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C231" s="3" t="s">
+      <c r="F232" s="15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F233" s="14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F234" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F231" s="14" t="s">
+      <c r="F235" s="14" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="27" thickBot="1">
-      <c r="A233" s="36" t="s">
+    <row r="237" spans="1:7" ht="27" thickBot="1">
+      <c r="A237" s="48" t="s">
         <v>593</v>
       </c>
-      <c r="B233" s="36"/>
-      <c r="C233" s="36"/>
-      <c r="D233" s="36"/>
-      <c r="E233" s="36"/>
-      <c r="F233" s="37"/>
-    </row>
-    <row r="234" spans="1:7">
-      <c r="C234" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F234" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="G234" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
-      <c r="C235" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F235" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="G235" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
-      <c r="C236" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F236" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="G236" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
-      <c r="C237" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F237" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="G237" t="s">
-        <v>555</v>
-      </c>
+      <c r="B237" s="48"/>
+      <c r="C237" s="48"/>
+      <c r="D237" s="48"/>
+      <c r="E237" s="48"/>
+      <c r="F237" s="49"/>
     </row>
     <row r="238" spans="1:7">
       <c r="C238" s="1" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="F238" s="14" t="s">
-        <v>332</v>
+        <v>565</v>
       </c>
       <c r="G238" t="s">
         <v>555</v>
       </c>
     </row>
+    <row r="239" spans="1:7">
+      <c r="C239" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F239" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="G239" t="s">
+        <v>555</v>
+      </c>
+    </row>
     <row r="240" spans="1:7">
       <c r="C240" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F240" s="14" t="s">
-        <v>581</v>
-      </c>
-      <c r="G240" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G240" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="C241" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D241" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F241" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="G241" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="C242" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F242" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="G242" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="C244" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D244" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E241" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F241" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="G241" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7">
-      <c r="A242" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="F242" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="G242" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7">
-      <c r="A243" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="F243" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="G243" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
-      <c r="A244" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>169</v>
+      <c r="E244" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F244" s="14" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>555</v>
       </c>
     </row>
+    <row r="245" spans="1:7">
+      <c r="C245" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F245" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
     <row r="246" spans="1:7">
-      <c r="C246" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="F246" s="22" t="s">
-        <v>557</v>
+      <c r="A246" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="F246" s="14" t="s">
+        <v>572</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>555</v>
@@ -13731,16 +13725,16 @@
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="1" t="s">
-        <v>554</v>
+        <v>6</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C247" s="30" t="s">
-        <v>556</v>
+      <c r="C247" s="4" t="s">
+        <v>569</v>
       </c>
       <c r="F247" s="14" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>555</v>
@@ -13748,106 +13742,89 @@
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="1" t="s">
-        <v>554</v>
+        <v>6</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>560</v>
+        <v>169</v>
       </c>
       <c r="F248" s="14" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
-      <c r="G249" s="1"/>
-    </row>
     <row r="250" spans="1:7">
       <c r="C250" s="1" t="s">
-        <v>176</v>
+        <v>553</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F250" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="G250" s="1"/>
+        <v>554</v>
+      </c>
+      <c r="F250" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="1" t="s">
-        <v>40</v>
+        <v>554</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C251" s="4" t="s">
-        <v>146</v>
+      <c r="C251" s="30" t="s">
+        <v>556</v>
       </c>
       <c r="F251" s="14" t="s">
-        <v>75</v>
+        <v>583</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>303</v>
+        <v>555</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F252" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="G253" s="1"/>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="C254" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E254" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B252" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F252" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G252" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
-      <c r="A253" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F253" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G253" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7">
-      <c r="A254" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>563</v>
-      </c>
       <c r="F254" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="G254" s="1" t="s">
-        <v>555</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="G254" s="1"/>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="1" t="s">
@@ -13856,14 +13833,14 @@
       <c r="B255" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C255" s="3" t="s">
-        <v>564</v>
+      <c r="C255" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="F255" s="14" t="s">
-        <v>597</v>
+        <v>75</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>555</v>
+        <v>303</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -13874,13 +13851,13 @@
         <v>4</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="F256" s="14" t="s">
-        <v>323</v>
+        <v>76</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>555</v>
+        <v>303</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -13891,13 +13868,13 @@
         <v>4</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>599</v>
+        <v>178</v>
       </c>
       <c r="F257" s="14" t="s">
-        <v>598</v>
+        <v>142</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>555</v>
+        <v>303</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -13908,107 +13885,107 @@
         <v>4</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>250</v>
+        <v>563</v>
       </c>
       <c r="F258" s="14" t="s">
-        <v>251</v>
+        <v>570</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="259" spans="1:7">
-      <c r="G259" s="1"/>
+      <c r="A259" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="F259" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="G260" s="1"/>
+      <c r="A260" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F260" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="G261" s="1"/>
+      <c r="A261" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F261" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="262" spans="1:7">
-      <c r="G262" s="1"/>
+      <c r="A262" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F262" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="G263" s="1"/>
     </row>
     <row r="264" spans="1:7">
-      <c r="C264" s="1" t="s">
+      <c r="G264" s="1"/>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="G265" s="1"/>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="G266" s="1"/>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="C268" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="D268" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E264" s="1" t="s">
+      <c r="E268" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F264" s="14" t="s">
+      <c r="F268" s="14" t="s">
         <v>601</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7">
-      <c r="A265" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C265" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F265" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G265" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7">
-      <c r="A266" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F266" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G266" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7">
-      <c r="A267" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F267" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G267" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7">
-      <c r="A268" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="F268" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="G268" s="1" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -14018,14 +13995,14 @@
       <c r="B269" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C269" s="3" t="s">
-        <v>564</v>
+      <c r="C269" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="F269" s="14" t="s">
-        <v>597</v>
+        <v>75</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>555</v>
+        <v>303</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -14036,13 +14013,13 @@
         <v>4</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="F270" s="14" t="s">
-        <v>323</v>
+        <v>76</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>555</v>
+        <v>303</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -14053,13 +14030,13 @@
         <v>4</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>599</v>
+        <v>148</v>
       </c>
       <c r="F271" s="14" t="s">
-        <v>598</v>
+        <v>142</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>555</v>
+        <v>303</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -14070,168 +14047,168 @@
         <v>4</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>250</v>
+        <v>563</v>
       </c>
       <c r="F272" s="14" t="s">
-        <v>251</v>
+        <v>570</v>
       </c>
       <c r="G272" s="1" t="s">
         <v>555</v>
       </c>
     </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="F273" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F274" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
     <row r="275" spans="1:7">
-      <c r="C275" s="1" t="s">
+      <c r="A275" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F275" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F276" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="C279" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D275" s="1" t="s">
+      <c r="D279" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E275" s="1" t="s">
+      <c r="E279" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F275" s="14" t="s">
+      <c r="F279" s="14" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
-      <c r="C276" s="1" t="s">
+    <row r="280" spans="1:7">
+      <c r="C280" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D276" s="1" t="s">
+      <c r="D280" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E276" s="1" t="s">
+      <c r="E280" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F276" s="14" t="s">
+      <c r="F280" s="14" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
-      <c r="A277" s="1" t="s">
+    <row r="281" spans="1:7">
+      <c r="A281" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B277" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C277" s="1" t="s">
+      <c r="B281" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F277" s="14" t="s">
+      <c r="F281" s="14" t="s">
         <v>575</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7">
-      <c r="A278" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F278" s="14" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7">
-      <c r="A279" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F279" s="14" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7">
-      <c r="C280" s="3"/>
-    </row>
-    <row r="281" spans="1:7">
-      <c r="C281" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F281" s="22" t="s">
-        <v>539</v>
-      </c>
-      <c r="G281" s="1" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="1" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="F282" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="G282" s="1" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F283" s="14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="C285" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E285" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B283" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F283" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="G283" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
-      <c r="A284" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F284" s="14" t="s">
-        <v>585</v>
-      </c>
-      <c r="G284" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7">
-      <c r="A285" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F285" s="14" t="s">
-        <v>586</v>
+      <c r="F285" s="22" t="s">
+        <v>539</v>
       </c>
       <c r="G285" s="1" t="s">
         <v>555</v>
@@ -14244,11 +14221,11 @@
       <c r="B286" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C286" s="3" t="s">
-        <v>248</v>
+      <c r="C286" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F286" s="14" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="G286" s="1" t="s">
         <v>555</v>
@@ -14262,10 +14239,10 @@
         <v>4</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>595</v>
+        <v>82</v>
       </c>
       <c r="F287" s="14" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="G287" s="1" t="s">
         <v>555</v>
@@ -14279,141 +14256,153 @@
         <v>4</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>291</v>
+        <v>83</v>
       </c>
       <c r="F288" s="14" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G288" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
-      <c r="C292" s="2"/>
-    </row>
-    <row r="293" spans="1:6">
-      <c r="C293" s="2"/>
-    </row>
-    <row r="295" spans="1:6" ht="27" thickBot="1">
-      <c r="A295" s="36" t="s">
+    <row r="289" spans="1:7">
+      <c r="A289" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F289" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F290" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="F291" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F292" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="C296" s="2"/>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="C297" s="2"/>
+    </row>
+    <row r="299" spans="1:7" ht="27" thickBot="1">
+      <c r="A299" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="B295" s="36"/>
-      <c r="C295" s="36"/>
-      <c r="D295" s="36"/>
-      <c r="E295" s="36"/>
-      <c r="F295" s="37"/>
-    </row>
-    <row r="298" spans="1:6">
-      <c r="C298" s="1" t="s">
+      <c r="B299" s="48"/>
+      <c r="C299" s="48"/>
+      <c r="D299" s="48"/>
+      <c r="E299" s="48"/>
+      <c r="F299" s="49"/>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="C302" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D298" s="1" t="s">
+      <c r="D302" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E298" s="1" t="s">
+      <c r="E302" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F298" s="14" t="s">
+      <c r="F302" s="14" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
-      <c r="C299" s="1" t="s">
+    <row r="303" spans="1:7">
+      <c r="C303" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D299" s="1" t="s">
+      <c r="D303" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E299" s="1" t="s">
+      <c r="E303" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F299" s="14" t="s">
+      <c r="F303" s="14" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
-      <c r="C300" s="1" t="s">
+    <row r="304" spans="1:7">
+      <c r="C304" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D300" s="1" t="s">
+      <c r="D304" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E300" s="1" t="s">
+      <c r="E304" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F300" s="14" t="s">
+      <c r="F304" s="14" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
-      <c r="C301" s="1" t="s">
+    <row r="305" spans="1:7">
+      <c r="C305" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D301" s="1" t="s">
+      <c r="D305" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E301" s="1" t="s">
+      <c r="E305" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F301" s="14" t="s">
+      <c r="F305" s="14" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6">
-      <c r="A302" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C302" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F302" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6">
-      <c r="A303" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C303" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F303" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6">
-      <c r="A304" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C304" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F304" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7">
-      <c r="A305" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C305" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F305" s="14" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -14423,11 +14412,11 @@
       <c r="B306" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C306" s="3" t="s">
-        <v>119</v>
+      <c r="C306" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="F306" s="14" t="s">
-        <v>322</v>
+        <v>123</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -14437,11 +14426,11 @@
       <c r="B307" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C307" s="3" t="s">
-        <v>149</v>
+      <c r="C307" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="F307" s="14" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -14451,11 +14440,11 @@
       <c r="B308" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C308" s="3" t="s">
-        <v>179</v>
+      <c r="C308" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="F308" s="14" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -14465,11 +14454,11 @@
       <c r="B309" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C309" s="3" t="s">
-        <v>120</v>
+      <c r="C309" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F309" s="14" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -14480,10 +14469,10 @@
         <v>4</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F310" s="14" t="s">
-        <v>80</v>
+        <v>322</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -14494,92 +14483,80 @@
         <v>4</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="F311" s="14" t="s">
-        <v>318</v>
+        <v>81</v>
       </c>
     </row>
     <row r="312" spans="1:7">
-      <c r="C312" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E312" s="1" t="s">
-        <v>40</v>
+      <c r="A312" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="F312" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G312" s="9" t="s">
-        <v>555</v>
+        <v>180</v>
       </c>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C313" s="4" t="s">
-        <v>146</v>
+      <c r="C313" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="F313" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G313" s="9" t="s">
-        <v>555</v>
+        <v>79</v>
       </c>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="F314" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G314" s="9" t="s">
-        <v>555</v>
+        <v>80</v>
       </c>
     </row>
     <row r="315" spans="1:7">
       <c r="A315" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F315" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="C316" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E316" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B315" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F315" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G315" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7">
-      <c r="A316" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C316" s="3" t="s">
-        <v>563</v>
-      </c>
       <c r="F316" s="14" t="s">
-        <v>571</v>
+        <v>75</v>
       </c>
       <c r="G316" s="9" t="s">
         <v>555</v>
@@ -14592,14 +14569,14 @@
       <c r="B317" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C317" s="3" t="s">
-        <v>564</v>
+      <c r="C317" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="F317" s="14" t="s">
-        <v>395</v>
+        <v>75</v>
       </c>
       <c r="G317" s="9" t="s">
-        <v>303</v>
+        <v>555</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -14610,13 +14587,13 @@
         <v>4</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="F318" s="14" t="s">
-        <v>323</v>
+        <v>76</v>
       </c>
       <c r="G318" s="9" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -14627,13 +14604,13 @@
         <v>4</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="F319" s="14" t="s">
-        <v>324</v>
+        <v>142</v>
       </c>
       <c r="G319" s="9" t="s">
-        <v>303</v>
+        <v>555</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -14644,95 +14621,95 @@
         <v>4</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>250</v>
+        <v>563</v>
       </c>
       <c r="F320" s="14" t="s">
-        <v>251</v>
+        <v>571</v>
       </c>
       <c r="G320" s="9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="F321" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="G321" s="9" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="322" spans="1:7">
-      <c r="C322" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E322" s="1" t="s">
-        <v>145</v>
+      <c r="A322" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="F322" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="G322" s="1" t="s">
-        <v>555</v>
+        <v>323</v>
+      </c>
+      <c r="G322" s="9" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="323" spans="1:7">
       <c r="A323" s="1" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C323" s="4" t="s">
-        <v>146</v>
+      <c r="C323" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="F323" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G323" s="1" t="s">
-        <v>555</v>
+        <v>324</v>
+      </c>
+      <c r="G323" s="9" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="324" spans="1:7">
       <c r="A324" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F324" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G324" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="C326" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E326" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B324" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C324" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F324" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G324" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7">
-      <c r="A325" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F325" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G325" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7">
-      <c r="A326" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C326" s="3" t="s">
-        <v>563</v>
-      </c>
       <c r="F326" s="14" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="G326" s="1" t="s">
         <v>555</v>
@@ -14745,14 +14722,14 @@
       <c r="B327" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C327" s="3" t="s">
-        <v>594</v>
+      <c r="C327" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="F327" s="14" t="s">
-        <v>395</v>
+        <v>75</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>303</v>
+        <v>555</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -14763,13 +14740,13 @@
         <v>4</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="F328" s="14" t="s">
-        <v>323</v>
+        <v>76</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -14780,13 +14757,13 @@
         <v>4</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="F329" s="14" t="s">
-        <v>324</v>
+        <v>142</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>303</v>
+        <v>555</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -14797,169 +14774,181 @@
         <v>4</v>
       </c>
       <c r="C330" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="F330" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="G330" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="F331" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="G331" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F332" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G332" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F333" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C334" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F330" s="14" t="s">
+      <c r="F334" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="G330" s="1" t="s">
+      <c r="G334" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
-      <c r="C331" s="1" t="s">
+    <row r="335" spans="1:7">
+      <c r="C335" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F331" s="14" t="s">
+      <c r="F335" s="14" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
-      <c r="C332" s="1" t="s">
+    <row r="336" spans="1:7">
+      <c r="C336" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F332" s="14" t="s">
+      <c r="F336" s="14" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
-      <c r="C334" s="1" t="s">
+    <row r="338" spans="1:6">
+      <c r="C338" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F334" s="14" t="s">
+      <c r="F338" s="14" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
-      <c r="C337" s="1" t="s">
+    <row r="341" spans="1:6">
+      <c r="C341" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F337" s="14" t="s">
+      <c r="F341" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
-      <c r="A338" s="1" t="s">
+    <row r="342" spans="1:6">
+      <c r="A342" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B338" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C338" s="4" t="s">
+      <c r="B342" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C342" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F338" s="14" t="s">
+      <c r="F342" s="14" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
-      <c r="A339" s="1" t="s">
+    <row r="343" spans="1:6">
+      <c r="A343" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B339" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C339" s="4" t="s">
+      <c r="B343" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C343" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F339" s="14" t="s">
+      <c r="F343" s="14" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6">
-      <c r="A340" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C340" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D340" s="9"/>
-      <c r="E340" s="9"/>
-      <c r="F340" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" ht="27" thickBot="1">
-      <c r="A342" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="B342" s="36"/>
-      <c r="C342" s="36"/>
-      <c r="D342" s="36"/>
-      <c r="E342" s="36"/>
-      <c r="F342" s="37"/>
-    </row>
-    <row r="343" spans="1:6">
-      <c r="C343" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D343" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E343" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F343" s="14" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C344" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D344" s="9"/>
+      <c r="E344" s="9"/>
+      <c r="F344" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="27" thickBot="1">
+      <c r="A346" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="B346" s="48"/>
+      <c r="C346" s="48"/>
+      <c r="D346" s="48"/>
+      <c r="E346" s="48"/>
+      <c r="F346" s="49"/>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="C347" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E347" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B344" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C344" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F344" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6">
-      <c r="A345" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F345" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6">
-      <c r="A346" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F346" s="14" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6">
-      <c r="A347" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="F347" s="14" t="s">
-        <v>566</v>
+        <v>114</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -14969,11 +14958,11 @@
       <c r="B348" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C348" s="1" t="s">
-        <v>194</v>
+      <c r="C348" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="F348" s="14" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -14984,10 +14973,10 @@
         <v>4</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="F349" s="14" t="s">
-        <v>192</v>
+        <v>326</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -14998,80 +14987,80 @@
         <v>4</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>605</v>
+        <v>184</v>
       </c>
       <c r="F350" s="14" t="s">
-        <v>606</v>
+        <v>567</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F351" s="14" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="352" spans="1:6">
+      <c r="A352" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C352" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D352" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E352" s="1" t="s">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="F352" s="14" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="1" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C353" s="2" t="s">
-        <v>150</v>
+      <c r="C353" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="F353" s="14" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F354" s="14" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="C356" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E356" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B354" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F354" s="14" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6">
-      <c r="A355" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F355" s="14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6">
-      <c r="A356" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C356" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="F356" s="14" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -15081,11 +15070,11 @@
       <c r="B357" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C357" s="3" t="s">
-        <v>218</v>
+      <c r="C357" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="F357" s="14" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -15095,11 +15084,11 @@
       <c r="B358" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C358" s="3" t="s">
-        <v>152</v>
+      <c r="C358" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="F358" s="14" t="s">
-        <v>128</v>
+        <v>320</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -15109,11 +15098,11 @@
       <c r="B359" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C359" s="3" t="s">
-        <v>151</v>
+      <c r="C359" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="F359" s="14" t="s">
-        <v>129</v>
+        <v>321</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -15124,10 +15113,10 @@
         <v>4</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="F360" s="14" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -15138,10 +15127,10 @@
         <v>4</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="F361" s="14" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -15152,10 +15141,10 @@
         <v>4</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="F362" s="14" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -15166,468 +15155,468 @@
         <v>4</v>
       </c>
       <c r="C363" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F363" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F364" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F365" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F366" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C367" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F363" s="14" t="s">
+      <c r="F367" s="14" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
-      <c r="C368" s="1" t="s">
+    <row r="372" spans="3:6">
+      <c r="C372" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F368" s="14" t="s">
+      <c r="F372" s="14" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
-      <c r="C369" s="8" t="s">
+    <row r="373" spans="3:6">
+      <c r="C373" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F369" s="14" t="s">
+      <c r="F373" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
-      <c r="C370" s="8" t="s">
+    <row r="374" spans="3:6">
+      <c r="C374" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F370" s="14" t="s">
+      <c r="F374" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
-      <c r="C371" s="3" t="s">
+    <row r="375" spans="3:6">
+      <c r="C375" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F371" s="14" t="s">
+      <c r="F375" s="14" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
-      <c r="C372" s="3"/>
-    </row>
-    <row r="373" spans="1:6">
-      <c r="C373" s="4" t="s">
+    <row r="376" spans="3:6">
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" spans="3:6">
+      <c r="C377" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F373" s="14" t="s">
+      <c r="F377" s="14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
-      <c r="C374" s="1" t="s">
+    <row r="378" spans="3:6">
+      <c r="C378" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F374" s="14" t="s">
+      <c r="F378" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
-      <c r="C376" s="1" t="s">
+    <row r="380" spans="3:6">
+      <c r="C380" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F376" s="14" t="s">
+      <c r="F380" s="14" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
-      <c r="C377" s="1" t="s">
+    <row r="381" spans="3:6">
+      <c r="C381" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F377" s="14" t="s">
+      <c r="F381" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
-      <c r="C378" s="1" t="s">
+    <row r="382" spans="3:6">
+      <c r="C382" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F378" s="14" t="s">
+      <c r="F382" s="14" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
-      <c r="C379" s="1" t="s">
+    <row r="383" spans="3:6">
+      <c r="C383" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F379" s="14" t="s">
+      <c r="F383" s="14" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
-      <c r="C380" s="1" t="s">
+    <row r="384" spans="3:6">
+      <c r="C384" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D380" s="1" t="s">
+      <c r="D384" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E380" s="1" t="s">
+      <c r="E384" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F380" s="14" t="s">
+      <c r="F384" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
-      <c r="A381" s="1" t="s">
+    <row r="385" spans="1:6">
+      <c r="A385" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B381" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C381" s="3" t="s">
+      <c r="B385" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C385" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F381" s="14" t="s">
+      <c r="F385" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
-      <c r="A382" s="1" t="s">
+    <row r="386" spans="1:6">
+      <c r="A386" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B382" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C382" s="1" t="s">
+      <c r="B386" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C386" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="F382" s="14" t="s">
+      <c r="F386" s="14" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
-      <c r="A383" s="1" t="s">
+    <row r="387" spans="1:6">
+      <c r="A387" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B383" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C383" s="3" t="s">
+      <c r="B387" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C387" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="F383" s="14" t="s">
+      <c r="F387" s="14" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
-      <c r="A384" s="1" t="s">
+    <row r="388" spans="1:6">
+      <c r="A388" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B384" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C384" s="3" t="s">
+      <c r="B388" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C388" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="F384" s="14" t="s">
+      <c r="F388" s="14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="27" thickBot="1">
-      <c r="A387" s="36" t="s">
+    <row r="391" spans="1:6" ht="27" thickBot="1">
+      <c r="A391" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="B387" s="36"/>
-      <c r="C387" s="36"/>
-      <c r="D387" s="36"/>
-      <c r="E387" s="36"/>
-      <c r="F387" s="37"/>
-    </row>
-    <row r="388" spans="1:6">
-      <c r="C388" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D388" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E388" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F388" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6">
-      <c r="C389" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F389" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6">
-      <c r="C390" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F390" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6">
-      <c r="C391" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F391" s="14" t="s">
-        <v>229</v>
-      </c>
+      <c r="B391" s="48"/>
+      <c r="C391" s="48"/>
+      <c r="D391" s="48"/>
+      <c r="E391" s="48"/>
+      <c r="F391" s="49"/>
     </row>
     <row r="392" spans="1:6">
       <c r="C392" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="F392" s="14" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="393" spans="1:6">
       <c r="C393" s="1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F393" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="394" spans="1:6">
       <c r="C394" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F394" s="14" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="395" spans="1:6">
       <c r="C395" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F395" s="14" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="396" spans="1:6">
       <c r="C396" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F396" s="14" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="397" spans="1:6">
-      <c r="C397" s="3" t="s">
-        <v>226</v>
+      <c r="C397" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="F397" s="14" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="C398" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F398" s="14" t="s">
-        <v>245</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="C399" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F399" s="14" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="C400" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="F400" s="14" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="401" spans="1:6">
-      <c r="C401" s="1" t="s">
-        <v>256</v>
+      <c r="C401" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="F401" s="14" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
     </row>
     <row r="402" spans="1:6">
       <c r="C402" s="1" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="F402" s="14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6">
-      <c r="C403" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F403" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="C404" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F404" s="14" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="405" spans="1:6">
       <c r="C405" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6" ht="27" thickBot="1">
-      <c r="A408" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="B408" s="36"/>
-      <c r="C408" s="36"/>
-      <c r="D408" s="36"/>
-      <c r="E408" s="36"/>
-      <c r="F408" s="37"/>
+        <v>256</v>
+      </c>
+      <c r="F405" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="C406" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F406" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
+      <c r="C407" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F407" s="14" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="409" spans="1:6">
       <c r="C409" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" ht="27" thickBot="1">
+      <c r="A412" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="B412" s="48"/>
+      <c r="C412" s="48"/>
+      <c r="D412" s="48"/>
+      <c r="E412" s="48"/>
+      <c r="F412" s="49"/>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="C413" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F409" s="14" t="s">
+      <c r="F413" s="14" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
-      <c r="C410" s="25"/>
-      <c r="D410" s="25"/>
-      <c r="E410" s="25"/>
-      <c r="F410" s="27"/>
-    </row>
-    <row r="411" spans="1:6">
-      <c r="C411" s="13" t="s">
+    <row r="414" spans="1:6">
+      <c r="C414" s="25"/>
+      <c r="D414" s="25"/>
+      <c r="E414" s="25"/>
+      <c r="F414" s="27"/>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="C415" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="D411" s="13" t="s">
+      <c r="D415" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E411" s="13" t="s">
+      <c r="E415" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F411" s="21" t="s">
+      <c r="F415" s="21" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
-      <c r="A412" s="1" t="s">
+    <row r="416" spans="1:6">
+      <c r="A416" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B412" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C412" s="3" t="s">
+      <c r="B416" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C416" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F412" s="14" t="s">
+      <c r="F416" s="14" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6">
-      <c r="C414" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="D414" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E414" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F414" s="15" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="415" spans="1:6">
-      <c r="A415" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C415" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="F415" s="14" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6">
-      <c r="C417" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D417" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E417" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F417" s="22" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="418" spans="1:6">
       <c r="C418" s="13" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="D418" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E418" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="F418" s="21" t="s">
-        <v>531</v>
+        <v>29</v>
+      </c>
+      <c r="F418" s="15" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C419" s="10" t="s">
-        <v>275</v>
+      <c r="C419" s="8" t="s">
+        <v>291</v>
       </c>
       <c r="F419" s="14" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6">
-      <c r="A420" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C420" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F420" s="14" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="421" spans="1:6">
-      <c r="A421" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B421" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C421" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="F421" s="14" t="s">
-        <v>543</v>
+      <c r="C421" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F421" s="22" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="422" spans="1:6">
-      <c r="A422" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C422" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F422" s="14" t="s">
-        <v>536</v>
+      <c r="C422" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="D422" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E422" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="F422" s="21" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -15637,11 +15626,11 @@
       <c r="B423" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C423" s="12" t="s">
-        <v>281</v>
+      <c r="C423" s="10" t="s">
+        <v>275</v>
       </c>
       <c r="F423" s="14" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -15651,11 +15640,11 @@
       <c r="B424" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C424" s="8" t="s">
-        <v>541</v>
+      <c r="C424" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="F424" s="14" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -15665,11 +15654,11 @@
       <c r="B425" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C425" s="8" t="s">
-        <v>279</v>
+      <c r="C425" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="F425" s="14" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -15679,11 +15668,11 @@
       <c r="B426" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C426" s="8" t="s">
-        <v>273</v>
+      <c r="C426" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="F426" s="14" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -15693,99 +15682,155 @@
       <c r="B427" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C427" s="8" t="s">
-        <v>274</v>
+      <c r="C427" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="F427" s="14" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="428" spans="1:6">
-      <c r="C428" s="8"/>
+      <c r="A428" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C428" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="F428" s="14" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="429" spans="1:6">
-      <c r="C429" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D429" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E429" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="F429" s="21" t="s">
-        <v>547</v>
+      <c r="A429" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C429" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F429" s="14" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="430" spans="1:6">
       <c r="A430" s="1" t="s">
-        <v>290</v>
+        <v>6</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C430" s="1" t="s">
-        <v>287</v>
+      <c r="C430" s="8" t="s">
+        <v>273</v>
       </c>
       <c r="F430" s="14" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="431" spans="1:6">
       <c r="A431" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C431" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F431" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
+      <c r="C432" s="8"/>
+    </row>
+    <row r="433" spans="1:7">
+      <c r="C433" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D433" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E433" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="B431" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C431" s="1" t="s">
+      <c r="F433" s="21" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
+      <c r="A434" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F434" s="14" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7">
+      <c r="A435" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C435" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F431" s="14" t="s">
+      <c r="F435" s="14" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
-      <c r="A432" s="1" t="s">
+    <row r="436" spans="1:7">
+      <c r="A436" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B432" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C432" s="1" t="s">
+      <c r="B436" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C436" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F432" s="14" t="s">
+      <c r="F436" s="14" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="434" spans="7:7">
-      <c r="G434" s="29"/>
-    </row>
-    <row r="435" spans="7:7">
-      <c r="G435" s="29"/>
-    </row>
-    <row r="436" spans="7:7">
-      <c r="G436" s="29"/>
-    </row>
-    <row r="437" spans="7:7">
-      <c r="G437" s="29"/>
+    <row r="438" spans="1:7">
+      <c r="G438" s="29"/>
+    </row>
+    <row r="439" spans="1:7">
+      <c r="G439" s="29"/>
+    </row>
+    <row r="440" spans="1:7">
+      <c r="G440" s="29"/>
+    </row>
+    <row r="441" spans="1:7">
+      <c r="G441" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A408:F408"/>
-    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A391:F391"/>
+    <mergeCell ref="A346:F346"/>
+    <mergeCell ref="A299:F299"/>
+    <mergeCell ref="A237:F237"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A191:F191"/>
+    <mergeCell ref="A412:F412"/>
+    <mergeCell ref="A93:F93"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A65:F65"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A387:F387"/>
-    <mergeCell ref="A342:F342"/>
-    <mergeCell ref="A295:F295"/>
-    <mergeCell ref="A233:F233"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A187:F187"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
@@ -15793,6 +15838,7 @@
     <hyperlink ref="C47" r:id="rId2" xr:uid="{8FEBFFA0-65F0-C94E-A945-BF15764D7B98}"/>
     <hyperlink ref="C55" r:id="rId3" xr:uid="{CEA14D0A-87C8-274A-9647-A0DB1ECDC68C}"/>
     <hyperlink ref="C59" r:id="rId4" xr:uid="{FFF8DE63-7BA6-4A43-A6EA-14148CA232CF}"/>
+    <hyperlink ref="C62" r:id="rId5" location="create-a-personal-access-token" xr:uid="{AB8032BB-3EF1-9149-805A-CEDF3BF2A5E6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/git-terminal-commands.xlsx
+++ b/git-terminal-commands.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Goofy/GIT/steves-git-shortcuts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031CA0AE-1631-6B4D-BDDF-20F38C398F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FC1AE5-2DA4-C845-BC53-08933543CC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="460" windowWidth="34960" windowHeight="28340" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
+    <workbookView xWindow="54260" yWindow="460" windowWidth="34960" windowHeight="28340" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$93:$F$388</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$96:$F$391</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="658">
   <si>
     <t>Configuration</t>
   </si>
@@ -10256,6 +10256,12 @@
   </si>
   <si>
     <t>Instructions to create a PAC on github.com</t>
+  </si>
+  <si>
+    <t>Bitbucket</t>
+  </si>
+  <si>
+    <t>Bitbucket only requires the account password for access</t>
   </si>
 </sst>
 </file>
@@ -10633,7 +10639,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10704,6 +10710,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11023,10 +11032,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G441"/>
+  <dimension ref="A1:G444"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="33" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11565,7 +11574,7 @@
     </row>
     <row r="55" spans="1:6" ht="27">
       <c r="A55" s="33"/>
-      <c r="C55" s="41" t="s">
+      <c r="C55" s="57" t="s">
         <v>641</v>
       </c>
       <c r="F55" s="47" t="s">
@@ -11642,414 +11651,397 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="33"/>
-    </row>
-    <row r="65" spans="1:6" ht="27" thickBot="1">
-      <c r="A65" s="48" t="s">
+      <c r="C64" s="56"/>
+      <c r="F64" s="55"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="33"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="21" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="33"/>
+      <c r="C66" s="56" t="s">
+        <v>646</v>
+      </c>
+      <c r="F66" s="55" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="33"/>
+      <c r="C67" s="56"/>
+      <c r="F67" s="55"/>
+    </row>
+    <row r="68" spans="1:6" ht="27" thickBot="1">
+      <c r="A68" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="48"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="49"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="C66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="C67" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="C68" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>449</v>
-      </c>
+      <c r="B68" s="48"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="49"/>
     </row>
     <row r="69" spans="1:6">
       <c r="C69" s="1" t="s">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="C70" s="1" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="C71" s="1" t="s">
-        <v>11</v>
+        <v>552</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="C72" s="1" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="C73" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="C74" s="1" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="17">
-      <c r="C75" s="9" t="s">
-        <v>612</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="C75" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="C76" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="C77" s="1" t="s">
-        <v>456</v>
+        <v>109</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="C78" s="1" t="s">
-        <v>65</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="17">
+      <c r="C78" s="9" t="s">
+        <v>612</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="C79" s="1" t="s">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="C80" s="1" t="s">
-        <v>158</v>
+        <v>456</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="20"/>
-    </row>
-    <row r="82" spans="1:6" ht="27" thickBot="1">
-      <c r="A82" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B82" s="48"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="48"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="49"/>
+      <c r="C81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="C82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="83" spans="1:6">
       <c r="C83" s="1" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="C84" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" s="14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="C85" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F85" s="14" t="s">
-        <v>459</v>
-      </c>
+      <c r="A84" s="20"/>
+    </row>
+    <row r="85" spans="1:6" ht="27" thickBot="1">
+      <c r="A85" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="48"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="49"/>
     </row>
     <row r="86" spans="1:6">
       <c r="C86" s="1" t="s">
-        <v>301</v>
+        <v>17</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="C87" s="1" t="s">
-        <v>302</v>
+        <v>18</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="C88" s="1" t="s">
-        <v>303</v>
+        <v>19</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="C89" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="C90" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="C91" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="C92" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="C93" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F90" s="14" t="s">
+      <c r="F93" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="C91" s="3" t="s">
+    <row r="94" spans="1:6">
+      <c r="C94" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F91" s="14" t="s">
+      <c r="F94" s="14" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="27" thickBot="1">
-      <c r="A93" s="48" t="s">
+    <row r="96" spans="1:6" ht="27" thickBot="1">
+      <c r="A96" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B93" s="48"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="48"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="C94" s="1" t="s">
+      <c r="B96" s="48"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="48"/>
+    </row>
+    <row r="97" spans="3:6">
+      <c r="C97" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F94" s="14" t="s">
+      <c r="F97" s="14" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="C95" s="1" t="s">
+    <row r="98" spans="3:6">
+      <c r="C98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F95" s="14" t="s">
+      <c r="F98" s="14" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
-      <c r="C96" s="1" t="s">
+    <row r="99" spans="3:6">
+      <c r="C99" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F96" s="14" t="s">
+      <c r="F99" s="14" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
-      <c r="C97" s="1" t="s">
+    <row r="100" spans="3:6">
+      <c r="C100" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F97" s="14" t="s">
+      <c r="F100" s="14" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="C98" s="1" t="s">
+    <row r="101" spans="3:6">
+      <c r="C101" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F98" s="14" t="s">
+      <c r="F101" s="14" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="C99" s="1" t="s">
+    <row r="102" spans="3:6">
+      <c r="C102" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F99" s="14" t="s">
+      <c r="F102" s="14" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
-      <c r="C100" s="1" t="s">
+    <row r="103" spans="3:6">
+      <c r="C103" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F100" s="14" t="s">
+      <c r="F103" s="14" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="C101" s="1" t="s">
+    <row r="104" spans="3:6">
+      <c r="C104" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F101" s="14" t="s">
+      <c r="F104" s="14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
-      <c r="C102" s="1" t="s">
+    <row r="105" spans="3:6">
+      <c r="C105" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F102" s="14" t="s">
+      <c r="F105" s="14" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="C103" s="1" t="s">
+    <row r="106" spans="3:6">
+      <c r="C106" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F103" s="14" t="s">
+      <c r="F106" s="14" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
-      <c r="C104" s="11" t="s">
+    <row r="107" spans="3:6">
+      <c r="C107" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F104" s="14" t="s">
+      <c r="F107" s="14" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="C105" s="11" t="s">
+    <row r="108" spans="3:6">
+      <c r="C108" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="F105" s="14" t="s">
+      <c r="F108" s="14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
-      <c r="C106" s="1" t="s">
+    <row r="109" spans="3:6">
+      <c r="C109" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F106" s="14" t="s">
+      <c r="F109" s="14" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
-      <c r="C107" s="1" t="s">
+    <row r="110" spans="3:6">
+      <c r="C110" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F107" s="14" t="s">
+      <c r="F110" s="14" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
-      <c r="C108" s="1" t="s">
+    <row r="111" spans="3:6">
+      <c r="C111" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F108" s="14" t="s">
+      <c r="F111" s="14" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
-      <c r="C109" s="1" t="s">
+    <row r="112" spans="3:6">
+      <c r="C112" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F109" s="14" t="s">
+      <c r="F112" s="14" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
-      <c r="C111" s="13" t="s">
+    <row r="114" spans="1:6">
+      <c r="C114" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="D111" s="13" t="s">
+      <c r="D114" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E111" s="13" t="s">
+      <c r="E114" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="F111" s="21" t="s">
+      <c r="F114" s="21" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F112" s="14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F113" s="14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F114" s="14" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -12060,10 +12052,10 @@
         <v>4</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -12074,10 +12066,10 @@
         <v>4</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>252</v>
+        <v>167</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -12088,66 +12080,66 @@
         <v>4</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>253</v>
+        <v>168</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>345</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="C119" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E119" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F119" s="21" t="s">
-        <v>378</v>
+      <c r="A119" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="C122" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F120" s="14" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F121" s="14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F122" s="14" t="s">
-        <v>349</v>
+      <c r="F122" s="21" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -12158,10 +12150,10 @@
         <v>4</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>293</v>
+        <v>64</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -12172,10 +12164,10 @@
         <v>4</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>159</v>
+        <v>292</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -12186,87 +12178,87 @@
         <v>4</v>
       </c>
       <c r="C125" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F125" s="14" t="s">
+      <c r="F128" s="14" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
-      <c r="C126" s="3"/>
-    </row>
-    <row r="127" spans="1:6" ht="27" thickBot="1">
-      <c r="A127" s="48" t="s">
+    <row r="129" spans="1:6">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="1:6" ht="27" thickBot="1">
+      <c r="A130" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B127" s="48"/>
-      <c r="C127" s="48"/>
-      <c r="D127" s="48"/>
-      <c r="E127" s="48"/>
-      <c r="F127" s="49"/>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="C128" s="1" t="s">
+      <c r="B130" s="48"/>
+      <c r="C130" s="48"/>
+      <c r="D130" s="48"/>
+      <c r="E130" s="48"/>
+      <c r="F130" s="49"/>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="C131" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F128" s="14" t="s">
+      <c r="F131" s="14" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
-      <c r="C130" s="13" t="s">
+    <row r="133" spans="1:6">
+      <c r="C133" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="D130" s="13" t="s">
+      <c r="D133" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E130" s="13" t="s">
+      <c r="E133" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F130" s="15" t="s">
+      <c r="F133" s="15" t="s">
         <v>353</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F131" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F132" s="31" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F133" s="14" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -12277,10 +12269,10 @@
         <v>4</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>70</v>
+        <v>248</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -12291,15 +12283,24 @@
         <v>4</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F135" s="14" t="s">
-        <v>356</v>
+        <v>185</v>
+      </c>
+      <c r="F135" s="31" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="C136" s="6" t="s">
-        <v>69</v>
+      <c r="A136" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -12310,10 +12311,10 @@
         <v>4</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -12324,24 +12325,15 @@
         <v>4</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F139" s="14" t="s">
-        <v>384</v>
+      <c r="C139" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -12352,10 +12344,10 @@
         <v>4</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -12366,10 +12358,10 @@
         <v>4</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>468</v>
+        <v>62</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -12380,10 +12372,10 @@
         <v>4</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -12394,10 +12386,10 @@
         <v>4</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -12408,10 +12400,10 @@
         <v>4</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>57</v>
+        <v>468</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -12422,10 +12414,10 @@
         <v>4</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -12436,10 +12428,10 @@
         <v>4</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -12449,11 +12441,11 @@
       <c r="B147" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C147" s="5" t="s">
-        <v>66</v>
+      <c r="C147" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -12463,58 +12455,58 @@
       <c r="B148" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C148" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F150" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F148" s="14" t="s">
+      <c r="F151" s="14" t="s">
         <v>391</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="C150" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F150" s="22" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="C151" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F151" s="14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="C152" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F152" s="14" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="C153" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>5</v>
@@ -12523,77 +12515,77 @@
         <v>1</v>
       </c>
       <c r="F153" s="22" t="s">
-        <v>414</v>
+        <v>234</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="C154" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="F154" s="14" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="C155" s="13" t="s">
+      <c r="C155" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F155" s="14" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="C156" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F156" s="22" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="C157" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="C158" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D155" s="13" t="s">
+      <c r="D158" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E155" s="13" t="s">
+      <c r="E158" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F155" s="15" t="s">
+      <c r="F158" s="15" t="s">
         <v>420</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F156" s="14" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F157" s="14" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F158" s="14" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -12604,10 +12596,10 @@
         <v>4</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -12618,10 +12610,10 @@
         <v>4</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F160" s="14" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -12632,10 +12624,10 @@
         <v>4</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>473</v>
+        <v>415</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -12645,11 +12637,11 @@
       <c r="B162" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>90</v>
+      <c r="C162" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -12659,11 +12651,11 @@
       <c r="B163" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>91</v>
+      <c r="C163" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -12674,10 +12666,10 @@
         <v>4</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>481</v>
+        <v>417</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -12688,10 +12680,10 @@
         <v>4</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -12701,11 +12693,11 @@
       <c r="B166" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>93</v>
+      <c r="C166" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -12716,10 +12708,10 @@
         <v>4</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>94</v>
+        <v>481</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -12730,10 +12722,10 @@
         <v>4</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -12744,10 +12736,10 @@
         <v>4</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>482</v>
+        <v>93</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -12758,10 +12750,10 @@
         <v>4</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>483</v>
+        <v>94</v>
       </c>
       <c r="F170" s="14" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -12771,11 +12763,11 @@
       <c r="B171" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C171" s="4" t="s">
-        <v>207</v>
+      <c r="C171" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="F171" s="14" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -12785,11 +12777,11 @@
       <c r="B172" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C172" s="4" t="s">
-        <v>208</v>
+      <c r="C172" s="1" t="s">
+        <v>482</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -12800,66 +12792,66 @@
         <v>4</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>209</v>
+        <v>483</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F174" s="14" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="C175" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="D175" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E175" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="F175" s="21" t="s">
-        <v>426</v>
+      <c r="A175" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F175" s="14" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F176" s="14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="C178" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="D178" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E178" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="F176" s="14" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="F177" s="14" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C178" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="F178" s="14" t="s">
-        <v>491</v>
+      <c r="F178" s="21" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -12870,94 +12862,94 @@
         <v>4</v>
       </c>
       <c r="C179" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="F179" s="14" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="F180" s="14" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F181" s="14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="F179" s="14" t="s">
+      <c r="F182" s="14" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
-      <c r="C181" s="8" t="s">
+    <row r="184" spans="1:6">
+      <c r="C184" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="E184" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F181" s="22" t="s">
+      <c r="F184" s="22" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
-      <c r="C182" s="26" t="s">
+    <row r="185" spans="1:6">
+      <c r="C185" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="D182" s="25" t="s">
+      <c r="D185" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E182" s="25" t="s">
+      <c r="E185" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F182" s="27" t="s">
+      <c r="F185" s="27" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
-      <c r="C183" s="8" t="s">
+    <row r="186" spans="1:6">
+      <c r="C186" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="E186" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F183" s="22" t="s">
+      <c r="F186" s="22" t="s">
         <v>497</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C184" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="F184" s="14" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C185" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="F185" s="14" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="F186" s="14" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -12967,11 +12959,11 @@
       <c r="B187" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C187" s="5" t="s">
-        <v>309</v>
+      <c r="C187" s="12" t="s">
+        <v>306</v>
       </c>
       <c r="F187" s="14" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -12981,11 +12973,11 @@
       <c r="B188" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C188" s="5" t="s">
-        <v>312</v>
+      <c r="C188" s="12" t="s">
+        <v>307</v>
       </c>
       <c r="F188" s="14" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -12996,153 +12988,135 @@
         <v>4</v>
       </c>
       <c r="C189" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F189" s="14" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F190" s="14" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F191" s="14" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="F189" s="14" t="s">
+      <c r="F192" s="14" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
-      <c r="C190" s="3"/>
-    </row>
-    <row r="191" spans="1:6" ht="27" thickBot="1">
-      <c r="A191" s="48" t="s">
+    <row r="193" spans="1:6">
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="1:6" ht="27" thickBot="1">
+      <c r="A194" s="48" t="s">
         <v>433</v>
       </c>
-      <c r="B191" s="48"/>
-      <c r="C191" s="48"/>
-      <c r="D191" s="48"/>
-      <c r="E191" s="48"/>
-      <c r="F191" s="48"/>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="C192" s="8" t="s">
+      <c r="B194" s="48"/>
+      <c r="C194" s="48"/>
+      <c r="D194" s="48"/>
+      <c r="E194" s="48"/>
+      <c r="F194" s="48"/>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="C195" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="F192" s="28" t="s">
+      <c r="F195" s="28" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
-      <c r="F193" s="1"/>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="C194" s="13" t="s">
+    <row r="196" spans="1:6">
+      <c r="F196" s="1"/>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="C197" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D194" s="13" t="s">
+      <c r="D197" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E194" s="13" t="s">
+      <c r="E197" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F194" s="21" t="s">
+      <c r="F197" s="21" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
-      <c r="A195" s="1" t="s">
+    <row r="198" spans="1:6">
+      <c r="A198" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C195" s="8" t="s">
+      <c r="B198" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="F195" s="14" t="s">
+      <c r="F198" s="14" t="s">
         <v>508</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="F196" s="14" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="F197" s="1"/>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="C198" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="D198" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E198" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="F198" s="21" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F199" s="14" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="F200" s="1"/>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="C201" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="D201" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E201" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="F199" s="14" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="F200" s="14" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C201" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="F201" s="14" t="s">
-        <v>511</v>
+      <c r="F201" s="21" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -13152,8 +13126,8 @@
       <c r="B202" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C202" s="11" t="s">
-        <v>514</v>
+      <c r="C202" s="8" t="s">
+        <v>266</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>5</v>
@@ -13162,7 +13136,7 @@
         <v>513</v>
       </c>
       <c r="F202" s="14" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -13173,7 +13147,7 @@
         <v>4</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>5</v>
@@ -13182,7 +13156,7 @@
         <v>513</v>
       </c>
       <c r="F203" s="14" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -13192,104 +13166,122 @@
       <c r="B204" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C204" s="24" t="s">
-        <v>515</v>
-      </c>
-      <c r="D204" s="13" t="s">
+      <c r="C204" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E204" s="13" t="s">
+      <c r="E204" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="F204" s="15" t="s">
-        <v>516</v>
+      <c r="F204" s="14" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E205" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C205" s="8" t="s">
-        <v>558</v>
-      </c>
       <c r="F205" s="14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E206" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C206" s="8" t="s">
-        <v>559</v>
-      </c>
       <c r="F206" s="14" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="C207" s="8"/>
+      <c r="A207" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C207" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="D207" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E207" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="F207" s="15" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="C208" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="D208" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E208" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="F208" s="21" t="s">
-        <v>427</v>
+      <c r="A208" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="F208" s="14" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="F209" s="14" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="C210" s="8"/>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="C211" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="D211" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E211" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C209" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="F209" s="14" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C210" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="F210" s="14" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C211" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="F211" s="14" t="s">
-        <v>523</v>
+      <c r="F211" s="21" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -13299,67 +13291,67 @@
       <c r="B212" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C212" s="8" t="s">
-        <v>430</v>
+      <c r="C212" s="11" t="s">
+        <v>428</v>
       </c>
       <c r="F212" s="14" t="s">
-        <v>524</v>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="F213" s="14" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="C214" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="D214" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E214" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F214" s="21" t="s">
-        <v>380</v>
+      <c r="A214" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F214" s="14" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="F215" s="14" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="C217" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="D217" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E217" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F215" s="14" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F216" s="14" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F217" s="14" t="s">
-        <v>360</v>
+      <c r="F217" s="21" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -13370,10 +13362,10 @@
         <v>4</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F218" s="14" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -13384,10 +13376,10 @@
         <v>4</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>249</v>
+        <v>102</v>
       </c>
       <c r="F219" s="14" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -13398,10 +13390,10 @@
         <v>4</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F220" s="14" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -13412,10 +13404,10 @@
         <v>4</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F221" s="14" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -13426,10 +13418,10 @@
         <v>4</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>107</v>
+        <v>249</v>
       </c>
       <c r="F222" s="14" t="s">
-        <v>525</v>
+        <v>362</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -13440,10 +13432,10 @@
         <v>4</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F223" s="14" t="s">
-        <v>526</v>
+        <v>393</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -13453,14 +13445,14 @@
       <c r="B224" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C224" s="7" t="s">
-        <v>109</v>
+      <c r="C224" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="F224" s="14" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" s="1" t="s">
         <v>1</v>
       </c>
@@ -13468,194 +13460,203 @@
         <v>4</v>
       </c>
       <c r="C225" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F225" s="14" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F226" s="14" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F227" s="14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F225" s="14" t="s">
+      <c r="F228" s="14" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
-      <c r="C226" s="8"/>
-    </row>
-    <row r="227" spans="1:7">
-      <c r="C227" s="24" t="s">
+    <row r="229" spans="1:6">
+      <c r="C229" s="8"/>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="C230" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="D227" s="13" t="s">
+      <c r="D230" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E227" s="13" t="s">
+      <c r="E230" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="F227" s="15"/>
-    </row>
-    <row r="228" spans="1:7">
-      <c r="A228" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C228" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="F228" s="14" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F229" s="14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F230" s="14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
+      <c r="F230" s="15"/>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C231" s="3" t="s">
-        <v>210</v>
+      <c r="C231" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="F231" s="14" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C232" s="23" t="s">
+      <c r="C232" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F232" s="14" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F233" s="14" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F234" s="14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D232" s="13" t="s">
+      <c r="D235" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E232" s="13" t="s">
+      <c r="E235" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="F232" s="15" t="s">
+      <c r="F235" s="15" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
-      <c r="A233" s="1" t="s">
+    <row r="236" spans="1:6">
+      <c r="A236" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B233" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C233" s="1" t="s">
+      <c r="B236" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F233" s="14" t="s">
+      <c r="F236" s="14" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
-      <c r="A234" s="1" t="s">
+    <row r="237" spans="1:6">
+      <c r="A237" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B234" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C234" s="3" t="s">
+      <c r="B237" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C237" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F234" s="14" t="s">
+      <c r="F237" s="14" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
-      <c r="A235" s="1" t="s">
+    <row r="238" spans="1:6">
+      <c r="A238" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B235" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C235" s="3" t="s">
+      <c r="B238" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F235" s="14" t="s">
+      <c r="F238" s="14" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="27" thickBot="1">
-      <c r="A237" s="48" t="s">
+    <row r="240" spans="1:6" ht="27" thickBot="1">
+      <c r="A240" s="48" t="s">
         <v>593</v>
       </c>
-      <c r="B237" s="48"/>
-      <c r="C237" s="48"/>
-      <c r="D237" s="48"/>
-      <c r="E237" s="48"/>
-      <c r="F237" s="49"/>
-    </row>
-    <row r="238" spans="1:7">
-      <c r="C238" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F238" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="G238" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
-      <c r="C239" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F239" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="G239" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
-      <c r="C240" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F240" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="G240" t="s">
-        <v>555</v>
-      </c>
+      <c r="B240" s="48"/>
+      <c r="C240" s="48"/>
+      <c r="D240" s="48"/>
+      <c r="E240" s="48"/>
+      <c r="F240" s="49"/>
     </row>
     <row r="241" spans="1:7">
       <c r="C241" s="1" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="F241" s="14" t="s">
-        <v>331</v>
+        <v>565</v>
       </c>
       <c r="G241" t="s">
         <v>555</v>
@@ -13663,112 +13664,111 @@
     </row>
     <row r="242" spans="1:7">
       <c r="C242" s="1" t="s">
-        <v>181</v>
+        <v>34</v>
       </c>
       <c r="F242" s="14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G242" t="s">
         <v>555</v>
       </c>
     </row>
+    <row r="243" spans="1:7">
+      <c r="C243" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F243" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="G243" t="s">
+        <v>555</v>
+      </c>
+    </row>
     <row r="244" spans="1:7">
       <c r="C244" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="F244" s="14" t="s">
-        <v>581</v>
-      </c>
-      <c r="G244" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G244" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="C245" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D245" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F245" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="G245" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="C247" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D247" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E245" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F245" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="G245" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7">
-      <c r="A246" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="F246" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="G246" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7">
-      <c r="A247" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>569</v>
+      <c r="E247" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F247" s="14" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="248" spans="1:7">
-      <c r="A248" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C248" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F248" s="14" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>555</v>
       </c>
     </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="F249" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
     <row r="250" spans="1:7">
-      <c r="C250" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="F250" s="22" t="s">
-        <v>557</v>
+      <c r="A250" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="F250" s="14" t="s">
+        <v>573</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>555</v>
@@ -13776,106 +13776,89 @@
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="1" t="s">
-        <v>554</v>
+        <v>6</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C251" s="30" t="s">
-        <v>556</v>
+      <c r="C251" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="F251" s="14" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
-      <c r="A252" s="1" t="s">
+    <row r="253" spans="1:7">
+      <c r="C253" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E253" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B252" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="F252" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="G252" s="1" t="s">
+      <c r="F253" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="G253" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
-      <c r="G253" s="1"/>
-    </row>
     <row r="254" spans="1:7">
-      <c r="C254" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>40</v>
+      <c r="A254" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C254" s="30" t="s">
+        <v>556</v>
       </c>
       <c r="F254" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="G254" s="1"/>
+        <v>583</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F255" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="G256" s="1"/>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="C257" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E257" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B255" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F255" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G255" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7">
-      <c r="A256" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F256" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G256" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
-      <c r="A257" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="F257" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G257" s="1" t="s">
-        <v>303</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="G257" s="1"/>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="1" t="s">
@@ -13884,14 +13867,14 @@
       <c r="B258" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C258" s="3" t="s">
-        <v>563</v>
+      <c r="C258" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="F258" s="14" t="s">
-        <v>570</v>
+        <v>75</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>555</v>
+        <v>303</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -13902,13 +13885,13 @@
         <v>4</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>564</v>
+        <v>177</v>
       </c>
       <c r="F259" s="14" t="s">
-        <v>597</v>
+        <v>76</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>555</v>
+        <v>303</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -13919,13 +13902,13 @@
         <v>4</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="F260" s="14" t="s">
-        <v>323</v>
+        <v>142</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>555</v>
+        <v>303</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -13936,10 +13919,10 @@
         <v>4</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>599</v>
+        <v>563</v>
       </c>
       <c r="F261" s="14" t="s">
-        <v>598</v>
+        <v>570</v>
       </c>
       <c r="G261" s="1" t="s">
         <v>555</v>
@@ -13953,90 +13936,90 @@
         <v>4</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>250</v>
+        <v>564</v>
       </c>
       <c r="F262" s="14" t="s">
-        <v>251</v>
+        <v>597</v>
       </c>
       <c r="G262" s="1" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="263" spans="1:7">
-      <c r="G263" s="1"/>
+      <c r="A263" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F263" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="264" spans="1:7">
-      <c r="G264" s="1"/>
+      <c r="A264" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F264" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="265" spans="1:7">
-      <c r="G265" s="1"/>
+      <c r="A265" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F265" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="266" spans="1:7">
       <c r="G266" s="1"/>
     </row>
+    <row r="267" spans="1:7">
+      <c r="G267" s="1"/>
+    </row>
     <row r="268" spans="1:7">
-      <c r="C268" s="1" t="s">
+      <c r="G268" s="1"/>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="G269" s="1"/>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="C271" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D268" s="1" t="s">
+      <c r="D271" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E268" s="1" t="s">
+      <c r="E271" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F268" s="14" t="s">
+      <c r="F271" s="14" t="s">
         <v>601</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7">
-      <c r="A269" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C269" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F269" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G269" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7">
-      <c r="A270" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F270" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G270" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7">
-      <c r="A271" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F271" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G271" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -14046,14 +14029,14 @@
       <c r="B272" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C272" s="3" t="s">
-        <v>563</v>
+      <c r="C272" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="F272" s="14" t="s">
-        <v>570</v>
+        <v>75</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>555</v>
+        <v>303</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -14064,13 +14047,13 @@
         <v>4</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>564</v>
+        <v>147</v>
       </c>
       <c r="F273" s="14" t="s">
-        <v>597</v>
+        <v>76</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>555</v>
+        <v>303</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -14081,13 +14064,13 @@
         <v>4</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="F274" s="14" t="s">
-        <v>323</v>
+        <v>142</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>555</v>
+        <v>303</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -14098,10 +14081,10 @@
         <v>4</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>599</v>
+        <v>563</v>
       </c>
       <c r="F275" s="14" t="s">
-        <v>598</v>
+        <v>570</v>
       </c>
       <c r="G275" s="1" t="s">
         <v>555</v>
@@ -14115,151 +14098,151 @@
         <v>4</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>250</v>
+        <v>564</v>
       </c>
       <c r="F276" s="14" t="s">
-        <v>251</v>
+        <v>597</v>
       </c>
       <c r="G276" s="1" t="s">
         <v>555</v>
       </c>
     </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F277" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F278" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
     <row r="279" spans="1:7">
-      <c r="C279" s="1" t="s">
+      <c r="A279" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F279" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="C282" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D279" s="1" t="s">
+      <c r="D282" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E279" s="1" t="s">
+      <c r="E282" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F279" s="14" t="s">
+      <c r="F282" s="14" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
-      <c r="C280" s="1" t="s">
+    <row r="283" spans="1:7">
+      <c r="C283" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D280" s="1" t="s">
+      <c r="D283" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E280" s="1" t="s">
+      <c r="E283" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F280" s="14" t="s">
+      <c r="F283" s="14" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
-      <c r="A281" s="1" t="s">
+    <row r="284" spans="1:7">
+      <c r="A284" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B281" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C281" s="1" t="s">
+      <c r="B284" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F281" s="14" t="s">
+      <c r="F284" s="14" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
-      <c r="A282" s="1" t="s">
+    <row r="285" spans="1:7">
+      <c r="A285" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B282" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C282" s="1" t="s">
+      <c r="B285" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C285" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F282" s="14" t="s">
+      <c r="F285" s="14" t="s">
         <v>576</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7">
-      <c r="A283" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F283" s="14" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
-      <c r="C284" s="3"/>
-    </row>
-    <row r="285" spans="1:7">
-      <c r="C285" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F285" s="22" t="s">
-        <v>539</v>
-      </c>
-      <c r="G285" s="1" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F286" s="14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="C288" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E288" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B286" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F286" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="G286" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7">
-      <c r="A287" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F287" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="G287" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7">
-      <c r="A288" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C288" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F288" s="14" t="s">
-        <v>585</v>
+      <c r="F288" s="22" t="s">
+        <v>539</v>
       </c>
       <c r="G288" s="1" t="s">
         <v>555</v>
@@ -14272,11 +14255,11 @@
       <c r="B289" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C289" s="3" t="s">
-        <v>84</v>
+      <c r="C289" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F289" s="14" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G289" s="1" t="s">
         <v>555</v>
@@ -14290,10 +14273,10 @@
         <v>4</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>248</v>
+        <v>82</v>
       </c>
       <c r="F290" s="14" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G290" s="1" t="s">
         <v>555</v>
@@ -14307,10 +14290,10 @@
         <v>4</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>595</v>
+        <v>83</v>
       </c>
       <c r="F291" s="14" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="G291" s="1" t="s">
         <v>555</v>
@@ -14324,127 +14307,136 @@
         <v>4</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>291</v>
+        <v>84</v>
       </c>
       <c r="F292" s="14" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G292" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
-      <c r="C296" s="2"/>
-    </row>
-    <row r="297" spans="1:7">
-      <c r="C297" s="2"/>
-    </row>
-    <row r="299" spans="1:7" ht="27" thickBot="1">
-      <c r="A299" s="48" t="s">
+    <row r="293" spans="1:7">
+      <c r="A293" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F293" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="F294" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F295" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="C299" s="2"/>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="C300" s="2"/>
+    </row>
+    <row r="302" spans="1:7" ht="27" thickBot="1">
+      <c r="A302" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="B299" s="48"/>
-      <c r="C299" s="48"/>
-      <c r="D299" s="48"/>
-      <c r="E299" s="48"/>
-      <c r="F299" s="49"/>
-    </row>
-    <row r="302" spans="1:7">
-      <c r="C302" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D302" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E302" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F302" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7">
-      <c r="C303" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F303" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7">
-      <c r="C304" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F304" s="14" t="s">
-        <v>295</v>
-      </c>
+      <c r="B302" s="48"/>
+      <c r="C302" s="48"/>
+      <c r="D302" s="48"/>
+      <c r="E302" s="48"/>
+      <c r="F302" s="49"/>
     </row>
     <row r="305" spans="1:7">
       <c r="C305" s="1" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E305" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F305" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="C306" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F306" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="C307" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F307" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="C308" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E308" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F305" s="14" t="s">
+      <c r="F308" s="14" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7">
-      <c r="A306" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C306" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F306" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7">
-      <c r="A307" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C307" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F307" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7">
-      <c r="A308" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C308" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F308" s="14" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -14454,11 +14446,11 @@
       <c r="B309" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C309" s="4" t="s">
-        <v>139</v>
+      <c r="C309" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="F309" s="14" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -14468,11 +14460,11 @@
       <c r="B310" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C310" s="3" t="s">
-        <v>119</v>
+      <c r="C310" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="F310" s="14" t="s">
-        <v>322</v>
+        <v>125</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -14482,11 +14474,11 @@
       <c r="B311" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C311" s="3" t="s">
-        <v>149</v>
+      <c r="C311" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="F311" s="14" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -14496,11 +14488,11 @@
       <c r="B312" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C312" s="3" t="s">
-        <v>179</v>
+      <c r="C312" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F312" s="14" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -14511,10 +14503,10 @@
         <v>4</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F313" s="14" t="s">
-        <v>79</v>
+        <v>322</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -14525,10 +14517,10 @@
         <v>4</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="F314" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -14539,75 +14531,66 @@
         <v>4</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="F315" s="14" t="s">
-        <v>318</v>
+        <v>180</v>
       </c>
     </row>
     <row r="316" spans="1:7">
-      <c r="C316" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>40</v>
+      <c r="A316" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="F316" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G316" s="9" t="s">
-        <v>555</v>
+        <v>79</v>
       </c>
     </row>
     <row r="317" spans="1:7">
       <c r="A317" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C317" s="4" t="s">
-        <v>146</v>
+      <c r="C317" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="F317" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G317" s="9" t="s">
-        <v>555</v>
+        <v>80</v>
       </c>
     </row>
     <row r="318" spans="1:7">
       <c r="A318" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F318" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="C319" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E319" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B318" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F318" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G318" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7">
-      <c r="A319" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="F319" s="14" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="G319" s="9" t="s">
         <v>555</v>
@@ -14620,11 +14603,11 @@
       <c r="B320" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C320" s="3" t="s">
-        <v>563</v>
+      <c r="C320" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="F320" s="14" t="s">
-        <v>571</v>
+        <v>75</v>
       </c>
       <c r="G320" s="9" t="s">
         <v>555</v>
@@ -14638,13 +14621,13 @@
         <v>4</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>564</v>
+        <v>177</v>
       </c>
       <c r="F321" s="14" t="s">
-        <v>395</v>
+        <v>76</v>
       </c>
       <c r="G321" s="9" t="s">
-        <v>303</v>
+        <v>555</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -14655,13 +14638,13 @@
         <v>4</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="F322" s="14" t="s">
-        <v>323</v>
+        <v>142</v>
       </c>
       <c r="G322" s="9" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -14672,13 +14655,13 @@
         <v>4</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>220</v>
+        <v>563</v>
       </c>
       <c r="F323" s="14" t="s">
-        <v>324</v>
+        <v>571</v>
       </c>
       <c r="G323" s="9" t="s">
-        <v>303</v>
+        <v>555</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -14689,78 +14672,78 @@
         <v>4</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>250</v>
+        <v>564</v>
       </c>
       <c r="F324" s="14" t="s">
-        <v>251</v>
+        <v>395</v>
       </c>
       <c r="G324" s="9" t="s">
         <v>303</v>
       </c>
     </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F325" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G325" s="9" t="s">
+        <v>591</v>
+      </c>
+    </row>
     <row r="326" spans="1:7">
-      <c r="C326" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E326" s="1" t="s">
-        <v>145</v>
+      <c r="A326" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="F326" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="G326" s="1" t="s">
-        <v>555</v>
+        <v>324</v>
+      </c>
+      <c r="G326" s="9" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="327" spans="1:7">
       <c r="A327" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F327" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G327" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="C329" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E329" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B327" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C327" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F327" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G327" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7">
-      <c r="A328" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C328" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F328" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G328" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7">
-      <c r="A329" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="F329" s="14" t="s">
-        <v>142</v>
+        <v>589</v>
       </c>
       <c r="G329" s="1" t="s">
         <v>555</v>
@@ -14773,11 +14756,11 @@
       <c r="B330" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C330" s="3" t="s">
-        <v>563</v>
+      <c r="C330" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="F330" s="14" t="s">
-        <v>570</v>
+        <v>75</v>
       </c>
       <c r="G330" s="1" t="s">
         <v>555</v>
@@ -14791,13 +14774,13 @@
         <v>4</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>594</v>
+        <v>147</v>
       </c>
       <c r="F331" s="14" t="s">
-        <v>395</v>
+        <v>76</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>303</v>
+        <v>555</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -14808,13 +14791,13 @@
         <v>4</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="F332" s="14" t="s">
-        <v>323</v>
+        <v>142</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -14825,13 +14808,13 @@
         <v>4</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>220</v>
+        <v>563</v>
       </c>
       <c r="F333" s="14" t="s">
-        <v>324</v>
+        <v>570</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>303</v>
+        <v>555</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -14842,172 +14825,181 @@
         <v>4</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>250</v>
+        <v>594</v>
       </c>
       <c r="F334" s="14" t="s">
-        <v>251</v>
+        <v>395</v>
       </c>
       <c r="G334" s="1" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="335" spans="1:7">
-      <c r="C335" s="1" t="s">
+      <c r="A335" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F335" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G335" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F336" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="G336" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F337" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="C338" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F335" s="14" t="s">
+      <c r="F338" s="14" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
-      <c r="C336" s="1" t="s">
+    <row r="339" spans="1:7">
+      <c r="C339" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F336" s="14" t="s">
+      <c r="F339" s="14" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
-      <c r="C338" s="1" t="s">
+    <row r="341" spans="1:7">
+      <c r="C341" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F338" s="14" t="s">
+      <c r="F341" s="14" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
-      <c r="C341" s="1" t="s">
+    <row r="344" spans="1:7">
+      <c r="C344" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F341" s="14" t="s">
+      <c r="F344" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
-      <c r="A342" s="1" t="s">
+    <row r="345" spans="1:7">
+      <c r="A345" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B342" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C342" s="4" t="s">
+      <c r="B345" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C345" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F342" s="14" t="s">
+      <c r="F345" s="14" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
-      <c r="A343" s="1" t="s">
+    <row r="346" spans="1:7">
+      <c r="A346" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B343" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C343" s="4" t="s">
+      <c r="B346" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C346" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F343" s="14" t="s">
+      <c r="F346" s="14" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
-      <c r="A344" s="1" t="s">
+    <row r="347" spans="1:7">
+      <c r="A347" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B344" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C344" s="9" t="s">
+      <c r="B347" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C347" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D344" s="9"/>
-      <c r="E344" s="9"/>
-      <c r="F344" s="16" t="s">
+      <c r="D347" s="9"/>
+      <c r="E347" s="9"/>
+      <c r="F347" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="27" thickBot="1">
-      <c r="A346" s="48" t="s">
+    <row r="349" spans="1:7" ht="27" thickBot="1">
+      <c r="A349" s="48" t="s">
         <v>434</v>
       </c>
-      <c r="B346" s="48"/>
-      <c r="C346" s="48"/>
-      <c r="D346" s="48"/>
-      <c r="E346" s="48"/>
-      <c r="F346" s="49"/>
-    </row>
-    <row r="347" spans="1:6">
-      <c r="C347" s="1" t="s">
+      <c r="B349" s="48"/>
+      <c r="C349" s="48"/>
+      <c r="D349" s="48"/>
+      <c r="E349" s="48"/>
+      <c r="F349" s="49"/>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="C350" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D347" s="1" t="s">
+      <c r="D350" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E347" s="1" t="s">
+      <c r="E350" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F347" s="14" t="s">
+      <c r="F350" s="14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
-      <c r="A348" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C348" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F348" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6">
-      <c r="A349" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F349" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6">
-      <c r="A350" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F350" s="14" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:7">
       <c r="A351" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C351" s="1" t="s">
-        <v>183</v>
+      <c r="C351" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="F351" s="14" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
       <c r="A352" s="1" t="s">
         <v>113</v>
       </c>
@@ -15015,10 +15007,10 @@
         <v>4</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="F352" s="14" t="s">
-        <v>191</v>
+        <v>326</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -15029,10 +15021,10 @@
         <v>4</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F353" s="14" t="s">
-        <v>192</v>
+        <v>567</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -15043,66 +15035,66 @@
         <v>4</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>605</v>
+        <v>183</v>
       </c>
       <c r="F354" s="14" t="s">
-        <v>606</v>
+        <v>566</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F355" s="14" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="356" spans="1:6">
+      <c r="A356" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C356" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D356" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E356" s="1" t="s">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="F356" s="14" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F357" s="14" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="C359" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E359" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B357" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C357" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F357" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6">
-      <c r="A358" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C358" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F358" s="14" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6">
-      <c r="A359" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="F359" s="14" t="s">
-        <v>321</v>
+        <v>135</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -15112,11 +15104,11 @@
       <c r="B360" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C360" s="3" t="s">
-        <v>217</v>
+      <c r="C360" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="F360" s="14" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -15126,11 +15118,11 @@
       <c r="B361" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C361" s="3" t="s">
-        <v>218</v>
+      <c r="C361" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="F361" s="14" t="s">
-        <v>219</v>
+        <v>320</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -15140,11 +15132,11 @@
       <c r="B362" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C362" s="3" t="s">
-        <v>152</v>
+      <c r="C362" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="F362" s="14" t="s">
-        <v>128</v>
+        <v>321</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -15155,10 +15147,10 @@
         <v>4</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="F363" s="14" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -15169,10 +15161,10 @@
         <v>4</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="F364" s="14" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -15183,10 +15175,10 @@
         <v>4</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="F365" s="14" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -15197,10 +15189,10 @@
         <v>4</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="F366" s="14" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -15211,149 +15203,149 @@
         <v>4</v>
       </c>
       <c r="C367" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F367" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F368" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F369" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C370" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F367" s="14" t="s">
+      <c r="F370" s="14" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="372" spans="3:6">
-      <c r="C372" s="1" t="s">
+    <row r="375" spans="1:6">
+      <c r="C375" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F372" s="14" t="s">
+      <c r="F375" s="14" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="373" spans="3:6">
-      <c r="C373" s="8" t="s">
+    <row r="376" spans="1:6">
+      <c r="C376" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F373" s="14" t="s">
+      <c r="F376" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="374" spans="3:6">
-      <c r="C374" s="8" t="s">
+    <row r="377" spans="1:6">
+      <c r="C377" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F374" s="14" t="s">
+      <c r="F377" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="375" spans="3:6">
-      <c r="C375" s="3" t="s">
+    <row r="378" spans="1:6">
+      <c r="C378" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F375" s="14" t="s">
+      <c r="F378" s="14" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="376" spans="3:6">
-      <c r="C376" s="3"/>
-    </row>
-    <row r="377" spans="3:6">
-      <c r="C377" s="4" t="s">
+    <row r="379" spans="1:6">
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="C380" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F377" s="14" t="s">
+      <c r="F380" s="14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="378" spans="3:6">
-      <c r="C378" s="1" t="s">
+    <row r="381" spans="1:6">
+      <c r="C381" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F378" s="14" t="s">
+      <c r="F381" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="380" spans="3:6">
-      <c r="C380" s="1" t="s">
+    <row r="383" spans="1:6">
+      <c r="C383" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F380" s="14" t="s">
+      <c r="F383" s="14" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="381" spans="3:6">
-      <c r="C381" s="1" t="s">
+    <row r="384" spans="1:6">
+      <c r="C384" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F381" s="14" t="s">
+      <c r="F384" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="382" spans="3:6">
-      <c r="C382" s="1" t="s">
+    <row r="385" spans="1:6">
+      <c r="C385" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F382" s="14" t="s">
+      <c r="F385" s="14" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="383" spans="3:6">
-      <c r="C383" s="1" t="s">
+    <row r="386" spans="1:6">
+      <c r="C386" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F383" s="14" t="s">
+      <c r="F386" s="14" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="384" spans="3:6">
-      <c r="C384" s="1" t="s">
+    <row r="387" spans="1:6">
+      <c r="C387" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D384" s="1" t="s">
+      <c r="D387" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E384" s="1" t="s">
+      <c r="E387" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F384" s="14" t="s">
+      <c r="F387" s="14" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6">
-      <c r="A385" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C385" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F385" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6">
-      <c r="A386" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C386" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="F386" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6">
-      <c r="A387" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C387" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="F387" s="14" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -15364,301 +15356,301 @@
         <v>4</v>
       </c>
       <c r="C388" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F388" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F389" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F390" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="A391" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C391" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="F388" s="14" t="s">
+      <c r="F391" s="14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="391" spans="1:6" ht="27" thickBot="1">
-      <c r="A391" s="48" t="s">
+    <row r="394" spans="1:6" ht="27" thickBot="1">
+      <c r="A394" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="B391" s="48"/>
-      <c r="C391" s="48"/>
-      <c r="D391" s="48"/>
-      <c r="E391" s="48"/>
-      <c r="F391" s="49"/>
-    </row>
-    <row r="392" spans="1:6">
-      <c r="C392" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D392" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E392" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F392" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6">
-      <c r="C393" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F393" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6">
-      <c r="C394" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F394" s="14" t="s">
-        <v>230</v>
-      </c>
+      <c r="B394" s="48"/>
+      <c r="C394" s="48"/>
+      <c r="D394" s="48"/>
+      <c r="E394" s="48"/>
+      <c r="F394" s="49"/>
     </row>
     <row r="395" spans="1:6">
       <c r="C395" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="F395" s="14" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="396" spans="1:6">
       <c r="C396" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F396" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="397" spans="1:6">
       <c r="C397" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F397" s="14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="C398" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F398" s="14" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="399" spans="1:6">
       <c r="C399" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F399" s="14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="C400" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F400" s="14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="401" spans="1:6">
-      <c r="C401" s="3" t="s">
-        <v>226</v>
+      <c r="C401" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="F401" s="14" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="402" spans="1:6">
       <c r="C402" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F402" s="14" t="s">
-        <v>245</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="C403" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F403" s="14" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="404" spans="1:6">
-      <c r="C404" s="1" t="s">
-        <v>254</v>
+      <c r="C404" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="F404" s="14" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
     </row>
     <row r="405" spans="1:6">
       <c r="C405" s="1" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="F405" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6">
-      <c r="C406" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F406" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="407" spans="1:6">
       <c r="C407" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F407" s="14" t="s">
-        <v>261</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="C408" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F408" s="14" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="409" spans="1:6">
       <c r="C409" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F409" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="C410" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F410" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="C412" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="27" thickBot="1">
-      <c r="A412" s="48" t="s">
+    <row r="415" spans="1:6" ht="27" thickBot="1">
+      <c r="A415" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="B412" s="48"/>
-      <c r="C412" s="48"/>
-      <c r="D412" s="48"/>
-      <c r="E412" s="48"/>
-      <c r="F412" s="49"/>
-    </row>
-    <row r="413" spans="1:6">
-      <c r="C413" s="1" t="s">
+      <c r="B415" s="48"/>
+      <c r="C415" s="48"/>
+      <c r="D415" s="48"/>
+      <c r="E415" s="48"/>
+      <c r="F415" s="49"/>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="C416" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F413" s="14" t="s">
+      <c r="F416" s="14" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
-      <c r="C414" s="25"/>
-      <c r="D414" s="25"/>
-      <c r="E414" s="25"/>
-      <c r="F414" s="27"/>
-    </row>
-    <row r="415" spans="1:6">
-      <c r="C415" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="D415" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E415" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F415" s="21" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="416" spans="1:6">
-      <c r="A416" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C416" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F416" s="14" t="s">
-        <v>357</v>
-      </c>
+    <row r="417" spans="1:6">
+      <c r="C417" s="25"/>
+      <c r="D417" s="25"/>
+      <c r="E417" s="25"/>
+      <c r="F417" s="27"/>
     </row>
     <row r="418" spans="1:6">
       <c r="C418" s="13" t="s">
-        <v>538</v>
+        <v>379</v>
       </c>
       <c r="D418" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E418" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F418" s="15" t="s">
-        <v>539</v>
+        <v>23</v>
+      </c>
+      <c r="F418" s="21" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F419" s="14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="C421" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="D421" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E421" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B419" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C419" s="8" t="s">
+      <c r="F421" s="15" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="A422" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C422" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="F419" s="14" t="s">
+      <c r="F422" s="14" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
-      <c r="C421" s="1" t="s">
+    <row r="424" spans="1:6">
+      <c r="C424" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D421" s="1" t="s">
+      <c r="D424" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E421" s="1" t="s">
+      <c r="E424" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F421" s="22" t="s">
+      <c r="F424" s="22" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
-      <c r="C422" s="13" t="s">
+    <row r="425" spans="1:6">
+      <c r="C425" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="D422" s="13" t="s">
+      <c r="D425" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E422" s="13" t="s">
+      <c r="E425" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="F422" s="21" t="s">
+      <c r="F425" s="21" t="s">
         <v>531</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6">
-      <c r="A423" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B423" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C423" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="F423" s="14" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6">
-      <c r="A424" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C424" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F424" s="14" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6">
-      <c r="A425" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B425" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C425" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="F425" s="14" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -15668,11 +15660,11 @@
       <c r="B426" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C426" s="12" t="s">
-        <v>280</v>
+      <c r="C426" s="10" t="s">
+        <v>275</v>
       </c>
       <c r="F426" s="14" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -15682,11 +15674,11 @@
       <c r="B427" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C427" s="12" t="s">
-        <v>281</v>
+      <c r="C427" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="F427" s="14" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -15696,11 +15688,11 @@
       <c r="B428" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C428" s="8" t="s">
-        <v>541</v>
+      <c r="C428" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="F428" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -15710,11 +15702,11 @@
       <c r="B429" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C429" s="8" t="s">
-        <v>279</v>
+      <c r="C429" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="F429" s="14" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -15724,11 +15716,11 @@
       <c r="B430" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C430" s="8" t="s">
-        <v>273</v>
+      <c r="C430" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="F430" s="14" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -15739,97 +15731,139 @@
         <v>4</v>
       </c>
       <c r="C431" s="8" t="s">
-        <v>274</v>
+        <v>541</v>
       </c>
       <c r="F431" s="14" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
     </row>
     <row r="432" spans="1:6">
-      <c r="C432" s="8"/>
+      <c r="A432" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C432" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F432" s="14" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="433" spans="1:7">
-      <c r="C433" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D433" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E433" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="F433" s="21" t="s">
-        <v>547</v>
+      <c r="A433" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C433" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F433" s="14" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="434" spans="1:7">
       <c r="A434" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C434" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F434" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7">
+      <c r="C435" s="8"/>
+    </row>
+    <row r="436" spans="1:7">
+      <c r="C436" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D436" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E436" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="B434" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C434" s="1" t="s">
+      <c r="F436" s="21" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7">
+      <c r="A437" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C437" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F434" s="14" t="s">
+      <c r="F437" s="14" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
-      <c r="A435" s="1" t="s">
+    <row r="438" spans="1:7">
+      <c r="A438" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B435" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C435" s="1" t="s">
+      <c r="B438" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C438" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F435" s="14" t="s">
+      <c r="F438" s="14" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
-      <c r="A436" s="1" t="s">
+    <row r="439" spans="1:7">
+      <c r="A439" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B436" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C436" s="1" t="s">
+      <c r="B439" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C439" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F436" s="14" t="s">
+      <c r="F439" s="14" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="438" spans="1:7">
-      <c r="G438" s="29"/>
-    </row>
-    <row r="439" spans="1:7">
-      <c r="G439" s="29"/>
-    </row>
-    <row r="440" spans="1:7">
-      <c r="G440" s="29"/>
     </row>
     <row r="441" spans="1:7">
       <c r="G441" s="29"/>
+    </row>
+    <row r="442" spans="1:7">
+      <c r="G442" s="29"/>
+    </row>
+    <row r="443" spans="1:7">
+      <c r="G443" s="29"/>
+    </row>
+    <row r="444" spans="1:7">
+      <c r="G444" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A391:F391"/>
-    <mergeCell ref="A346:F346"/>
-    <mergeCell ref="A299:F299"/>
-    <mergeCell ref="A237:F237"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A191:F191"/>
-    <mergeCell ref="A412:F412"/>
-    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A394:F394"/>
+    <mergeCell ref="A349:F349"/>
+    <mergeCell ref="A302:F302"/>
+    <mergeCell ref="A240:F240"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A194:F194"/>
+    <mergeCell ref="A415:F415"/>
+    <mergeCell ref="A96:F96"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="A68:F68"/>
     <mergeCell ref="C45:D45"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>

--- a/git-terminal-commands.xlsx
+++ b/git-terminal-commands.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Goofy/GIT/steves-git-shortcuts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FC1AE5-2DA4-C845-BC53-08933543CC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3AF568-FC71-A442-A2E7-593669643A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54260" yWindow="460" windowWidth="34960" windowHeight="28340" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
+    <workbookView xWindow="12980" yWindow="460" windowWidth="34960" windowHeight="28340" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$96:$F$391</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$97:$F$392</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="660">
   <si>
     <t>Configuration</t>
   </si>
@@ -10261,7 +10261,13 @@
     <t>Bitbucket</t>
   </si>
   <si>
-    <t>Bitbucket only requires the account password for access</t>
+    <t>support.atlassian.com/bitbucket-cloud/docs/app-passwords</t>
+  </si>
+  <si>
+    <t>Instructions to create an App Password (AP)</t>
+  </si>
+  <si>
+    <t>The next time you interact with a repo a AP will be required instead of the account password</t>
   </si>
 </sst>
 </file>
@@ -10639,7 +10645,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10696,12 +10702,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
@@ -10712,6 +10712,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11032,10 +11041,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G444"/>
+  <dimension ref="A1:G445"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="33" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11141,14 +11150,14 @@
       <c r="A12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="27" thickBot="1">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="55"/>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="1" t="s">
@@ -11488,10 +11497,10 @@
     </row>
     <row r="45" spans="1:6" ht="20" thickBot="1">
       <c r="A45" s="33"/>
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="56" t="s">
         <v>631</v>
       </c>
-      <c r="D45" s="51"/>
+      <c r="D45" s="57"/>
       <c r="E45" s="37"/>
       <c r="F45" s="43"/>
     </row>
@@ -11574,7 +11583,7 @@
     </row>
     <row r="55" spans="1:6" ht="27">
       <c r="A55" s="33"/>
-      <c r="C55" s="57" t="s">
+      <c r="C55" s="51" t="s">
         <v>641</v>
       </c>
       <c r="F55" s="47" t="s">
@@ -11601,10 +11610,10 @@
     </row>
     <row r="58" spans="1:6" ht="26">
       <c r="A58" s="33"/>
-      <c r="C58" s="56" t="s">
+      <c r="C58" s="50" t="s">
         <v>646</v>
       </c>
-      <c r="F58" s="55" t="s">
+      <c r="F58" s="49" t="s">
         <v>654</v>
       </c>
     </row>
@@ -11633,7 +11642,7 @@
     </row>
     <row r="62" spans="1:6" ht="27">
       <c r="A62" s="33"/>
-      <c r="C62" s="54" t="s">
+      <c r="C62" s="48" t="s">
         <v>651</v>
       </c>
       <c r="F62" s="47" t="s">
@@ -11642,17 +11651,17 @@
     </row>
     <row r="63" spans="1:6" ht="26">
       <c r="A63" s="33"/>
-      <c r="C63" s="56" t="s">
+      <c r="C63" s="50" t="s">
         <v>646</v>
       </c>
-      <c r="F63" s="55" t="s">
+      <c r="F63" s="49" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="33"/>
-      <c r="C64" s="56"/>
-      <c r="F64" s="55"/>
+      <c r="C64" s="50"/>
+      <c r="F64" s="49"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="33"/>
@@ -11663,399 +11672,394 @@
         <v>656</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" ht="27">
       <c r="A66" s="33"/>
-      <c r="C66" s="56" t="s">
+      <c r="C66" s="58" t="s">
+        <v>657</v>
+      </c>
+      <c r="F66" s="47" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="26">
+      <c r="A67" s="33"/>
+      <c r="C67" s="50" t="s">
         <v>646</v>
       </c>
-      <c r="F66" s="55" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="33"/>
-      <c r="C67" s="56"/>
-      <c r="F67" s="55"/>
-    </row>
-    <row r="68" spans="1:6" ht="27" thickBot="1">
-      <c r="A68" s="48" t="s">
+      <c r="F67" s="49" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="33"/>
+      <c r="C68" s="50"/>
+      <c r="F68" s="49"/>
+    </row>
+    <row r="69" spans="1:6" ht="27" thickBot="1">
+      <c r="A69" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="49"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="C69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="14" t="s">
-        <v>442</v>
-      </c>
+      <c r="B69" s="54"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="55"/>
     </row>
     <row r="70" spans="1:6">
       <c r="C70" s="1" t="s">
-        <v>156</v>
+        <v>9</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="C71" s="1" t="s">
-        <v>552</v>
+        <v>156</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="C72" s="1" t="s">
-        <v>155</v>
+        <v>552</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="C73" s="1" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="C74" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="C75" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="C76" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="C77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="C78" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F77" s="14" t="s">
+      <c r="F78" s="14" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="17">
-      <c r="C78" s="9" t="s">
+    <row r="79" spans="1:6" ht="17">
+      <c r="C79" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="F78" s="14" t="s">
+      <c r="F79" s="14" t="s">
         <v>450</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="C79" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="C80" s="1" t="s">
-        <v>456</v>
+        <v>51</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="C81" s="1" t="s">
-        <v>65</v>
+        <v>456</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="C82" s="1" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="C83" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="C84" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F83" s="14" t="s">
+      <c r="F84" s="14" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="20"/>
-    </row>
-    <row r="85" spans="1:6" ht="27" thickBot="1">
-      <c r="A85" s="48" t="s">
+    <row r="85" spans="1:6">
+      <c r="A85" s="20"/>
+    </row>
+    <row r="86" spans="1:6" ht="27" thickBot="1">
+      <c r="A86" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B85" s="48"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="48"/>
-      <c r="F85" s="49"/>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="C86" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F86" s="14" t="s">
-        <v>457</v>
-      </c>
+      <c r="B86" s="54"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="55"/>
     </row>
     <row r="87" spans="1:6">
       <c r="C87" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="C88" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="C89" s="1" t="s">
-        <v>301</v>
+        <v>19</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="C90" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="C91" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="C92" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="C93" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="C94" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F93" s="14" t="s">
+      <c r="F94" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="C94" s="3" t="s">
+    <row r="95" spans="1:6">
+      <c r="C95" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F94" s="14" t="s">
+      <c r="F95" s="14" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="27" thickBot="1">
-      <c r="A96" s="48" t="s">
+    <row r="97" spans="1:6" ht="27" thickBot="1">
+      <c r="A97" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B96" s="48"/>
-      <c r="C96" s="48"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48"/>
-    </row>
-    <row r="97" spans="3:6">
-      <c r="C97" s="1" t="s">
+      <c r="B97" s="54"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="54"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="C98" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F97" s="14" t="s">
+      <c r="F98" s="14" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="98" spans="3:6">
-      <c r="C98" s="1" t="s">
+    <row r="99" spans="1:6">
+      <c r="C99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F98" s="14" t="s">
+      <c r="F99" s="14" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="99" spans="3:6">
-      <c r="C99" s="1" t="s">
+    <row r="100" spans="1:6">
+      <c r="C100" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F99" s="14" t="s">
+      <c r="F100" s="14" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="100" spans="3:6">
-      <c r="C100" s="1" t="s">
+    <row r="101" spans="1:6">
+      <c r="C101" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F100" s="14" t="s">
+      <c r="F101" s="14" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="101" spans="3:6">
-      <c r="C101" s="1" t="s">
+    <row r="102" spans="1:6">
+      <c r="C102" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F101" s="14" t="s">
+      <c r="F102" s="14" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="102" spans="3:6">
-      <c r="C102" s="1" t="s">
+    <row r="103" spans="1:6">
+      <c r="C103" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F102" s="14" t="s">
+      <c r="F103" s="14" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="103" spans="3:6">
-      <c r="C103" s="1" t="s">
+    <row r="104" spans="1:6">
+      <c r="C104" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F103" s="14" t="s">
+      <c r="F104" s="14" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="104" spans="3:6">
-      <c r="C104" s="1" t="s">
+    <row r="105" spans="1:6">
+      <c r="C105" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F104" s="14" t="s">
+      <c r="F105" s="14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="105" spans="3:6">
-      <c r="C105" s="1" t="s">
+    <row r="106" spans="1:6">
+      <c r="C106" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F105" s="14" t="s">
+      <c r="F106" s="14" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="106" spans="3:6">
-      <c r="C106" s="1" t="s">
+    <row r="107" spans="1:6">
+      <c r="C107" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F106" s="14" t="s">
+      <c r="F107" s="14" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="107" spans="3:6">
-      <c r="C107" s="11" t="s">
+    <row r="108" spans="1:6">
+      <c r="C108" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F107" s="14" t="s">
+      <c r="F108" s="14" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="108" spans="3:6">
-      <c r="C108" s="11" t="s">
+    <row r="109" spans="1:6">
+      <c r="C109" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="F108" s="14" t="s">
+      <c r="F109" s="14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="109" spans="3:6">
-      <c r="C109" s="1" t="s">
+    <row r="110" spans="1:6">
+      <c r="C110" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F109" s="14" t="s">
+      <c r="F110" s="14" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="110" spans="3:6">
-      <c r="C110" s="1" t="s">
+    <row r="111" spans="1:6">
+      <c r="C111" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F110" s="14" t="s">
+      <c r="F111" s="14" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="111" spans="3:6">
-      <c r="C111" s="1" t="s">
+    <row r="112" spans="1:6">
+      <c r="C112" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F111" s="14" t="s">
+      <c r="F112" s="14" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="112" spans="3:6">
-      <c r="C112" s="1" t="s">
+    <row r="113" spans="1:6">
+      <c r="C113" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F112" s="14" t="s">
+      <c r="F113" s="14" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
-      <c r="C114" s="13" t="s">
+    <row r="115" spans="1:6">
+      <c r="C115" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="D114" s="13" t="s">
+      <c r="D115" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E114" s="13" t="s">
+      <c r="E115" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="F114" s="21" t="s">
+      <c r="F115" s="21" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F115" s="14" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -12066,7 +12070,7 @@
         <v>4</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F116" s="14" t="s">
         <v>346</v>
@@ -12080,7 +12084,7 @@
         <v>4</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F117" s="14" t="s">
         <v>346</v>
@@ -12094,10 +12098,10 @@
         <v>4</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -12108,10 +12112,10 @@
         <v>4</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>252</v>
+        <v>161</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -12122,38 +12126,38 @@
         <v>4</v>
       </c>
       <c r="C120" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F120" s="14" t="s">
+      <c r="F121" s="14" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
-      <c r="C122" s="13" t="s">
+    <row r="123" spans="1:6">
+      <c r="C123" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="D122" s="13" t="s">
+      <c r="D123" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E122" s="13" t="s">
+      <c r="E123" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F122" s="21" t="s">
+      <c r="F123" s="21" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F123" s="14" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -12164,10 +12168,10 @@
         <v>4</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>292</v>
+        <v>64</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -12178,10 +12182,10 @@
         <v>4</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>63</v>
+        <v>292</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -12192,10 +12196,10 @@
         <v>4</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>293</v>
+        <v>63</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -12206,10 +12210,10 @@
         <v>4</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>159</v>
+        <v>293</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -12220,59 +12224,59 @@
         <v>4</v>
       </c>
       <c r="C128" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F128" s="14" t="s">
+      <c r="F129" s="14" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
-      <c r="C129" s="3"/>
-    </row>
-    <row r="130" spans="1:6" ht="27" thickBot="1">
-      <c r="A130" s="48" t="s">
+    <row r="130" spans="1:6">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="1:6" ht="27" thickBot="1">
+      <c r="A131" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B130" s="48"/>
-      <c r="C130" s="48"/>
-      <c r="D130" s="48"/>
-      <c r="E130" s="48"/>
-      <c r="F130" s="49"/>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="C131" s="1" t="s">
+      <c r="B131" s="54"/>
+      <c r="C131" s="54"/>
+      <c r="D131" s="54"/>
+      <c r="E131" s="54"/>
+      <c r="F131" s="55"/>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="C132" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F131" s="14" t="s">
+      <c r="F132" s="14" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
-      <c r="C133" s="13" t="s">
+    <row r="134" spans="1:6">
+      <c r="C134" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="D133" s="13" t="s">
+      <c r="D134" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E133" s="13" t="s">
+      <c r="E134" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F133" s="15" t="s">
+      <c r="F134" s="15" t="s">
         <v>353</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F134" s="14" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -12283,10 +12287,10 @@
         <v>4</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F135" s="31" t="s">
-        <v>590</v>
+        <v>248</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -12297,10 +12301,10 @@
         <v>4</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F136" s="14" t="s">
-        <v>355</v>
+        <v>185</v>
+      </c>
+      <c r="F136" s="31" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -12311,10 +12315,10 @@
         <v>4</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -12325,29 +12329,29 @@
         <v>4</v>
       </c>
       <c r="C138" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F138" s="14" t="s">
+      <c r="F139" s="14" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
-      <c r="C139" s="6" t="s">
+    <row r="140" spans="1:6">
+      <c r="C140" s="6" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F140" s="14" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -12358,10 +12362,10 @@
         <v>4</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -12372,10 +12376,10 @@
         <v>4</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -12386,10 +12390,10 @@
         <v>4</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -12400,10 +12404,10 @@
         <v>4</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>468</v>
+        <v>61</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -12414,10 +12418,10 @@
         <v>4</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>59</v>
+        <v>468</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -12428,10 +12432,10 @@
         <v>4</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -12442,10 +12446,10 @@
         <v>4</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -12456,10 +12460,10 @@
         <v>4</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -12470,10 +12474,10 @@
         <v>4</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -12483,11 +12487,11 @@
       <c r="B150" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C150" s="5" t="s">
-        <v>66</v>
+      <c r="C150" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -12498,29 +12502,29 @@
         <v>4</v>
       </c>
       <c r="C151" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F151" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F151" s="14" t="s">
+      <c r="F152" s="14" t="s">
         <v>391</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="C153" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F153" s="22" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="C154" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>5</v>
@@ -12528,78 +12532,78 @@
       <c r="E154" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F154" s="14" t="s">
-        <v>418</v>
+      <c r="F154" s="22" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="C155" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="C156" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F156" s="22" t="s">
-        <v>414</v>
+        <v>38</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="C157" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F157" s="22" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="C158" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F157" s="14" t="s">
+      <c r="F158" s="14" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
-      <c r="C158" s="13" t="s">
+    <row r="159" spans="1:6">
+      <c r="C159" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D158" s="13" t="s">
+      <c r="D159" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E158" s="13" t="s">
+      <c r="E159" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F158" s="15" t="s">
+      <c r="F159" s="15" t="s">
         <v>420</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F159" s="14" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -12609,11 +12613,11 @@
       <c r="B160" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>87</v>
+      <c r="C160" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="F160" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -12624,10 +12628,10 @@
         <v>4</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>416</v>
+        <v>87</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -12637,11 +12641,11 @@
       <c r="B162" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C162" s="4" t="s">
-        <v>88</v>
+      <c r="C162" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>471</v>
+        <v>415</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -12651,11 +12655,11 @@
       <c r="B163" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>89</v>
+      <c r="C163" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -12666,10 +12670,10 @@
         <v>4</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>417</v>
+        <v>89</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -12680,10 +12684,10 @@
         <v>4</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>90</v>
+        <v>417</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -12693,11 +12697,11 @@
       <c r="B166" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>91</v>
+      <c r="C166" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -12707,11 +12711,11 @@
       <c r="B167" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>481</v>
+      <c r="C167" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -12722,10 +12726,10 @@
         <v>4</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>92</v>
+        <v>481</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -12736,10 +12740,10 @@
         <v>4</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -12750,10 +12754,10 @@
         <v>4</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F170" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -12764,10 +12768,10 @@
         <v>4</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F171" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -12778,10 +12782,10 @@
         <v>4</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>482</v>
+        <v>95</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -12792,10 +12796,10 @@
         <v>4</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -12805,11 +12809,11 @@
       <c r="B174" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C174" s="4" t="s">
-        <v>207</v>
+      <c r="C174" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="F174" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -12820,10 +12824,10 @@
         <v>4</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F175" s="14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -12833,39 +12837,39 @@
       <c r="B176" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F176" s="14" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F176" s="14" t="s">
+      <c r="F177" s="14" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
-      <c r="C178" s="13" t="s">
+    <row r="179" spans="1:6">
+      <c r="C179" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="D178" s="13" t="s">
+      <c r="D179" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E178" s="13" t="s">
+      <c r="E179" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="F178" s="21" t="s">
+      <c r="F179" s="21" t="s">
         <v>426</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="F179" s="14" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -12876,10 +12880,10 @@
         <v>4</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F180" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -12890,10 +12894,10 @@
         <v>4</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>316</v>
+        <v>432</v>
       </c>
       <c r="F181" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -12904,66 +12908,66 @@
         <v>4</v>
       </c>
       <c r="C182" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F182" s="14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="F182" s="14" t="s">
+      <c r="F183" s="14" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
-      <c r="C184" s="8" t="s">
+    <row r="185" spans="1:6">
+      <c r="C185" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="E185" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F184" s="22" t="s">
+      <c r="F185" s="22" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
-      <c r="C185" s="26" t="s">
+    <row r="186" spans="1:6">
+      <c r="C186" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="D185" s="25" t="s">
+      <c r="D186" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E185" s="25" t="s">
+      <c r="E186" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F185" s="27" t="s">
+      <c r="F186" s="27" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
-      <c r="C186" s="8" t="s">
+    <row r="187" spans="1:6">
+      <c r="C187" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="E187" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F186" s="22" t="s">
+      <c r="F187" s="22" t="s">
         <v>497</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C187" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="F187" s="14" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -12974,10 +12978,10 @@
         <v>4</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F188" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -12987,11 +12991,11 @@
       <c r="B189" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C189" s="5" t="s">
-        <v>308</v>
+      <c r="C189" s="12" t="s">
+        <v>307</v>
       </c>
       <c r="F189" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -13002,10 +13006,10 @@
         <v>4</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F190" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -13016,10 +13020,10 @@
         <v>4</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F191" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -13030,62 +13034,62 @@
         <v>4</v>
       </c>
       <c r="C192" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F192" s="14" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="F192" s="14" t="s">
+      <c r="F193" s="14" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
-      <c r="C193" s="3"/>
-    </row>
-    <row r="194" spans="1:6" ht="27" thickBot="1">
-      <c r="A194" s="48" t="s">
+    <row r="194" spans="1:6">
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="1:6" ht="27" thickBot="1">
+      <c r="A195" s="54" t="s">
         <v>433</v>
       </c>
-      <c r="B194" s="48"/>
-      <c r="C194" s="48"/>
-      <c r="D194" s="48"/>
-      <c r="E194" s="48"/>
-      <c r="F194" s="48"/>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="C195" s="8" t="s">
+      <c r="B195" s="54"/>
+      <c r="C195" s="54"/>
+      <c r="D195" s="54"/>
+      <c r="E195" s="54"/>
+      <c r="F195" s="54"/>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="C196" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="F195" s="28" t="s">
+      <c r="F196" s="28" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
-      <c r="F196" s="1"/>
-    </row>
     <row r="197" spans="1:6">
-      <c r="C197" s="13" t="s">
+      <c r="F197" s="1"/>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="C198" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D197" s="13" t="s">
+      <c r="D198" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E197" s="13" t="s">
+      <c r="E198" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F197" s="21" t="s">
+      <c r="F198" s="21" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C198" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="F198" s="14" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -13096,47 +13100,41 @@
         <v>4</v>
       </c>
       <c r="C199" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F199" s="14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="F199" s="14" t="s">
+      <c r="F200" s="14" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
-      <c r="F200" s="1"/>
-    </row>
     <row r="201" spans="1:6">
-      <c r="C201" s="24" t="s">
+      <c r="F201" s="1"/>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="C202" s="24" t="s">
         <v>421</v>
       </c>
-      <c r="D201" s="13" t="s">
+      <c r="D202" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E201" s="13" t="s">
+      <c r="E202" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="F201" s="21" t="s">
+      <c r="F202" s="21" t="s">
         <v>521</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C202" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="F202" s="14" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -13147,7 +13145,7 @@
         <v>4</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>5</v>
@@ -13156,7 +13154,7 @@
         <v>513</v>
       </c>
       <c r="F203" s="14" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -13166,8 +13164,8 @@
       <c r="B204" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C204" s="11" t="s">
-        <v>269</v>
+      <c r="C204" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>5</v>
@@ -13176,7 +13174,7 @@
         <v>513</v>
       </c>
       <c r="F204" s="14" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -13187,7 +13185,7 @@
         <v>4</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>514</v>
+        <v>269</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>5</v>
@@ -13196,7 +13194,7 @@
         <v>513</v>
       </c>
       <c r="F205" s="14" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -13206,8 +13204,8 @@
       <c r="B206" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C206" s="8" t="s">
-        <v>267</v>
+      <c r="C206" s="11" t="s">
+        <v>514</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>5</v>
@@ -13216,7 +13214,7 @@
         <v>513</v>
       </c>
       <c r="F206" s="14" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -13226,31 +13224,37 @@
       <c r="B207" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C207" s="24" t="s">
-        <v>515</v>
-      </c>
-      <c r="D207" s="13" t="s">
+      <c r="C207" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E207" s="13" t="s">
+      <c r="E207" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="F207" s="15" t="s">
-        <v>516</v>
+      <c r="F207" s="14" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C208" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="D208" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E208" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C208" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="F208" s="14" t="s">
-        <v>518</v>
+      <c r="F208" s="15" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -13261,41 +13265,41 @@
         <v>4</v>
       </c>
       <c r="C209" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="F209" s="14" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="F209" s="14" t="s">
+      <c r="F210" s="14" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
-      <c r="C210" s="8"/>
-    </row>
     <row r="211" spans="1:6">
-      <c r="C211" s="13" t="s">
+      <c r="C211" s="8"/>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="C212" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="D211" s="13" t="s">
+      <c r="D212" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E211" s="13" t="s">
+      <c r="E212" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F211" s="21" t="s">
+      <c r="F212" s="21" t="s">
         <v>427</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C212" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="F212" s="14" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -13306,10 +13310,10 @@
         <v>4</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F213" s="14" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -13319,11 +13323,11 @@
       <c r="B214" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C214" s="8" t="s">
-        <v>273</v>
+      <c r="C214" s="11" t="s">
+        <v>429</v>
       </c>
       <c r="F214" s="14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -13334,38 +13338,38 @@
         <v>4</v>
       </c>
       <c r="C215" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F215" s="14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="F215" s="14" t="s">
+      <c r="F216" s="14" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
-      <c r="C217" s="13" t="s">
+    <row r="218" spans="1:6">
+      <c r="C218" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="D217" s="13" t="s">
+      <c r="D218" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E217" s="13" t="s">
+      <c r="E218" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F217" s="21" t="s">
+      <c r="F218" s="21" t="s">
         <v>380</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F218" s="14" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -13376,10 +13380,10 @@
         <v>4</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F219" s="14" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -13390,10 +13394,10 @@
         <v>4</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F220" s="14" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -13404,10 +13408,10 @@
         <v>4</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F221" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -13418,10 +13422,10 @@
         <v>4</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>249</v>
+        <v>104</v>
       </c>
       <c r="F222" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -13432,10 +13436,10 @@
         <v>4</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>105</v>
+        <v>249</v>
       </c>
       <c r="F223" s="14" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -13446,10 +13450,10 @@
         <v>4</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F224" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -13460,10 +13464,10 @@
         <v>4</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F225" s="14" t="s">
-        <v>525</v>
+        <v>394</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -13474,10 +13478,10 @@
         <v>4</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F226" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -13487,11 +13491,11 @@
       <c r="B227" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C227" s="7" t="s">
-        <v>109</v>
+      <c r="C227" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="F227" s="14" t="s">
-        <v>363</v>
+        <v>526</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -13501,41 +13505,41 @@
       <c r="B228" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C228" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F228" s="14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F228" s="14" t="s">
+      <c r="F229" s="14" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
-      <c r="C229" s="8"/>
-    </row>
     <row r="230" spans="1:6">
-      <c r="C230" s="24" t="s">
+      <c r="C230" s="8"/>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="C231" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="D230" s="13" t="s">
+      <c r="D231" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E230" s="13" t="s">
+      <c r="E231" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="F230" s="15"/>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C231" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="F231" s="14" t="s">
-        <v>396</v>
-      </c>
+      <c r="F231" s="15"/>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="1" t="s">
@@ -13544,11 +13548,11 @@
       <c r="B232" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C232" s="3" t="s">
-        <v>203</v>
+      <c r="C232" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="F232" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -13559,7 +13563,7 @@
         <v>4</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F233" s="14" t="s">
         <v>397</v>
@@ -13573,10 +13577,10 @@
         <v>4</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F234" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -13586,31 +13590,31 @@
       <c r="B235" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C235" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="D235" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E235" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="F235" s="15" t="s">
-        <v>365</v>
+      <c r="C235" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F235" s="14" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D236" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E236" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="B236" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F236" s="14" t="s">
-        <v>399</v>
+      <c r="F236" s="15" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -13620,11 +13624,11 @@
       <c r="B237" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C237" s="3" t="s">
-        <v>205</v>
+      <c r="C237" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="F237" s="14" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -13635,39 +13639,42 @@
         <v>4</v>
       </c>
       <c r="C238" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F238" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C239" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F238" s="14" t="s">
+      <c r="F239" s="14" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="27" thickBot="1">
-      <c r="A240" s="48" t="s">
+    <row r="241" spans="1:7" ht="27" thickBot="1">
+      <c r="A241" s="54" t="s">
         <v>593</v>
       </c>
-      <c r="B240" s="48"/>
-      <c r="C240" s="48"/>
-      <c r="D240" s="48"/>
-      <c r="E240" s="48"/>
-      <c r="F240" s="49"/>
-    </row>
-    <row r="241" spans="1:7">
-      <c r="C241" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F241" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="G241" t="s">
-        <v>555</v>
-      </c>
+      <c r="B241" s="54"/>
+      <c r="C241" s="54"/>
+      <c r="D241" s="54"/>
+      <c r="E241" s="54"/>
+      <c r="F241" s="55"/>
     </row>
     <row r="242" spans="1:7">
       <c r="C242" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F242" s="14" t="s">
-        <v>329</v>
+        <v>565</v>
       </c>
       <c r="G242" t="s">
         <v>555</v>
@@ -13675,10 +13682,10 @@
     </row>
     <row r="243" spans="1:7">
       <c r="C243" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F243" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G243" t="s">
         <v>555</v>
@@ -13686,10 +13693,10 @@
     </row>
     <row r="244" spans="1:7">
       <c r="C244" s="1" t="s">
-        <v>182</v>
+        <v>33</v>
       </c>
       <c r="F244" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G244" t="s">
         <v>555</v>
@@ -13697,61 +13704,55 @@
     </row>
     <row r="245" spans="1:7">
       <c r="C245" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F245" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G245" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
-      <c r="C247" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F247" s="14" t="s">
-        <v>581</v>
-      </c>
-      <c r="G247" s="1" t="s">
+    <row r="246" spans="1:7">
+      <c r="C246" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F246" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="G246" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="C248" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F248" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="249" spans="1:7">
-      <c r="A249" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>568</v>
+      <c r="C249" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F249" s="14" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>555</v>
@@ -13765,10 +13766,10 @@
         <v>4</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F250" s="14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>555</v>
@@ -13781,45 +13782,45 @@
       <c r="B251" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C251" s="1" t="s">
-        <v>169</v>
+      <c r="C251" s="4" t="s">
+        <v>569</v>
       </c>
       <c r="F251" s="14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
-      <c r="C253" s="1" t="s">
+    <row r="252" spans="1:7">
+      <c r="A252" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F252" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="C254" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="D253" s="1" t="s">
+      <c r="D254" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E253" s="1" t="s">
+      <c r="E254" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="F253" s="22" t="s">
+      <c r="F254" s="22" t="s">
         <v>557</v>
-      </c>
-      <c r="G253" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7">
-      <c r="A254" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C254" s="30" t="s">
-        <v>556</v>
-      </c>
-      <c r="F254" s="14" t="s">
-        <v>583</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>555</v>
@@ -13832,50 +13833,50 @@
       <c r="B255" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C255" s="1" t="s">
-        <v>560</v>
+      <c r="C255" s="30" t="s">
+        <v>556</v>
       </c>
       <c r="F255" s="14" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="G255" s="1" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="256" spans="1:7">
-      <c r="G256" s="1"/>
+      <c r="A256" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F256" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="C257" s="1" t="s">
+      <c r="G257" s="1"/>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="C258" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D257" s="1" t="s">
+      <c r="D258" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E257" s="1" t="s">
+      <c r="E258" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F257" s="14" t="s">
+      <c r="F258" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="G257" s="1"/>
-    </row>
-    <row r="258" spans="1:7">
-      <c r="A258" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F258" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G258" s="1" t="s">
-        <v>303</v>
-      </c>
+      <c r="G258" s="1"/>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="1" t="s">
@@ -13884,11 +13885,11 @@
       <c r="B259" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C259" s="3" t="s">
-        <v>177</v>
+      <c r="C259" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="F259" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>303</v>
@@ -13902,10 +13903,10 @@
         <v>4</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F260" s="14" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>303</v>
@@ -13919,13 +13920,13 @@
         <v>4</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>563</v>
+        <v>178</v>
       </c>
       <c r="F261" s="14" t="s">
-        <v>570</v>
+        <v>142</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>555</v>
+        <v>303</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -13936,10 +13937,10 @@
         <v>4</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F262" s="14" t="s">
-        <v>597</v>
+        <v>570</v>
       </c>
       <c r="G262" s="1" t="s">
         <v>555</v>
@@ -13953,10 +13954,10 @@
         <v>4</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>221</v>
+        <v>564</v>
       </c>
       <c r="F263" s="14" t="s">
-        <v>323</v>
+        <v>597</v>
       </c>
       <c r="G263" s="1" t="s">
         <v>555</v>
@@ -13970,10 +13971,10 @@
         <v>4</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>599</v>
+        <v>221</v>
       </c>
       <c r="F264" s="14" t="s">
-        <v>598</v>
+        <v>323</v>
       </c>
       <c r="G264" s="1" t="s">
         <v>555</v>
@@ -13987,17 +13988,31 @@
         <v>4</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>250</v>
+        <v>599</v>
       </c>
       <c r="F265" s="14" t="s">
-        <v>251</v>
+        <v>598</v>
       </c>
       <c r="G265" s="1" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="266" spans="1:7">
-      <c r="G266" s="1"/>
+      <c r="A266" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F266" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="267" spans="1:7">
       <c r="G267" s="1"/>
@@ -14008,35 +14023,21 @@
     <row r="269" spans="1:7">
       <c r="G269" s="1"/>
     </row>
-    <row r="271" spans="1:7">
-      <c r="C271" s="1" t="s">
+    <row r="270" spans="1:7">
+      <c r="G270" s="1"/>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="C272" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D271" s="1" t="s">
+      <c r="D272" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E271" s="1" t="s">
+      <c r="E272" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F271" s="14" t="s">
+      <c r="F272" s="14" t="s">
         <v>601</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7">
-      <c r="A272" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F272" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G272" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -14046,11 +14047,11 @@
       <c r="B273" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C273" s="3" t="s">
-        <v>147</v>
+      <c r="C273" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="F273" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G273" s="1" t="s">
         <v>303</v>
@@ -14064,10 +14065,10 @@
         <v>4</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F274" s="14" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="G274" s="1" t="s">
         <v>303</v>
@@ -14081,13 +14082,13 @@
         <v>4</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>563</v>
+        <v>148</v>
       </c>
       <c r="F275" s="14" t="s">
-        <v>570</v>
+        <v>142</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>555</v>
+        <v>303</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -14098,10 +14099,10 @@
         <v>4</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F276" s="14" t="s">
-        <v>597</v>
+        <v>570</v>
       </c>
       <c r="G276" s="1" t="s">
         <v>555</v>
@@ -14115,10 +14116,10 @@
         <v>4</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>222</v>
+        <v>564</v>
       </c>
       <c r="F277" s="14" t="s">
-        <v>323</v>
+        <v>597</v>
       </c>
       <c r="G277" s="1" t="s">
         <v>555</v>
@@ -14132,10 +14133,10 @@
         <v>4</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>599</v>
+        <v>222</v>
       </c>
       <c r="F278" s="14" t="s">
-        <v>598</v>
+        <v>323</v>
       </c>
       <c r="G278" s="1" t="s">
         <v>555</v>
@@ -14149,32 +14150,35 @@
         <v>4</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>250</v>
+        <v>599</v>
       </c>
       <c r="F279" s="14" t="s">
-        <v>251</v>
+        <v>598</v>
       </c>
       <c r="G279" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
-      <c r="C282" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E282" s="1" t="s">
+    <row r="280" spans="1:7">
+      <c r="A280" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F282" s="14" t="s">
-        <v>580</v>
+      <c r="B280" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F280" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="283" spans="1:7">
       <c r="C283" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>5</v>
@@ -14183,21 +14187,21 @@
         <v>145</v>
       </c>
       <c r="F283" s="14" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="C284" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F284" s="14" t="s">
         <v>579</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
-      <c r="A284" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F284" s="14" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -14208,10 +14212,10 @@
         <v>4</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F285" s="14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -14221,45 +14225,42 @@
       <c r="B286" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="C286" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F286" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C287" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F286" s="14" t="s">
+      <c r="F287" s="14" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
-      <c r="C287" s="3"/>
-    </row>
     <row r="288" spans="1:7">
-      <c r="C288" s="1" t="s">
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="C289" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D288" s="1" t="s">
+      <c r="D289" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E288" s="1" t="s">
+      <c r="E289" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F288" s="22" t="s">
+      <c r="F289" s="22" t="s">
         <v>539</v>
-      </c>
-      <c r="G288" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7">
-      <c r="A289" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F289" s="14" t="s">
-        <v>578</v>
       </c>
       <c r="G289" s="1" t="s">
         <v>555</v>
@@ -14272,11 +14273,11 @@
       <c r="B290" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C290" s="3" t="s">
-        <v>82</v>
+      <c r="C290" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F290" s="14" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G290" s="1" t="s">
         <v>555</v>
@@ -14290,10 +14291,10 @@
         <v>4</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F291" s="14" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G291" s="1" t="s">
         <v>555</v>
@@ -14307,10 +14308,10 @@
         <v>4</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F292" s="14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G292" s="1" t="s">
         <v>555</v>
@@ -14324,10 +14325,10 @@
         <v>4</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>248</v>
+        <v>84</v>
       </c>
       <c r="F293" s="14" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G293" s="1" t="s">
         <v>555</v>
@@ -14341,10 +14342,10 @@
         <v>4</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>595</v>
+        <v>248</v>
       </c>
       <c r="F294" s="14" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="G294" s="1" t="s">
         <v>555</v>
@@ -14358,99 +14359,102 @@
         <v>4</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>291</v>
+        <v>595</v>
       </c>
       <c r="F295" s="14" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="G295" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
-      <c r="C299" s="2"/>
+    <row r="296" spans="1:7">
+      <c r="A296" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F296" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="300" spans="1:7">
       <c r="C300" s="2"/>
     </row>
-    <row r="302" spans="1:7" ht="27" thickBot="1">
-      <c r="A302" s="48" t="s">
+    <row r="301" spans="1:7">
+      <c r="C301" s="2"/>
+    </row>
+    <row r="303" spans="1:7" ht="27" thickBot="1">
+      <c r="A303" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="B302" s="48"/>
-      <c r="C302" s="48"/>
-      <c r="D302" s="48"/>
-      <c r="E302" s="48"/>
-      <c r="F302" s="49"/>
-    </row>
-    <row r="305" spans="1:7">
-      <c r="C305" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D305" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E305" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F305" s="14" t="s">
-        <v>294</v>
-      </c>
+      <c r="B303" s="54"/>
+      <c r="C303" s="54"/>
+      <c r="D303" s="54"/>
+      <c r="E303" s="54"/>
+      <c r="F303" s="55"/>
     </row>
     <row r="306" spans="1:7">
       <c r="C306" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F306" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="307" spans="1:7">
       <c r="C307" s="1" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F307" s="14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="308" spans="1:7">
       <c r="C308" s="1" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E308" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F308" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="C309" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E309" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F308" s="14" t="s">
+      <c r="F309" s="14" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7">
-      <c r="A309" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C309" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F309" s="14" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -14461,10 +14465,10 @@
         <v>4</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F310" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -14474,11 +14478,11 @@
       <c r="B311" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C311" s="4" t="s">
-        <v>118</v>
+      <c r="C311" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="F311" s="14" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -14489,10 +14493,10 @@
         <v>4</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="F312" s="14" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -14502,11 +14506,11 @@
       <c r="B313" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C313" s="3" t="s">
-        <v>119</v>
+      <c r="C313" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F313" s="14" t="s">
-        <v>322</v>
+        <v>140</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -14517,10 +14521,10 @@
         <v>4</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="F314" s="14" t="s">
-        <v>81</v>
+        <v>322</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -14531,10 +14535,10 @@
         <v>4</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="F315" s="14" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -14545,10 +14549,10 @@
         <v>4</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="F316" s="14" t="s">
-        <v>79</v>
+        <v>180</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -14559,10 +14563,10 @@
         <v>4</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F317" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -14573,38 +14577,35 @@
         <v>4</v>
       </c>
       <c r="C318" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F318" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C319" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F318" s="14" t="s">
+      <c r="F319" s="14" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
-      <c r="C319" s="1" t="s">
+    <row r="320" spans="1:7">
+      <c r="C320" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D319" s="1" t="s">
+      <c r="D320" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E319" s="1" t="s">
+      <c r="E320" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F319" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G319" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7">
-      <c r="A320" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C320" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="F320" s="14" t="s">
         <v>75</v>
@@ -14620,11 +14621,11 @@
       <c r="B321" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C321" s="3" t="s">
-        <v>177</v>
+      <c r="C321" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="F321" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G321" s="9" t="s">
         <v>555</v>
@@ -14638,10 +14639,10 @@
         <v>4</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F322" s="14" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="G322" s="9" t="s">
         <v>555</v>
@@ -14655,10 +14656,10 @@
         <v>4</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>563</v>
+        <v>178</v>
       </c>
       <c r="F323" s="14" t="s">
-        <v>571</v>
+        <v>142</v>
       </c>
       <c r="G323" s="9" t="s">
         <v>555</v>
@@ -14672,13 +14673,13 @@
         <v>4</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F324" s="14" t="s">
-        <v>395</v>
+        <v>571</v>
       </c>
       <c r="G324" s="9" t="s">
-        <v>303</v>
+        <v>555</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -14689,13 +14690,13 @@
         <v>4</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>221</v>
+        <v>564</v>
       </c>
       <c r="F325" s="14" t="s">
-        <v>323</v>
+        <v>395</v>
       </c>
       <c r="G325" s="9" t="s">
-        <v>591</v>
+        <v>303</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -14706,13 +14707,13 @@
         <v>4</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F326" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G326" s="9" t="s">
-        <v>303</v>
+        <v>591</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -14723,44 +14724,44 @@
         <v>4</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="F327" s="14" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="G327" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
-      <c r="C329" s="1" t="s">
+    <row r="328" spans="1:7">
+      <c r="A328" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F328" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G328" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="C330" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D329" s="1" t="s">
+      <c r="D330" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E329" s="1" t="s">
+      <c r="E330" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F329" s="14" t="s">
+      <c r="F330" s="14" t="s">
         <v>589</v>
-      </c>
-      <c r="G329" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7">
-      <c r="A330" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C330" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F330" s="14" t="s">
-        <v>75</v>
       </c>
       <c r="G330" s="1" t="s">
         <v>555</v>
@@ -14773,11 +14774,11 @@
       <c r="B331" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C331" s="3" t="s">
-        <v>147</v>
+      <c r="C331" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="F331" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G331" s="1" t="s">
         <v>555</v>
@@ -14791,10 +14792,10 @@
         <v>4</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F332" s="14" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="G332" s="1" t="s">
         <v>555</v>
@@ -14808,10 +14809,10 @@
         <v>4</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>563</v>
+        <v>148</v>
       </c>
       <c r="F333" s="14" t="s">
-        <v>570</v>
+        <v>142</v>
       </c>
       <c r="G333" s="1" t="s">
         <v>555</v>
@@ -14825,13 +14826,13 @@
         <v>4</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>594</v>
+        <v>563</v>
       </c>
       <c r="F334" s="14" t="s">
-        <v>395</v>
+        <v>570</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>303</v>
+        <v>555</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -14842,13 +14843,13 @@
         <v>4</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>222</v>
+        <v>594</v>
       </c>
       <c r="F335" s="14" t="s">
-        <v>323</v>
+        <v>395</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>591</v>
+        <v>303</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -14859,13 +14860,13 @@
         <v>4</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F336" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>303</v>
+        <v>591</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -14876,59 +14877,62 @@
         <v>4</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="F337" s="14" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="G337" s="1" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="338" spans="1:7">
-      <c r="C338" s="1" t="s">
-        <v>77</v>
+      <c r="A338" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="F338" s="14" t="s">
-        <v>561</v>
+        <v>251</v>
+      </c>
+      <c r="G338" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="339" spans="1:7">
       <c r="C339" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F339" s="14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="C340" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F339" s="14" t="s">
+      <c r="F340" s="14" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
-      <c r="C341" s="1" t="s">
+    <row r="342" spans="1:7">
+      <c r="C342" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F341" s="14" t="s">
+      <c r="F342" s="14" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
-      <c r="C344" s="1" t="s">
+    <row r="345" spans="1:7">
+      <c r="C345" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F344" s="14" t="s">
+      <c r="F345" s="14" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7">
-      <c r="A345" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C345" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F345" s="14" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -14939,10 +14943,10 @@
         <v>4</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="F346" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -14952,51 +14956,51 @@
       <c r="B347" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C347" s="9" t="s">
+      <c r="C347" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F347" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D347" s="9"/>
-      <c r="E347" s="9"/>
-      <c r="F347" s="16" t="s">
+      <c r="D348" s="9"/>
+      <c r="E348" s="9"/>
+      <c r="F348" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="27" thickBot="1">
-      <c r="A349" s="48" t="s">
+    <row r="350" spans="1:7" ht="27" thickBot="1">
+      <c r="A350" s="54" t="s">
         <v>434</v>
       </c>
-      <c r="B349" s="48"/>
-      <c r="C349" s="48"/>
-      <c r="D349" s="48"/>
-      <c r="E349" s="48"/>
-      <c r="F349" s="49"/>
-    </row>
-    <row r="350" spans="1:7">
-      <c r="C350" s="1" t="s">
+      <c r="B350" s="54"/>
+      <c r="C350" s="54"/>
+      <c r="D350" s="54"/>
+      <c r="E350" s="54"/>
+      <c r="F350" s="55"/>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="C351" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D350" s="1" t="s">
+      <c r="D351" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E350" s="1" t="s">
+      <c r="E351" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F350" s="14" t="s">
+      <c r="F351" s="14" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7">
-      <c r="A351" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C351" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F351" s="14" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -15006,11 +15010,11 @@
       <c r="B352" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C352" s="1" t="s">
-        <v>117</v>
+      <c r="C352" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="F352" s="14" t="s">
-        <v>326</v>
+        <v>116</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -15021,10 +15025,10 @@
         <v>4</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c r="F353" s="14" t="s">
-        <v>567</v>
+        <v>326</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -15035,10 +15039,10 @@
         <v>4</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F354" s="14" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -15049,10 +15053,10 @@
         <v>4</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F355" s="14" t="s">
-        <v>191</v>
+        <v>566</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -15063,10 +15067,10 @@
         <v>4</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F356" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -15077,38 +15081,38 @@
         <v>4</v>
       </c>
       <c r="C357" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F357" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C358" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="F357" s="14" t="s">
+      <c r="F358" s="14" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
-      <c r="C359" s="1" t="s">
+    <row r="360" spans="1:6">
+      <c r="C360" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D359" s="1" t="s">
+      <c r="D360" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E359" s="1" t="s">
+      <c r="E360" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F359" s="14" t="s">
+      <c r="F360" s="14" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6">
-      <c r="A360" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F360" s="14" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -15119,10 +15123,10 @@
         <v>4</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="F361" s="14" t="s">
-        <v>320</v>
+        <v>127</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -15133,10 +15137,10 @@
         <v>4</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F362" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -15146,11 +15150,11 @@
       <c r="B363" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C363" s="3" t="s">
-        <v>217</v>
+      <c r="C363" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="F363" s="14" t="s">
-        <v>219</v>
+        <v>321</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -15161,7 +15165,7 @@
         <v>4</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F364" s="14" t="s">
         <v>219</v>
@@ -15175,10 +15179,10 @@
         <v>4</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="F365" s="14" t="s">
-        <v>128</v>
+        <v>219</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -15189,10 +15193,10 @@
         <v>4</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F366" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -15203,10 +15207,10 @@
         <v>4</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="F367" s="14" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -15217,10 +15221,10 @@
         <v>4</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F368" s="14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -15231,10 +15235,10 @@
         <v>4</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F369" s="14" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -15245,118 +15249,118 @@
         <v>4</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="F370" s="14" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
-      <c r="C375" s="1" t="s">
+    <row r="371" spans="1:6">
+      <c r="A371" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F371" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="C376" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F375" s="14" t="s">
+      <c r="F376" s="14" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6">
-      <c r="C376" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F376" s="14" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="377" spans="1:6">
       <c r="C377" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F377" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="C378" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F377" s="14" t="s">
+      <c r="F378" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
-      <c r="C378" s="3" t="s">
+    <row r="379" spans="1:6">
+      <c r="C379" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F378" s="14" t="s">
+      <c r="F379" s="14" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
-      <c r="C379" s="3"/>
-    </row>
     <row r="380" spans="1:6">
-      <c r="C380" s="4" t="s">
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="C381" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F380" s="14" t="s">
+      <c r="F381" s="14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
-      <c r="C381" s="1" t="s">
+    <row r="382" spans="1:6">
+      <c r="C382" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F381" s="14" t="s">
+      <c r="F382" s="14" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6">
-      <c r="C383" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F383" s="14" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="384" spans="1:6">
       <c r="C384" s="1" t="s">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="F384" s="14" t="s">
-        <v>216</v>
+        <v>327</v>
       </c>
     </row>
     <row r="385" spans="1:6">
       <c r="C385" s="1" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="F385" s="14" t="s">
-        <v>327</v>
+        <v>216</v>
       </c>
     </row>
     <row r="386" spans="1:6">
       <c r="C386" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F386" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="387" spans="1:6">
       <c r="C387" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F387" s="14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="C388" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D387" s="1" t="s">
+      <c r="D388" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E387" s="1" t="s">
+      <c r="E388" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="F387" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6">
-      <c r="A388" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C388" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="F388" s="14" t="s">
         <v>138</v>
@@ -15369,11 +15373,11 @@
       <c r="B389" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C389" s="1" t="s">
-        <v>544</v>
+      <c r="C389" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="F389" s="14" t="s">
-        <v>284</v>
+        <v>138</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -15383,11 +15387,11 @@
       <c r="B390" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C390" s="3" t="s">
-        <v>545</v>
+      <c r="C390" s="1" t="s">
+        <v>544</v>
       </c>
       <c r="F390" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -15398,273 +15402,273 @@
         <v>4</v>
       </c>
       <c r="C391" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F391" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C392" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="F391" s="14" t="s">
+      <c r="F392" s="14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="27" thickBot="1">
-      <c r="A394" s="48" t="s">
+    <row r="395" spans="1:6" ht="27" thickBot="1">
+      <c r="A395" s="54" t="s">
         <v>262</v>
       </c>
-      <c r="B394" s="48"/>
-      <c r="C394" s="48"/>
-      <c r="D394" s="48"/>
-      <c r="E394" s="48"/>
-      <c r="F394" s="49"/>
-    </row>
-    <row r="395" spans="1:6">
-      <c r="C395" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D395" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E395" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F395" s="14" t="s">
-        <v>225</v>
-      </c>
+      <c r="B395" s="54"/>
+      <c r="C395" s="54"/>
+      <c r="D395" s="54"/>
+      <c r="E395" s="54"/>
+      <c r="F395" s="55"/>
     </row>
     <row r="396" spans="1:6">
       <c r="C396" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="F396" s="14" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="397" spans="1:6">
       <c r="C397" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F397" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="C398" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F398" s="14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="399" spans="1:6">
       <c r="C399" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F399" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="C400" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F400" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="401" spans="1:6">
       <c r="C401" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F401" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="402" spans="1:6">
       <c r="C402" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F402" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="403" spans="1:6">
       <c r="C403" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F403" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="C404" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F403" s="14" t="s">
+      <c r="F404" s="14" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
-      <c r="C404" s="3" t="s">
+    <row r="405" spans="1:6">
+      <c r="C405" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F404" s="14" t="s">
+      <c r="F405" s="14" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
-      <c r="C405" s="1" t="s">
+    <row r="406" spans="1:6">
+      <c r="C406" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F405" s="14" t="s">
+      <c r="F406" s="14" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6">
-      <c r="C407" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F407" s="14" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="408" spans="1:6">
       <c r="C408" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F408" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="409" spans="1:6">
       <c r="C409" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F409" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="410" spans="1:6">
       <c r="C410" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F410" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="C411" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F410" s="14" t="s">
+      <c r="F411" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
-      <c r="C412" s="1" t="s">
+    <row r="413" spans="1:6">
+      <c r="C413" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="27" thickBot="1">
-      <c r="A415" s="48" t="s">
+    <row r="416" spans="1:6" ht="27" thickBot="1">
+      <c r="A416" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="B415" s="48"/>
-      <c r="C415" s="48"/>
-      <c r="D415" s="48"/>
-      <c r="E415" s="48"/>
-      <c r="F415" s="49"/>
-    </row>
-    <row r="416" spans="1:6">
-      <c r="C416" s="1" t="s">
+      <c r="B416" s="54"/>
+      <c r="C416" s="54"/>
+      <c r="D416" s="54"/>
+      <c r="E416" s="54"/>
+      <c r="F416" s="55"/>
+    </row>
+    <row r="417" spans="1:6">
+      <c r="C417" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F416" s="14" t="s">
+      <c r="F417" s="14" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
-      <c r="C417" s="25"/>
-      <c r="D417" s="25"/>
-      <c r="E417" s="25"/>
-      <c r="F417" s="27"/>
-    </row>
     <row r="418" spans="1:6">
-      <c r="C418" s="13" t="s">
+      <c r="C418" s="25"/>
+      <c r="D418" s="25"/>
+      <c r="E418" s="25"/>
+      <c r="F418" s="27"/>
+    </row>
+    <row r="419" spans="1:6">
+      <c r="C419" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="D418" s="13" t="s">
+      <c r="D419" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E418" s="13" t="s">
+      <c r="E419" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F418" s="21" t="s">
+      <c r="F419" s="21" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
-      <c r="A419" s="1" t="s">
+    <row r="420" spans="1:6">
+      <c r="A420" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B419" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C419" s="3" t="s">
+      <c r="B420" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C420" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F419" s="14" t="s">
+      <c r="F420" s="14" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
-      <c r="C421" s="13" t="s">
+    <row r="422" spans="1:6">
+      <c r="C422" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="D421" s="13" t="s">
+      <c r="D422" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E421" s="13" t="s">
+      <c r="E422" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F421" s="15" t="s">
+      <c r="F422" s="15" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
-      <c r="A422" s="1" t="s">
+    <row r="423" spans="1:6">
+      <c r="A423" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B422" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C422" s="8" t="s">
+      <c r="B423" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C423" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="F422" s="14" t="s">
+      <c r="F423" s="14" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="424" spans="1:6">
-      <c r="C424" s="1" t="s">
+    <row r="425" spans="1:6">
+      <c r="C425" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D424" s="1" t="s">
+      <c r="D425" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E424" s="1" t="s">
+      <c r="E425" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F424" s="22" t="s">
+      <c r="F425" s="22" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="425" spans="1:6">
-      <c r="C425" s="13" t="s">
+    <row r="426" spans="1:6">
+      <c r="C426" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="D425" s="13" t="s">
+      <c r="D426" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E425" s="13" t="s">
+      <c r="E426" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="F425" s="21" t="s">
+      <c r="F426" s="21" t="s">
         <v>531</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6">
-      <c r="A426" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B426" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C426" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="F426" s="14" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -15674,11 +15678,11 @@
       <c r="B427" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C427" s="2" t="s">
-        <v>276</v>
+      <c r="C427" s="10" t="s">
+        <v>275</v>
       </c>
       <c r="F427" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -15688,11 +15692,11 @@
       <c r="B428" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C428" s="12" t="s">
-        <v>283</v>
+      <c r="C428" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="F428" s="14" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -15703,10 +15707,10 @@
         <v>4</v>
       </c>
       <c r="C429" s="12" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F429" s="14" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -15717,10 +15721,10 @@
         <v>4</v>
       </c>
       <c r="C430" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F430" s="14" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -15730,11 +15734,11 @@
       <c r="B431" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C431" s="8" t="s">
-        <v>541</v>
+      <c r="C431" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="F431" s="14" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -15745,10 +15749,10 @@
         <v>4</v>
       </c>
       <c r="C432" s="8" t="s">
-        <v>279</v>
+        <v>541</v>
       </c>
       <c r="F432" s="14" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -15759,10 +15763,10 @@
         <v>4</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F433" s="14" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -15773,41 +15777,41 @@
         <v>4</v>
       </c>
       <c r="C434" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F434" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7">
+      <c r="A435" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C435" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="F434" s="14" t="s">
+      <c r="F435" s="14" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
-      <c r="C435" s="8"/>
-    </row>
     <row r="436" spans="1:7">
-      <c r="C436" s="24" t="s">
+      <c r="C436" s="8"/>
+    </row>
+    <row r="437" spans="1:7">
+      <c r="C437" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D436" s="13" t="s">
+      <c r="D437" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E436" s="13" t="s">
+      <c r="E437" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="F436" s="21" t="s">
+      <c r="F437" s="21" t="s">
         <v>547</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7">
-      <c r="A437" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C437" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F437" s="14" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -15818,10 +15822,10 @@
         <v>4</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F438" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -15832,14 +15836,25 @@
         <v>4</v>
       </c>
       <c r="C439" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F439" s="14" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7">
+      <c r="A440" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C440" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F439" s="14" t="s">
+      <c r="F440" s="14" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="441" spans="1:7">
-      <c r="G441" s="29"/>
     </row>
     <row r="442" spans="1:7">
       <c r="G442" s="29"/>
@@ -15850,21 +15865,24 @@
     <row r="444" spans="1:7">
       <c r="G444" s="29"/>
     </row>
+    <row r="445" spans="1:7">
+      <c r="G445" s="29"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A416:F416"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A394:F394"/>
-    <mergeCell ref="A349:F349"/>
-    <mergeCell ref="A302:F302"/>
-    <mergeCell ref="A240:F240"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A194:F194"/>
-    <mergeCell ref="A415:F415"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A395:F395"/>
+    <mergeCell ref="A350:F350"/>
+    <mergeCell ref="A303:F303"/>
+    <mergeCell ref="A241:F241"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A195:F195"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
@@ -15873,6 +15891,7 @@
     <hyperlink ref="C55" r:id="rId3" xr:uid="{CEA14D0A-87C8-274A-9647-A0DB1ECDC68C}"/>
     <hyperlink ref="C59" r:id="rId4" xr:uid="{FFF8DE63-7BA6-4A43-A6EA-14148CA232CF}"/>
     <hyperlink ref="C62" r:id="rId5" location="create-a-personal-access-token" xr:uid="{AB8032BB-3EF1-9149-805A-CEDF3BF2A5E6}"/>
+    <hyperlink ref="C66" r:id="rId6" display="support.atlassian.com/bitbucket-cloud/docs/app-passwords/" xr:uid="{0D1DAC2D-DDAE-F243-A72B-95B42754AAB1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/git-terminal-commands.xlsx
+++ b/git-terminal-commands.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Goofy/GIT/steves-git-shortcuts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3AF568-FC71-A442-A2E7-593669643A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D255D9-1093-5E4C-923F-2D5DD4FB27CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12980" yWindow="460" windowWidth="34960" windowHeight="28340" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
+    <workbookView xWindow="13000" yWindow="460" windowWidth="34960" windowHeight="28340" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$97:$F$392</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$98:$F$393</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="662">
   <si>
     <t>Configuration</t>
   </si>
@@ -10268,13 +10268,87 @@
   </si>
   <si>
     <t>The next time you interact with a repo a AP will be required instead of the account password</t>
+  </si>
+  <si>
+    <r>
+      <t>alias.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Italic"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Menlo Italic"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Italic"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Menlo Italic"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Define an alternate term (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Bold Italic"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>) for a command (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Bold Italic"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="53">
+  <fonts count="54">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -10583,6 +10657,10 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Menlo Italic"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -10714,15 +10792,15 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" xr:uid="{ACEF5201-9FF9-AD44-AA4C-60ABCDBD9D8F}"/>
@@ -11041,10 +11119,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G445"/>
+  <dimension ref="A1:G446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="33" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="33" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11121,14 +11199,14 @@
       <c r="A8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="27" thickBot="1">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="58"/>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="1" t="s">
@@ -11150,14 +11228,14 @@
       <c r="A12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="27" thickBot="1">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="55"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="1" t="s">
@@ -11267,10 +11345,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>495</v>
+        <v>660</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>496</v>
+        <v>661</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -11281,10 +11359,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>495</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>409</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -11295,10 +11373,10 @@
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -11309,10 +11387,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>530</v>
+        <v>196</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>604</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -11322,11 +11400,11 @@
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>7</v>
+      <c r="C25" s="1" t="s">
+        <v>530</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>411</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -11336,11 +11414,11 @@
       <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>41</v>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -11350,730 +11428,730 @@
       <c r="B27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F28" s="14" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="C28" s="1" t="s">
+    <row r="29" spans="1:6">
+      <c r="C29" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F29" s="14" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17">
-      <c r="A29" s="33" t="s">
+    <row r="30" spans="1:6" ht="17">
+      <c r="A30" s="33" t="s">
         <v>611</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F30" s="14" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="33"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="33"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="21" t="s">
-        <v>613</v>
-      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="33"/>
-      <c r="C32" s="35" t="s">
-        <v>614</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>615</v>
+      <c r="C32" s="34"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="21" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="33"/>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" ht="20" thickBot="1">
+      <c r="C33" s="35" t="s">
+        <v>614</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="33"/>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" ht="20" thickBot="1">
+      <c r="A35" s="33"/>
+      <c r="C35" s="36" t="s">
         <v>616</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="33"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="21" t="s">
-        <v>617</v>
-      </c>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="38"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="33"/>
-      <c r="C36" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>619</v>
+      <c r="C36" s="34"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="21" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="33"/>
-      <c r="C37" s="39" t="s">
-        <v>620</v>
+      <c r="C37" s="4" t="s">
+        <v>618</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="33"/>
-      <c r="C38" s="40"/>
-      <c r="F38" s="22"/>
+      <c r="C38" s="39" t="s">
+        <v>620</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="33"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="21" t="s">
-        <v>622</v>
-      </c>
+      <c r="C39" s="40"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="33"/>
-      <c r="C40" s="41" t="s">
-        <v>623</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>624</v>
+      <c r="C40" s="34"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="21" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="33"/>
-      <c r="C41" s="4" t="s">
-        <v>625</v>
+      <c r="C41" s="41" t="s">
+        <v>623</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="33"/>
       <c r="C42" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="33"/>
+      <c r="C43" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F43" s="14" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="40">
-      <c r="A43" s="33"/>
-      <c r="C43" s="39" t="s">
+    <row r="44" spans="1:6" ht="40">
+      <c r="A44" s="33"/>
+      <c r="C44" s="39" t="s">
         <v>629</v>
       </c>
-      <c r="F43" s="42" t="s">
+      <c r="F44" s="42" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="33"/>
-      <c r="C44" s="39"/>
-      <c r="F44" s="42"/>
-    </row>
-    <row r="45" spans="1:6" ht="20" thickBot="1">
+    <row r="45" spans="1:6">
       <c r="A45" s="33"/>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="39"/>
+      <c r="F45" s="42"/>
+    </row>
+    <row r="46" spans="1:6" ht="20" thickBot="1">
+      <c r="A46" s="33"/>
+      <c r="C46" s="55" t="s">
         <v>631</v>
       </c>
-      <c r="D45" s="57"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="43"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="33"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="46" t="s">
-        <v>632</v>
-      </c>
+      <c r="D46" s="56"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="43"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="33"/>
-      <c r="C47" s="41" t="s">
-        <v>623</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>624</v>
+      <c r="C47" s="44"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="46" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="33"/>
-      <c r="C48" s="4" t="s">
-        <v>633</v>
+      <c r="C48" s="41" t="s">
+        <v>623</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="33"/>
       <c r="C49" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="33"/>
+      <c r="C50" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F50" s="14" t="s">
         <v>635</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="40">
-      <c r="A50" s="33"/>
-      <c r="C50" s="39" t="s">
-        <v>636</v>
-      </c>
-      <c r="F50" s="42" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="40">
       <c r="A51" s="33"/>
       <c r="C51" s="39" t="s">
+        <v>636</v>
+      </c>
+      <c r="F51" s="42" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="40">
+      <c r="A52" s="33"/>
+      <c r="C52" s="39" t="s">
         <v>638</v>
       </c>
-      <c r="F51" s="42" t="s">
+      <c r="F52" s="42" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="33"/>
-      <c r="C52" s="39"/>
-      <c r="F52" s="42"/>
-    </row>
-    <row r="53" spans="1:6" ht="20" thickBot="1">
+    <row r="53" spans="1:6">
       <c r="A53" s="33"/>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="39"/>
+      <c r="F53" s="42"/>
+    </row>
+    <row r="54" spans="1:6" ht="20" thickBot="1">
+      <c r="A54" s="33"/>
+      <c r="C54" s="36" t="s">
         <v>640</v>
       </c>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="43"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="33"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="21" t="s">
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="43"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="33"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="21" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="27">
-      <c r="A55" s="33"/>
-      <c r="C55" s="51" t="s">
+    <row r="56" spans="1:6" ht="27">
+      <c r="A56" s="33"/>
+      <c r="C56" s="51" t="s">
         <v>641</v>
       </c>
-      <c r="F55" s="47" t="s">
+      <c r="F56" s="47" t="s">
         <v>648</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="33"/>
-      <c r="C56" s="39" t="s">
-        <v>642</v>
-      </c>
-      <c r="F56" s="42" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="33"/>
       <c r="C57" s="39" t="s">
+        <v>642</v>
+      </c>
+      <c r="F57" s="42" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="33"/>
+      <c r="C58" s="39" t="s">
         <v>644</v>
       </c>
-      <c r="F57" s="42" t="s">
+      <c r="F58" s="42" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="26">
-      <c r="A58" s="33"/>
-      <c r="C58" s="50" t="s">
+    <row r="59" spans="1:6" ht="26">
+      <c r="A59" s="33"/>
+      <c r="C59" s="50" t="s">
         <v>646</v>
       </c>
-      <c r="F58" s="49" t="s">
+      <c r="F59" s="49" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="40">
-      <c r="A59" s="33"/>
-      <c r="C59" s="41" t="s">
+    <row r="60" spans="1:6" ht="40">
+      <c r="A60" s="33"/>
+      <c r="C60" s="41" t="s">
         <v>647</v>
       </c>
-      <c r="F59" s="47" t="s">
+      <c r="F60" s="47" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="33"/>
-      <c r="C60" s="41"/>
-      <c r="F60" s="47"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="33"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="21" t="s">
+      <c r="C61" s="41"/>
+      <c r="F61" s="47"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="33"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="21" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="27">
-      <c r="A62" s="33"/>
-      <c r="C62" s="48" t="s">
+    <row r="63" spans="1:6" ht="27">
+      <c r="A63" s="33"/>
+      <c r="C63" s="48" t="s">
         <v>651</v>
       </c>
-      <c r="F62" s="47" t="s">
+      <c r="F63" s="47" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="26">
-      <c r="A63" s="33"/>
-      <c r="C63" s="50" t="s">
+    <row r="64" spans="1:6" ht="26">
+      <c r="A64" s="33"/>
+      <c r="C64" s="50" t="s">
         <v>646</v>
       </c>
-      <c r="F63" s="49" t="s">
+      <c r="F64" s="49" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="33"/>
-      <c r="C64" s="50"/>
-      <c r="F64" s="49"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="33"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="21" t="s">
+      <c r="C65" s="50"/>
+      <c r="F65" s="49"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="33"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="21" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="27">
-      <c r="A66" s="33"/>
-      <c r="C66" s="58" t="s">
+    <row r="67" spans="1:6" ht="27">
+      <c r="A67" s="33"/>
+      <c r="C67" s="52" t="s">
         <v>657</v>
       </c>
-      <c r="F66" s="47" t="s">
+      <c r="F67" s="47" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="26">
-      <c r="A67" s="33"/>
-      <c r="C67" s="50" t="s">
+    <row r="68" spans="1:6" ht="26">
+      <c r="A68" s="33"/>
+      <c r="C68" s="50" t="s">
         <v>646</v>
       </c>
-      <c r="F67" s="49" t="s">
+      <c r="F68" s="49" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="33"/>
-      <c r="C68" s="50"/>
-      <c r="F68" s="49"/>
-    </row>
-    <row r="69" spans="1:6" ht="27" thickBot="1">
-      <c r="A69" s="54" t="s">
+    <row r="69" spans="1:6">
+      <c r="A69" s="33"/>
+      <c r="C69" s="50"/>
+      <c r="F69" s="49"/>
+    </row>
+    <row r="70" spans="1:6" ht="27" thickBot="1">
+      <c r="A70" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="54"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="55"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="C70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>442</v>
-      </c>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="54"/>
     </row>
     <row r="71" spans="1:6">
       <c r="C71" s="1" t="s">
-        <v>156</v>
+        <v>9</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="C72" s="1" t="s">
-        <v>552</v>
+        <v>156</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="C73" s="1" t="s">
-        <v>155</v>
+        <v>552</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="C74" s="1" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="C75" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="C76" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="C77" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="C78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="C79" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F78" s="14" t="s">
+      <c r="F79" s="14" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="17">
-      <c r="C79" s="9" t="s">
+    <row r="80" spans="1:6" ht="17">
+      <c r="C80" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="F79" s="14" t="s">
+      <c r="F80" s="14" t="s">
         <v>450</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="C80" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="C81" s="1" t="s">
-        <v>456</v>
+        <v>51</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="C82" s="1" t="s">
-        <v>65</v>
+        <v>456</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="C83" s="1" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="C84" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="C85" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F84" s="14" t="s">
+      <c r="F85" s="14" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="20"/>
-    </row>
-    <row r="86" spans="1:6" ht="27" thickBot="1">
-      <c r="A86" s="54" t="s">
+    <row r="86" spans="1:6">
+      <c r="A86" s="20"/>
+    </row>
+    <row r="87" spans="1:6" ht="27" thickBot="1">
+      <c r="A87" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B86" s="54"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="55"/>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="C87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F87" s="14" t="s">
-        <v>457</v>
-      </c>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="54"/>
     </row>
     <row r="88" spans="1:6">
       <c r="C88" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="C89" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="C90" s="1" t="s">
-        <v>301</v>
+        <v>19</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="C91" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="C92" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="C93" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="C94" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="C95" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F94" s="14" t="s">
+      <c r="F95" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="C95" s="3" t="s">
+    <row r="96" spans="1:6">
+      <c r="C96" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F95" s="14" t="s">
+      <c r="F96" s="14" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="27" thickBot="1">
-      <c r="A97" s="54" t="s">
+    <row r="98" spans="1:6" ht="27" thickBot="1">
+      <c r="A98" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B97" s="54"/>
-      <c r="C97" s="54"/>
-      <c r="D97" s="54"/>
-      <c r="E97" s="54"/>
-      <c r="F97" s="54"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="C98" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F98" s="14" t="s">
-        <v>329</v>
-      </c>
+      <c r="B98" s="53"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="53"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="53"/>
     </row>
     <row r="99" spans="1:6">
       <c r="C99" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="C100" s="1" t="s">
-        <v>182</v>
+        <v>33</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="C101" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="C102" s="1" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="C103" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="C104" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="C105" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="C106" s="1" t="s">
-        <v>246</v>
+        <v>97</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="C107" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="C108" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F107" s="14" t="s">
+      <c r="F108" s="14" t="s">
         <v>338</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="C108" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="F108" s="14" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="C109" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="C110" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="F109" s="14" t="s">
+      <c r="F110" s="14" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="C110" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F110" s="14" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="C111" s="1" t="s">
-        <v>65</v>
+        <v>215</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="C112" s="1" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="C113" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="C114" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F113" s="14" t="s">
+      <c r="F114" s="14" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
-      <c r="C115" s="13" t="s">
+    <row r="116" spans="1:6">
+      <c r="C116" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="D115" s="13" t="s">
+      <c r="D116" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E115" s="13" t="s">
+      <c r="E116" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="F115" s="21" t="s">
+      <c r="F116" s="21" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F116" s="14" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -12084,7 +12162,7 @@
         <v>4</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F117" s="14" t="s">
         <v>346</v>
@@ -12098,7 +12176,7 @@
         <v>4</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F118" s="14" t="s">
         <v>346</v>
@@ -12112,10 +12190,10 @@
         <v>4</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -12126,10 +12204,10 @@
         <v>4</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>252</v>
+        <v>161</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -12140,38 +12218,38 @@
         <v>4</v>
       </c>
       <c r="C121" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F121" s="14" t="s">
+      <c r="F122" s="14" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
-      <c r="C123" s="13" t="s">
+    <row r="124" spans="1:6">
+      <c r="C124" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="D123" s="13" t="s">
+      <c r="D124" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E123" s="13" t="s">
+      <c r="E124" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F123" s="21" t="s">
+      <c r="F124" s="21" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F124" s="14" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -12182,10 +12260,10 @@
         <v>4</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>292</v>
+        <v>64</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -12196,10 +12274,10 @@
         <v>4</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>63</v>
+        <v>292</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -12210,10 +12288,10 @@
         <v>4</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>293</v>
+        <v>63</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -12224,10 +12302,10 @@
         <v>4</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>159</v>
+        <v>293</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -12238,59 +12316,59 @@
         <v>4</v>
       </c>
       <c r="C129" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F129" s="14" t="s">
+      <c r="F130" s="14" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
-      <c r="C130" s="3"/>
-    </row>
-    <row r="131" spans="1:6" ht="27" thickBot="1">
-      <c r="A131" s="54" t="s">
+    <row r="131" spans="1:6">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="1:6" ht="27" thickBot="1">
+      <c r="A132" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B131" s="54"/>
-      <c r="C131" s="54"/>
-      <c r="D131" s="54"/>
-      <c r="E131" s="54"/>
-      <c r="F131" s="55"/>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="C132" s="1" t="s">
+      <c r="B132" s="53"/>
+      <c r="C132" s="53"/>
+      <c r="D132" s="53"/>
+      <c r="E132" s="53"/>
+      <c r="F132" s="54"/>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="C133" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F132" s="14" t="s">
+      <c r="F133" s="14" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
-      <c r="C134" s="13" t="s">
+    <row r="135" spans="1:6">
+      <c r="C135" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="D134" s="13" t="s">
+      <c r="D135" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E134" s="13" t="s">
+      <c r="E135" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F134" s="15" t="s">
+      <c r="F135" s="15" t="s">
         <v>353</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F135" s="14" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -12301,10 +12379,10 @@
         <v>4</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F136" s="31" t="s">
-        <v>590</v>
+        <v>248</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -12315,10 +12393,10 @@
         <v>4</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F137" s="14" t="s">
-        <v>355</v>
+        <v>185</v>
+      </c>
+      <c r="F137" s="31" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -12329,10 +12407,10 @@
         <v>4</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -12343,29 +12421,29 @@
         <v>4</v>
       </c>
       <c r="C139" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F139" s="14" t="s">
+      <c r="F140" s="14" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
-      <c r="C140" s="6" t="s">
+    <row r="141" spans="1:6">
+      <c r="C141" s="6" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F141" s="14" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -12376,10 +12454,10 @@
         <v>4</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -12390,10 +12468,10 @@
         <v>4</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -12404,10 +12482,10 @@
         <v>4</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -12418,10 +12496,10 @@
         <v>4</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>468</v>
+        <v>61</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -12432,10 +12510,10 @@
         <v>4</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>59</v>
+        <v>468</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -12446,10 +12524,10 @@
         <v>4</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -12460,10 +12538,10 @@
         <v>4</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -12474,10 +12552,10 @@
         <v>4</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -12488,10 +12566,10 @@
         <v>4</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -12501,11 +12579,11 @@
       <c r="B151" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C151" s="5" t="s">
-        <v>66</v>
+      <c r="C151" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -12516,29 +12594,29 @@
         <v>4</v>
       </c>
       <c r="C152" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F152" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F152" s="14" t="s">
+      <c r="F153" s="14" t="s">
         <v>391</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="C154" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F154" s="22" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="C155" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>5</v>
@@ -12546,78 +12624,78 @@
       <c r="E155" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F155" s="14" t="s">
-        <v>418</v>
+      <c r="F155" s="22" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="C156" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="C157" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F157" s="22" t="s">
-        <v>414</v>
+        <v>38</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="C158" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E158" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F158" s="22" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="C159" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F158" s="14" t="s">
+      <c r="F159" s="14" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
-      <c r="C159" s="13" t="s">
+    <row r="160" spans="1:6">
+      <c r="C160" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D159" s="13" t="s">
+      <c r="D160" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E159" s="13" t="s">
+      <c r="E160" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F159" s="15" t="s">
+      <c r="F160" s="15" t="s">
         <v>420</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F160" s="14" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -12627,11 +12705,11 @@
       <c r="B161" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>87</v>
+      <c r="C161" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -12642,10 +12720,10 @@
         <v>4</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>416</v>
+        <v>87</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -12655,11 +12733,11 @@
       <c r="B163" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C163" s="4" t="s">
-        <v>88</v>
+      <c r="C163" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>471</v>
+        <v>415</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -12669,11 +12747,11 @@
       <c r="B164" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>89</v>
+      <c r="C164" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -12684,10 +12762,10 @@
         <v>4</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>417</v>
+        <v>89</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -12698,10 +12776,10 @@
         <v>4</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>90</v>
+        <v>417</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -12711,11 +12789,11 @@
       <c r="B167" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>91</v>
+      <c r="C167" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -12725,11 +12803,11 @@
       <c r="B168" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>481</v>
+      <c r="C168" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -12740,10 +12818,10 @@
         <v>4</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>92</v>
+        <v>481</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -12754,10 +12832,10 @@
         <v>4</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F170" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -12768,10 +12846,10 @@
         <v>4</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F171" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -12782,10 +12860,10 @@
         <v>4</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -12796,10 +12874,10 @@
         <v>4</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>482</v>
+        <v>95</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -12810,10 +12888,10 @@
         <v>4</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F174" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -12823,11 +12901,11 @@
       <c r="B175" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C175" s="4" t="s">
-        <v>207</v>
+      <c r="C175" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="F175" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -12838,10 +12916,10 @@
         <v>4</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F176" s="14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -12851,39 +12929,39 @@
       <c r="B177" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F177" s="14" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F177" s="14" t="s">
+      <c r="F178" s="14" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
-      <c r="C179" s="13" t="s">
+    <row r="180" spans="1:6">
+      <c r="C180" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="D179" s="13" t="s">
+      <c r="D180" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E179" s="13" t="s">
+      <c r="E180" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="F179" s="21" t="s">
+      <c r="F180" s="21" t="s">
         <v>426</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="F180" s="14" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -12894,10 +12972,10 @@
         <v>4</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F181" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -12908,10 +12986,10 @@
         <v>4</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>316</v>
+        <v>432</v>
       </c>
       <c r="F182" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -12922,66 +13000,66 @@
         <v>4</v>
       </c>
       <c r="C183" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F183" s="14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="F183" s="14" t="s">
+      <c r="F184" s="14" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
-      <c r="C185" s="8" t="s">
+    <row r="186" spans="1:6">
+      <c r="C186" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E185" s="1" t="s">
+      <c r="E186" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F185" s="22" t="s">
+      <c r="F186" s="22" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
-      <c r="C186" s="26" t="s">
+    <row r="187" spans="1:6">
+      <c r="C187" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="D186" s="25" t="s">
+      <c r="D187" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E186" s="25" t="s">
+      <c r="E187" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F186" s="27" t="s">
+      <c r="F187" s="27" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
-      <c r="C187" s="8" t="s">
+    <row r="188" spans="1:6">
+      <c r="C188" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E187" s="1" t="s">
+      <c r="E188" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F187" s="22" t="s">
+      <c r="F188" s="22" t="s">
         <v>497</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C188" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="F188" s="14" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -12992,10 +13070,10 @@
         <v>4</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F189" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -13005,11 +13083,11 @@
       <c r="B190" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C190" s="5" t="s">
-        <v>308</v>
+      <c r="C190" s="12" t="s">
+        <v>307</v>
       </c>
       <c r="F190" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -13020,10 +13098,10 @@
         <v>4</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F191" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -13034,10 +13112,10 @@
         <v>4</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F192" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -13048,62 +13126,62 @@
         <v>4</v>
       </c>
       <c r="C193" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F193" s="14" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="F193" s="14" t="s">
+      <c r="F194" s="14" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
-      <c r="C194" s="3"/>
-    </row>
-    <row r="195" spans="1:6" ht="27" thickBot="1">
-      <c r="A195" s="54" t="s">
+    <row r="195" spans="1:6">
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="1:6" ht="27" thickBot="1">
+      <c r="A196" s="53" t="s">
         <v>433</v>
       </c>
-      <c r="B195" s="54"/>
-      <c r="C195" s="54"/>
-      <c r="D195" s="54"/>
-      <c r="E195" s="54"/>
-      <c r="F195" s="54"/>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="C196" s="8" t="s">
+      <c r="B196" s="53"/>
+      <c r="C196" s="53"/>
+      <c r="D196" s="53"/>
+      <c r="E196" s="53"/>
+      <c r="F196" s="53"/>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="C197" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="F196" s="28" t="s">
+      <c r="F197" s="28" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
-      <c r="F197" s="1"/>
-    </row>
     <row r="198" spans="1:6">
-      <c r="C198" s="13" t="s">
+      <c r="F198" s="1"/>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="C199" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D198" s="13" t="s">
+      <c r="D199" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E198" s="13" t="s">
+      <c r="E199" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F198" s="21" t="s">
+      <c r="F199" s="21" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="F199" s="14" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -13114,47 +13192,41 @@
         <v>4</v>
       </c>
       <c r="C200" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F200" s="14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="F200" s="14" t="s">
+      <c r="F201" s="14" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
-      <c r="F201" s="1"/>
-    </row>
     <row r="202" spans="1:6">
-      <c r="C202" s="24" t="s">
+      <c r="F202" s="1"/>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="C203" s="24" t="s">
         <v>421</v>
       </c>
-      <c r="D202" s="13" t="s">
+      <c r="D203" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E202" s="13" t="s">
+      <c r="E203" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="F202" s="21" t="s">
+      <c r="F203" s="21" t="s">
         <v>521</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C203" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="F203" s="14" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -13165,7 +13237,7 @@
         <v>4</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>5</v>
@@ -13174,7 +13246,7 @@
         <v>513</v>
       </c>
       <c r="F204" s="14" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -13184,8 +13256,8 @@
       <c r="B205" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C205" s="11" t="s">
-        <v>269</v>
+      <c r="C205" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>5</v>
@@ -13194,7 +13266,7 @@
         <v>513</v>
       </c>
       <c r="F205" s="14" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -13205,7 +13277,7 @@
         <v>4</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>514</v>
+        <v>269</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>5</v>
@@ -13214,7 +13286,7 @@
         <v>513</v>
       </c>
       <c r="F206" s="14" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -13224,8 +13296,8 @@
       <c r="B207" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C207" s="8" t="s">
-        <v>267</v>
+      <c r="C207" s="11" t="s">
+        <v>514</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>5</v>
@@ -13234,7 +13306,7 @@
         <v>513</v>
       </c>
       <c r="F207" s="14" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -13244,31 +13316,37 @@
       <c r="B208" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C208" s="24" t="s">
-        <v>515</v>
-      </c>
-      <c r="D208" s="13" t="s">
+      <c r="C208" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D208" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E208" s="13" t="s">
+      <c r="E208" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="F208" s="15" t="s">
-        <v>516</v>
+      <c r="F208" s="14" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C209" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="D209" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E209" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C209" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="F209" s="14" t="s">
-        <v>518</v>
+      <c r="F209" s="15" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -13279,41 +13357,41 @@
         <v>4</v>
       </c>
       <c r="C210" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="F210" s="14" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C211" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="F210" s="14" t="s">
+      <c r="F211" s="14" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
-      <c r="C211" s="8"/>
-    </row>
     <row r="212" spans="1:6">
-      <c r="C212" s="13" t="s">
+      <c r="C212" s="8"/>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="C213" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="D212" s="13" t="s">
+      <c r="D213" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E212" s="13" t="s">
+      <c r="E213" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F212" s="21" t="s">
+      <c r="F213" s="21" t="s">
         <v>427</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C213" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="F213" s="14" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -13324,10 +13402,10 @@
         <v>4</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F214" s="14" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -13337,11 +13415,11 @@
       <c r="B215" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C215" s="8" t="s">
-        <v>273</v>
+      <c r="C215" s="11" t="s">
+        <v>429</v>
       </c>
       <c r="F215" s="14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -13352,38 +13430,38 @@
         <v>4</v>
       </c>
       <c r="C216" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F216" s="14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C217" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="F216" s="14" t="s">
+      <c r="F217" s="14" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
-      <c r="C218" s="13" t="s">
+    <row r="219" spans="1:6">
+      <c r="C219" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="D218" s="13" t="s">
+      <c r="D219" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E218" s="13" t="s">
+      <c r="E219" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F218" s="21" t="s">
+      <c r="F219" s="21" t="s">
         <v>380</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F219" s="14" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -13394,10 +13472,10 @@
         <v>4</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F220" s="14" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -13408,10 +13486,10 @@
         <v>4</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F221" s="14" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -13422,10 +13500,10 @@
         <v>4</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F222" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -13436,10 +13514,10 @@
         <v>4</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>249</v>
+        <v>104</v>
       </c>
       <c r="F223" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -13450,10 +13528,10 @@
         <v>4</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>105</v>
+        <v>249</v>
       </c>
       <c r="F224" s="14" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -13464,10 +13542,10 @@
         <v>4</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F225" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -13478,10 +13556,10 @@
         <v>4</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F226" s="14" t="s">
-        <v>525</v>
+        <v>394</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -13492,10 +13570,10 @@
         <v>4</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F227" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -13505,11 +13583,11 @@
       <c r="B228" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C228" s="7" t="s">
-        <v>109</v>
+      <c r="C228" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="F228" s="14" t="s">
-        <v>363</v>
+        <v>526</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -13519,41 +13597,41 @@
       <c r="B229" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C229" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F229" s="14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F229" s="14" t="s">
+      <c r="F230" s="14" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
-      <c r="C230" s="8"/>
-    </row>
     <row r="231" spans="1:6">
-      <c r="C231" s="24" t="s">
+      <c r="C231" s="8"/>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="C232" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="D231" s="13" t="s">
+      <c r="D232" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E231" s="13" t="s">
+      <c r="E232" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="F231" s="15"/>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C232" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="F232" s="14" t="s">
-        <v>396</v>
-      </c>
+      <c r="F232" s="15"/>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="1" t="s">
@@ -13562,11 +13640,11 @@
       <c r="B233" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C233" s="3" t="s">
-        <v>203</v>
+      <c r="C233" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="F233" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -13577,7 +13655,7 @@
         <v>4</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F234" s="14" t="s">
         <v>397</v>
@@ -13591,10 +13669,10 @@
         <v>4</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F235" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -13604,31 +13682,31 @@
       <c r="B236" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C236" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="D236" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E236" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="F236" s="15" t="s">
-        <v>365</v>
+      <c r="C236" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F236" s="14" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C237" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D237" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E237" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="B237" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F237" s="14" t="s">
-        <v>399</v>
+      <c r="F237" s="15" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -13638,11 +13716,11 @@
       <c r="B238" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C238" s="3" t="s">
-        <v>205</v>
+      <c r="C238" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="F238" s="14" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -13653,39 +13731,42 @@
         <v>4</v>
       </c>
       <c r="C239" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F239" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F239" s="14" t="s">
+      <c r="F240" s="14" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="27" thickBot="1">
-      <c r="A241" s="54" t="s">
+    <row r="242" spans="1:7" ht="27" thickBot="1">
+      <c r="A242" s="53" t="s">
         <v>593</v>
       </c>
-      <c r="B241" s="54"/>
-      <c r="C241" s="54"/>
-      <c r="D241" s="54"/>
-      <c r="E241" s="54"/>
-      <c r="F241" s="55"/>
-    </row>
-    <row r="242" spans="1:7">
-      <c r="C242" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F242" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="G242" t="s">
-        <v>555</v>
-      </c>
+      <c r="B242" s="53"/>
+      <c r="C242" s="53"/>
+      <c r="D242" s="53"/>
+      <c r="E242" s="53"/>
+      <c r="F242" s="54"/>
     </row>
     <row r="243" spans="1:7">
       <c r="C243" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F243" s="14" t="s">
-        <v>329</v>
+        <v>565</v>
       </c>
       <c r="G243" t="s">
         <v>555</v>
@@ -13693,10 +13774,10 @@
     </row>
     <row r="244" spans="1:7">
       <c r="C244" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F244" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G244" t="s">
         <v>555</v>
@@ -13704,10 +13785,10 @@
     </row>
     <row r="245" spans="1:7">
       <c r="C245" s="1" t="s">
-        <v>182</v>
+        <v>33</v>
       </c>
       <c r="F245" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G245" t="s">
         <v>555</v>
@@ -13715,61 +13796,55 @@
     </row>
     <row r="246" spans="1:7">
       <c r="C246" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F246" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G246" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
-      <c r="C248" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F248" s="14" t="s">
-        <v>581</v>
-      </c>
-      <c r="G248" s="1" t="s">
+    <row r="247" spans="1:7">
+      <c r="C247" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F247" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="G247" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="C249" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F249" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="250" spans="1:7">
-      <c r="A250" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>568</v>
+      <c r="C250" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F250" s="14" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>555</v>
@@ -13783,10 +13858,10 @@
         <v>4</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F251" s="14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>555</v>
@@ -13799,45 +13874,45 @@
       <c r="B252" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C252" s="1" t="s">
-        <v>169</v>
+      <c r="C252" s="4" t="s">
+        <v>569</v>
       </c>
       <c r="F252" s="14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
-      <c r="C254" s="1" t="s">
+    <row r="253" spans="1:7">
+      <c r="A253" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F253" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="C255" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="D254" s="1" t="s">
+      <c r="D255" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E254" s="1" t="s">
+      <c r="E255" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="F254" s="22" t="s">
+      <c r="F255" s="22" t="s">
         <v>557</v>
-      </c>
-      <c r="G254" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7">
-      <c r="A255" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C255" s="30" t="s">
-        <v>556</v>
-      </c>
-      <c r="F255" s="14" t="s">
-        <v>583</v>
       </c>
       <c r="G255" s="1" t="s">
         <v>555</v>
@@ -13850,50 +13925,50 @@
       <c r="B256" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C256" s="1" t="s">
-        <v>560</v>
+      <c r="C256" s="30" t="s">
+        <v>556</v>
       </c>
       <c r="F256" s="14" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="G257" s="1"/>
+      <c r="A257" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F257" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="258" spans="1:7">
-      <c r="C258" s="1" t="s">
+      <c r="G258" s="1"/>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="C259" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D258" s="1" t="s">
+      <c r="D259" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E258" s="1" t="s">
+      <c r="E259" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F258" s="14" t="s">
+      <c r="F259" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="G258" s="1"/>
-    </row>
-    <row r="259" spans="1:7">
-      <c r="A259" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F259" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G259" s="1" t="s">
-        <v>303</v>
-      </c>
+      <c r="G259" s="1"/>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="1" t="s">
@@ -13902,11 +13977,11 @@
       <c r="B260" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C260" s="3" t="s">
-        <v>177</v>
+      <c r="C260" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="F260" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>303</v>
@@ -13920,10 +13995,10 @@
         <v>4</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F261" s="14" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="G261" s="1" t="s">
         <v>303</v>
@@ -13937,13 +14012,13 @@
         <v>4</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>563</v>
+        <v>178</v>
       </c>
       <c r="F262" s="14" t="s">
-        <v>570</v>
+        <v>142</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>555</v>
+        <v>303</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -13954,10 +14029,10 @@
         <v>4</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F263" s="14" t="s">
-        <v>597</v>
+        <v>570</v>
       </c>
       <c r="G263" s="1" t="s">
         <v>555</v>
@@ -13971,10 +14046,10 @@
         <v>4</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>221</v>
+        <v>564</v>
       </c>
       <c r="F264" s="14" t="s">
-        <v>323</v>
+        <v>597</v>
       </c>
       <c r="G264" s="1" t="s">
         <v>555</v>
@@ -13988,10 +14063,10 @@
         <v>4</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>599</v>
+        <v>221</v>
       </c>
       <c r="F265" s="14" t="s">
-        <v>598</v>
+        <v>323</v>
       </c>
       <c r="G265" s="1" t="s">
         <v>555</v>
@@ -14005,17 +14080,31 @@
         <v>4</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>250</v>
+        <v>599</v>
       </c>
       <c r="F266" s="14" t="s">
-        <v>251</v>
+        <v>598</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="267" spans="1:7">
-      <c r="G267" s="1"/>
+      <c r="A267" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F267" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="268" spans="1:7">
       <c r="G268" s="1"/>
@@ -14026,35 +14115,21 @@
     <row r="270" spans="1:7">
       <c r="G270" s="1"/>
     </row>
-    <row r="272" spans="1:7">
-      <c r="C272" s="1" t="s">
+    <row r="271" spans="1:7">
+      <c r="G271" s="1"/>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="C273" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="D273" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E272" s="1" t="s">
+      <c r="E273" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F272" s="14" t="s">
+      <c r="F273" s="14" t="s">
         <v>601</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7">
-      <c r="A273" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C273" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F273" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G273" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -14064,11 +14139,11 @@
       <c r="B274" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C274" s="3" t="s">
-        <v>147</v>
+      <c r="C274" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="F274" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G274" s="1" t="s">
         <v>303</v>
@@ -14082,10 +14157,10 @@
         <v>4</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F275" s="14" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="G275" s="1" t="s">
         <v>303</v>
@@ -14099,13 +14174,13 @@
         <v>4</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>563</v>
+        <v>148</v>
       </c>
       <c r="F276" s="14" t="s">
-        <v>570</v>
+        <v>142</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>555</v>
+        <v>303</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -14116,10 +14191,10 @@
         <v>4</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F277" s="14" t="s">
-        <v>597</v>
+        <v>570</v>
       </c>
       <c r="G277" s="1" t="s">
         <v>555</v>
@@ -14133,10 +14208,10 @@
         <v>4</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>222</v>
+        <v>564</v>
       </c>
       <c r="F278" s="14" t="s">
-        <v>323</v>
+        <v>597</v>
       </c>
       <c r="G278" s="1" t="s">
         <v>555</v>
@@ -14150,10 +14225,10 @@
         <v>4</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>599</v>
+        <v>222</v>
       </c>
       <c r="F279" s="14" t="s">
-        <v>598</v>
+        <v>323</v>
       </c>
       <c r="G279" s="1" t="s">
         <v>555</v>
@@ -14167,32 +14242,35 @@
         <v>4</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>250</v>
+        <v>599</v>
       </c>
       <c r="F280" s="14" t="s">
-        <v>251</v>
+        <v>598</v>
       </c>
       <c r="G280" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
-      <c r="C283" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E283" s="1" t="s">
+    <row r="281" spans="1:7">
+      <c r="A281" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F283" s="14" t="s">
-        <v>580</v>
+      <c r="B281" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F281" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="284" spans="1:7">
       <c r="C284" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>5</v>
@@ -14201,21 +14279,21 @@
         <v>145</v>
       </c>
       <c r="F284" s="14" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="C285" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F285" s="14" t="s">
         <v>579</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7">
-      <c r="A285" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F285" s="14" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -14226,10 +14304,10 @@
         <v>4</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F286" s="14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -14239,45 +14317,42 @@
       <c r="B287" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="C287" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F287" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C288" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F287" s="14" t="s">
+      <c r="F288" s="14" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
-      <c r="C288" s="3"/>
-    </row>
     <row r="289" spans="1:7">
-      <c r="C289" s="1" t="s">
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="C290" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D289" s="1" t="s">
+      <c r="D290" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E289" s="1" t="s">
+      <c r="E290" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F289" s="22" t="s">
+      <c r="F290" s="22" t="s">
         <v>539</v>
-      </c>
-      <c r="G289" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
-      <c r="A290" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F290" s="14" t="s">
-        <v>578</v>
       </c>
       <c r="G290" s="1" t="s">
         <v>555</v>
@@ -14290,11 +14365,11 @@
       <c r="B291" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C291" s="3" t="s">
-        <v>82</v>
+      <c r="C291" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F291" s="14" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G291" s="1" t="s">
         <v>555</v>
@@ -14308,10 +14383,10 @@
         <v>4</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F292" s="14" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G292" s="1" t="s">
         <v>555</v>
@@ -14325,10 +14400,10 @@
         <v>4</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F293" s="14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G293" s="1" t="s">
         <v>555</v>
@@ -14342,10 +14417,10 @@
         <v>4</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>248</v>
+        <v>84</v>
       </c>
       <c r="F294" s="14" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G294" s="1" t="s">
         <v>555</v>
@@ -14359,10 +14434,10 @@
         <v>4</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>595</v>
+        <v>248</v>
       </c>
       <c r="F295" s="14" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="G295" s="1" t="s">
         <v>555</v>
@@ -14376,102 +14451,105 @@
         <v>4</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>291</v>
+        <v>595</v>
       </c>
       <c r="F296" s="14" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="G296" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
-      <c r="C300" s="2"/>
+    <row r="297" spans="1:7">
+      <c r="A297" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F297" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="301" spans="1:7">
       <c r="C301" s="2"/>
     </row>
-    <row r="303" spans="1:7" ht="27" thickBot="1">
-      <c r="A303" s="54" t="s">
+    <row r="302" spans="1:7">
+      <c r="C302" s="2"/>
+    </row>
+    <row r="304" spans="1:7" ht="27" thickBot="1">
+      <c r="A304" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="B303" s="54"/>
-      <c r="C303" s="54"/>
-      <c r="D303" s="54"/>
-      <c r="E303" s="54"/>
-      <c r="F303" s="55"/>
-    </row>
-    <row r="306" spans="1:7">
-      <c r="C306" s="1" t="s">
+      <c r="B304" s="53"/>
+      <c r="C304" s="53"/>
+      <c r="D304" s="53"/>
+      <c r="E304" s="53"/>
+      <c r="F304" s="54"/>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="C307" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E306" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F306" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7">
-      <c r="C307" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F307" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
       <c r="C308" s="1" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F308" s="14" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
       <c r="C309" s="1" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E309" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F309" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="C310" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E310" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F309" s="14" t="s">
+      <c r="F310" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
-      <c r="A310" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C310" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F310" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:6">
       <c r="A311" s="1" t="s">
         <v>73</v>
       </c>
@@ -14479,27 +14557,27 @@
         <v>4</v>
       </c>
       <c r="C311" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F311" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
       <c r="A312" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C312" s="4" t="s">
-        <v>118</v>
+      <c r="C312" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="F312" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
       <c r="A313" s="1" t="s">
         <v>73</v>
       </c>
@@ -14507,27 +14585,27 @@
         <v>4</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="F313" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
       <c r="A314" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C314" s="3" t="s">
-        <v>119</v>
+      <c r="C314" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F314" s="14" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
       <c r="A315" s="1" t="s">
         <v>73</v>
       </c>
@@ -14535,13 +14613,13 @@
         <v>4</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="F315" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
       <c r="A316" s="1" t="s">
         <v>73</v>
       </c>
@@ -14549,13 +14627,13 @@
         <v>4</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="F316" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
       <c r="A317" s="1" t="s">
         <v>73</v>
       </c>
@@ -14563,13 +14641,13 @@
         <v>4</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="F317" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
       <c r="A318" s="1" t="s">
         <v>73</v>
       </c>
@@ -14577,13 +14655,13 @@
         <v>4</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F318" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
       <c r="A319" s="1" t="s">
         <v>73</v>
       </c>
@@ -14591,38 +14669,35 @@
         <v>4</v>
       </c>
       <c r="C319" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F319" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C320" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F319" s="14" t="s">
+      <c r="F320" s="14" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
-      <c r="C320" s="1" t="s">
+    <row r="321" spans="1:7">
+      <c r="C321" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D320" s="1" t="s">
+      <c r="D321" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E320" s="1" t="s">
+      <c r="E321" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F320" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G320" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7">
-      <c r="A321" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C321" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="F321" s="14" t="s">
         <v>75</v>
@@ -14638,11 +14713,11 @@
       <c r="B322" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C322" s="3" t="s">
-        <v>177</v>
+      <c r="C322" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="F322" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G322" s="9" t="s">
         <v>555</v>
@@ -14656,10 +14731,10 @@
         <v>4</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F323" s="14" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="G323" s="9" t="s">
         <v>555</v>
@@ -14673,10 +14748,10 @@
         <v>4</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>563</v>
+        <v>178</v>
       </c>
       <c r="F324" s="14" t="s">
-        <v>571</v>
+        <v>142</v>
       </c>
       <c r="G324" s="9" t="s">
         <v>555</v>
@@ -14690,13 +14765,13 @@
         <v>4</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F325" s="14" t="s">
-        <v>395</v>
+        <v>571</v>
       </c>
       <c r="G325" s="9" t="s">
-        <v>303</v>
+        <v>555</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -14707,13 +14782,13 @@
         <v>4</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>221</v>
+        <v>564</v>
       </c>
       <c r="F326" s="14" t="s">
-        <v>323</v>
+        <v>395</v>
       </c>
       <c r="G326" s="9" t="s">
-        <v>591</v>
+        <v>303</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -14724,13 +14799,13 @@
         <v>4</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F327" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G327" s="9" t="s">
-        <v>303</v>
+        <v>591</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -14741,44 +14816,44 @@
         <v>4</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="F328" s="14" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="G328" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
-      <c r="C330" s="1" t="s">
+    <row r="329" spans="1:7">
+      <c r="A329" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F329" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G329" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="C331" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D330" s="1" t="s">
+      <c r="D331" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E330" s="1" t="s">
+      <c r="E331" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F330" s="14" t="s">
+      <c r="F331" s="14" t="s">
         <v>589</v>
-      </c>
-      <c r="G330" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7">
-      <c r="A331" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C331" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F331" s="14" t="s">
-        <v>75</v>
       </c>
       <c r="G331" s="1" t="s">
         <v>555</v>
@@ -14791,11 +14866,11 @@
       <c r="B332" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C332" s="3" t="s">
-        <v>147</v>
+      <c r="C332" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="F332" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G332" s="1" t="s">
         <v>555</v>
@@ -14809,10 +14884,10 @@
         <v>4</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F333" s="14" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="G333" s="1" t="s">
         <v>555</v>
@@ -14826,10 +14901,10 @@
         <v>4</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>563</v>
+        <v>148</v>
       </c>
       <c r="F334" s="14" t="s">
-        <v>570</v>
+        <v>142</v>
       </c>
       <c r="G334" s="1" t="s">
         <v>555</v>
@@ -14843,13 +14918,13 @@
         <v>4</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>594</v>
+        <v>563</v>
       </c>
       <c r="F335" s="14" t="s">
-        <v>395</v>
+        <v>570</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>303</v>
+        <v>555</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -14860,13 +14935,13 @@
         <v>4</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>222</v>
+        <v>594</v>
       </c>
       <c r="F336" s="14" t="s">
-        <v>323</v>
+        <v>395</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>591</v>
+        <v>303</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -14877,13 +14952,13 @@
         <v>4</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F337" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>303</v>
+        <v>591</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -14894,59 +14969,62 @@
         <v>4</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="F338" s="14" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="G338" s="1" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="339" spans="1:7">
-      <c r="C339" s="1" t="s">
-        <v>77</v>
+      <c r="A339" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="F339" s="14" t="s">
-        <v>561</v>
+        <v>251</v>
+      </c>
+      <c r="G339" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="340" spans="1:7">
       <c r="C340" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F340" s="14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="C341" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F340" s="14" t="s">
+      <c r="F341" s="14" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
-      <c r="C342" s="1" t="s">
+    <row r="343" spans="1:7">
+      <c r="C343" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F342" s="14" t="s">
+      <c r="F343" s="14" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
-      <c r="C345" s="1" t="s">
+    <row r="346" spans="1:7">
+      <c r="C346" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F345" s="14" t="s">
+      <c r="F346" s="14" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7">
-      <c r="A346" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C346" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F346" s="14" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -14957,10 +15035,10 @@
         <v>4</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="F347" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -14970,51 +15048,51 @@
       <c r="B348" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C348" s="9" t="s">
+      <c r="C348" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F348" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D348" s="9"/>
-      <c r="E348" s="9"/>
-      <c r="F348" s="16" t="s">
+      <c r="D349" s="9"/>
+      <c r="E349" s="9"/>
+      <c r="F349" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="27" thickBot="1">
-      <c r="A350" s="54" t="s">
+    <row r="351" spans="1:7" ht="27" thickBot="1">
+      <c r="A351" s="53" t="s">
         <v>434</v>
       </c>
-      <c r="B350" s="54"/>
-      <c r="C350" s="54"/>
-      <c r="D350" s="54"/>
-      <c r="E350" s="54"/>
-      <c r="F350" s="55"/>
-    </row>
-    <row r="351" spans="1:7">
-      <c r="C351" s="1" t="s">
+      <c r="B351" s="53"/>
+      <c r="C351" s="53"/>
+      <c r="D351" s="53"/>
+      <c r="E351" s="53"/>
+      <c r="F351" s="54"/>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="C352" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D351" s="1" t="s">
+      <c r="D352" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E351" s="1" t="s">
+      <c r="E352" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F351" s="14" t="s">
+      <c r="F352" s="14" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7">
-      <c r="A352" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F352" s="14" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -15024,11 +15102,11 @@
       <c r="B353" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C353" s="1" t="s">
-        <v>117</v>
+      <c r="C353" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="F353" s="14" t="s">
-        <v>326</v>
+        <v>116</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -15039,10 +15117,10 @@
         <v>4</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c r="F354" s="14" t="s">
-        <v>567</v>
+        <v>326</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -15053,10 +15131,10 @@
         <v>4</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F355" s="14" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -15067,10 +15145,10 @@
         <v>4</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F356" s="14" t="s">
-        <v>191</v>
+        <v>566</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -15081,10 +15159,10 @@
         <v>4</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F357" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -15095,38 +15173,38 @@
         <v>4</v>
       </c>
       <c r="C358" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F358" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C359" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="F358" s="14" t="s">
+      <c r="F359" s="14" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
-      <c r="C360" s="1" t="s">
+    <row r="361" spans="1:6">
+      <c r="C361" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D360" s="1" t="s">
+      <c r="D361" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E360" s="1" t="s">
+      <c r="E361" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F360" s="14" t="s">
+      <c r="F361" s="14" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6">
-      <c r="A361" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F361" s="14" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -15137,10 +15215,10 @@
         <v>4</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="F362" s="14" t="s">
-        <v>320</v>
+        <v>127</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -15151,10 +15229,10 @@
         <v>4</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F363" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -15164,11 +15242,11 @@
       <c r="B364" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C364" s="3" t="s">
-        <v>217</v>
+      <c r="C364" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="F364" s="14" t="s">
-        <v>219</v>
+        <v>321</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -15179,7 +15257,7 @@
         <v>4</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F365" s="14" t="s">
         <v>219</v>
@@ -15193,10 +15271,10 @@
         <v>4</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="F366" s="14" t="s">
-        <v>128</v>
+        <v>219</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -15207,10 +15285,10 @@
         <v>4</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F367" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -15221,10 +15299,10 @@
         <v>4</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="F368" s="14" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -15235,10 +15313,10 @@
         <v>4</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F369" s="14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -15249,10 +15327,10 @@
         <v>4</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F370" s="14" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -15263,118 +15341,118 @@
         <v>4</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="F371" s="14" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
-      <c r="C376" s="1" t="s">
+    <row r="372" spans="1:6">
+      <c r="A372" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F372" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="C377" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F376" s="14" t="s">
+      <c r="F377" s="14" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6">
-      <c r="C377" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F377" s="14" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="378" spans="1:6">
       <c r="C378" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F378" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="C379" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F378" s="14" t="s">
+      <c r="F379" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
-      <c r="C379" s="3" t="s">
+    <row r="380" spans="1:6">
+      <c r="C380" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F379" s="14" t="s">
+      <c r="F380" s="14" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
-      <c r="C380" s="3"/>
-    </row>
     <row r="381" spans="1:6">
-      <c r="C381" s="4" t="s">
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="C382" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F381" s="14" t="s">
+      <c r="F382" s="14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
-      <c r="C382" s="1" t="s">
+    <row r="383" spans="1:6">
+      <c r="C383" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F382" s="14" t="s">
+      <c r="F383" s="14" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6">
-      <c r="C384" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F384" s="14" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="385" spans="1:6">
       <c r="C385" s="1" t="s">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="F385" s="14" t="s">
-        <v>216</v>
+        <v>327</v>
       </c>
     </row>
     <row r="386" spans="1:6">
       <c r="C386" s="1" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="F386" s="14" t="s">
-        <v>327</v>
+        <v>216</v>
       </c>
     </row>
     <row r="387" spans="1:6">
       <c r="C387" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F387" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="388" spans="1:6">
       <c r="C388" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F388" s="14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="C389" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D388" s="1" t="s">
+      <c r="D389" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E388" s="1" t="s">
+      <c r="E389" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="F388" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6">
-      <c r="A389" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C389" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="F389" s="14" t="s">
         <v>138</v>
@@ -15387,11 +15465,11 @@
       <c r="B390" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C390" s="1" t="s">
-        <v>544</v>
+      <c r="C390" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="F390" s="14" t="s">
-        <v>284</v>
+        <v>138</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -15401,11 +15479,11 @@
       <c r="B391" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C391" s="3" t="s">
-        <v>545</v>
+      <c r="C391" s="1" t="s">
+        <v>544</v>
       </c>
       <c r="F391" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -15416,273 +15494,273 @@
         <v>4</v>
       </c>
       <c r="C392" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F392" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="A393" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C393" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="F392" s="14" t="s">
+      <c r="F393" s="14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="27" thickBot="1">
-      <c r="A395" s="54" t="s">
+    <row r="396" spans="1:6" ht="27" thickBot="1">
+      <c r="A396" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="B395" s="54"/>
-      <c r="C395" s="54"/>
-      <c r="D395" s="54"/>
-      <c r="E395" s="54"/>
-      <c r="F395" s="55"/>
-    </row>
-    <row r="396" spans="1:6">
-      <c r="C396" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D396" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E396" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F396" s="14" t="s">
-        <v>225</v>
-      </c>
+      <c r="B396" s="53"/>
+      <c r="C396" s="53"/>
+      <c r="D396" s="53"/>
+      <c r="E396" s="53"/>
+      <c r="F396" s="54"/>
     </row>
     <row r="397" spans="1:6">
       <c r="C397" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="F397" s="14" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="C398" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F398" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="399" spans="1:6">
       <c r="C399" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F399" s="14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="C400" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F400" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="401" spans="3:6">
+      <c r="C401" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F400" s="14" t="s">
+      <c r="F401" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
-      <c r="C401" s="1" t="s">
+    <row r="402" spans="3:6">
+      <c r="C402" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F401" s="14" t="s">
+      <c r="F402" s="14" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
-      <c r="C402" s="1" t="s">
+    <row r="403" spans="3:6">
+      <c r="C403" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F402" s="14" t="s">
+      <c r="F403" s="14" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
-      <c r="C403" s="1" t="s">
+    <row r="404" spans="3:6">
+      <c r="C404" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F403" s="14" t="s">
+      <c r="F404" s="14" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
-      <c r="C404" s="1" t="s">
+    <row r="405" spans="3:6">
+      <c r="C405" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F404" s="14" t="s">
+      <c r="F405" s="14" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
-      <c r="C405" s="3" t="s">
+    <row r="406" spans="3:6">
+      <c r="C406" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F405" s="14" t="s">
+      <c r="F406" s="14" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
-      <c r="C406" s="1" t="s">
+    <row r="407" spans="3:6">
+      <c r="C407" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F406" s="14" t="s">
+      <c r="F407" s="14" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
-      <c r="C408" s="1" t="s">
+    <row r="409" spans="3:6">
+      <c r="C409" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F408" s="14" t="s">
+      <c r="F409" s="14" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
-      <c r="C409" s="1" t="s">
+    <row r="410" spans="3:6">
+      <c r="C410" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F409" s="14" t="s">
+      <c r="F410" s="14" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
-      <c r="C410" s="1" t="s">
+    <row r="411" spans="3:6">
+      <c r="C411" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F410" s="14" t="s">
+      <c r="F411" s="14" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
-      <c r="C411" s="1" t="s">
+    <row r="412" spans="3:6">
+      <c r="C412" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F411" s="14" t="s">
+      <c r="F412" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
-      <c r="C413" s="1" t="s">
+    <row r="414" spans="3:6">
+      <c r="C414" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="27" thickBot="1">
-      <c r="A416" s="54" t="s">
+    <row r="417" spans="1:6" ht="27" thickBot="1">
+      <c r="A417" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="B416" s="54"/>
-      <c r="C416" s="54"/>
-      <c r="D416" s="54"/>
-      <c r="E416" s="54"/>
-      <c r="F416" s="55"/>
-    </row>
-    <row r="417" spans="1:6">
-      <c r="C417" s="1" t="s">
+      <c r="B417" s="53"/>
+      <c r="C417" s="53"/>
+      <c r="D417" s="53"/>
+      <c r="E417" s="53"/>
+      <c r="F417" s="54"/>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="C418" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F417" s="14" t="s">
+      <c r="F418" s="14" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
-      <c r="C418" s="25"/>
-      <c r="D418" s="25"/>
-      <c r="E418" s="25"/>
-      <c r="F418" s="27"/>
-    </row>
     <row r="419" spans="1:6">
-      <c r="C419" s="13" t="s">
+      <c r="C419" s="25"/>
+      <c r="D419" s="25"/>
+      <c r="E419" s="25"/>
+      <c r="F419" s="27"/>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="C420" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="D419" s="13" t="s">
+      <c r="D420" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E419" s="13" t="s">
+      <c r="E420" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F419" s="21" t="s">
+      <c r="F420" s="21" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
-      <c r="A420" s="1" t="s">
+    <row r="421" spans="1:6">
+      <c r="A421" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B420" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C420" s="3" t="s">
+      <c r="B421" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C421" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F420" s="14" t="s">
+      <c r="F421" s="14" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
-      <c r="C422" s="13" t="s">
+    <row r="423" spans="1:6">
+      <c r="C423" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="D422" s="13" t="s">
+      <c r="D423" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E422" s="13" t="s">
+      <c r="E423" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F422" s="15" t="s">
+      <c r="F423" s="15" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
-      <c r="A423" s="1" t="s">
+    <row r="424" spans="1:6">
+      <c r="A424" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B423" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C423" s="8" t="s">
+      <c r="B424" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C424" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="F423" s="14" t="s">
+      <c r="F424" s="14" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="425" spans="1:6">
-      <c r="C425" s="1" t="s">
+    <row r="426" spans="1:6">
+      <c r="C426" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D425" s="1" t="s">
+      <c r="D426" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E425" s="1" t="s">
+      <c r="E426" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F425" s="22" t="s">
+      <c r="F426" s="22" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="426" spans="1:6">
-      <c r="C426" s="13" t="s">
+    <row r="427" spans="1:6">
+      <c r="C427" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="D426" s="13" t="s">
+      <c r="D427" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E426" s="13" t="s">
+      <c r="E427" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="F426" s="21" t="s">
+      <c r="F427" s="21" t="s">
         <v>531</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6">
-      <c r="A427" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C427" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="F427" s="14" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -15692,11 +15770,11 @@
       <c r="B428" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C428" s="2" t="s">
-        <v>276</v>
+      <c r="C428" s="10" t="s">
+        <v>275</v>
       </c>
       <c r="F428" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -15706,11 +15784,11 @@
       <c r="B429" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C429" s="12" t="s">
-        <v>283</v>
+      <c r="C429" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="F429" s="14" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -15721,10 +15799,10 @@
         <v>4</v>
       </c>
       <c r="C430" s="12" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F430" s="14" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -15735,10 +15813,10 @@
         <v>4</v>
       </c>
       <c r="C431" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F431" s="14" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -15748,11 +15826,11 @@
       <c r="B432" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C432" s="8" t="s">
-        <v>541</v>
+      <c r="C432" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="F432" s="14" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -15763,10 +15841,10 @@
         <v>4</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>279</v>
+        <v>541</v>
       </c>
       <c r="F433" s="14" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -15777,10 +15855,10 @@
         <v>4</v>
       </c>
       <c r="C434" s="8" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F434" s="14" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -15791,41 +15869,41 @@
         <v>4</v>
       </c>
       <c r="C435" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F435" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7">
+      <c r="A436" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C436" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="F435" s="14" t="s">
+      <c r="F436" s="14" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
-      <c r="C436" s="8"/>
-    </row>
     <row r="437" spans="1:7">
-      <c r="C437" s="24" t="s">
+      <c r="C437" s="8"/>
+    </row>
+    <row r="438" spans="1:7">
+      <c r="C438" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D437" s="13" t="s">
+      <c r="D438" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E437" s="13" t="s">
+      <c r="E438" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="F437" s="21" t="s">
+      <c r="F438" s="21" t="s">
         <v>547</v>
-      </c>
-    </row>
-    <row r="438" spans="1:7">
-      <c r="A438" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B438" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C438" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F438" s="14" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -15836,10 +15914,10 @@
         <v>4</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F439" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -15850,14 +15928,25 @@
         <v>4</v>
       </c>
       <c r="C440" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F440" s="14" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7">
+      <c r="A441" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C441" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F440" s="14" t="s">
+      <c r="F441" s="14" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="442" spans="1:7">
-      <c r="G442" s="29"/>
     </row>
     <row r="443" spans="1:7">
       <c r="G443" s="29"/>
@@ -15868,30 +15957,33 @@
     <row r="445" spans="1:7">
       <c r="G445" s="29"/>
     </row>
+    <row r="446" spans="1:7">
+      <c r="G446" s="29"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A416:F416"/>
-    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A396:F396"/>
+    <mergeCell ref="A351:F351"/>
+    <mergeCell ref="A304:F304"/>
+    <mergeCell ref="A242:F242"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A196:F196"/>
+    <mergeCell ref="A417:F417"/>
+    <mergeCell ref="A98:F98"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A395:F395"/>
-    <mergeCell ref="A350:F350"/>
-    <mergeCell ref="A303:F303"/>
-    <mergeCell ref="A241:F241"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A195:F195"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="C46:D46"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C40" r:id="rId1" xr:uid="{04AE2158-971F-5243-9FF0-01D76E278924}"/>
-    <hyperlink ref="C47" r:id="rId2" xr:uid="{8FEBFFA0-65F0-C94E-A945-BF15764D7B98}"/>
-    <hyperlink ref="C55" r:id="rId3" xr:uid="{CEA14D0A-87C8-274A-9647-A0DB1ECDC68C}"/>
-    <hyperlink ref="C59" r:id="rId4" xr:uid="{FFF8DE63-7BA6-4A43-A6EA-14148CA232CF}"/>
-    <hyperlink ref="C62" r:id="rId5" location="create-a-personal-access-token" xr:uid="{AB8032BB-3EF1-9149-805A-CEDF3BF2A5E6}"/>
-    <hyperlink ref="C66" r:id="rId6" display="support.atlassian.com/bitbucket-cloud/docs/app-passwords/" xr:uid="{0D1DAC2D-DDAE-F243-A72B-95B42754AAB1}"/>
+    <hyperlink ref="C41" r:id="rId1" xr:uid="{04AE2158-971F-5243-9FF0-01D76E278924}"/>
+    <hyperlink ref="C48" r:id="rId2" xr:uid="{8FEBFFA0-65F0-C94E-A945-BF15764D7B98}"/>
+    <hyperlink ref="C56" r:id="rId3" xr:uid="{CEA14D0A-87C8-274A-9647-A0DB1ECDC68C}"/>
+    <hyperlink ref="C60" r:id="rId4" xr:uid="{FFF8DE63-7BA6-4A43-A6EA-14148CA232CF}"/>
+    <hyperlink ref="C63" r:id="rId5" location="create-a-personal-access-token" xr:uid="{AB8032BB-3EF1-9149-805A-CEDF3BF2A5E6}"/>
+    <hyperlink ref="C67" r:id="rId6" display="support.atlassian.com/bitbucket-cloud/docs/app-passwords/" xr:uid="{0D1DAC2D-DDAE-F243-A72B-95B42754AAB1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/git-terminal-commands.xlsx
+++ b/git-terminal-commands.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Goofy/GIT/steves-git-shortcuts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Goofy/GIT/steves-git-commands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D255D9-1093-5E4C-923F-2D5DD4FB27CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AE92E6-B5B2-884B-8D29-195D1CF83BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13000" yWindow="460" windowWidth="34960" windowHeight="28340" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
+    <workbookView xWindow="51200" yWindow="460" windowWidth="24380" windowHeight="28340" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="664">
   <si>
     <t>Configuration</t>
   </si>
@@ -2486,12 +2486,6 @@
     </r>
   </si>
   <si>
-    <t>Remove (delete) an orphaned tracking branch</t>
-  </si>
-  <si>
-    <t>Preview deletion of an orphaned tracking branch</t>
-  </si>
-  <si>
     <r>
       <t>git fetch (</t>
     </r>
@@ -2543,129 +2537,6 @@
         <rFont val="Menlo Regular"/>
       </rPr>
       <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">-p </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> --prune</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>origin</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">-p </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> --prune</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>origin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> --dry-run</t>
     </r>
   </si>
   <si>
@@ -9838,29 +9709,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> branch name (recommended)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git remote </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>origin</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> remote_url</t>
     </r>
   </si>
   <si>
@@ -10341,6 +10189,70 @@
         <family val="2"/>
       </rPr>
       <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>git prune</t>
+  </si>
+  <si>
+    <t>Remove (delete) an orphaned branch</t>
+  </si>
+  <si>
+    <t>(-n OR --dry-run)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Preview</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> removal of an orphaned branch</t>
+    </r>
+  </si>
+  <si>
+    <t>(-v OR --verbose)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Remove (delete) an orphaned branch with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>detailed readout</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>origin</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> remote_url</t>
     </r>
   </si>
 </sst>
@@ -10795,12 +10707,12 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" xr:uid="{ACEF5201-9FF9-AD44-AA4C-60ABCDBD9D8F}"/>
@@ -11121,8 +11033,8 @@
   </sheetPr>
   <dimension ref="A1:G446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="33" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A352" zoomScale="168" zoomScaleNormal="168" zoomScaleSheetLayoutView="33" workbookViewId="0">
+      <selection activeCell="A352" sqref="A352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11137,83 +11049,83 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31">
       <c r="A1" s="17" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="18" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="10" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="19" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="20" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="27" thickBot="1">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -11221,25 +11133,25 @@
         <v>44</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="27" thickBot="1">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="54"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
@@ -11248,12 +11160,12 @@
         <v>1</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
@@ -11262,12 +11174,12 @@
         <v>2</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" s="13" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>5</v>
@@ -11276,7 +11188,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -11287,12 +11199,12 @@
         <v>4</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
       <c r="F17" s="32" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -11306,7 +11218,7 @@
         <v>55</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -11320,7 +11232,7 @@
         <v>54</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -11331,10 +11243,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -11345,10 +11257,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -11359,10 +11271,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -11376,7 +11288,7 @@
         <v>52</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -11387,10 +11299,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -11401,10 +11313,10 @@
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -11418,7 +11330,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -11432,7 +11344,7 @@
         <v>41</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -11446,29 +11358,29 @@
         <v>53</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="C29" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17">
       <c r="A30" s="33" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -11480,16 +11392,16 @@
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="21" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="33"/>
       <c r="C33" s="35" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -11499,7 +11411,7 @@
     <row r="35" spans="1:6" ht="20" thickBot="1">
       <c r="A35" s="33"/>
       <c r="C35" s="36" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D35" s="37"/>
       <c r="E35" s="37"/>
@@ -11511,25 +11423,25 @@
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="21" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="33"/>
       <c r="C37" s="4" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="33"/>
       <c r="C38" s="39" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -11543,43 +11455,43 @@
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="21" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="33"/>
       <c r="C41" s="41" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="33"/>
       <c r="C42" s="4" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="33"/>
       <c r="C43" s="4" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="40">
       <c r="A44" s="33"/>
       <c r="C44" s="39" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -11589,10 +11501,10 @@
     </row>
     <row r="46" spans="1:6" ht="20" thickBot="1">
       <c r="A46" s="33"/>
-      <c r="C46" s="55" t="s">
-        <v>631</v>
-      </c>
-      <c r="D46" s="56"/>
+      <c r="C46" s="57" t="s">
+        <v>626</v>
+      </c>
+      <c r="D46" s="58"/>
       <c r="E46" s="37"/>
       <c r="F46" s="43"/>
     </row>
@@ -11602,52 +11514,52 @@
       <c r="D47" s="45"/>
       <c r="E47" s="45"/>
       <c r="F47" s="46" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="33"/>
       <c r="C48" s="41" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="33"/>
       <c r="C49" s="4" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="33"/>
       <c r="C50" s="4" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="40">
       <c r="A51" s="33"/>
       <c r="C51" s="39" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F51" s="42" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="40">
       <c r="A52" s="33"/>
       <c r="C52" s="39" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -11658,7 +11570,7 @@
     <row r="54" spans="1:6" ht="20" thickBot="1">
       <c r="A54" s="33"/>
       <c r="C54" s="36" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D54" s="37"/>
       <c r="E54" s="37"/>
@@ -11670,52 +11582,52 @@
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="21" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="27">
       <c r="A56" s="33"/>
       <c r="C56" s="51" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F56" s="47" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="33"/>
       <c r="C57" s="39" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="F57" s="42" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="33"/>
       <c r="C58" s="39" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F58" s="42" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="26">
       <c r="A59" s="33"/>
       <c r="C59" s="50" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="F59" s="49" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="40">
       <c r="A60" s="33"/>
       <c r="C60" s="41" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F60" s="47" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -11729,25 +11641,25 @@
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
       <c r="F62" s="21" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="27">
       <c r="A63" s="33"/>
       <c r="C63" s="48" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F63" s="47" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="26">
       <c r="A64" s="33"/>
       <c r="C64" s="50" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="F64" s="49" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -11761,25 +11673,25 @@
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
       <c r="F66" s="21" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="27">
       <c r="A67" s="33"/>
       <c r="C67" s="52" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F67" s="47" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="26">
       <c r="A68" s="33"/>
       <c r="C68" s="50" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="F68" s="49" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -11788,21 +11700,21 @@
       <c r="F69" s="49"/>
     </row>
     <row r="70" spans="1:6" ht="27" thickBot="1">
-      <c r="A70" s="53" t="s">
+      <c r="A70" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="54"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="56"/>
     </row>
     <row r="71" spans="1:6">
       <c r="C71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -11810,15 +11722,15 @@
         <v>156</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="C73" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -11826,7 +11738,7 @@
         <v>155</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -11834,7 +11746,7 @@
         <v>10</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -11842,7 +11754,7 @@
         <v>11</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -11850,7 +11762,7 @@
         <v>12</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -11858,7 +11770,7 @@
         <v>13</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -11866,15 +11778,15 @@
         <v>109</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17">
       <c r="C80" s="9" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -11882,15 +11794,15 @@
         <v>51</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="C82" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -11898,7 +11810,7 @@
         <v>65</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -11906,7 +11818,7 @@
         <v>157</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -11914,28 +11826,28 @@
         <v>158</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="20"/>
     </row>
     <row r="87" spans="1:6" ht="27" thickBot="1">
-      <c r="A87" s="53" t="s">
+      <c r="A87" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="53"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="53"/>
-      <c r="E87" s="53"/>
-      <c r="F87" s="54"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="56"/>
     </row>
     <row r="88" spans="1:6">
       <c r="C88" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -11943,7 +11855,7 @@
         <v>18</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -11951,39 +11863,39 @@
         <v>19</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="C91" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="C92" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="C93" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="C94" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -11991,7 +11903,7 @@
         <v>20</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -11999,25 +11911,25 @@
         <v>25</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="27" thickBot="1">
-      <c r="A98" s="53" t="s">
+      <c r="A98" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B98" s="53"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="53"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="53"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="55"/>
     </row>
     <row r="99" spans="1:6">
       <c r="C99" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -12025,7 +11937,7 @@
         <v>33</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -12033,7 +11945,7 @@
         <v>182</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -12041,7 +11953,7 @@
         <v>181</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -12049,7 +11961,7 @@
         <v>22</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -12057,7 +11969,7 @@
         <v>98</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -12065,7 +11977,7 @@
         <v>96</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -12073,15 +11985,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="C107" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -12089,31 +12001,31 @@
         <v>24</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="C109" s="11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="C110" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="C111" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -12121,7 +12033,7 @@
         <v>65</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -12129,7 +12041,7 @@
         <v>157</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -12137,26 +12049,26 @@
         <v>158</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="C116" s="13" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D116" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F116" s="21" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>4</v>
@@ -12165,12 +12077,12 @@
         <v>162</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>4</v>
@@ -12179,12 +12091,12 @@
         <v>167</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>4</v>
@@ -12193,12 +12105,12 @@
         <v>168</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>4</v>
@@ -12207,40 +12119,40 @@
         <v>161</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="C124" s="13" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D124" s="13" t="s">
         <v>5</v>
@@ -12249,7 +12161,7 @@
         <v>26</v>
       </c>
       <c r="F124" s="21" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -12263,7 +12175,7 @@
         <v>64</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -12274,10 +12186,10 @@
         <v>4</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -12291,7 +12203,7 @@
         <v>63</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -12302,10 +12214,10 @@
         <v>4</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -12319,7 +12231,7 @@
         <v>159</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -12330,36 +12242,36 @@
         <v>4</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:6" ht="27" thickBot="1">
-      <c r="A132" s="53" t="s">
+      <c r="A132" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B132" s="53"/>
-      <c r="C132" s="53"/>
-      <c r="D132" s="53"/>
-      <c r="E132" s="53"/>
-      <c r="F132" s="54"/>
+      <c r="B132" s="55"/>
+      <c r="C132" s="55"/>
+      <c r="D132" s="55"/>
+      <c r="E132" s="55"/>
+      <c r="F132" s="56"/>
     </row>
     <row r="133" spans="1:6">
       <c r="C133" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="C135" s="13" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D135" s="13" t="s">
         <v>5</v>
@@ -12368,7 +12280,7 @@
         <v>23</v>
       </c>
       <c r="F135" s="15" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -12379,10 +12291,10 @@
         <v>4</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -12396,7 +12308,7 @@
         <v>185</v>
       </c>
       <c r="F137" s="31" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -12410,7 +12322,7 @@
         <v>67</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -12424,7 +12336,7 @@
         <v>70</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -12438,7 +12350,7 @@
         <v>68</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -12457,7 +12369,7 @@
         <v>71</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -12471,7 +12383,7 @@
         <v>62</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -12485,7 +12397,7 @@
         <v>60</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -12499,7 +12411,7 @@
         <v>61</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -12510,10 +12422,10 @@
         <v>4</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -12527,7 +12439,7 @@
         <v>59</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -12541,7 +12453,7 @@
         <v>58</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -12555,7 +12467,7 @@
         <v>57</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -12569,7 +12481,7 @@
         <v>56</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -12583,7 +12495,7 @@
         <v>27</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -12597,7 +12509,7 @@
         <v>66</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -12608,10 +12520,10 @@
         <v>4</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -12625,7 +12537,7 @@
         <v>1</v>
       </c>
       <c r="F155" s="22" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -12639,7 +12551,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -12653,7 +12565,7 @@
         <v>38</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -12667,7 +12579,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="22" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -12681,7 +12593,7 @@
         <v>39</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -12695,7 +12607,7 @@
         <v>40</v>
       </c>
       <c r="F160" s="15" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -12709,7 +12621,7 @@
         <v>85</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -12723,7 +12635,7 @@
         <v>87</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -12734,10 +12646,10 @@
         <v>4</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -12751,7 +12663,7 @@
         <v>88</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -12765,7 +12677,7 @@
         <v>89</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -12776,10 +12688,10 @@
         <v>4</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -12793,7 +12705,7 @@
         <v>90</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -12807,7 +12719,7 @@
         <v>91</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -12818,10 +12730,10 @@
         <v>4</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -12835,7 +12747,7 @@
         <v>92</v>
       </c>
       <c r="F170" s="14" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -12849,7 +12761,7 @@
         <v>93</v>
       </c>
       <c r="F171" s="14" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -12863,7 +12775,7 @@
         <v>94</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -12877,7 +12789,7 @@
         <v>95</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -12888,10 +12800,10 @@
         <v>4</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F174" s="14" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -12902,10 +12814,10 @@
         <v>4</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F175" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -12916,10 +12828,10 @@
         <v>4</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F176" s="14" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -12930,10 +12842,10 @@
         <v>4</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F177" s="14" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -12944,99 +12856,99 @@
         <v>4</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F178" s="14" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="C180" s="13" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D180" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E180" s="13" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F180" s="21" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F181" s="14" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F182" s="14" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F183" s="14" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F184" s="14" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="C186" s="8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F186" s="22" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="C187" s="26" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D187" s="25" t="s">
         <v>5</v>
@@ -13045,21 +12957,21 @@
         <v>73</v>
       </c>
       <c r="F187" s="27" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="C188" s="8" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F188" s="22" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -13070,10 +12982,10 @@
         <v>4</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F189" s="14" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -13084,10 +12996,10 @@
         <v>4</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F190" s="14" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -13098,10 +13010,10 @@
         <v>4</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F191" s="14" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -13112,10 +13024,10 @@
         <v>4</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F192" s="14" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -13126,10 +13038,10 @@
         <v>4</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F193" s="14" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -13140,31 +13052,31 @@
         <v>4</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F194" s="14" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="C195" s="3"/>
     </row>
     <row r="196" spans="1:6" ht="27" thickBot="1">
-      <c r="A196" s="53" t="s">
-        <v>433</v>
-      </c>
-      <c r="B196" s="53"/>
-      <c r="C196" s="53"/>
-      <c r="D196" s="53"/>
-      <c r="E196" s="53"/>
-      <c r="F196" s="53"/>
+      <c r="A196" s="55" t="s">
+        <v>429</v>
+      </c>
+      <c r="B196" s="55"/>
+      <c r="C196" s="55"/>
+      <c r="D196" s="55"/>
+      <c r="E196" s="55"/>
+      <c r="F196" s="55"/>
     </row>
     <row r="197" spans="1:6">
       <c r="C197" s="8" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F197" s="28" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -13181,7 +13093,7 @@
         <v>37</v>
       </c>
       <c r="F199" s="21" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -13192,10 +13104,10 @@
         <v>4</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F200" s="14" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -13206,10 +13118,10 @@
         <v>4</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F201" s="14" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -13217,164 +13129,164 @@
     </row>
     <row r="203" spans="1:6">
       <c r="C203" s="24" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D203" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E203" s="13" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F203" s="21" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F204" s="14" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F205" s="14" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F206" s="14" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E207" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F207" s="14" t="s">
         <v>513</v>
-      </c>
-      <c r="F207" s="14" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F208" s="14" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C209" s="24" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D209" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E209" s="13" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F209" s="15" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F210" s="14" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F211" s="14" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -13382,77 +13294,77 @@
     </row>
     <row r="213" spans="1:6">
       <c r="C213" s="13" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D213" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E213" s="13" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F213" s="21" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C214" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C214" s="11" t="s">
-        <v>428</v>
-      </c>
       <c r="F214" s="14" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F215" s="14" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F216" s="14" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F217" s="14" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="C219" s="13" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D219" s="13" t="s">
         <v>5</v>
@@ -13461,7 +13373,7 @@
         <v>1</v>
       </c>
       <c r="F219" s="21" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -13475,7 +13387,7 @@
         <v>101</v>
       </c>
       <c r="F220" s="14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -13489,7 +13401,7 @@
         <v>102</v>
       </c>
       <c r="F221" s="14" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -13503,7 +13415,7 @@
         <v>103</v>
       </c>
       <c r="F222" s="14" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -13517,7 +13429,7 @@
         <v>104</v>
       </c>
       <c r="F223" s="14" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -13528,10 +13440,10 @@
         <v>4</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F224" s="14" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -13545,7 +13457,7 @@
         <v>105</v>
       </c>
       <c r="F225" s="14" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -13559,7 +13471,7 @@
         <v>106</v>
       </c>
       <c r="F226" s="14" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -13573,7 +13485,7 @@
         <v>107</v>
       </c>
       <c r="F227" s="14" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -13587,7 +13499,7 @@
         <v>108</v>
       </c>
       <c r="F228" s="14" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -13601,7 +13513,7 @@
         <v>109</v>
       </c>
       <c r="F229" s="14" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -13615,7 +13527,7 @@
         <v>110</v>
       </c>
       <c r="F230" s="14" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -13623,153 +13535,153 @@
     </row>
     <row r="232" spans="1:6">
       <c r="C232" s="24" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D232" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E232" s="13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F232" s="15"/>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F233" s="14" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F234" s="14" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B235" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="F235" s="14" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F236" s="14" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C237" s="23" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D237" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E237" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F237" s="15" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B238" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="F238" s="14" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F239" s="14" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F240" s="14" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="27" thickBot="1">
-      <c r="A242" s="53" t="s">
-        <v>593</v>
-      </c>
-      <c r="B242" s="53"/>
-      <c r="C242" s="53"/>
-      <c r="D242" s="53"/>
-      <c r="E242" s="53"/>
-      <c r="F242" s="54"/>
+      <c r="A242" s="55" t="s">
+        <v>589</v>
+      </c>
+      <c r="B242" s="55"/>
+      <c r="C242" s="55"/>
+      <c r="D242" s="55"/>
+      <c r="E242" s="55"/>
+      <c r="F242" s="56"/>
     </row>
     <row r="243" spans="1:7">
       <c r="C243" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F243" s="14" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G243" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -13777,10 +13689,10 @@
         <v>34</v>
       </c>
       <c r="F244" s="14" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G244" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -13788,10 +13700,10 @@
         <v>33</v>
       </c>
       <c r="F245" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G245" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -13799,10 +13711,10 @@
         <v>182</v>
       </c>
       <c r="F246" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G246" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -13810,10 +13722,10 @@
         <v>181</v>
       </c>
       <c r="F247" s="14" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G247" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -13827,10 +13739,10 @@
         <v>28</v>
       </c>
       <c r="F249" s="14" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -13844,10 +13756,10 @@
         <v>32</v>
       </c>
       <c r="F250" s="14" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -13858,13 +13770,13 @@
         <v>4</v>
       </c>
       <c r="C251" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="F251" s="14" t="s">
         <v>568</v>
       </c>
-      <c r="F251" s="14" t="s">
-        <v>572</v>
-      </c>
       <c r="G251" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -13875,13 +13787,13 @@
         <v>4</v>
       </c>
       <c r="C252" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="F252" s="14" t="s">
         <v>569</v>
       </c>
-      <c r="F252" s="14" t="s">
-        <v>573</v>
-      </c>
       <c r="G252" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -13895,61 +13807,61 @@
         <v>169</v>
       </c>
       <c r="F253" s="14" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="C255" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F255" s="22" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C256" s="30" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F256" s="14" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="F257" s="14" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -13966,7 +13878,7 @@
         <v>40</v>
       </c>
       <c r="F259" s="14" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G259" s="1"/>
     </row>
@@ -13984,7 +13896,7 @@
         <v>75</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -14001,7 +13913,7 @@
         <v>76</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -14018,7 +13930,7 @@
         <v>142</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -14029,13 +13941,13 @@
         <v>4</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F263" s="14" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -14046,13 +13958,13 @@
         <v>4</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F264" s="14" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -14063,13 +13975,13 @@
         <v>4</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F265" s="14" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -14080,13 +13992,13 @@
         <v>4</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F266" s="14" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -14097,13 +14009,13 @@
         <v>4</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F267" s="14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -14129,7 +14041,7 @@
         <v>145</v>
       </c>
       <c r="F273" s="14" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -14146,7 +14058,7 @@
         <v>75</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -14163,7 +14075,7 @@
         <v>76</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -14180,7 +14092,7 @@
         <v>142</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -14191,13 +14103,13 @@
         <v>4</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F277" s="14" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -14208,13 +14120,13 @@
         <v>4</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F278" s="14" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -14225,13 +14137,13 @@
         <v>4</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F279" s="14" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -14242,13 +14154,13 @@
         <v>4</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F280" s="14" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -14259,13 +14171,13 @@
         <v>4</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F281" s="14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -14279,7 +14191,7 @@
         <v>145</v>
       </c>
       <c r="F284" s="14" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -14293,7 +14205,7 @@
         <v>145</v>
       </c>
       <c r="F285" s="14" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -14307,7 +14219,7 @@
         <v>173</v>
       </c>
       <c r="F286" s="14" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -14321,7 +14233,7 @@
         <v>174</v>
       </c>
       <c r="F287" s="14" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -14335,7 +14247,7 @@
         <v>175</v>
       </c>
       <c r="F288" s="14" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -14352,10 +14264,10 @@
         <v>29</v>
       </c>
       <c r="F290" s="22" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -14369,10 +14281,10 @@
         <v>87</v>
       </c>
       <c r="F291" s="14" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -14386,10 +14298,10 @@
         <v>82</v>
       </c>
       <c r="F292" s="14" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -14403,10 +14315,10 @@
         <v>83</v>
       </c>
       <c r="F293" s="14" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -14420,10 +14332,10 @@
         <v>84</v>
       </c>
       <c r="F294" s="14" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -14434,13 +14346,13 @@
         <v>4</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F295" s="14" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -14451,13 +14363,13 @@
         <v>4</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F296" s="14" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -14468,13 +14380,13 @@
         <v>4</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F297" s="14" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -14484,14 +14396,14 @@
       <c r="C302" s="2"/>
     </row>
     <row r="304" spans="1:7" ht="27" thickBot="1">
-      <c r="A304" s="53" t="s">
+      <c r="A304" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="B304" s="53"/>
-      <c r="C304" s="53"/>
-      <c r="D304" s="53"/>
-      <c r="E304" s="53"/>
-      <c r="F304" s="54"/>
+      <c r="B304" s="55"/>
+      <c r="C304" s="55"/>
+      <c r="D304" s="55"/>
+      <c r="E304" s="55"/>
+      <c r="F304" s="56"/>
     </row>
     <row r="307" spans="1:6">
       <c r="C307" s="1" t="s">
@@ -14504,7 +14416,7 @@
         <v>28</v>
       </c>
       <c r="F307" s="14" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -14518,7 +14430,7 @@
         <v>29</v>
       </c>
       <c r="F308" s="14" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -14532,7 +14444,7 @@
         <v>32</v>
       </c>
       <c r="F309" s="14" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -14616,7 +14528,7 @@
         <v>119</v>
       </c>
       <c r="F315" s="14" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -14686,7 +14598,7 @@
         <v>130</v>
       </c>
       <c r="F320" s="14" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -14703,7 +14615,7 @@
         <v>75</v>
       </c>
       <c r="G321" s="9" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -14720,7 +14632,7 @@
         <v>75</v>
       </c>
       <c r="G322" s="9" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -14737,7 +14649,7 @@
         <v>76</v>
       </c>
       <c r="G323" s="9" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -14754,7 +14666,7 @@
         <v>142</v>
       </c>
       <c r="G324" s="9" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -14765,13 +14677,13 @@
         <v>4</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F325" s="14" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G325" s="9" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -14782,13 +14694,13 @@
         <v>4</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F326" s="14" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G326" s="9" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -14799,13 +14711,13 @@
         <v>4</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F327" s="14" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G327" s="9" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -14816,13 +14728,13 @@
         <v>4</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F328" s="14" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G328" s="9" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -14833,13 +14745,13 @@
         <v>4</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F329" s="14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G329" s="9" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -14853,10 +14765,10 @@
         <v>145</v>
       </c>
       <c r="F331" s="14" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -14873,7 +14785,7 @@
         <v>75</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -14890,7 +14802,7 @@
         <v>76</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -14907,7 +14819,7 @@
         <v>142</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -14918,13 +14830,13 @@
         <v>4</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F335" s="14" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -14935,13 +14847,13 @@
         <v>4</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F336" s="14" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -14952,13 +14864,13 @@
         <v>4</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F337" s="14" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -14969,13 +14881,13 @@
         <v>4</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F338" s="14" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -14986,13 +14898,13 @@
         <v>4</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F339" s="14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -15000,7 +14912,7 @@
         <v>77</v>
       </c>
       <c r="F340" s="14" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -15008,7 +14920,7 @@
         <v>78</v>
       </c>
       <c r="F341" s="14" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -15016,7 +14928,7 @@
         <v>100</v>
       </c>
       <c r="F343" s="14" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -15038,7 +14950,7 @@
         <v>99</v>
       </c>
       <c r="F347" s="14" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -15052,7 +14964,7 @@
         <v>43</v>
       </c>
       <c r="F348" s="14" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -15068,87 +14980,73 @@
       <c r="D349" s="9"/>
       <c r="E349" s="9"/>
       <c r="F349" s="16" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="27" thickBot="1">
-      <c r="A351" s="53" t="s">
-        <v>434</v>
-      </c>
-      <c r="B351" s="53"/>
-      <c r="C351" s="53"/>
-      <c r="D351" s="53"/>
-      <c r="E351" s="53"/>
-      <c r="F351" s="54"/>
+      <c r="A351" s="55" t="s">
+        <v>430</v>
+      </c>
+      <c r="B351" s="55"/>
+      <c r="C351" s="55"/>
+      <c r="D351" s="55"/>
+      <c r="E351" s="55"/>
+      <c r="F351" s="56"/>
     </row>
     <row r="352" spans="1:7">
       <c r="C352" s="1" t="s">
-        <v>112</v>
+        <v>657</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F352" s="14" t="s">
-        <v>114</v>
+        <v>306</v>
+      </c>
+      <c r="F352" s="22" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="1" t="s">
-        <v>113</v>
+        <v>306</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>115</v>
+        <v>659</v>
       </c>
       <c r="F353" s="14" t="s">
-        <v>116</v>
+        <v>660</v>
       </c>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="F354" s="14" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="C356" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E356" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B354" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F354" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6">
-      <c r="A355" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F355" s="14" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6">
-      <c r="A356" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C356" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="F356" s="14" t="s">
-        <v>566</v>
+        <v>114</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -15158,11 +15056,11 @@
       <c r="B357" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C357" s="1" t="s">
-        <v>194</v>
+      <c r="C357" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="F357" s="14" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -15173,10 +15071,10 @@
         <v>4</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="F358" s="14" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -15187,52 +15085,52 @@
         <v>4</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>605</v>
+        <v>184</v>
       </c>
       <c r="F359" s="14" t="s">
-        <v>606</v>
+        <v>563</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F360" s="14" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="361" spans="1:6">
-      <c r="C361" s="1" t="s">
+      <c r="A361" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="F361" s="14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="C363" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D361" s="1" t="s">
+      <c r="D363" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E361" s="1" t="s">
+      <c r="E363" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F361" s="14" t="s">
+      <c r="F363" s="14" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6">
-      <c r="A362" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F362" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6">
-      <c r="A363" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C363" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F363" s="14" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -15243,10 +15141,10 @@
         <v>4</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="F364" s="14" t="s">
-        <v>321</v>
+        <v>127</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -15256,11 +15154,11 @@
       <c r="B365" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C365" s="3" t="s">
-        <v>217</v>
+      <c r="C365" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="F365" s="14" t="s">
-        <v>219</v>
+        <v>316</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -15270,11 +15168,11 @@
       <c r="B366" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C366" s="3" t="s">
-        <v>218</v>
+      <c r="C366" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="F366" s="14" t="s">
-        <v>219</v>
+        <v>317</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -15285,10 +15183,10 @@
         <v>4</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="F367" s="14" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -15299,10 +15197,10 @@
         <v>4</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="F368" s="14" t="s">
-        <v>129</v>
+        <v>215</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -15313,10 +15211,10 @@
         <v>4</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="F369" s="14" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -15327,10 +15225,10 @@
         <v>4</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="F370" s="14" t="s">
-        <v>189</v>
+        <v>129</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -15341,10 +15239,10 @@
         <v>4</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F371" s="14" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -15355,9 +15253,37 @@
         <v>4</v>
       </c>
       <c r="C372" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F372" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F373" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C374" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F372" s="14" t="s">
+      <c r="F374" s="14" t="s">
         <v>154</v>
       </c>
     </row>
@@ -15366,7 +15292,7 @@
         <v>126</v>
       </c>
       <c r="F377" s="14" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -15390,7 +15316,7 @@
         <v>131</v>
       </c>
       <c r="F380" s="14" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -15417,15 +15343,15 @@
         <v>136</v>
       </c>
       <c r="F385" s="14" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="386" spans="1:6">
       <c r="C386" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F386" s="14" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -15433,15 +15359,15 @@
         <v>187</v>
       </c>
       <c r="F387" s="14" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="388" spans="1:6">
       <c r="C388" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F388" s="14" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -15452,7 +15378,7 @@
         <v>5</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F389" s="14" t="s">
         <v>138</v>
@@ -15460,7 +15386,7 @@
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>4</v>
@@ -15474,203 +15400,203 @@
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F391" s="14" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F392" s="14" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="393" spans="1:6">
       <c r="A393" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F393" s="14" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="396" spans="1:6" ht="27" thickBot="1">
-      <c r="A396" s="53" t="s">
-        <v>262</v>
-      </c>
-      <c r="B396" s="53"/>
-      <c r="C396" s="53"/>
-      <c r="D396" s="53"/>
-      <c r="E396" s="53"/>
-      <c r="F396" s="54"/>
+      <c r="A396" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="B396" s="55"/>
+      <c r="C396" s="55"/>
+      <c r="D396" s="55"/>
+      <c r="E396" s="55"/>
+      <c r="F396" s="56"/>
     </row>
     <row r="397" spans="1:6">
       <c r="C397" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F397" s="14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="C398" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F398" s="14" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="399" spans="1:6">
       <c r="C399" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F399" s="14" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="C400" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F400" s="14" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="401" spans="3:6">
       <c r="C401" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F401" s="14" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="402" spans="3:6">
       <c r="C402" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F402" s="14" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="403" spans="3:6">
       <c r="C403" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F403" s="14" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="404" spans="3:6">
       <c r="C404" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F404" s="14" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="405" spans="3:6">
       <c r="C405" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F405" s="14" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="406" spans="3:6">
       <c r="C406" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F406" s="14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="407" spans="3:6">
       <c r="C407" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F407" s="14" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="409" spans="3:6">
       <c r="C409" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F409" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="410" spans="3:6">
       <c r="C410" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F410" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="411" spans="3:6">
       <c r="C411" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F411" s="14" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="412" spans="3:6">
       <c r="C412" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F412" s="14" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="414" spans="3:6">
       <c r="C414" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="417" spans="1:6" ht="27" thickBot="1">
-      <c r="A417" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="B417" s="53"/>
-      <c r="C417" s="53"/>
-      <c r="D417" s="53"/>
-      <c r="E417" s="53"/>
-      <c r="F417" s="54"/>
+      <c r="A417" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="B417" s="55"/>
+      <c r="C417" s="55"/>
+      <c r="D417" s="55"/>
+      <c r="E417" s="55"/>
+      <c r="F417" s="56"/>
     </row>
     <row r="418" spans="1:6">
       <c r="C418" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F418" s="14" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -15681,7 +15607,7 @@
     </row>
     <row r="420" spans="1:6">
       <c r="C420" s="13" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D420" s="13" t="s">
         <v>5</v>
@@ -15690,7 +15616,7 @@
         <v>23</v>
       </c>
       <c r="F420" s="21" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -15704,12 +15630,12 @@
         <v>71</v>
       </c>
       <c r="F421" s="14" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="423" spans="1:6">
       <c r="C423" s="13" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D423" s="13" t="s">
         <v>5</v>
@@ -15718,7 +15644,7 @@
         <v>29</v>
       </c>
       <c r="F423" s="15" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -15729,38 +15655,38 @@
         <v>4</v>
       </c>
       <c r="C424" s="8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F424" s="14" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="426" spans="1:6">
       <c r="C426" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D426" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E426" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F426" s="22" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="427" spans="1:6">
       <c r="C427" s="13" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D427" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E427" s="13" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F427" s="21" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -15771,10 +15697,10 @@
         <v>4</v>
       </c>
       <c r="C428" s="10" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F428" s="14" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -15785,10 +15711,10 @@
         <v>4</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F429" s="14" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -15799,10 +15725,10 @@
         <v>4</v>
       </c>
       <c r="C430" s="12" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F430" s="14" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -15813,10 +15739,10 @@
         <v>4</v>
       </c>
       <c r="C431" s="12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F431" s="14" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -15827,10 +15753,10 @@
         <v>4</v>
       </c>
       <c r="C432" s="12" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F432" s="14" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -15841,10 +15767,10 @@
         <v>4</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F433" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -15855,10 +15781,10 @@
         <v>4</v>
       </c>
       <c r="C434" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F434" s="14" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -15869,10 +15795,10 @@
         <v>4</v>
       </c>
       <c r="C435" s="8" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F435" s="14" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -15883,10 +15809,10 @@
         <v>4</v>
       </c>
       <c r="C436" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F436" s="14" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -15900,52 +15826,52 @@
         <v>5</v>
       </c>
       <c r="E438" s="13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F438" s="21" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="439" spans="1:7">
       <c r="A439" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F439" s="14" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="440" spans="1:7">
       <c r="A440" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F440" s="14" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="441" spans="1:7">
       <c r="A441" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F441" s="14" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -15962,6 +15888,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A417:F417"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A396:F396"/>
     <mergeCell ref="A351:F351"/>
@@ -15969,12 +15901,6 @@
     <mergeCell ref="A242:F242"/>
     <mergeCell ref="A87:F87"/>
     <mergeCell ref="A196:F196"/>
-    <mergeCell ref="A417:F417"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="C46:D46"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>

--- a/git-terminal-commands.xlsx
+++ b/git-terminal-commands.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Goofy/GIT/steves-git-commands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AE92E6-B5B2-884B-8D29-195D1CF83BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B9C173-404C-194F-8BC1-7800521D7E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="460" windowWidth="24380" windowHeight="28340" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
+    <workbookView xWindow="26180" yWindow="460" windowWidth="24380" windowHeight="28340" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$98:$F$393</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$98:$F$392</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="664">
   <si>
     <t>Configuration</t>
   </si>
@@ -1297,9 +1297,6 @@
     <t>Branches and Merges</t>
   </si>
   <si>
-    <t>git remote</t>
-  </si>
-  <si>
     <t>[r]</t>
   </si>
   <si>
@@ -2554,32 +2551,7 @@
     </r>
   </si>
   <si>
-    <t>git tag</t>
-  </si>
-  <si>
     <t>[t]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(-l </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> --list)</t>
-    </r>
   </si>
   <si>
     <t>[tl]</t>
@@ -10192,9 +10164,6 @@
     </r>
   </si>
   <si>
-    <t>git prune</t>
-  </si>
-  <si>
     <t>Remove (delete) an orphaned branch</t>
   </si>
   <si>
@@ -10253,6 +10222,79 @@
         <rFont val="Menlo Regular"/>
       </rPr>
       <t xml:space="preserve"> remote_url</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git tag </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>required option</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(-l </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> --list) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>option</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git remote </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>option</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">prune </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>option</t>
     </r>
   </si>
 </sst>
@@ -10707,12 +10749,12 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" xr:uid="{ACEF5201-9FF9-AD44-AA4C-60ABCDBD9D8F}"/>
@@ -11031,10 +11073,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G446"/>
+  <dimension ref="A1:G445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" zoomScale="168" zoomScaleNormal="168" zoomScaleSheetLayoutView="33" workbookViewId="0">
-      <selection activeCell="A352" sqref="A352"/>
+    <sheetView tabSelected="1" topLeftCell="A342" zoomScale="168" zoomScaleNormal="168" zoomScaleSheetLayoutView="33" workbookViewId="0">
+      <selection activeCell="A361" sqref="A361:XFD366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11049,83 +11091,83 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31">
       <c r="A1" s="17" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="18" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="19" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="20" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="27" thickBot="1">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="54"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="58"/>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -11133,25 +11175,25 @@
         <v>44</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="27" thickBot="1">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
@@ -11160,12 +11202,12 @@
         <v>1</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
@@ -11174,12 +11216,12 @@
         <v>2</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" s="13" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>5</v>
@@ -11188,7 +11230,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -11199,12 +11241,12 @@
         <v>4</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
       <c r="F17" s="32" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -11218,7 +11260,7 @@
         <v>55</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -11232,7 +11274,7 @@
         <v>54</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -11243,10 +11285,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -11257,10 +11299,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -11271,10 +11313,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -11288,7 +11330,7 @@
         <v>52</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -11299,10 +11341,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -11313,10 +11355,10 @@
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -11330,7 +11372,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -11344,7 +11386,7 @@
         <v>41</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -11358,29 +11400,29 @@
         <v>53</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="C29" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17">
       <c r="A30" s="33" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>602</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -11392,16 +11434,16 @@
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="21" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="33"/>
       <c r="C33" s="35" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -11411,7 +11453,7 @@
     <row r="35" spans="1:6" ht="20" thickBot="1">
       <c r="A35" s="33"/>
       <c r="C35" s="36" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D35" s="37"/>
       <c r="E35" s="37"/>
@@ -11423,25 +11465,25 @@
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="21" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="33"/>
       <c r="C37" s="4" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="33"/>
       <c r="C38" s="39" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -11455,43 +11497,43 @@
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="21" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="33"/>
       <c r="C41" s="41" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="33"/>
       <c r="C42" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="33"/>
       <c r="C43" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="40">
       <c r="A44" s="33"/>
       <c r="C44" s="39" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -11501,10 +11543,10 @@
     </row>
     <row r="46" spans="1:6" ht="20" thickBot="1">
       <c r="A46" s="33"/>
-      <c r="C46" s="57" t="s">
-        <v>626</v>
-      </c>
-      <c r="D46" s="58"/>
+      <c r="C46" s="55" t="s">
+        <v>623</v>
+      </c>
+      <c r="D46" s="56"/>
       <c r="E46" s="37"/>
       <c r="F46" s="43"/>
     </row>
@@ -11514,52 +11556,52 @@
       <c r="D47" s="45"/>
       <c r="E47" s="45"/>
       <c r="F47" s="46" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="33"/>
       <c r="C48" s="41" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="33"/>
       <c r="C49" s="4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="33"/>
       <c r="C50" s="4" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="40">
       <c r="A51" s="33"/>
       <c r="C51" s="39" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F51" s="42" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="40">
       <c r="A52" s="33"/>
       <c r="C52" s="39" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -11570,7 +11612,7 @@
     <row r="54" spans="1:6" ht="20" thickBot="1">
       <c r="A54" s="33"/>
       <c r="C54" s="36" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D54" s="37"/>
       <c r="E54" s="37"/>
@@ -11582,52 +11624,52 @@
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="21" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="27">
       <c r="A56" s="33"/>
       <c r="C56" s="51" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F56" s="47" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="33"/>
       <c r="C57" s="39" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F57" s="42" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="33"/>
       <c r="C58" s="39" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F58" s="42" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="26">
       <c r="A59" s="33"/>
       <c r="C59" s="50" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F59" s="49" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="40">
       <c r="A60" s="33"/>
       <c r="C60" s="41" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F60" s="47" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -11641,25 +11683,25 @@
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
       <c r="F62" s="21" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="27">
       <c r="A63" s="33"/>
       <c r="C63" s="48" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F63" s="47" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="26">
       <c r="A64" s="33"/>
       <c r="C64" s="50" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F64" s="49" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -11673,25 +11715,25 @@
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
       <c r="F66" s="21" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="27">
       <c r="A67" s="33"/>
       <c r="C67" s="52" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F67" s="47" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="26">
       <c r="A68" s="33"/>
       <c r="C68" s="50" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F68" s="49" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -11700,45 +11742,45 @@
       <c r="F69" s="49"/>
     </row>
     <row r="70" spans="1:6" ht="27" thickBot="1">
-      <c r="A70" s="55" t="s">
+      <c r="A70" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="55"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="56"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="54"/>
     </row>
     <row r="71" spans="1:6">
       <c r="C71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="C72" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="C73" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="C74" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -11746,7 +11788,7 @@
         <v>10</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -11754,7 +11796,7 @@
         <v>11</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -11762,7 +11804,7 @@
         <v>12</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -11770,7 +11812,7 @@
         <v>13</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -11778,15 +11820,15 @@
         <v>109</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17">
       <c r="C80" s="9" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -11794,15 +11836,15 @@
         <v>51</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="C82" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -11810,44 +11852,44 @@
         <v>65</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="C84" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="C85" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="20"/>
     </row>
     <row r="87" spans="1:6" ht="27" thickBot="1">
-      <c r="A87" s="55" t="s">
+      <c r="A87" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="55"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="56"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="54"/>
     </row>
     <row r="88" spans="1:6">
       <c r="C88" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -11855,7 +11897,7 @@
         <v>18</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -11863,39 +11905,39 @@
         <v>19</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="C91" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="C92" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="C93" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="C94" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -11903,7 +11945,7 @@
         <v>20</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -11911,25 +11953,25 @@
         <v>25</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="27" thickBot="1">
-      <c r="A98" s="55" t="s">
+      <c r="A98" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B98" s="55"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="55"/>
-      <c r="E98" s="55"/>
-      <c r="F98" s="55"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="53"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="53"/>
     </row>
     <row r="99" spans="1:6">
       <c r="C99" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -11937,23 +11979,23 @@
         <v>33</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="C101" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="C102" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -11961,7 +12003,7 @@
         <v>22</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -11969,7 +12011,7 @@
         <v>98</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -11977,7 +12019,7 @@
         <v>96</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -11985,15 +12027,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="C107" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -12001,31 +12043,31 @@
         <v>24</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="C109" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="C110" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="C111" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -12033,126 +12075,126 @@
         <v>65</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="C113" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="C114" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="C116" s="13" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D116" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F116" s="21" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="C124" s="13" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D124" s="13" t="s">
         <v>5</v>
@@ -12161,7 +12203,7 @@
         <v>26</v>
       </c>
       <c r="F124" s="21" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -12175,7 +12217,7 @@
         <v>64</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -12186,10 +12228,10 @@
         <v>4</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -12203,7 +12245,7 @@
         <v>63</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -12214,10 +12256,10 @@
         <v>4</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -12228,10 +12270,10 @@
         <v>4</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -12242,36 +12284,36 @@
         <v>4</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:6" ht="27" thickBot="1">
-      <c r="A132" s="55" t="s">
+      <c r="A132" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B132" s="55"/>
-      <c r="C132" s="55"/>
-      <c r="D132" s="55"/>
-      <c r="E132" s="55"/>
-      <c r="F132" s="56"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="53"/>
+      <c r="D132" s="53"/>
+      <c r="E132" s="53"/>
+      <c r="F132" s="54"/>
     </row>
     <row r="133" spans="1:6">
       <c r="C133" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="C135" s="13" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D135" s="13" t="s">
         <v>5</v>
@@ -12280,7 +12322,7 @@
         <v>23</v>
       </c>
       <c r="F135" s="15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -12291,10 +12333,10 @@
         <v>4</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -12305,10 +12347,10 @@
         <v>4</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F137" s="31" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -12322,7 +12364,7 @@
         <v>67</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -12336,7 +12378,7 @@
         <v>70</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -12350,7 +12392,7 @@
         <v>68</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -12369,7 +12411,7 @@
         <v>71</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -12383,7 +12425,7 @@
         <v>62</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -12397,7 +12439,7 @@
         <v>60</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -12411,7 +12453,7 @@
         <v>61</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -12422,10 +12464,10 @@
         <v>4</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -12439,7 +12481,7 @@
         <v>59</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -12453,7 +12495,7 @@
         <v>58</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -12467,7 +12509,7 @@
         <v>57</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -12481,7 +12523,7 @@
         <v>56</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -12495,7 +12537,7 @@
         <v>27</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -12509,7 +12551,7 @@
         <v>66</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -12520,10 +12562,10 @@
         <v>4</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -12537,7 +12579,7 @@
         <v>1</v>
       </c>
       <c r="F155" s="22" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -12551,7 +12593,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -12565,7 +12607,7 @@
         <v>38</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -12579,7 +12621,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="22" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -12593,7 +12635,7 @@
         <v>39</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -12607,7 +12649,7 @@
         <v>40</v>
       </c>
       <c r="F160" s="15" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -12621,7 +12663,7 @@
         <v>85</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -12635,7 +12677,7 @@
         <v>87</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -12646,10 +12688,10 @@
         <v>4</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -12663,7 +12705,7 @@
         <v>88</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -12677,7 +12719,7 @@
         <v>89</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -12688,10 +12730,10 @@
         <v>4</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -12705,7 +12747,7 @@
         <v>90</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -12719,7 +12761,7 @@
         <v>91</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -12730,10 +12772,10 @@
         <v>4</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -12747,7 +12789,7 @@
         <v>92</v>
       </c>
       <c r="F170" s="14" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -12761,7 +12803,7 @@
         <v>93</v>
       </c>
       <c r="F171" s="14" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -12775,7 +12817,7 @@
         <v>94</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -12789,7 +12831,7 @@
         <v>95</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -12800,10 +12842,10 @@
         <v>4</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F174" s="14" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -12814,10 +12856,10 @@
         <v>4</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F175" s="14" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -12828,10 +12870,10 @@
         <v>4</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F176" s="14" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -12842,10 +12884,10 @@
         <v>4</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F177" s="14" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -12856,99 +12898,99 @@
         <v>4</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F178" s="14" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="C180" s="13" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D180" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E180" s="13" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F180" s="21" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F181" s="14" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F182" s="14" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F183" s="14" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F184" s="14" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="C186" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F186" s="22" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="C187" s="26" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D187" s="25" t="s">
         <v>5</v>
@@ -12957,21 +12999,21 @@
         <v>73</v>
       </c>
       <c r="F187" s="27" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="C188" s="8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F188" s="22" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -12982,10 +13024,10 @@
         <v>4</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F189" s="14" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -12996,10 +13038,10 @@
         <v>4</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F190" s="14" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -13010,10 +13052,10 @@
         <v>4</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F191" s="14" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -13024,10 +13066,10 @@
         <v>4</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F192" s="14" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -13038,10 +13080,10 @@
         <v>4</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F193" s="14" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -13052,31 +13094,31 @@
         <v>4</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F194" s="14" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="C195" s="3"/>
     </row>
     <row r="196" spans="1:6" ht="27" thickBot="1">
-      <c r="A196" s="55" t="s">
-        <v>429</v>
-      </c>
-      <c r="B196" s="55"/>
-      <c r="C196" s="55"/>
-      <c r="D196" s="55"/>
-      <c r="E196" s="55"/>
-      <c r="F196" s="55"/>
+      <c r="A196" s="53" t="s">
+        <v>426</v>
+      </c>
+      <c r="B196" s="53"/>
+      <c r="C196" s="53"/>
+      <c r="D196" s="53"/>
+      <c r="E196" s="53"/>
+      <c r="F196" s="53"/>
     </row>
     <row r="197" spans="1:6">
       <c r="C197" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F197" s="28" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -13093,7 +13135,7 @@
         <v>37</v>
       </c>
       <c r="F199" s="21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -13104,10 +13146,10 @@
         <v>4</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F200" s="14" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -13118,10 +13160,10 @@
         <v>4</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F201" s="14" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -13129,164 +13171,164 @@
     </row>
     <row r="203" spans="1:6">
       <c r="C203" s="24" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D203" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E203" s="13" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F203" s="21" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F204" s="14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F205" s="14" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F206" s="14" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F207" s="14" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F208" s="14" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C209" s="24" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D209" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E209" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="F209" s="15" t="s">
         <v>509</v>
-      </c>
-      <c r="F209" s="15" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F210" s="14" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F211" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -13294,77 +13336,77 @@
     </row>
     <row r="213" spans="1:6">
       <c r="C213" s="13" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D213" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E213" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="F213" s="21" t="s">
         <v>420</v>
-      </c>
-      <c r="F213" s="21" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F214" s="14" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F215" s="14" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F216" s="14" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F217" s="14" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="C219" s="13" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D219" s="13" t="s">
         <v>5</v>
@@ -13373,7 +13415,7 @@
         <v>1</v>
       </c>
       <c r="F219" s="21" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -13387,7 +13429,7 @@
         <v>101</v>
       </c>
       <c r="F220" s="14" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -13401,7 +13443,7 @@
         <v>102</v>
       </c>
       <c r="F221" s="14" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -13415,7 +13457,7 @@
         <v>103</v>
       </c>
       <c r="F222" s="14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -13429,7 +13471,7 @@
         <v>104</v>
       </c>
       <c r="F223" s="14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -13440,10 +13482,10 @@
         <v>4</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F224" s="14" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -13457,7 +13499,7 @@
         <v>105</v>
       </c>
       <c r="F225" s="14" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -13471,7 +13513,7 @@
         <v>106</v>
       </c>
       <c r="F226" s="14" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -13485,7 +13527,7 @@
         <v>107</v>
       </c>
       <c r="F227" s="14" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -13499,7 +13541,7 @@
         <v>108</v>
       </c>
       <c r="F228" s="14" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -13513,7 +13555,7 @@
         <v>109</v>
       </c>
       <c r="F229" s="14" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -13527,7 +13569,7 @@
         <v>110</v>
       </c>
       <c r="F230" s="14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -13535,153 +13577,153 @@
     </row>
     <row r="232" spans="1:6">
       <c r="C232" s="24" t="s">
-        <v>193</v>
+        <v>660</v>
       </c>
       <c r="D232" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E232" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F232" s="15"/>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B233" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C233" s="10" t="s">
-        <v>197</v>
-      </c>
       <c r="F233" s="14" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F234" s="14" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F235" s="14" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F236" s="14" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C237" s="23" t="s">
-        <v>195</v>
+        <v>661</v>
       </c>
       <c r="D237" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E237" s="13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F237" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F238" s="14" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F239" s="14" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F240" s="14" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="27" thickBot="1">
-      <c r="A242" s="55" t="s">
-        <v>589</v>
-      </c>
-      <c r="B242" s="55"/>
-      <c r="C242" s="55"/>
-      <c r="D242" s="55"/>
-      <c r="E242" s="55"/>
-      <c r="F242" s="56"/>
+      <c r="A242" s="53" t="s">
+        <v>586</v>
+      </c>
+      <c r="B242" s="53"/>
+      <c r="C242" s="53"/>
+      <c r="D242" s="53"/>
+      <c r="E242" s="53"/>
+      <c r="F242" s="54"/>
     </row>
     <row r="243" spans="1:7">
       <c r="C243" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F243" s="14" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="G243" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -13689,10 +13731,10 @@
         <v>34</v>
       </c>
       <c r="F244" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G244" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -13700,37 +13742,37 @@
         <v>33</v>
       </c>
       <c r="F245" s="14" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G245" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="C246" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F246" s="14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G246" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="C247" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F247" s="14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G247" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="C249" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>5</v>
@@ -13739,15 +13781,15 @@
         <v>28</v>
       </c>
       <c r="F249" s="14" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="C250" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>5</v>
@@ -13756,10 +13798,10 @@
         <v>32</v>
       </c>
       <c r="F250" s="14" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -13770,13 +13812,13 @@
         <v>4</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F251" s="14" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -13787,13 +13829,13 @@
         <v>4</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F252" s="14" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -13804,64 +13846,64 @@
         <v>4</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F253" s="14" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="C255" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E255" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F255" s="22" t="s">
         <v>550</v>
       </c>
-      <c r="F255" s="22" t="s">
-        <v>553</v>
-      </c>
       <c r="G255" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C256" s="30" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F256" s="14" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F257" s="14" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -13869,7 +13911,7 @@
     </row>
     <row r="259" spans="1:7">
       <c r="C259" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>5</v>
@@ -13878,7 +13920,7 @@
         <v>40</v>
       </c>
       <c r="F259" s="14" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G259" s="1"/>
     </row>
@@ -13890,13 +13932,13 @@
         <v>4</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F260" s="14" t="s">
         <v>75</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -13907,13 +13949,13 @@
         <v>4</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F261" s="14" t="s">
         <v>76</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -13924,13 +13966,13 @@
         <v>4</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F262" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -13941,13 +13983,13 @@
         <v>4</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F263" s="14" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -13958,13 +14000,13 @@
         <v>4</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F264" s="14" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -13975,13 +14017,13 @@
         <v>4</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F265" s="14" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -13992,13 +14034,13 @@
         <v>4</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F266" s="14" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -14009,13 +14051,13 @@
         <v>4</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F267" s="14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -14032,222 +14074,222 @@
     </row>
     <row r="273" spans="1:7">
       <c r="C273" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F273" s="14" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C274" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="F274" s="14" t="s">
         <v>75</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F275" s="14" t="s">
         <v>76</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F276" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F277" s="14" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F278" s="14" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F279" s="14" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F280" s="14" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F281" s="14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="284" spans="1:7">
       <c r="C284" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F284" s="14" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="285" spans="1:7">
       <c r="C285" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F285" s="14" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F286" s="14" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F287" s="14" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F288" s="14" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -14255,7 +14297,7 @@
     </row>
     <row r="290" spans="1:7">
       <c r="C290" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>5</v>
@@ -14264,10 +14306,10 @@
         <v>29</v>
       </c>
       <c r="F290" s="22" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -14281,10 +14323,10 @@
         <v>87</v>
       </c>
       <c r="F291" s="14" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -14298,10 +14340,10 @@
         <v>82</v>
       </c>
       <c r="F292" s="14" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -14315,10 +14357,10 @@
         <v>83</v>
       </c>
       <c r="F293" s="14" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -14332,10 +14374,10 @@
         <v>84</v>
       </c>
       <c r="F294" s="14" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -14346,13 +14388,13 @@
         <v>4</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F295" s="14" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -14363,13 +14405,13 @@
         <v>4</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F296" s="14" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -14380,13 +14422,13 @@
         <v>4</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F297" s="14" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -14396,14 +14438,14 @@
       <c r="C302" s="2"/>
     </row>
     <row r="304" spans="1:7" ht="27" thickBot="1">
-      <c r="A304" s="55" t="s">
+      <c r="A304" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="B304" s="55"/>
-      <c r="C304" s="55"/>
-      <c r="D304" s="55"/>
-      <c r="E304" s="55"/>
-      <c r="F304" s="56"/>
+      <c r="B304" s="53"/>
+      <c r="C304" s="53"/>
+      <c r="D304" s="53"/>
+      <c r="E304" s="53"/>
+      <c r="F304" s="54"/>
     </row>
     <row r="307" spans="1:6">
       <c r="C307" s="1" t="s">
@@ -14416,7 +14458,7 @@
         <v>28</v>
       </c>
       <c r="F307" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -14430,12 +14472,12 @@
         <v>29</v>
       </c>
       <c r="F308" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="C309" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>5</v>
@@ -14444,7 +14486,7 @@
         <v>32</v>
       </c>
       <c r="F309" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -14458,7 +14500,7 @@
         <v>73</v>
       </c>
       <c r="F310" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -14469,10 +14511,10 @@
         <v>4</v>
       </c>
       <c r="C311" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F311" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="F311" s="14" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -14483,10 +14525,10 @@
         <v>4</v>
       </c>
       <c r="C312" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F312" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="F312" s="14" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -14497,7 +14539,7 @@
         <v>4</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F313" s="14" t="s">
         <v>74</v>
@@ -14511,10 +14553,10 @@
         <v>4</v>
       </c>
       <c r="C314" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F314" s="14" t="s">
         <v>139</v>
-      </c>
-      <c r="F314" s="14" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -14525,10 +14567,10 @@
         <v>4</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F315" s="14" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -14539,7 +14581,7 @@
         <v>4</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F316" s="14" t="s">
         <v>81</v>
@@ -14553,10 +14595,10 @@
         <v>4</v>
       </c>
       <c r="C317" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F317" s="14" t="s">
         <v>179</v>
-      </c>
-      <c r="F317" s="14" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -14567,7 +14609,7 @@
         <v>4</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F318" s="14" t="s">
         <v>79</v>
@@ -14581,7 +14623,7 @@
         <v>4</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F319" s="14" t="s">
         <v>80</v>
@@ -14595,15 +14637,15 @@
         <v>4</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F320" s="14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="321" spans="1:7">
       <c r="C321" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>5</v>
@@ -14615,7 +14657,7 @@
         <v>75</v>
       </c>
       <c r="G321" s="9" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -14626,13 +14668,13 @@
         <v>4</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F322" s="14" t="s">
         <v>75</v>
       </c>
       <c r="G322" s="9" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -14643,13 +14685,13 @@
         <v>4</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F323" s="14" t="s">
         <v>76</v>
       </c>
       <c r="G323" s="9" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -14660,13 +14702,13 @@
         <v>4</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F324" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G324" s="9" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -14677,13 +14719,13 @@
         <v>4</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F325" s="14" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G325" s="9" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -14694,13 +14736,13 @@
         <v>4</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F326" s="14" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G326" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -14711,13 +14753,13 @@
         <v>4</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F327" s="14" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G327" s="9" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -14728,13 +14770,13 @@
         <v>4</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F328" s="14" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G328" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -14745,166 +14787,166 @@
         <v>4</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F329" s="14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G329" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="331" spans="1:7">
       <c r="C331" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F331" s="14" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="332" spans="1:7">
       <c r="A332" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C332" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C332" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="F332" s="14" t="s">
         <v>75</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="333" spans="1:7">
       <c r="A333" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F333" s="14" t="s">
         <v>76</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="334" spans="1:7">
       <c r="A334" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F334" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="335" spans="1:7">
       <c r="A335" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F335" s="14" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="336" spans="1:7">
       <c r="A336" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F336" s="14" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="337" spans="1:7">
       <c r="A337" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F337" s="14" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="338" spans="1:7">
       <c r="A338" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F338" s="14" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="339" spans="1:7">
       <c r="A339" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F339" s="14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -14912,7 +14954,7 @@
         <v>77</v>
       </c>
       <c r="F340" s="14" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -14920,7 +14962,7 @@
         <v>78</v>
       </c>
       <c r="F341" s="14" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -14928,7 +14970,7 @@
         <v>100</v>
       </c>
       <c r="F343" s="14" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -14950,7 +14992,7 @@
         <v>99</v>
       </c>
       <c r="F347" s="14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -14964,7 +15006,7 @@
         <v>43</v>
       </c>
       <c r="F348" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -14975,162 +15017,182 @@
         <v>4</v>
       </c>
       <c r="C349" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D349" s="9"/>
       <c r="E349" s="9"/>
       <c r="F349" s="16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="27" thickBot="1">
-      <c r="A351" s="55" t="s">
-        <v>430</v>
-      </c>
-      <c r="B351" s="55"/>
-      <c r="C351" s="55"/>
-      <c r="D351" s="55"/>
-      <c r="E351" s="55"/>
-      <c r="F351" s="56"/>
+      <c r="A351" s="53" t="s">
+        <v>427</v>
+      </c>
+      <c r="B351" s="53"/>
+      <c r="C351" s="53"/>
+      <c r="D351" s="53"/>
+      <c r="E351" s="53"/>
+      <c r="F351" s="54"/>
     </row>
     <row r="352" spans="1:7">
-      <c r="C352" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="D352" s="1" t="s">
+      <c r="C352" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="D352" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E352" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F352" s="22" t="s">
-        <v>658</v>
+      <c r="E352" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F352" s="15" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="1" t="s">
-        <v>306</v>
+        <v>112</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>659</v>
+        <v>114</v>
       </c>
       <c r="F353" s="14" t="s">
-        <v>660</v>
+        <v>115</v>
       </c>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="1" t="s">
-        <v>306</v>
+        <v>112</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C354" s="3" t="s">
-        <v>661</v>
+      <c r="C354" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="F354" s="14" t="s">
-        <v>662</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F355" s="14" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="356" spans="1:6">
+      <c r="A356" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C356" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D356" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E356" s="1" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="F356" s="14" t="s">
-        <v>114</v>
+        <v>559</v>
       </c>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C357" s="3" t="s">
-        <v>115</v>
+      <c r="C357" s="2" t="s">
+        <v>659</v>
       </c>
       <c r="F357" s="14" t="s">
-        <v>116</v>
+        <v>598</v>
       </c>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C358" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F358" s="14" t="s">
-        <v>322</v>
+      <c r="C358" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="D358" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E358" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F358" s="21" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="1" t="s">
-        <v>113</v>
+        <v>303</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C359" s="1" t="s">
-        <v>184</v>
+      <c r="C359" s="3" t="s">
+        <v>655</v>
       </c>
       <c r="F359" s="14" t="s">
-        <v>563</v>
+        <v>656</v>
       </c>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="1" t="s">
-        <v>113</v>
+        <v>303</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C360" s="1" t="s">
-        <v>183</v>
+      <c r="C360" s="3" t="s">
+        <v>657</v>
       </c>
       <c r="F360" s="14" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6">
-      <c r="A361" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="F361" s="14" t="s">
-        <v>601</v>
+        <v>658</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="C362" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F362" s="14" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="363" spans="1:6">
-      <c r="C363" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E363" s="1" t="s">
+      <c r="A363" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B363" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="F363" s="14" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -15141,10 +15203,10 @@
         <v>4</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="F364" s="14" t="s">
-        <v>127</v>
+        <v>313</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -15155,10 +15217,10 @@
         <v>4</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F365" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -15168,11 +15230,11 @@
       <c r="B366" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C366" s="2" t="s">
-        <v>208</v>
+      <c r="C366" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="F366" s="14" t="s">
-        <v>317</v>
+        <v>212</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -15183,10 +15245,10 @@
         <v>4</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F367" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -15197,10 +15259,10 @@
         <v>4</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="F368" s="14" t="s">
-        <v>215</v>
+        <v>127</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -15211,7 +15273,7 @@
         <v>4</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F369" s="14" t="s">
         <v>128</v>
@@ -15225,10 +15287,10 @@
         <v>4</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F370" s="14" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -15239,10 +15301,10 @@
         <v>4</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F371" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -15253,10 +15315,10 @@
         <v>4</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F372" s="14" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -15267,426 +15329,426 @@
         <v>4</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="F373" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6">
-      <c r="A374" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C374" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F374" s="14" t="s">
-        <v>154</v>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="C376" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F376" s="14" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="377" spans="1:6">
-      <c r="C377" s="1" t="s">
-        <v>126</v>
+      <c r="C377" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="F377" s="14" t="s">
-        <v>315</v>
+        <v>122</v>
       </c>
     </row>
     <row r="378" spans="1:6">
       <c r="C378" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F378" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="379" spans="1:6">
-      <c r="C379" s="8" t="s">
-        <v>132</v>
+      <c r="C379" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="F379" s="14" t="s">
-        <v>125</v>
+        <v>311</v>
       </c>
     </row>
     <row r="380" spans="1:6">
-      <c r="C380" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F380" s="14" t="s">
-        <v>314</v>
-      </c>
+      <c r="C380" s="3"/>
     </row>
     <row r="381" spans="1:6">
-      <c r="C381" s="3"/>
+      <c r="C381" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F381" s="14" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="382" spans="1:6">
-      <c r="C382" s="4" t="s">
-        <v>144</v>
+      <c r="C382" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="F382" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6">
-      <c r="C383" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F383" s="14" t="s">
-        <v>142</v>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="C384" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F384" s="14" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="385" spans="1:6">
       <c r="C385" s="1" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="F385" s="14" t="s">
-        <v>323</v>
+        <v>209</v>
       </c>
     </row>
     <row r="386" spans="1:6">
       <c r="C386" s="1" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="F386" s="14" t="s">
-        <v>212</v>
+        <v>320</v>
       </c>
     </row>
     <row r="387" spans="1:6">
       <c r="C387" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F387" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="388" spans="1:6">
       <c r="C388" s="1" t="s">
-        <v>191</v>
+        <v>136</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="F388" s="14" t="s">
-        <v>324</v>
+        <v>137</v>
       </c>
     </row>
     <row r="389" spans="1:6">
-      <c r="C389" s="1" t="s">
+      <c r="A389" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F389" s="14" t="s">
         <v>137</v>
-      </c>
-      <c r="D389" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E389" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F389" s="14" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C390" s="3" t="s">
-        <v>185</v>
+      <c r="C390" s="1" t="s">
+        <v>537</v>
       </c>
       <c r="F390" s="14" t="s">
-        <v>138</v>
+        <v>277</v>
       </c>
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C391" s="1" t="s">
-        <v>540</v>
+      <c r="C391" s="3" t="s">
+        <v>538</v>
       </c>
       <c r="F391" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F392" s="14" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6">
-      <c r="A393" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C393" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="F393" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" ht="27" thickBot="1">
-      <c r="A396" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="B396" s="55"/>
-      <c r="C396" s="55"/>
-      <c r="D396" s="55"/>
-      <c r="E396" s="55"/>
-      <c r="F396" s="56"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" ht="27" thickBot="1">
+      <c r="A395" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="B395" s="53"/>
+      <c r="C395" s="53"/>
+      <c r="D395" s="53"/>
+      <c r="E395" s="53"/>
+      <c r="F395" s="54"/>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="C396" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F396" s="14" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="397" spans="1:6">
       <c r="C397" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D397" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E397" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F397" s="14" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="C398" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F398" s="14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="399" spans="1:6">
       <c r="C399" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F399" s="14" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="C400" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F400" s="14" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="401" spans="3:6">
+    <row r="401" spans="1:6">
       <c r="C401" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F401" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="C402" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F402" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="C403" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F401" s="14" t="s">
+      <c r="F403" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="402" spans="3:6">
-      <c r="C402" s="1" t="s">
+    <row r="404" spans="1:6">
+      <c r="C404" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F402" s="14" t="s">
+      <c r="F404" s="14" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="403" spans="3:6">
-      <c r="C403" s="1" t="s">
+    <row r="405" spans="1:6">
+      <c r="C405" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F405" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="C406" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F403" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="404" spans="3:6">
-      <c r="C404" s="1" t="s">
+      <c r="F406" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="F404" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="405" spans="3:6">
-      <c r="C405" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F405" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="406" spans="3:6">
-      <c r="C406" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F406" s="14" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="407" spans="3:6">
-      <c r="C407" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F407" s="14" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="409" spans="3:6">
+    </row>
+    <row r="408" spans="1:6">
+      <c r="C408" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F408" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
       <c r="C409" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F409" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="F409" s="14" t="s">
+    </row>
+    <row r="410" spans="1:6">
+      <c r="C410" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="410" spans="3:6">
-      <c r="C410" s="1" t="s">
+      <c r="F410" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="F410" s="14" t="s">
+    </row>
+    <row r="411" spans="1:6">
+      <c r="C411" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="411" spans="3:6">
-      <c r="C411" s="1" t="s">
+      <c r="F411" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="F411" s="14" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="412" spans="3:6">
-      <c r="C412" s="1" t="s">
+    </row>
+    <row r="413" spans="1:6">
+      <c r="C413" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F412" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="414" spans="3:6">
-      <c r="C414" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" ht="27" thickBot="1">
-      <c r="A417" s="55" t="s">
-        <v>267</v>
-      </c>
-      <c r="B417" s="55"/>
-      <c r="C417" s="55"/>
-      <c r="D417" s="55"/>
-      <c r="E417" s="55"/>
-      <c r="F417" s="56"/>
+    </row>
+    <row r="416" spans="1:6" ht="27" thickBot="1">
+      <c r="A416" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="B416" s="53"/>
+      <c r="C416" s="53"/>
+      <c r="D416" s="53"/>
+      <c r="E416" s="53"/>
+      <c r="F416" s="54"/>
+    </row>
+    <row r="417" spans="1:6">
+      <c r="C417" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F417" s="14" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="418" spans="1:6">
-      <c r="C418" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F418" s="14" t="s">
-        <v>547</v>
-      </c>
+      <c r="C418" s="25"/>
+      <c r="D418" s="25"/>
+      <c r="E418" s="25"/>
+      <c r="F418" s="27"/>
     </row>
     <row r="419" spans="1:6">
-      <c r="C419" s="25"/>
-      <c r="D419" s="25"/>
-      <c r="E419" s="25"/>
-      <c r="F419" s="27"/>
+      <c r="C419" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="D419" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E419" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F419" s="21" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="420" spans="1:6">
-      <c r="C420" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="D420" s="13" t="s">
+      <c r="A420" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F420" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="C422" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="D422" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E420" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F420" s="21" t="s">
+      <c r="E422" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F422" s="15" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="A423" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C423" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="F423" s="14" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="C425" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F425" s="22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="C426" s="13" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="421" spans="1:6">
-      <c r="A421" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B421" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C421" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F421" s="14" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6">
-      <c r="C423" s="13" t="s">
-        <v>534</v>
-      </c>
-      <c r="D423" s="13" t="s">
+      <c r="D426" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E423" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F423" s="15" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6">
-      <c r="A424" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C424" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="F424" s="14" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6">
-      <c r="C426" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D426" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E426" s="1" t="s">
+      <c r="E426" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="F426" s="21" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
+      <c r="A427" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C427" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="F426" s="22" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6">
-      <c r="C427" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="D427" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E427" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="F427" s="21" t="s">
-        <v>527</v>
+      <c r="F427" s="14" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -15696,11 +15758,11 @@
       <c r="B428" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C428" s="10" t="s">
-        <v>271</v>
+      <c r="C428" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="F428" s="14" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -15710,11 +15772,11 @@
       <c r="B429" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C429" s="2" t="s">
-        <v>272</v>
+      <c r="C429" s="12" t="s">
+        <v>276</v>
       </c>
       <c r="F429" s="14" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -15725,10 +15787,10 @@
         <v>4</v>
       </c>
       <c r="C430" s="12" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F430" s="14" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -15739,10 +15801,10 @@
         <v>4</v>
       </c>
       <c r="C431" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F431" s="14" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -15752,11 +15814,11 @@
       <c r="B432" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C432" s="12" t="s">
-        <v>277</v>
+      <c r="C432" s="8" t="s">
+        <v>534</v>
       </c>
       <c r="F432" s="14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -15767,10 +15829,10 @@
         <v>4</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>537</v>
+        <v>272</v>
       </c>
       <c r="F433" s="14" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -15781,10 +15843,10 @@
         <v>4</v>
       </c>
       <c r="C434" s="8" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F434" s="14" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -15795,84 +15857,73 @@
         <v>4</v>
       </c>
       <c r="C435" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F435" s="14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="436" spans="1:7">
-      <c r="A436" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B436" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C436" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F436" s="14" t="s">
-        <v>530</v>
-      </c>
+      <c r="C436" s="8"/>
     </row>
     <row r="437" spans="1:7">
-      <c r="C437" s="8"/>
+      <c r="C437" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D437" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E437" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="F437" s="21" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="438" spans="1:7">
-      <c r="C438" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D438" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E438" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="F438" s="21" t="s">
-        <v>543</v>
+      <c r="A438" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F438" s="14" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="439" spans="1:7">
       <c r="A439" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F439" s="14" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="440" spans="1:7">
       <c r="A440" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F440" s="14" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="441" spans="1:7">
-      <c r="A441" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C441" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F441" s="14" t="s">
-        <v>546</v>
-      </c>
+        <v>543</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7">
+      <c r="G442" s="29"/>
     </row>
     <row r="443" spans="1:7">
       <c r="G443" s="29"/>
@@ -15883,24 +15934,21 @@
     <row r="445" spans="1:7">
       <c r="G445" s="29"/>
     </row>
-    <row r="446" spans="1:7">
-      <c r="G446" s="29"/>
-    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A417:F417"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A395:F395"/>
+    <mergeCell ref="A351:F351"/>
+    <mergeCell ref="A304:F304"/>
+    <mergeCell ref="A242:F242"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A196:F196"/>
+    <mergeCell ref="A416:F416"/>
     <mergeCell ref="A98:F98"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A132:F132"/>
     <mergeCell ref="A70:F70"/>
     <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A396:F396"/>
-    <mergeCell ref="A351:F351"/>
-    <mergeCell ref="A304:F304"/>
-    <mergeCell ref="A242:F242"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A196:F196"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>

--- a/git-terminal-commands.xlsx
+++ b/git-terminal-commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Goofy/GIT/steves-git-commands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B9C173-404C-194F-8BC1-7800521D7E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82142844-792C-EF47-8851-13CDB0FDFC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26180" yWindow="460" windowWidth="24380" windowHeight="28340" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
   </bookViews>
@@ -3057,28 +3057,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">git (-i </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> --interactive)</t>
-    </r>
-  </si>
-  <si>
     <t>[i]</t>
   </si>
   <si>
@@ -10295,6 +10273,28 @@
         <rFont val="Menlo Regular"/>
       </rPr>
       <t>option</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git add (-i </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> --interactive)</t>
     </r>
   </si>
 </sst>
@@ -10749,12 +10749,12 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" xr:uid="{ACEF5201-9FF9-AD44-AA4C-60ABCDBD9D8F}"/>
@@ -11075,8 +11075,8 @@
   </sheetPr>
   <dimension ref="A1:G445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A342" zoomScale="168" zoomScaleNormal="168" zoomScaleSheetLayoutView="33" workbookViewId="0">
-      <selection activeCell="A361" sqref="A361:XFD366"/>
+    <sheetView tabSelected="1" topLeftCell="A381" zoomScale="168" zoomScaleNormal="168" zoomScaleSheetLayoutView="33" workbookViewId="0">
+      <selection activeCell="C397" sqref="C397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11091,83 +11091,83 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31">
       <c r="A1" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="27" thickBot="1">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -11175,25 +11175,25 @@
         <v>44</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="27" thickBot="1">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="54"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
@@ -11202,12 +11202,12 @@
         <v>1</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
@@ -11216,12 +11216,12 @@
         <v>2</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>5</v>
@@ -11230,7 +11230,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -11241,12 +11241,12 @@
         <v>4</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
       <c r="F17" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -11260,7 +11260,7 @@
         <v>55</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -11274,7 +11274,7 @@
         <v>54</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -11285,10 +11285,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>486</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -11299,10 +11299,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>652</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -11313,10 +11313,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>488</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -11330,7 +11330,7 @@
         <v>52</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -11344,7 +11344,7 @@
         <v>191</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -11355,10 +11355,10 @@
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -11372,7 +11372,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -11386,7 +11386,7 @@
         <v>41</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -11400,29 +11400,29 @@
         <v>53</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="C29" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F29" s="14" t="s">
         <v>600</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17">
       <c r="A30" s="33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -11434,16 +11434,16 @@
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="21" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="33"/>
       <c r="C33" s="35" t="s">
+        <v>605</v>
+      </c>
+      <c r="F33" s="31" t="s">
         <v>606</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -11453,7 +11453,7 @@
     <row r="35" spans="1:6" ht="20" thickBot="1">
       <c r="A35" s="33"/>
       <c r="C35" s="36" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D35" s="37"/>
       <c r="E35" s="37"/>
@@ -11465,25 +11465,25 @@
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="33"/>
       <c r="C37" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="F37" s="14" t="s">
         <v>610</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="33"/>
       <c r="C38" s="39" t="s">
+        <v>611</v>
+      </c>
+      <c r="F38" s="14" t="s">
         <v>612</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -11497,43 +11497,43 @@
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="33"/>
       <c r="C41" s="41" t="s">
+        <v>614</v>
+      </c>
+      <c r="F41" s="14" t="s">
         <v>615</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="33"/>
       <c r="C42" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F42" s="14" t="s">
         <v>617</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="33"/>
       <c r="C43" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="F43" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="40">
       <c r="A44" s="33"/>
       <c r="C44" s="39" t="s">
+        <v>620</v>
+      </c>
+      <c r="F44" s="42" t="s">
         <v>621</v>
-      </c>
-      <c r="F44" s="42" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -11543,10 +11543,10 @@
     </row>
     <row r="46" spans="1:6" ht="20" thickBot="1">
       <c r="A46" s="33"/>
-      <c r="C46" s="55" t="s">
-        <v>623</v>
-      </c>
-      <c r="D46" s="56"/>
+      <c r="C46" s="57" t="s">
+        <v>622</v>
+      </c>
+      <c r="D46" s="58"/>
       <c r="E46" s="37"/>
       <c r="F46" s="43"/>
     </row>
@@ -11556,52 +11556,52 @@
       <c r="D47" s="45"/>
       <c r="E47" s="45"/>
       <c r="F47" s="46" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="33"/>
       <c r="C48" s="41" t="s">
+        <v>614</v>
+      </c>
+      <c r="F48" s="14" t="s">
         <v>615</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="33"/>
       <c r="C49" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="33"/>
       <c r="C50" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="F50" s="14" t="s">
         <v>626</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="40">
       <c r="A51" s="33"/>
       <c r="C51" s="39" t="s">
+        <v>627</v>
+      </c>
+      <c r="F51" s="42" t="s">
         <v>628</v>
-      </c>
-      <c r="F51" s="42" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="40">
       <c r="A52" s="33"/>
       <c r="C52" s="39" t="s">
+        <v>629</v>
+      </c>
+      <c r="F52" s="42" t="s">
         <v>630</v>
-      </c>
-      <c r="F52" s="42" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -11612,7 +11612,7 @@
     <row r="54" spans="1:6" ht="20" thickBot="1">
       <c r="A54" s="33"/>
       <c r="C54" s="36" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D54" s="37"/>
       <c r="E54" s="37"/>
@@ -11624,52 +11624,52 @@
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="21" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="27">
       <c r="A56" s="33"/>
       <c r="C56" s="51" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F56" s="47" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="33"/>
       <c r="C57" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="F57" s="42" t="s">
         <v>634</v>
-      </c>
-      <c r="F57" s="42" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="33"/>
       <c r="C58" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="F58" s="42" t="s">
         <v>636</v>
-      </c>
-      <c r="F58" s="42" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="26">
       <c r="A59" s="33"/>
       <c r="C59" s="50" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F59" s="49" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="40">
       <c r="A60" s="33"/>
       <c r="C60" s="41" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F60" s="47" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -11683,25 +11683,25 @@
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
       <c r="F62" s="21" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="27">
       <c r="A63" s="33"/>
       <c r="C63" s="48" t="s">
+        <v>642</v>
+      </c>
+      <c r="F63" s="47" t="s">
         <v>643</v>
-      </c>
-      <c r="F63" s="47" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="26">
       <c r="A64" s="33"/>
       <c r="C64" s="50" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F64" s="49" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -11715,25 +11715,25 @@
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
       <c r="F66" s="21" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="27">
       <c r="A67" s="33"/>
       <c r="C67" s="52" t="s">
+        <v>648</v>
+      </c>
+      <c r="F67" s="47" t="s">
         <v>649</v>
-      </c>
-      <c r="F67" s="47" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="26">
       <c r="A68" s="33"/>
       <c r="C68" s="50" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F68" s="49" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -11742,21 +11742,21 @@
       <c r="F69" s="49"/>
     </row>
     <row r="70" spans="1:6" ht="27" thickBot="1">
-      <c r="A70" s="53" t="s">
+      <c r="A70" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="54"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="56"/>
     </row>
     <row r="71" spans="1:6">
       <c r="C71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -11764,15 +11764,15 @@
         <v>155</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="C73" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -11780,7 +11780,7 @@
         <v>154</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -11788,7 +11788,7 @@
         <v>10</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -11796,7 +11796,7 @@
         <v>11</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -11804,7 +11804,7 @@
         <v>12</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -11812,7 +11812,7 @@
         <v>13</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -11820,15 +11820,15 @@
         <v>109</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17">
       <c r="C80" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -11836,15 +11836,15 @@
         <v>51</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="C82" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -11852,7 +11852,7 @@
         <v>65</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -11860,7 +11860,7 @@
         <v>156</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -11868,28 +11868,28 @@
         <v>157</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="20"/>
     </row>
     <row r="87" spans="1:6" ht="27" thickBot="1">
-      <c r="A87" s="53" t="s">
+      <c r="A87" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="53"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="53"/>
-      <c r="E87" s="53"/>
-      <c r="F87" s="54"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="56"/>
     </row>
     <row r="88" spans="1:6">
       <c r="C88" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -11897,7 +11897,7 @@
         <v>18</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -11905,39 +11905,39 @@
         <v>19</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="C91" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="C92" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="C93" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="C94" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -11945,7 +11945,7 @@
         <v>20</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -11953,25 +11953,25 @@
         <v>25</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="27" thickBot="1">
-      <c r="A98" s="53" t="s">
+      <c r="A98" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B98" s="53"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="53"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="53"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="55"/>
     </row>
     <row r="99" spans="1:6">
       <c r="C99" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -11979,7 +11979,7 @@
         <v>33</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -11987,7 +11987,7 @@
         <v>181</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -11995,7 +11995,7 @@
         <v>180</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -12003,7 +12003,7 @@
         <v>22</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -12011,7 +12011,7 @@
         <v>98</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -12019,7 +12019,7 @@
         <v>96</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -12027,15 +12027,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="C107" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -12043,7 +12043,7 @@
         <v>24</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -12051,7 +12051,7 @@
         <v>206</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -12059,7 +12059,7 @@
         <v>207</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -12067,7 +12067,7 @@
         <v>208</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -12075,7 +12075,7 @@
         <v>65</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -12083,7 +12083,7 @@
         <v>156</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -12091,26 +12091,26 @@
         <v>157</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="C116" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D116" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F116" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>4</v>
@@ -12119,12 +12119,12 @@
         <v>161</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>4</v>
@@ -12133,12 +12133,12 @@
         <v>166</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>4</v>
@@ -12147,12 +12147,12 @@
         <v>167</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>4</v>
@@ -12161,40 +12161,40 @@
         <v>160</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="C124" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D124" s="13" t="s">
         <v>5</v>
@@ -12203,7 +12203,7 @@
         <v>26</v>
       </c>
       <c r="F124" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -12217,7 +12217,7 @@
         <v>64</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -12228,10 +12228,10 @@
         <v>4</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -12245,7 +12245,7 @@
         <v>63</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -12256,10 +12256,10 @@
         <v>4</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -12273,7 +12273,7 @@
         <v>158</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -12284,36 +12284,36 @@
         <v>4</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:6" ht="27" thickBot="1">
-      <c r="A132" s="53" t="s">
+      <c r="A132" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B132" s="53"/>
-      <c r="C132" s="53"/>
-      <c r="D132" s="53"/>
-      <c r="E132" s="53"/>
-      <c r="F132" s="54"/>
+      <c r="B132" s="55"/>
+      <c r="C132" s="55"/>
+      <c r="D132" s="55"/>
+      <c r="E132" s="55"/>
+      <c r="F132" s="56"/>
     </row>
     <row r="133" spans="1:6">
       <c r="C133" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="C135" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D135" s="13" t="s">
         <v>5</v>
@@ -12322,7 +12322,7 @@
         <v>23</v>
       </c>
       <c r="F135" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -12333,10 +12333,10 @@
         <v>4</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -12350,7 +12350,7 @@
         <v>184</v>
       </c>
       <c r="F137" s="31" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -12364,7 +12364,7 @@
         <v>67</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -12378,7 +12378,7 @@
         <v>70</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -12392,7 +12392,7 @@
         <v>68</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -12411,7 +12411,7 @@
         <v>71</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -12425,7 +12425,7 @@
         <v>62</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -12439,7 +12439,7 @@
         <v>60</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -12453,7 +12453,7 @@
         <v>61</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -12464,10 +12464,10 @@
         <v>4</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -12481,7 +12481,7 @@
         <v>59</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -12495,7 +12495,7 @@
         <v>58</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -12509,7 +12509,7 @@
         <v>57</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -12523,7 +12523,7 @@
         <v>56</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -12537,7 +12537,7 @@
         <v>27</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -12551,7 +12551,7 @@
         <v>66</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -12562,10 +12562,10 @@
         <v>4</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -12579,7 +12579,7 @@
         <v>1</v>
       </c>
       <c r="F155" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -12593,7 +12593,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -12607,7 +12607,7 @@
         <v>38</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -12621,7 +12621,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -12635,7 +12635,7 @@
         <v>39</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -12649,7 +12649,7 @@
         <v>40</v>
       </c>
       <c r="F160" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -12663,7 +12663,7 @@
         <v>85</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -12677,7 +12677,7 @@
         <v>87</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -12688,10 +12688,10 @@
         <v>4</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -12705,7 +12705,7 @@
         <v>88</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -12719,7 +12719,7 @@
         <v>89</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -12730,10 +12730,10 @@
         <v>4</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -12747,7 +12747,7 @@
         <v>90</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -12761,7 +12761,7 @@
         <v>91</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -12772,10 +12772,10 @@
         <v>4</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -12789,7 +12789,7 @@
         <v>92</v>
       </c>
       <c r="F170" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -12803,7 +12803,7 @@
         <v>93</v>
       </c>
       <c r="F171" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -12817,7 +12817,7 @@
         <v>94</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -12831,7 +12831,7 @@
         <v>95</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -12842,10 +12842,10 @@
         <v>4</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F174" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -12856,10 +12856,10 @@
         <v>4</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F175" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -12873,7 +12873,7 @@
         <v>200</v>
       </c>
       <c r="F176" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -12887,7 +12887,7 @@
         <v>201</v>
       </c>
       <c r="F177" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -12901,96 +12901,96 @@
         <v>202</v>
       </c>
       <c r="F178" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="C180" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D180" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E180" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="F180" s="21" t="s">
         <v>418</v>
-      </c>
-      <c r="F180" s="21" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F181" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F182" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F183" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F184" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="C186" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F186" s="22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="C187" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D187" s="25" t="s">
         <v>5</v>
@@ -12999,21 +12999,21 @@
         <v>73</v>
       </c>
       <c r="F187" s="27" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="C188" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F188" s="22" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -13024,10 +13024,10 @@
         <v>4</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F189" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -13038,10 +13038,10 @@
         <v>4</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F190" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -13052,10 +13052,10 @@
         <v>4</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F191" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -13066,10 +13066,10 @@
         <v>4</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F192" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -13080,10 +13080,10 @@
         <v>4</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F193" s="14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -13094,31 +13094,31 @@
         <v>4</v>
       </c>
       <c r="C194" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="F194" s="14" t="s">
         <v>498</v>
-      </c>
-      <c r="F194" s="14" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="C195" s="3"/>
     </row>
     <row r="196" spans="1:6" ht="27" thickBot="1">
-      <c r="A196" s="53" t="s">
-        <v>426</v>
-      </c>
-      <c r="B196" s="53"/>
-      <c r="C196" s="53"/>
-      <c r="D196" s="53"/>
-      <c r="E196" s="53"/>
-      <c r="F196" s="53"/>
+      <c r="A196" s="55" t="s">
+        <v>425</v>
+      </c>
+      <c r="B196" s="55"/>
+      <c r="C196" s="55"/>
+      <c r="D196" s="55"/>
+      <c r="E196" s="55"/>
+      <c r="F196" s="55"/>
     </row>
     <row r="197" spans="1:6">
       <c r="C197" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F197" s="28" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -13135,7 +13135,7 @@
         <v>37</v>
       </c>
       <c r="F199" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -13146,10 +13146,10 @@
         <v>4</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F200" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -13160,10 +13160,10 @@
         <v>4</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F201" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -13171,164 +13171,164 @@
     </row>
     <row r="203" spans="1:6">
       <c r="C203" s="24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D203" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E203" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F203" s="21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F204" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F205" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F206" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F207" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F208" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C209" s="24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D209" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E209" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F209" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F210" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F211" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -13336,77 +13336,77 @@
     </row>
     <row r="213" spans="1:6">
       <c r="C213" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D213" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E213" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F213" s="21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F214" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F215" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F216" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F217" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="C219" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D219" s="13" t="s">
         <v>5</v>
@@ -13415,7 +13415,7 @@
         <v>1</v>
       </c>
       <c r="F219" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -13429,7 +13429,7 @@
         <v>101</v>
       </c>
       <c r="F220" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -13443,7 +13443,7 @@
         <v>102</v>
       </c>
       <c r="F221" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -13457,7 +13457,7 @@
         <v>103</v>
       </c>
       <c r="F222" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -13471,7 +13471,7 @@
         <v>104</v>
       </c>
       <c r="F223" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -13482,10 +13482,10 @@
         <v>4</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F224" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -13499,7 +13499,7 @@
         <v>105</v>
       </c>
       <c r="F225" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -13513,7 +13513,7 @@
         <v>106</v>
       </c>
       <c r="F226" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -13527,7 +13527,7 @@
         <v>107</v>
       </c>
       <c r="F227" s="14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -13541,7 +13541,7 @@
         <v>108</v>
       </c>
       <c r="F228" s="14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -13555,7 +13555,7 @@
         <v>109</v>
       </c>
       <c r="F229" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -13569,7 +13569,7 @@
         <v>110</v>
       </c>
       <c r="F230" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -13577,7 +13577,7 @@
     </row>
     <row r="232" spans="1:6">
       <c r="C232" s="24" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D232" s="13" t="s">
         <v>5</v>
@@ -13598,7 +13598,7 @@
         <v>194</v>
       </c>
       <c r="F233" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -13612,7 +13612,7 @@
         <v>196</v>
       </c>
       <c r="F234" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -13626,7 +13626,7 @@
         <v>195</v>
       </c>
       <c r="F235" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -13640,7 +13640,7 @@
         <v>203</v>
       </c>
       <c r="F236" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -13651,7 +13651,7 @@
         <v>4</v>
       </c>
       <c r="C237" s="23" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D237" s="13" t="s">
         <v>5</v>
@@ -13660,7 +13660,7 @@
         <v>193</v>
       </c>
       <c r="F237" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -13674,7 +13674,7 @@
         <v>197</v>
       </c>
       <c r="F238" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -13688,7 +13688,7 @@
         <v>198</v>
       </c>
       <c r="F239" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -13702,28 +13702,28 @@
         <v>199</v>
       </c>
       <c r="F240" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="27" thickBot="1">
-      <c r="A242" s="53" t="s">
-        <v>586</v>
-      </c>
-      <c r="B242" s="53"/>
-      <c r="C242" s="53"/>
-      <c r="D242" s="53"/>
-      <c r="E242" s="53"/>
-      <c r="F242" s="54"/>
+      <c r="A242" s="55" t="s">
+        <v>585</v>
+      </c>
+      <c r="B242" s="55"/>
+      <c r="C242" s="55"/>
+      <c r="D242" s="55"/>
+      <c r="E242" s="55"/>
+      <c r="F242" s="56"/>
     </row>
     <row r="243" spans="1:7">
       <c r="C243" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F243" s="14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G243" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -13731,10 +13731,10 @@
         <v>34</v>
       </c>
       <c r="F244" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G244" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -13742,10 +13742,10 @@
         <v>33</v>
       </c>
       <c r="F245" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G245" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -13753,10 +13753,10 @@
         <v>181</v>
       </c>
       <c r="F246" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G246" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -13764,10 +13764,10 @@
         <v>180</v>
       </c>
       <c r="F247" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G247" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -13781,10 +13781,10 @@
         <v>28</v>
       </c>
       <c r="F249" s="14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -13798,10 +13798,10 @@
         <v>32</v>
       </c>
       <c r="F250" s="14" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -13812,13 +13812,13 @@
         <v>4</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F251" s="14" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -13829,13 +13829,13 @@
         <v>4</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F252" s="14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -13849,61 +13849,61 @@
         <v>168</v>
       </c>
       <c r="F253" s="14" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="C255" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E255" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F255" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="G255" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="F255" s="22" t="s">
-        <v>550</v>
-      </c>
-      <c r="G255" s="1" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="F256" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="G256" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C256" s="30" t="s">
-        <v>549</v>
-      </c>
-      <c r="F256" s="14" t="s">
-        <v>576</v>
-      </c>
-      <c r="G256" s="1" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F257" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="G257" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="F257" s="14" t="s">
-        <v>585</v>
-      </c>
-      <c r="G257" s="1" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -13920,7 +13920,7 @@
         <v>40</v>
       </c>
       <c r="F259" s="14" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G259" s="1"/>
     </row>
@@ -13938,7 +13938,7 @@
         <v>75</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -13955,7 +13955,7 @@
         <v>76</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -13972,7 +13972,7 @@
         <v>141</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -13983,13 +13983,13 @@
         <v>4</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F263" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -14000,13 +14000,13 @@
         <v>4</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F264" s="14" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -14020,10 +14020,10 @@
         <v>214</v>
       </c>
       <c r="F265" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -14034,13 +14034,13 @@
         <v>4</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F266" s="14" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -14051,13 +14051,13 @@
         <v>4</v>
       </c>
       <c r="C267" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F267" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="F267" s="14" t="s">
-        <v>244</v>
-      </c>
       <c r="G267" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -14083,7 +14083,7 @@
         <v>144</v>
       </c>
       <c r="F273" s="14" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -14100,7 +14100,7 @@
         <v>75</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -14117,7 +14117,7 @@
         <v>76</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -14134,7 +14134,7 @@
         <v>141</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -14145,13 +14145,13 @@
         <v>4</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F277" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -14162,13 +14162,13 @@
         <v>4</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F278" s="14" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -14182,10 +14182,10 @@
         <v>215</v>
       </c>
       <c r="F279" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -14196,13 +14196,13 @@
         <v>4</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F280" s="14" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -14213,13 +14213,13 @@
         <v>4</v>
       </c>
       <c r="C281" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F281" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="F281" s="14" t="s">
-        <v>244</v>
-      </c>
       <c r="G281" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -14233,7 +14233,7 @@
         <v>144</v>
       </c>
       <c r="F284" s="14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -14247,7 +14247,7 @@
         <v>144</v>
       </c>
       <c r="F285" s="14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -14261,7 +14261,7 @@
         <v>172</v>
       </c>
       <c r="F286" s="14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -14275,7 +14275,7 @@
         <v>173</v>
       </c>
       <c r="F287" s="14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -14289,7 +14289,7 @@
         <v>174</v>
       </c>
       <c r="F288" s="14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -14306,10 +14306,10 @@
         <v>29</v>
       </c>
       <c r="F290" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -14323,10 +14323,10 @@
         <v>87</v>
       </c>
       <c r="F291" s="14" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -14340,10 +14340,10 @@
         <v>82</v>
       </c>
       <c r="F292" s="14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -14357,10 +14357,10 @@
         <v>83</v>
       </c>
       <c r="F293" s="14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -14374,10 +14374,10 @@
         <v>84</v>
       </c>
       <c r="F294" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -14388,13 +14388,13 @@
         <v>4</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F295" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -14405,13 +14405,13 @@
         <v>4</v>
       </c>
       <c r="C296" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="F296" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="F296" s="14" t="s">
-        <v>589</v>
-      </c>
       <c r="G296" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -14422,13 +14422,13 @@
         <v>4</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F297" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -14438,14 +14438,14 @@
       <c r="C302" s="2"/>
     </row>
     <row r="304" spans="1:7" ht="27" thickBot="1">
-      <c r="A304" s="53" t="s">
+      <c r="A304" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="B304" s="53"/>
-      <c r="C304" s="53"/>
-      <c r="D304" s="53"/>
-      <c r="E304" s="53"/>
-      <c r="F304" s="54"/>
+      <c r="B304" s="55"/>
+      <c r="C304" s="55"/>
+      <c r="D304" s="55"/>
+      <c r="E304" s="55"/>
+      <c r="F304" s="56"/>
     </row>
     <row r="307" spans="1:6">
       <c r="C307" s="1" t="s">
@@ -14458,7 +14458,7 @@
         <v>28</v>
       </c>
       <c r="F307" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -14472,7 +14472,7 @@
         <v>29</v>
       </c>
       <c r="F308" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -14486,7 +14486,7 @@
         <v>32</v>
       </c>
       <c r="F309" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -14570,7 +14570,7 @@
         <v>118</v>
       </c>
       <c r="F315" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -14640,7 +14640,7 @@
         <v>129</v>
       </c>
       <c r="F320" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -14657,7 +14657,7 @@
         <v>75</v>
       </c>
       <c r="G321" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -14674,7 +14674,7 @@
         <v>75</v>
       </c>
       <c r="G322" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -14691,7 +14691,7 @@
         <v>76</v>
       </c>
       <c r="G323" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -14708,7 +14708,7 @@
         <v>141</v>
       </c>
       <c r="G324" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -14719,13 +14719,13 @@
         <v>4</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F325" s="14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G325" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -14736,13 +14736,13 @@
         <v>4</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F326" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G326" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -14756,10 +14756,10 @@
         <v>214</v>
       </c>
       <c r="F327" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G327" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -14773,10 +14773,10 @@
         <v>213</v>
       </c>
       <c r="F328" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G328" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -14787,13 +14787,13 @@
         <v>4</v>
       </c>
       <c r="C329" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F329" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="F329" s="14" t="s">
-        <v>244</v>
-      </c>
       <c r="G329" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -14807,10 +14807,10 @@
         <v>144</v>
       </c>
       <c r="F331" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -14827,7 +14827,7 @@
         <v>75</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -14844,7 +14844,7 @@
         <v>76</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -14861,7 +14861,7 @@
         <v>141</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -14872,13 +14872,13 @@
         <v>4</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F335" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -14889,13 +14889,13 @@
         <v>4</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F336" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -14909,10 +14909,10 @@
         <v>215</v>
       </c>
       <c r="F337" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -14926,10 +14926,10 @@
         <v>213</v>
       </c>
       <c r="F338" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -14940,13 +14940,13 @@
         <v>4</v>
       </c>
       <c r="C339" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F339" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="F339" s="14" t="s">
-        <v>244</v>
-      </c>
       <c r="G339" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -14954,7 +14954,7 @@
         <v>77</v>
       </c>
       <c r="F340" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -14962,7 +14962,7 @@
         <v>78</v>
       </c>
       <c r="F341" s="14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -14970,7 +14970,7 @@
         <v>100</v>
       </c>
       <c r="F343" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -14992,7 +14992,7 @@
         <v>99</v>
       </c>
       <c r="F347" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -15006,7 +15006,7 @@
         <v>43</v>
       </c>
       <c r="F348" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -15022,22 +15022,22 @@
       <c r="D349" s="9"/>
       <c r="E349" s="9"/>
       <c r="F349" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="27" thickBot="1">
-      <c r="A351" s="53" t="s">
-        <v>427</v>
-      </c>
-      <c r="B351" s="53"/>
-      <c r="C351" s="53"/>
-      <c r="D351" s="53"/>
-      <c r="E351" s="53"/>
-      <c r="F351" s="54"/>
+      <c r="A351" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="B351" s="55"/>
+      <c r="C351" s="55"/>
+      <c r="D351" s="55"/>
+      <c r="E351" s="55"/>
+      <c r="F351" s="56"/>
     </row>
     <row r="352" spans="1:7">
       <c r="C352" s="13" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D352" s="13" t="s">
         <v>5</v>
@@ -15074,7 +15074,7 @@
         <v>116</v>
       </c>
       <c r="F354" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -15088,7 +15088,7 @@
         <v>183</v>
       </c>
       <c r="F355" s="14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -15102,7 +15102,7 @@
         <v>182</v>
       </c>
       <c r="F356" s="14" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -15113,10 +15113,10 @@
         <v>4</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F357" s="14" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -15127,44 +15127,44 @@
         <v>4</v>
       </c>
       <c r="C358" s="13" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D358" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E358" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F358" s="21" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C359" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="F359" s="14" t="s">
         <v>655</v>
-      </c>
-      <c r="F359" s="14" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C360" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="F360" s="14" t="s">
         <v>657</v>
-      </c>
-      <c r="F360" s="14" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -15206,7 +15206,7 @@
         <v>204</v>
       </c>
       <c r="F364" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -15220,7 +15220,7 @@
         <v>205</v>
       </c>
       <c r="F365" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -15340,7 +15340,7 @@
         <v>125</v>
       </c>
       <c r="F376" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -15364,7 +15364,7 @@
         <v>130</v>
       </c>
       <c r="F379" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -15391,7 +15391,7 @@
         <v>135</v>
       </c>
       <c r="F384" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -15407,7 +15407,7 @@
         <v>186</v>
       </c>
       <c r="F386" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -15415,7 +15415,7 @@
         <v>190</v>
       </c>
       <c r="F387" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -15426,7 +15426,7 @@
         <v>5</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F388" s="14" t="s">
         <v>137</v>
@@ -15434,7 +15434,7 @@
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>4</v>
@@ -15448,203 +15448,203 @@
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F390" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F391" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F392" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="395" spans="1:6" ht="27" thickBot="1">
-      <c r="A395" s="53" t="s">
-        <v>255</v>
-      </c>
-      <c r="B395" s="53"/>
-      <c r="C395" s="53"/>
-      <c r="D395" s="53"/>
-      <c r="E395" s="53"/>
-      <c r="F395" s="54"/>
+      <c r="A395" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="B395" s="55"/>
+      <c r="C395" s="55"/>
+      <c r="D395" s="55"/>
+      <c r="E395" s="55"/>
+      <c r="F395" s="56"/>
     </row>
     <row r="396" spans="1:6">
       <c r="C396" s="1" t="s">
-        <v>216</v>
+        <v>663</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E396" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F396" s="14" t="s">
         <v>217</v>
-      </c>
-      <c r="F396" s="14" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="397" spans="1:6">
       <c r="C397" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F397" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="C398" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F398" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="399" spans="1:6">
       <c r="C399" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F399" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="C400" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F400" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="401" spans="1:6">
       <c r="C401" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F401" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="402" spans="1:6">
       <c r="C402" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F402" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="403" spans="1:6">
       <c r="C403" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F403" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="404" spans="1:6">
       <c r="C404" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F404" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="405" spans="1:6">
       <c r="C405" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F405" s="14" t="s">
         <v>219</v>
-      </c>
-      <c r="F405" s="14" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="406" spans="1:6">
       <c r="C406" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F406" s="14" t="s">
         <v>237</v>
-      </c>
-      <c r="F406" s="14" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="408" spans="1:6">
       <c r="C408" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F408" s="14" t="s">
         <v>247</v>
-      </c>
-      <c r="F408" s="14" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="409" spans="1:6">
       <c r="C409" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F409" s="14" t="s">
         <v>249</v>
-      </c>
-      <c r="F409" s="14" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="410" spans="1:6">
       <c r="C410" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F410" s="14" t="s">
         <v>251</v>
-      </c>
-      <c r="F410" s="14" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="411" spans="1:6">
       <c r="C411" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F411" s="14" t="s">
         <v>253</v>
-      </c>
-      <c r="F411" s="14" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="413" spans="1:6">
       <c r="C413" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="416" spans="1:6" ht="27" thickBot="1">
-      <c r="A416" s="53" t="s">
-        <v>264</v>
-      </c>
-      <c r="B416" s="53"/>
-      <c r="C416" s="53"/>
-      <c r="D416" s="53"/>
-      <c r="E416" s="53"/>
-      <c r="F416" s="54"/>
+      <c r="A416" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="B416" s="55"/>
+      <c r="C416" s="55"/>
+      <c r="D416" s="55"/>
+      <c r="E416" s="55"/>
+      <c r="F416" s="56"/>
     </row>
     <row r="417" spans="1:6">
       <c r="C417" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F417" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -15655,7 +15655,7 @@
     </row>
     <row r="419" spans="1:6">
       <c r="C419" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D419" s="13" t="s">
         <v>5</v>
@@ -15664,7 +15664,7 @@
         <v>23</v>
       </c>
       <c r="F419" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -15678,12 +15678,12 @@
         <v>71</v>
       </c>
       <c r="F420" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="422" spans="1:6">
       <c r="C422" s="13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D422" s="13" t="s">
         <v>5</v>
@@ -15692,7 +15692,7 @@
         <v>29</v>
       </c>
       <c r="F422" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -15703,38 +15703,38 @@
         <v>4</v>
       </c>
       <c r="C423" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F423" s="14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="425" spans="1:6">
       <c r="C425" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D425" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E425" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F425" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="426" spans="1:6">
       <c r="C426" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D426" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E426" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F426" s="21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -15745,10 +15745,10 @@
         <v>4</v>
       </c>
       <c r="C427" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F427" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -15759,10 +15759,10 @@
         <v>4</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F428" s="14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -15773,10 +15773,10 @@
         <v>4</v>
       </c>
       <c r="C429" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F429" s="14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -15787,10 +15787,10 @@
         <v>4</v>
       </c>
       <c r="C430" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F430" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -15801,10 +15801,10 @@
         <v>4</v>
       </c>
       <c r="C431" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F431" s="14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -15815,10 +15815,10 @@
         <v>4</v>
       </c>
       <c r="C432" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="F432" s="14" t="s">
         <v>534</v>
-      </c>
-      <c r="F432" s="14" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -15829,10 +15829,10 @@
         <v>4</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F433" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -15843,10 +15843,10 @@
         <v>4</v>
       </c>
       <c r="C434" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F434" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -15857,10 +15857,10 @@
         <v>4</v>
       </c>
       <c r="C435" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F435" s="14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -15874,52 +15874,52 @@
         <v>5</v>
       </c>
       <c r="E437" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F437" s="21" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F438" s="14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="439" spans="1:7">
       <c r="A439" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F439" s="14" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="440" spans="1:7">
       <c r="A440" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F440" s="14" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -15936,6 +15936,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A416:F416"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A395:F395"/>
     <mergeCell ref="A351:F351"/>
@@ -15943,12 +15949,6 @@
     <mergeCell ref="A242:F242"/>
     <mergeCell ref="A87:F87"/>
     <mergeCell ref="A196:F196"/>
-    <mergeCell ref="A416:F416"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="C46:D46"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>

--- a/git-terminal-commands.xlsx
+++ b/git-terminal-commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Goofy/GIT/steves-git-commands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82142844-792C-EF47-8851-13CDB0FDFC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1767C04-0258-5348-9D32-C06AC055D2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26180" yWindow="460" windowWidth="24380" windowHeight="28340" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
   </bookViews>
@@ -5180,20 +5180,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">git commit </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>required option</t>
-    </r>
-  </si>
-  <si>
     <t>Add</t>
   </si>
   <si>
@@ -10295,6 +10281,37 @@
         <rFont val="Menlo Regular"/>
       </rPr>
       <t xml:space="preserve"> --interactive)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git commit </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>filename filename</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>required option</t>
     </r>
   </si>
 </sst>
@@ -10749,12 +10766,12 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" xr:uid="{ACEF5201-9FF9-AD44-AA4C-60ABCDBD9D8F}"/>
@@ -11075,8 +11092,8 @@
   </sheetPr>
   <dimension ref="A1:G445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" zoomScale="168" zoomScaleNormal="168" zoomScaleSheetLayoutView="33" workbookViewId="0">
-      <selection activeCell="C397" sqref="C397"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="168" zoomScaleNormal="168" zoomScaleSheetLayoutView="33" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11113,7 +11130,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -11124,7 +11141,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11135,7 +11152,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11146,28 +11163,28 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="27" thickBot="1">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="54"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="58"/>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -11175,25 +11192,25 @@
         <v>44</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="27" thickBot="1">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
@@ -11202,12 +11219,12 @@
         <v>1</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
@@ -11216,12 +11233,12 @@
         <v>2</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>5</v>
@@ -11230,7 +11247,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -11241,12 +11258,12 @@
         <v>4</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
       <c r="F17" s="32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -11260,7 +11277,7 @@
         <v>55</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -11274,7 +11291,7 @@
         <v>54</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -11285,10 +11302,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>485</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -11299,10 +11316,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>651</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -11313,10 +11330,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>487</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -11330,7 +11347,7 @@
         <v>52</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -11344,7 +11361,7 @@
         <v>191</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -11355,10 +11372,10 @@
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -11372,7 +11389,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -11386,7 +11403,7 @@
         <v>41</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -11400,29 +11417,29 @@
         <v>53</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="C29" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F29" s="14" t="s">
         <v>599</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17">
       <c r="A30" s="33" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -11434,16 +11451,16 @@
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="21" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="33"/>
       <c r="C33" s="35" t="s">
+        <v>604</v>
+      </c>
+      <c r="F33" s="31" t="s">
         <v>605</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -11453,7 +11470,7 @@
     <row r="35" spans="1:6" ht="20" thickBot="1">
       <c r="A35" s="33"/>
       <c r="C35" s="36" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D35" s="37"/>
       <c r="E35" s="37"/>
@@ -11465,25 +11482,25 @@
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="21" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="33"/>
       <c r="C37" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="F37" s="14" t="s">
         <v>609</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="33"/>
       <c r="C38" s="39" t="s">
+        <v>610</v>
+      </c>
+      <c r="F38" s="14" t="s">
         <v>611</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -11497,43 +11514,43 @@
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="21" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="33"/>
       <c r="C41" s="41" t="s">
+        <v>613</v>
+      </c>
+      <c r="F41" s="14" t="s">
         <v>614</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="33"/>
       <c r="C42" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F42" s="14" t="s">
         <v>616</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="33"/>
       <c r="C43" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="F43" s="14" t="s">
         <v>618</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="40">
       <c r="A44" s="33"/>
       <c r="C44" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="F44" s="42" t="s">
         <v>620</v>
-      </c>
-      <c r="F44" s="42" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -11543,10 +11560,10 @@
     </row>
     <row r="46" spans="1:6" ht="20" thickBot="1">
       <c r="A46" s="33"/>
-      <c r="C46" s="57" t="s">
-        <v>622</v>
-      </c>
-      <c r="D46" s="58"/>
+      <c r="C46" s="55" t="s">
+        <v>621</v>
+      </c>
+      <c r="D46" s="56"/>
       <c r="E46" s="37"/>
       <c r="F46" s="43"/>
     </row>
@@ -11556,52 +11573,52 @@
       <c r="D47" s="45"/>
       <c r="E47" s="45"/>
       <c r="F47" s="46" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="33"/>
       <c r="C48" s="41" t="s">
+        <v>613</v>
+      </c>
+      <c r="F48" s="14" t="s">
         <v>614</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="33"/>
       <c r="C49" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="33"/>
       <c r="C50" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="F50" s="14" t="s">
         <v>625</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="40">
       <c r="A51" s="33"/>
       <c r="C51" s="39" t="s">
+        <v>626</v>
+      </c>
+      <c r="F51" s="42" t="s">
         <v>627</v>
-      </c>
-      <c r="F51" s="42" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="40">
       <c r="A52" s="33"/>
       <c r="C52" s="39" t="s">
+        <v>628</v>
+      </c>
+      <c r="F52" s="42" t="s">
         <v>629</v>
-      </c>
-      <c r="F52" s="42" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -11612,7 +11629,7 @@
     <row r="54" spans="1:6" ht="20" thickBot="1">
       <c r="A54" s="33"/>
       <c r="C54" s="36" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D54" s="37"/>
       <c r="E54" s="37"/>
@@ -11624,52 +11641,52 @@
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="21" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="27">
       <c r="A56" s="33"/>
       <c r="C56" s="51" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F56" s="47" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="33"/>
       <c r="C57" s="39" t="s">
+        <v>632</v>
+      </c>
+      <c r="F57" s="42" t="s">
         <v>633</v>
-      </c>
-      <c r="F57" s="42" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="33"/>
       <c r="C58" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="F58" s="42" t="s">
         <v>635</v>
-      </c>
-      <c r="F58" s="42" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="26">
       <c r="A59" s="33"/>
       <c r="C59" s="50" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F59" s="49" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="40">
       <c r="A60" s="33"/>
       <c r="C60" s="41" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F60" s="47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -11683,25 +11700,25 @@
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
       <c r="F62" s="21" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="27">
       <c r="A63" s="33"/>
       <c r="C63" s="48" t="s">
+        <v>641</v>
+      </c>
+      <c r="F63" s="47" t="s">
         <v>642</v>
-      </c>
-      <c r="F63" s="47" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="26">
       <c r="A64" s="33"/>
       <c r="C64" s="50" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F64" s="49" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -11715,25 +11732,25 @@
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
       <c r="F66" s="21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="27">
       <c r="A67" s="33"/>
       <c r="C67" s="52" t="s">
+        <v>647</v>
+      </c>
+      <c r="F67" s="47" t="s">
         <v>648</v>
-      </c>
-      <c r="F67" s="47" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="26">
       <c r="A68" s="33"/>
       <c r="C68" s="50" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F68" s="49" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -11742,21 +11759,21 @@
       <c r="F69" s="49"/>
     </row>
     <row r="70" spans="1:6" ht="27" thickBot="1">
-      <c r="A70" s="55" t="s">
+      <c r="A70" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="55"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="56"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="54"/>
     </row>
     <row r="71" spans="1:6">
       <c r="C71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -11764,15 +11781,15 @@
         <v>155</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="C73" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -11780,7 +11797,7 @@
         <v>154</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -11788,7 +11805,7 @@
         <v>10</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -11796,7 +11813,7 @@
         <v>11</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -11804,7 +11821,7 @@
         <v>12</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -11812,7 +11829,7 @@
         <v>13</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -11820,15 +11837,15 @@
         <v>109</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17">
       <c r="C80" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -11836,15 +11853,15 @@
         <v>51</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="C82" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -11852,7 +11869,7 @@
         <v>65</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -11860,7 +11877,7 @@
         <v>156</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -11868,28 +11885,28 @@
         <v>157</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="20"/>
     </row>
     <row r="87" spans="1:6" ht="27" thickBot="1">
-      <c r="A87" s="55" t="s">
+      <c r="A87" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="55"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="56"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="54"/>
     </row>
     <row r="88" spans="1:6">
       <c r="C88" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -11897,7 +11914,7 @@
         <v>18</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -11905,7 +11922,7 @@
         <v>19</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -11913,7 +11930,7 @@
         <v>293</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -11921,7 +11938,7 @@
         <v>294</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -11929,7 +11946,7 @@
         <v>295</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -11937,7 +11954,7 @@
         <v>296</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -11945,7 +11962,7 @@
         <v>20</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -11953,18 +11970,18 @@
         <v>25</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="27" thickBot="1">
-      <c r="A98" s="55" t="s">
+      <c r="A98" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B98" s="55"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="55"/>
-      <c r="E98" s="55"/>
-      <c r="F98" s="55"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="53"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="53"/>
     </row>
     <row r="99" spans="1:6">
       <c r="C99" s="1" t="s">
@@ -12051,7 +12068,7 @@
         <v>206</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -12105,7 +12122,7 @@
         <v>306</v>
       </c>
       <c r="F116" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -12194,7 +12211,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="C124" s="13" t="s">
-        <v>368</v>
+        <v>663</v>
       </c>
       <c r="D124" s="13" t="s">
         <v>5</v>
@@ -12203,7 +12220,7 @@
         <v>26</v>
       </c>
       <c r="F124" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -12294,26 +12311,26 @@
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:6" ht="27" thickBot="1">
-      <c r="A132" s="55" t="s">
+      <c r="A132" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B132" s="55"/>
-      <c r="C132" s="55"/>
-      <c r="D132" s="55"/>
-      <c r="E132" s="55"/>
-      <c r="F132" s="56"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="53"/>
+      <c r="D132" s="53"/>
+      <c r="E132" s="53"/>
+      <c r="F132" s="54"/>
     </row>
     <row r="133" spans="1:6">
       <c r="C133" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="C135" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D135" s="13" t="s">
         <v>5</v>
@@ -12350,7 +12367,7 @@
         <v>184</v>
       </c>
       <c r="F137" s="31" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -12378,7 +12395,7 @@
         <v>70</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -12425,7 +12442,7 @@
         <v>62</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -12439,7 +12456,7 @@
         <v>60</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -12453,7 +12470,7 @@
         <v>61</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -12464,10 +12481,10 @@
         <v>4</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -12481,7 +12498,7 @@
         <v>59</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -12495,7 +12512,7 @@
         <v>58</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -12509,7 +12526,7 @@
         <v>57</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -12523,7 +12540,7 @@
         <v>56</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -12565,7 +12582,7 @@
         <v>292</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -12593,7 +12610,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -12607,7 +12624,7 @@
         <v>38</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -12621,7 +12638,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -12635,7 +12652,7 @@
         <v>39</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -12649,7 +12666,7 @@
         <v>40</v>
       </c>
       <c r="F160" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -12663,7 +12680,7 @@
         <v>85</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -12677,7 +12694,7 @@
         <v>87</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -12688,10 +12705,10 @@
         <v>4</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -12705,7 +12722,7 @@
         <v>88</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -12719,7 +12736,7 @@
         <v>89</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -12730,10 +12747,10 @@
         <v>4</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -12747,7 +12764,7 @@
         <v>90</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -12761,7 +12778,7 @@
         <v>91</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -12772,10 +12789,10 @@
         <v>4</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -12789,7 +12806,7 @@
         <v>92</v>
       </c>
       <c r="F170" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -12803,7 +12820,7 @@
         <v>93</v>
       </c>
       <c r="F171" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -12817,7 +12834,7 @@
         <v>94</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -12831,7 +12848,7 @@
         <v>95</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -12842,10 +12859,10 @@
         <v>4</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F174" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -12856,10 +12873,10 @@
         <v>4</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F175" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -12873,7 +12890,7 @@
         <v>200</v>
       </c>
       <c r="F176" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -12887,7 +12904,7 @@
         <v>201</v>
       </c>
       <c r="F177" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -12901,54 +12918,54 @@
         <v>202</v>
       </c>
       <c r="F178" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="C180" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D180" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E180" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="F180" s="21" t="s">
         <v>417</v>
-      </c>
-      <c r="F180" s="21" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F181" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F182" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>4</v>
@@ -12957,12 +12974,12 @@
         <v>308</v>
       </c>
       <c r="F183" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>4</v>
@@ -12971,7 +12988,7 @@
         <v>307</v>
       </c>
       <c r="F184" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -12985,7 +13002,7 @@
         <v>306</v>
       </c>
       <c r="F186" s="22" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -12999,7 +13016,7 @@
         <v>73</v>
       </c>
       <c r="F187" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -13013,7 +13030,7 @@
         <v>302</v>
       </c>
       <c r="F188" s="22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -13027,7 +13044,7 @@
         <v>298</v>
       </c>
       <c r="F189" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -13041,7 +13058,7 @@
         <v>299</v>
       </c>
       <c r="F190" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -13055,7 +13072,7 @@
         <v>300</v>
       </c>
       <c r="F191" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -13069,7 +13086,7 @@
         <v>301</v>
       </c>
       <c r="F192" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -13083,7 +13100,7 @@
         <v>304</v>
       </c>
       <c r="F193" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -13094,31 +13111,31 @@
         <v>4</v>
       </c>
       <c r="C194" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="F194" s="14" t="s">
         <v>497</v>
-      </c>
-      <c r="F194" s="14" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="C195" s="3"/>
     </row>
     <row r="196" spans="1:6" ht="27" thickBot="1">
-      <c r="A196" s="55" t="s">
-        <v>425</v>
-      </c>
-      <c r="B196" s="55"/>
-      <c r="C196" s="55"/>
-      <c r="D196" s="55"/>
-      <c r="E196" s="55"/>
-      <c r="F196" s="55"/>
+      <c r="A196" s="53" t="s">
+        <v>424</v>
+      </c>
+      <c r="B196" s="53"/>
+      <c r="C196" s="53"/>
+      <c r="D196" s="53"/>
+      <c r="E196" s="53"/>
+      <c r="F196" s="53"/>
     </row>
     <row r="197" spans="1:6">
       <c r="C197" s="8" t="s">
         <v>256</v>
       </c>
       <c r="F197" s="28" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -13149,7 +13166,7 @@
         <v>239</v>
       </c>
       <c r="F200" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -13163,7 +13180,7 @@
         <v>257</v>
       </c>
       <c r="F201" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -13171,7 +13188,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="C203" s="24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D203" s="13" t="s">
         <v>5</v>
@@ -13180,7 +13197,7 @@
         <v>262</v>
       </c>
       <c r="F203" s="21" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -13197,10 +13214,10 @@
         <v>5</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F204" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -13217,10 +13234,10 @@
         <v>5</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F205" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -13237,10 +13254,10 @@
         <v>5</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F206" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -13251,16 +13268,16 @@
         <v>4</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F207" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -13277,10 +13294,10 @@
         <v>5</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F208" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -13291,44 +13308,44 @@
         <v>4</v>
       </c>
       <c r="C209" s="24" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D209" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E209" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F209" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F210" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F211" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -13336,49 +13353,49 @@
     </row>
     <row r="213" spans="1:6">
       <c r="C213" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D213" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E213" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F213" s="21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F214" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F215" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>4</v>
@@ -13387,21 +13404,21 @@
         <v>265</v>
       </c>
       <c r="F216" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F217" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -13415,7 +13432,7 @@
         <v>1</v>
       </c>
       <c r="F219" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -13429,7 +13446,7 @@
         <v>101</v>
       </c>
       <c r="F220" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -13443,7 +13460,7 @@
         <v>102</v>
       </c>
       <c r="F221" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -13499,7 +13516,7 @@
         <v>105</v>
       </c>
       <c r="F225" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -13513,7 +13530,7 @@
         <v>106</v>
       </c>
       <c r="F226" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -13527,7 +13544,7 @@
         <v>107</v>
       </c>
       <c r="F227" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -13541,7 +13558,7 @@
         <v>108</v>
       </c>
       <c r="F228" s="14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -13577,7 +13594,7 @@
     </row>
     <row r="232" spans="1:6">
       <c r="C232" s="24" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D232" s="13" t="s">
         <v>5</v>
@@ -13598,7 +13615,7 @@
         <v>194</v>
       </c>
       <c r="F233" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -13612,7 +13629,7 @@
         <v>196</v>
       </c>
       <c r="F234" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -13626,7 +13643,7 @@
         <v>195</v>
       </c>
       <c r="F235" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -13640,7 +13657,7 @@
         <v>203</v>
       </c>
       <c r="F236" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -13651,7 +13668,7 @@
         <v>4</v>
       </c>
       <c r="C237" s="23" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D237" s="13" t="s">
         <v>5</v>
@@ -13674,7 +13691,7 @@
         <v>197</v>
       </c>
       <c r="F238" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -13702,28 +13719,28 @@
         <v>199</v>
       </c>
       <c r="F240" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="27" thickBot="1">
-      <c r="A242" s="55" t="s">
-        <v>585</v>
-      </c>
-      <c r="B242" s="55"/>
-      <c r="C242" s="55"/>
-      <c r="D242" s="55"/>
-      <c r="E242" s="55"/>
-      <c r="F242" s="56"/>
+      <c r="A242" s="53" t="s">
+        <v>584</v>
+      </c>
+      <c r="B242" s="53"/>
+      <c r="C242" s="53"/>
+      <c r="D242" s="53"/>
+      <c r="E242" s="53"/>
+      <c r="F242" s="54"/>
     </row>
     <row r="243" spans="1:7">
       <c r="C243" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F243" s="14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G243" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -13734,7 +13751,7 @@
         <v>321</v>
       </c>
       <c r="G244" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -13745,7 +13762,7 @@
         <v>322</v>
       </c>
       <c r="G245" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -13756,7 +13773,7 @@
         <v>323</v>
       </c>
       <c r="G246" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -13767,7 +13784,7 @@
         <v>324</v>
       </c>
       <c r="G247" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -13781,10 +13798,10 @@
         <v>28</v>
       </c>
       <c r="F249" s="14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -13798,10 +13815,10 @@
         <v>32</v>
       </c>
       <c r="F250" s="14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -13812,13 +13829,13 @@
         <v>4</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F251" s="14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -13829,13 +13846,13 @@
         <v>4</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F252" s="14" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -13849,61 +13866,61 @@
         <v>168</v>
       </c>
       <c r="F253" s="14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="C255" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E255" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F255" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="G255" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="F255" s="22" t="s">
-        <v>549</v>
-      </c>
-      <c r="G255" s="1" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="F256" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="G256" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C256" s="30" t="s">
-        <v>548</v>
-      </c>
-      <c r="F256" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="G256" s="1" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F257" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="G257" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="F257" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="G257" s="1" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -13920,7 +13937,7 @@
         <v>40</v>
       </c>
       <c r="F259" s="14" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G259" s="1"/>
     </row>
@@ -13983,13 +14000,13 @@
         <v>4</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F263" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -14000,13 +14017,13 @@
         <v>4</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F264" s="14" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -14023,7 +14040,7 @@
         <v>315</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -14034,13 +14051,13 @@
         <v>4</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F266" s="14" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -14057,7 +14074,7 @@
         <v>243</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -14083,7 +14100,7 @@
         <v>144</v>
       </c>
       <c r="F273" s="14" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -14145,13 +14162,13 @@
         <v>4</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F277" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -14162,13 +14179,13 @@
         <v>4</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F278" s="14" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -14185,7 +14202,7 @@
         <v>315</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -14196,13 +14213,13 @@
         <v>4</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F280" s="14" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -14219,7 +14236,7 @@
         <v>243</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -14233,7 +14250,7 @@
         <v>144</v>
       </c>
       <c r="F284" s="14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -14247,7 +14264,7 @@
         <v>144</v>
       </c>
       <c r="F285" s="14" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -14261,7 +14278,7 @@
         <v>172</v>
       </c>
       <c r="F286" s="14" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -14275,7 +14292,7 @@
         <v>173</v>
       </c>
       <c r="F287" s="14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -14289,7 +14306,7 @@
         <v>174</v>
       </c>
       <c r="F288" s="14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -14306,10 +14323,10 @@
         <v>29</v>
       </c>
       <c r="F290" s="22" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -14323,10 +14340,10 @@
         <v>87</v>
       </c>
       <c r="F291" s="14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -14340,10 +14357,10 @@
         <v>82</v>
       </c>
       <c r="F292" s="14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -14357,10 +14374,10 @@
         <v>83</v>
       </c>
       <c r="F293" s="14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -14374,10 +14391,10 @@
         <v>84</v>
       </c>
       <c r="F294" s="14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -14391,10 +14408,10 @@
         <v>240</v>
       </c>
       <c r="F295" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -14405,13 +14422,13 @@
         <v>4</v>
       </c>
       <c r="C296" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F296" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="F296" s="14" t="s">
-        <v>588</v>
-      </c>
       <c r="G296" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -14425,10 +14442,10 @@
         <v>283</v>
       </c>
       <c r="F297" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -14438,14 +14455,14 @@
       <c r="C302" s="2"/>
     </row>
     <row r="304" spans="1:7" ht="27" thickBot="1">
-      <c r="A304" s="55" t="s">
+      <c r="A304" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="B304" s="55"/>
-      <c r="C304" s="55"/>
-      <c r="D304" s="55"/>
-      <c r="E304" s="55"/>
-      <c r="F304" s="56"/>
+      <c r="B304" s="53"/>
+      <c r="C304" s="53"/>
+      <c r="D304" s="53"/>
+      <c r="E304" s="53"/>
+      <c r="F304" s="54"/>
     </row>
     <row r="307" spans="1:6">
       <c r="C307" s="1" t="s">
@@ -14657,7 +14674,7 @@
         <v>75</v>
       </c>
       <c r="G321" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -14674,7 +14691,7 @@
         <v>75</v>
       </c>
       <c r="G322" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -14691,7 +14708,7 @@
         <v>76</v>
       </c>
       <c r="G323" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -14708,7 +14725,7 @@
         <v>141</v>
       </c>
       <c r="G324" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -14719,13 +14736,13 @@
         <v>4</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F325" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G325" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -14736,10 +14753,10 @@
         <v>4</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F326" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G326" s="9" t="s">
         <v>295</v>
@@ -14759,7 +14776,7 @@
         <v>315</v>
       </c>
       <c r="G327" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -14807,10 +14824,10 @@
         <v>144</v>
       </c>
       <c r="F331" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -14827,7 +14844,7 @@
         <v>75</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -14844,7 +14861,7 @@
         <v>76</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -14861,7 +14878,7 @@
         <v>141</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -14872,13 +14889,13 @@
         <v>4</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F335" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -14889,10 +14906,10 @@
         <v>4</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F336" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G336" s="1" t="s">
         <v>295</v>
@@ -14912,7 +14929,7 @@
         <v>315</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -14954,7 +14971,7 @@
         <v>77</v>
       </c>
       <c r="F340" s="14" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -14962,7 +14979,7 @@
         <v>78</v>
       </c>
       <c r="F341" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -15026,18 +15043,18 @@
       </c>
     </row>
     <row r="351" spans="1:7" ht="27" thickBot="1">
-      <c r="A351" s="55" t="s">
-        <v>426</v>
-      </c>
-      <c r="B351" s="55"/>
-      <c r="C351" s="55"/>
-      <c r="D351" s="55"/>
-      <c r="E351" s="55"/>
-      <c r="F351" s="56"/>
+      <c r="A351" s="53" t="s">
+        <v>425</v>
+      </c>
+      <c r="B351" s="53"/>
+      <c r="C351" s="53"/>
+      <c r="D351" s="53"/>
+      <c r="E351" s="53"/>
+      <c r="F351" s="54"/>
     </row>
     <row r="352" spans="1:7">
       <c r="C352" s="13" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D352" s="13" t="s">
         <v>5</v>
@@ -15088,7 +15105,7 @@
         <v>183</v>
       </c>
       <c r="F355" s="14" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -15102,7 +15119,7 @@
         <v>182</v>
       </c>
       <c r="F356" s="14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -15113,10 +15130,10 @@
         <v>4</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F357" s="14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -15127,7 +15144,7 @@
         <v>4</v>
       </c>
       <c r="C358" s="13" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D358" s="13" t="s">
         <v>5</v>
@@ -15136,7 +15153,7 @@
         <v>302</v>
       </c>
       <c r="F358" s="21" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -15147,10 +15164,10 @@
         <v>4</v>
       </c>
       <c r="C359" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="F359" s="14" t="s">
         <v>654</v>
-      </c>
-      <c r="F359" s="14" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -15161,10 +15178,10 @@
         <v>4</v>
       </c>
       <c r="C360" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="F360" s="14" t="s">
         <v>656</v>
-      </c>
-      <c r="F360" s="14" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -15454,7 +15471,7 @@
         <v>4</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F390" s="14" t="s">
         <v>276</v>
@@ -15468,7 +15485,7 @@
         <v>4</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F391" s="14" t="s">
         <v>277</v>
@@ -15482,25 +15499,25 @@
         <v>4</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F392" s="14" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="395" spans="1:6" ht="27" thickBot="1">
-      <c r="A395" s="55" t="s">
+      <c r="A395" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="B395" s="55"/>
-      <c r="C395" s="55"/>
-      <c r="D395" s="55"/>
-      <c r="E395" s="55"/>
-      <c r="F395" s="56"/>
+      <c r="B395" s="53"/>
+      <c r="C395" s="53"/>
+      <c r="D395" s="53"/>
+      <c r="E395" s="53"/>
+      <c r="F395" s="54"/>
     </row>
     <row r="396" spans="1:6">
       <c r="C396" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>5</v>
@@ -15630,21 +15647,21 @@
       </c>
     </row>
     <row r="416" spans="1:6" ht="27" thickBot="1">
-      <c r="A416" s="55" t="s">
+      <c r="A416" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="B416" s="55"/>
-      <c r="C416" s="55"/>
-      <c r="D416" s="55"/>
-      <c r="E416" s="55"/>
-      <c r="F416" s="56"/>
+      <c r="B416" s="53"/>
+      <c r="C416" s="53"/>
+      <c r="D416" s="53"/>
+      <c r="E416" s="53"/>
+      <c r="F416" s="54"/>
     </row>
     <row r="417" spans="1:6">
       <c r="C417" s="1" t="s">
         <v>269</v>
       </c>
       <c r="F417" s="14" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -15655,7 +15672,7 @@
     </row>
     <row r="419" spans="1:6">
       <c r="C419" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D419" s="13" t="s">
         <v>5</v>
@@ -15664,7 +15681,7 @@
         <v>23</v>
       </c>
       <c r="F419" s="21" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -15683,7 +15700,7 @@
     </row>
     <row r="422" spans="1:6">
       <c r="C422" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D422" s="13" t="s">
         <v>5</v>
@@ -15692,7 +15709,7 @@
         <v>29</v>
       </c>
       <c r="F422" s="15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -15706,7 +15723,7 @@
         <v>283</v>
       </c>
       <c r="F423" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -15725,7 +15742,7 @@
     </row>
     <row r="426" spans="1:6">
       <c r="C426" s="13" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D426" s="13" t="s">
         <v>5</v>
@@ -15734,7 +15751,7 @@
         <v>274</v>
       </c>
       <c r="F426" s="21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -15748,7 +15765,7 @@
         <v>267</v>
       </c>
       <c r="F427" s="14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -15762,7 +15779,7 @@
         <v>268</v>
       </c>
       <c r="F428" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -15776,7 +15793,7 @@
         <v>275</v>
       </c>
       <c r="F429" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -15790,7 +15807,7 @@
         <v>272</v>
       </c>
       <c r="F430" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -15804,7 +15821,7 @@
         <v>273</v>
       </c>
       <c r="F431" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -15815,10 +15832,10 @@
         <v>4</v>
       </c>
       <c r="C432" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="F432" s="14" t="s">
         <v>533</v>
-      </c>
-      <c r="F432" s="14" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -15832,7 +15849,7 @@
         <v>271</v>
       </c>
       <c r="F433" s="14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -15846,7 +15863,7 @@
         <v>265</v>
       </c>
       <c r="F434" s="14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -15860,7 +15877,7 @@
         <v>266</v>
       </c>
       <c r="F435" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -15877,7 +15894,7 @@
         <v>282</v>
       </c>
       <c r="F437" s="21" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -15891,7 +15908,7 @@
         <v>279</v>
       </c>
       <c r="F438" s="14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -15905,7 +15922,7 @@
         <v>280</v>
       </c>
       <c r="F439" s="14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -15919,7 +15936,7 @@
         <v>281</v>
       </c>
       <c r="F440" s="14" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -15936,12 +15953,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A416:F416"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="C46:D46"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A395:F395"/>
     <mergeCell ref="A351:F351"/>
@@ -15949,6 +15960,12 @@
     <mergeCell ref="A242:F242"/>
     <mergeCell ref="A87:F87"/>
     <mergeCell ref="A196:F196"/>
+    <mergeCell ref="A416:F416"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="C46:D46"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>

--- a/git-terminal-commands.xlsx
+++ b/git-terminal-commands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Goofy/GIT/steves-git-commands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D482197-0875-9649-BE63-65ADBABBF94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E422AB42-B92A-9140-BD33-837B67FFA902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26820" yWindow="460" windowWidth="24380" windowHeight="28340" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
+    <workbookView xWindow="26820" yWindow="480" windowWidth="24380" windowHeight="28340" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10548,24 +10548,72 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Create a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>new remote</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> named </t>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Remove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (delete) a remote branch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Rename</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a remote branch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Update a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>repo URL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a new remote branch named </t>
     </r>
     <r>
       <rPr>
@@ -10584,58 +10632,15 @@
         <rFont val="Arial Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (convention)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>Remove</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (delete) a remote branch</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>Rename</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a remote branch</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Update a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>repo URL</t>
+      <t xml:space="preserve"> (convention) to an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>empty repo</t>
     </r>
   </si>
 </sst>
@@ -11089,12 +11094,12 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" xr:uid="{ACEF5201-9FF9-AD44-AA4C-60ABCDBD9D8F}"/>
@@ -11415,8 +11420,8 @@
   </sheetPr>
   <dimension ref="A1:F427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" zoomScale="181" zoomScaleNormal="181" zoomScaleSheetLayoutView="33" workbookViewId="0">
-      <selection activeCell="A295" sqref="A295:XFD297"/>
+    <sheetView tabSelected="1" topLeftCell="A328" zoomScale="181" zoomScaleNormal="181" zoomScaleSheetLayoutView="33" workbookViewId="0">
+      <selection activeCell="F341" sqref="F341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11493,14 +11498,14 @@
       <c r="A8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="27" thickBot="1">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="1" t="s">
@@ -11522,14 +11527,14 @@
       <c r="A12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="27" thickBot="1">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="55"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="1" t="s">
@@ -11883,10 +11888,10 @@
     </row>
     <row r="46" spans="1:6" ht="20" thickBot="1">
       <c r="A46" s="32"/>
-      <c r="C46" s="56" t="s">
+      <c r="C46" s="54" t="s">
         <v>607</v>
       </c>
-      <c r="D46" s="57"/>
+      <c r="D46" s="55"/>
       <c r="E46" s="36"/>
       <c r="F46" s="42"/>
     </row>
@@ -12082,14 +12087,14 @@
       <c r="F69" s="48"/>
     </row>
     <row r="70" spans="1:6" ht="27" thickBot="1">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="54"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="55"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="53"/>
     </row>
     <row r="71" spans="1:6">
       <c r="C71" s="1" t="s">
@@ -12215,14 +12220,14 @@
       <c r="A86" s="20"/>
     </row>
     <row r="87" spans="1:6" ht="27" thickBot="1">
-      <c r="A87" s="54" t="s">
+      <c r="A87" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="54"/>
-      <c r="C87" s="54"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="55"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="53"/>
     </row>
     <row r="88" spans="1:6">
       <c r="C88" s="1" t="s">
@@ -12297,14 +12302,14 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="27" thickBot="1">
-      <c r="A98" s="54" t="s">
+      <c r="A98" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B98" s="54"/>
-      <c r="C98" s="54"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="54"/>
-      <c r="F98" s="54"/>
+      <c r="B98" s="52"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="52"/>
+      <c r="E98" s="52"/>
+      <c r="F98" s="52"/>
     </row>
     <row r="99" spans="1:6">
       <c r="C99" s="1" t="s">
@@ -12634,14 +12639,14 @@
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:6" ht="27" thickBot="1">
-      <c r="A132" s="54" t="s">
+      <c r="A132" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B132" s="54"/>
-      <c r="C132" s="54"/>
-      <c r="D132" s="54"/>
-      <c r="E132" s="54"/>
-      <c r="F132" s="55"/>
+      <c r="B132" s="52"/>
+      <c r="C132" s="52"/>
+      <c r="D132" s="52"/>
+      <c r="E132" s="52"/>
+      <c r="F132" s="53"/>
     </row>
     <row r="133" spans="1:6">
       <c r="C133" s="1" t="s">
@@ -13444,14 +13449,14 @@
       <c r="C195" s="3"/>
     </row>
     <row r="196" spans="1:6" ht="27" thickBot="1">
-      <c r="A196" s="54" t="s">
+      <c r="A196" s="52" t="s">
         <v>420</v>
       </c>
-      <c r="B196" s="54"/>
-      <c r="C196" s="54"/>
-      <c r="D196" s="54"/>
-      <c r="E196" s="54"/>
-      <c r="F196" s="54"/>
+      <c r="B196" s="52"/>
+      <c r="C196" s="52"/>
+      <c r="D196" s="52"/>
+      <c r="E196" s="52"/>
+      <c r="F196" s="52"/>
     </row>
     <row r="197" spans="1:6">
       <c r="C197" s="8" t="s">
@@ -14046,14 +14051,14 @@
       </c>
     </row>
     <row r="242" spans="1:6" ht="27" thickBot="1">
-      <c r="A242" s="54" t="s">
+      <c r="A242" s="52" t="s">
         <v>573</v>
       </c>
-      <c r="B242" s="54"/>
-      <c r="C242" s="54"/>
-      <c r="D242" s="54"/>
-      <c r="E242" s="54"/>
-      <c r="F242" s="55"/>
+      <c r="B242" s="52"/>
+      <c r="C242" s="52"/>
+      <c r="D242" s="52"/>
+      <c r="E242" s="52"/>
+      <c r="F242" s="53"/>
     </row>
     <row r="243" spans="1:6">
       <c r="C243" s="1" t="s">
@@ -14619,14 +14624,14 @@
       </c>
     </row>
     <row r="291" spans="1:6" ht="27" thickBot="1">
-      <c r="A291" s="54" t="s">
+      <c r="A291" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="B291" s="54"/>
-      <c r="C291" s="54"/>
-      <c r="D291" s="54"/>
-      <c r="E291" s="54"/>
-      <c r="F291" s="55"/>
+      <c r="B291" s="52"/>
+      <c r="C291" s="52"/>
+      <c r="D291" s="52"/>
+      <c r="E291" s="52"/>
+      <c r="F291" s="53"/>
     </row>
     <row r="292" spans="1:6">
       <c r="C292" s="1" t="s">
@@ -15153,14 +15158,14 @@
       </c>
     </row>
     <row r="340" spans="1:6" ht="27" thickBot="1">
-      <c r="A340" s="54" t="s">
+      <c r="A340" s="52" t="s">
         <v>421</v>
       </c>
-      <c r="B340" s="54"/>
-      <c r="C340" s="54"/>
-      <c r="D340" s="54"/>
-      <c r="E340" s="54"/>
-      <c r="F340" s="55"/>
+      <c r="B340" s="52"/>
+      <c r="C340" s="52"/>
+      <c r="D340" s="52"/>
+      <c r="E340" s="52"/>
+      <c r="F340" s="53"/>
     </row>
     <row r="341" spans="1:6">
       <c r="C341" s="13" t="s">
@@ -15201,7 +15206,7 @@
         <v>115</v>
       </c>
       <c r="F343" s="14" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -15215,7 +15220,7 @@
         <v>180</v>
       </c>
       <c r="F344" s="14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -15229,7 +15234,7 @@
         <v>179</v>
       </c>
       <c r="F345" s="14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -15243,7 +15248,7 @@
         <v>643</v>
       </c>
       <c r="F346" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -15613,14 +15618,14 @@
       </c>
     </row>
     <row r="382" spans="1:6" ht="27" thickBot="1">
-      <c r="A382" s="54" t="s">
+      <c r="A382" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="B382" s="54"/>
-      <c r="C382" s="54"/>
-      <c r="D382" s="54"/>
-      <c r="E382" s="54"/>
-      <c r="F382" s="55"/>
+      <c r="B382" s="52"/>
+      <c r="C382" s="52"/>
+      <c r="D382" s="52"/>
+      <c r="E382" s="52"/>
+      <c r="F382" s="53"/>
     </row>
     <row r="383" spans="1:6">
       <c r="C383" s="1" t="s">
@@ -15754,14 +15759,14 @@
       </c>
     </row>
     <row r="403" spans="1:6" ht="27" thickBot="1">
-      <c r="A403" s="54" t="s">
+      <c r="A403" s="52" t="s">
         <v>260</v>
       </c>
-      <c r="B403" s="54"/>
-      <c r="C403" s="54"/>
-      <c r="D403" s="54"/>
-      <c r="E403" s="54"/>
-      <c r="F403" s="55"/>
+      <c r="B403" s="52"/>
+      <c r="C403" s="52"/>
+      <c r="D403" s="52"/>
+      <c r="E403" s="52"/>
+      <c r="F403" s="53"/>
     </row>
     <row r="404" spans="1:6">
       <c r="C404" s="1" t="s">
@@ -16048,12 +16053,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A403:F403"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="C46:D46"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A382:F382"/>
     <mergeCell ref="A340:F340"/>
@@ -16061,6 +16060,12 @@
     <mergeCell ref="A242:F242"/>
     <mergeCell ref="A87:F87"/>
     <mergeCell ref="A196:F196"/>
+    <mergeCell ref="A403:F403"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="C46:D46"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>

--- a/git-terminal-commands.xlsx
+++ b/git-terminal-commands.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Goofy/GIT/steves-git-commands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E422AB42-B92A-9140-BD33-837B67FFA902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F25868C-F611-264F-B991-DE3BCC83FCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26820" yWindow="480" windowWidth="24380" windowHeight="28340" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
+    <workbookView xWindow="26820" yWindow="460" windowWidth="24380" windowHeight="28340" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$98:$F$379</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$98:$F$380</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="676">
   <si>
     <t>Configuration</t>
   </si>
@@ -10641,6 +10641,37 @@
         <rFont val="Menlo Bold"/>
       </rPr>
       <t>empty repo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git branch --set-upstream-to=</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>origin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>branch_name branch_name</t>
     </r>
   </si>
 </sst>
@@ -11023,7 +11054,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -11094,12 +11125,15 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" xr:uid="{ACEF5201-9FF9-AD44-AA4C-60ABCDBD9D8F}"/>
@@ -11418,10 +11452,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F427"/>
+  <dimension ref="A1:F428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" zoomScale="181" zoomScaleNormal="181" zoomScaleSheetLayoutView="33" workbookViewId="0">
-      <selection activeCell="F341" sqref="F341"/>
+    <sheetView tabSelected="1" topLeftCell="A351" zoomScale="181" zoomScaleNormal="181" zoomScaleSheetLayoutView="33" workbookViewId="0">
+      <selection activeCell="C373" sqref="C373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11498,14 +11532,14 @@
       <c r="A8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="27" thickBot="1">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="1" t="s">
@@ -11527,14 +11561,14 @@
       <c r="A12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="27" thickBot="1">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="55"/>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="1" t="s">
@@ -11888,10 +11922,10 @@
     </row>
     <row r="46" spans="1:6" ht="20" thickBot="1">
       <c r="A46" s="32"/>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="56" t="s">
         <v>607</v>
       </c>
-      <c r="D46" s="55"/>
+      <c r="D46" s="57"/>
       <c r="E46" s="36"/>
       <c r="F46" s="42"/>
     </row>
@@ -12087,14 +12121,14 @@
       <c r="F69" s="48"/>
     </row>
     <row r="70" spans="1:6" ht="27" thickBot="1">
-      <c r="A70" s="52" t="s">
+      <c r="A70" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="52"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="53"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="55"/>
     </row>
     <row r="71" spans="1:6">
       <c r="C71" s="1" t="s">
@@ -12220,14 +12254,14 @@
       <c r="A86" s="20"/>
     </row>
     <row r="87" spans="1:6" ht="27" thickBot="1">
-      <c r="A87" s="52" t="s">
+      <c r="A87" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="52"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="52"/>
-      <c r="E87" s="52"/>
-      <c r="F87" s="53"/>
+      <c r="B87" s="54"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="55"/>
     </row>
     <row r="88" spans="1:6">
       <c r="C88" s="1" t="s">
@@ -12302,14 +12336,14 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="27" thickBot="1">
-      <c r="A98" s="52" t="s">
+      <c r="A98" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B98" s="52"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="52"/>
-      <c r="E98" s="52"/>
-      <c r="F98" s="52"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="54"/>
     </row>
     <row r="99" spans="1:6">
       <c r="C99" s="1" t="s">
@@ -12639,14 +12673,14 @@
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:6" ht="27" thickBot="1">
-      <c r="A132" s="52" t="s">
+      <c r="A132" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B132" s="52"/>
-      <c r="C132" s="52"/>
-      <c r="D132" s="52"/>
-      <c r="E132" s="52"/>
-      <c r="F132" s="53"/>
+      <c r="B132" s="54"/>
+      <c r="C132" s="54"/>
+      <c r="D132" s="54"/>
+      <c r="E132" s="54"/>
+      <c r="F132" s="55"/>
     </row>
     <row r="133" spans="1:6">
       <c r="C133" s="1" t="s">
@@ -13449,14 +13483,14 @@
       <c r="C195" s="3"/>
     </row>
     <row r="196" spans="1:6" ht="27" thickBot="1">
-      <c r="A196" s="52" t="s">
+      <c r="A196" s="54" t="s">
         <v>420</v>
       </c>
-      <c r="B196" s="52"/>
-      <c r="C196" s="52"/>
-      <c r="D196" s="52"/>
-      <c r="E196" s="52"/>
-      <c r="F196" s="52"/>
+      <c r="B196" s="54"/>
+      <c r="C196" s="54"/>
+      <c r="D196" s="54"/>
+      <c r="E196" s="54"/>
+      <c r="F196" s="54"/>
     </row>
     <row r="197" spans="1:6">
       <c r="C197" s="8" t="s">
@@ -14051,14 +14085,14 @@
       </c>
     </row>
     <row r="242" spans="1:6" ht="27" thickBot="1">
-      <c r="A242" s="52" t="s">
+      <c r="A242" s="54" t="s">
         <v>573</v>
       </c>
-      <c r="B242" s="52"/>
-      <c r="C242" s="52"/>
-      <c r="D242" s="52"/>
-      <c r="E242" s="52"/>
-      <c r="F242" s="53"/>
+      <c r="B242" s="54"/>
+      <c r="C242" s="54"/>
+      <c r="D242" s="54"/>
+      <c r="E242" s="54"/>
+      <c r="F242" s="55"/>
     </row>
     <row r="243" spans="1:6">
       <c r="C243" s="1" t="s">
@@ -14624,14 +14658,14 @@
       </c>
     </row>
     <row r="291" spans="1:6" ht="27" thickBot="1">
-      <c r="A291" s="52" t="s">
+      <c r="A291" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="B291" s="52"/>
-      <c r="C291" s="52"/>
-      <c r="D291" s="52"/>
-      <c r="E291" s="52"/>
-      <c r="F291" s="53"/>
+      <c r="B291" s="54"/>
+      <c r="C291" s="54"/>
+      <c r="D291" s="54"/>
+      <c r="E291" s="54"/>
+      <c r="F291" s="55"/>
     </row>
     <row r="292" spans="1:6">
       <c r="C292" s="1" t="s">
@@ -15158,14 +15192,14 @@
       </c>
     </row>
     <row r="340" spans="1:6" ht="27" thickBot="1">
-      <c r="A340" s="52" t="s">
+      <c r="A340" s="54" t="s">
         <v>421</v>
       </c>
-      <c r="B340" s="52"/>
-      <c r="C340" s="52"/>
-      <c r="D340" s="52"/>
-      <c r="E340" s="52"/>
-      <c r="F340" s="53"/>
+      <c r="B340" s="54"/>
+      <c r="C340" s="54"/>
+      <c r="D340" s="54"/>
+      <c r="E340" s="54"/>
+      <c r="F340" s="55"/>
     </row>
     <row r="341" spans="1:6">
       <c r="C341" s="13" t="s">
@@ -15491,85 +15525,79 @@
         <v>123</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
-      <c r="C367" s="3" t="s">
+    <row r="367" spans="1:6" ht="27">
+      <c r="C367" s="58" t="s">
+        <v>675</v>
+      </c>
+      <c r="F367" s="41" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="C368" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F367" s="14" t="s">
+      <c r="F368" s="14" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
-      <c r="C368" s="4" t="s">
+    <row r="369" spans="1:6">
+      <c r="C369" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F368" s="14" t="s">
+      <c r="F369" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
-      <c r="C369" s="1" t="s">
+    <row r="370" spans="1:6">
+      <c r="C370" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F369" s="14" t="s">
+      <c r="F370" s="14" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6">
-      <c r="C371" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F371" s="14" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="372" spans="1:6">
       <c r="C372" s="1" t="s">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="F372" s="14" t="s">
-        <v>206</v>
+        <v>315</v>
       </c>
     </row>
     <row r="373" spans="1:6">
       <c r="C373" s="1" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="F373" s="14" t="s">
-        <v>315</v>
+        <v>206</v>
       </c>
     </row>
     <row r="374" spans="1:6">
       <c r="C374" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F374" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="375" spans="1:6">
       <c r="C375" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F375" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="C376" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D375" s="1" t="s">
+      <c r="D376" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E375" s="1" t="s">
+      <c r="E376" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="F375" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6">
-      <c r="A376" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="F376" s="14" t="s">
         <v>136</v>
@@ -15582,11 +15610,11 @@
       <c r="B377" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C377" s="1" t="s">
-        <v>531</v>
+      <c r="C377" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="F377" s="14" t="s">
-        <v>273</v>
+        <v>136</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -15596,11 +15624,11 @@
       <c r="B378" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C378" s="3" t="s">
-        <v>532</v>
+      <c r="C378" s="1" t="s">
+        <v>531</v>
       </c>
       <c r="F378" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -15611,273 +15639,273 @@
         <v>4</v>
       </c>
       <c r="C379" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F379" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C380" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="F379" s="14" t="s">
+      <c r="F380" s="14" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="27" thickBot="1">
-      <c r="A382" s="52" t="s">
+    <row r="383" spans="1:6" ht="27" thickBot="1">
+      <c r="A383" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="B382" s="52"/>
-      <c r="C382" s="52"/>
-      <c r="D382" s="52"/>
-      <c r="E382" s="52"/>
-      <c r="F382" s="53"/>
-    </row>
-    <row r="383" spans="1:6">
-      <c r="C383" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D383" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E383" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F383" s="14" t="s">
-        <v>214</v>
-      </c>
+      <c r="B383" s="54"/>
+      <c r="C383" s="54"/>
+      <c r="D383" s="54"/>
+      <c r="E383" s="54"/>
+      <c r="F383" s="55"/>
     </row>
     <row r="384" spans="1:6">
       <c r="C384" s="1" t="s">
-        <v>217</v>
+        <v>648</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="F384" s="14" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="385" spans="3:6">
       <c r="C385" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F385" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="386" spans="3:6">
       <c r="C386" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F386" s="14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="387" spans="3:6">
       <c r="C387" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F387" s="14" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="388" spans="3:6">
       <c r="C388" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F388" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="389" spans="3:6">
       <c r="C389" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F389" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="390" spans="3:6">
       <c r="C390" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F390" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="391" spans="3:6">
       <c r="C391" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F391" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="392" spans="3:6">
+      <c r="C392" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F391" s="14" t="s">
+      <c r="F392" s="14" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="392" spans="3:6">
-      <c r="C392" s="3" t="s">
+    <row r="393" spans="3:6">
+      <c r="C393" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F392" s="14" t="s">
+      <c r="F393" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="393" spans="3:6">
-      <c r="C393" s="1" t="s">
+    <row r="394" spans="3:6">
+      <c r="C394" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F393" s="14" t="s">
+      <c r="F394" s="14" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="395" spans="3:6">
-      <c r="C395" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F395" s="14" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="396" spans="3:6">
       <c r="C396" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F396" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="397" spans="3:6">
       <c r="C397" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F397" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="398" spans="3:6">
       <c r="C398" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F398" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="399" spans="3:6">
+      <c r="C399" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F398" s="14" t="s">
+      <c r="F399" s="14" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="400" spans="3:6">
-      <c r="C400" s="1" t="s">
+    <row r="401" spans="1:6">
+      <c r="C401" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="27" thickBot="1">
-      <c r="A403" s="52" t="s">
+    <row r="404" spans="1:6" ht="27" thickBot="1">
+      <c r="A404" s="54" t="s">
         <v>260</v>
       </c>
-      <c r="B403" s="52"/>
-      <c r="C403" s="52"/>
-      <c r="D403" s="52"/>
-      <c r="E403" s="52"/>
-      <c r="F403" s="53"/>
-    </row>
-    <row r="404" spans="1:6">
-      <c r="C404" s="1" t="s">
+      <c r="B404" s="54"/>
+      <c r="C404" s="54"/>
+      <c r="D404" s="54"/>
+      <c r="E404" s="54"/>
+      <c r="F404" s="55"/>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="C405" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F404" s="14" t="s">
+      <c r="F405" s="14" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
-      <c r="C405" s="25"/>
-      <c r="D405" s="25"/>
-      <c r="E405" s="25"/>
-      <c r="F405" s="27"/>
-    </row>
     <row r="406" spans="1:6">
-      <c r="C406" s="13" t="s">
+      <c r="C406" s="25"/>
+      <c r="D406" s="25"/>
+      <c r="E406" s="25"/>
+      <c r="F406" s="27"/>
+    </row>
+    <row r="407" spans="1:6">
+      <c r="C407" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="D406" s="13" t="s">
+      <c r="D407" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E406" s="13" t="s">
+      <c r="E407" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F406" s="21" t="s">
+      <c r="F407" s="21" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
-      <c r="A407" s="1" t="s">
+    <row r="408" spans="1:6">
+      <c r="A408" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B407" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C407" s="3" t="s">
+      <c r="B408" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C408" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F407" s="14" t="s">
+      <c r="F408" s="14" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
-      <c r="C409" s="13" t="s">
+    <row r="410" spans="1:6">
+      <c r="C410" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="D409" s="13" t="s">
+      <c r="D410" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E409" s="13" t="s">
+      <c r="E410" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F409" s="15" t="s">
+      <c r="F410" s="15" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
-      <c r="A410" s="1" t="s">
+    <row r="411" spans="1:6">
+      <c r="A411" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B410" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C410" s="8" t="s">
+      <c r="B411" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C411" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="F410" s="14" t="s">
+      <c r="F411" s="14" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
-      <c r="C412" s="1" t="s">
+    <row r="413" spans="1:6">
+      <c r="C413" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D412" s="1" t="s">
+      <c r="D413" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E412" s="1" t="s">
+      <c r="E413" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F412" s="22" t="s">
+      <c r="F413" s="22" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
-      <c r="C413" s="13" t="s">
+    <row r="414" spans="1:6">
+      <c r="C414" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="D413" s="13" t="s">
+      <c r="D414" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E413" s="13" t="s">
+      <c r="E414" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="F413" s="21" t="s">
+      <c r="F414" s="21" t="s">
         <v>518</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6">
-      <c r="A414" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C414" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="F414" s="14" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -15887,11 +15915,11 @@
       <c r="B415" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C415" s="2" t="s">
-        <v>265</v>
+      <c r="C415" s="10" t="s">
+        <v>264</v>
       </c>
       <c r="F415" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -15901,11 +15929,11 @@
       <c r="B416" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C416" s="12" t="s">
-        <v>272</v>
+      <c r="C416" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="F416" s="14" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -15916,10 +15944,10 @@
         <v>4</v>
       </c>
       <c r="C417" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F417" s="14" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -15930,10 +15958,10 @@
         <v>4</v>
       </c>
       <c r="C418" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F418" s="14" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -15943,11 +15971,11 @@
       <c r="B419" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C419" s="8" t="s">
-        <v>528</v>
+      <c r="C419" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="F419" s="14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -15958,10 +15986,10 @@
         <v>4</v>
       </c>
       <c r="C420" s="8" t="s">
-        <v>268</v>
+        <v>528</v>
       </c>
       <c r="F420" s="14" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -15972,10 +16000,10 @@
         <v>4</v>
       </c>
       <c r="C421" s="8" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F421" s="14" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -15986,41 +16014,41 @@
         <v>4</v>
       </c>
       <c r="C422" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="F422" s="14" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="A423" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C423" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="F422" s="14" t="s">
+      <c r="F423" s="14" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
-      <c r="C423" s="8"/>
-    </row>
     <row r="424" spans="1:6">
-      <c r="C424" s="24" t="s">
+      <c r="C424" s="8"/>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="C425" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="D424" s="13" t="s">
+      <c r="D425" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E424" s="13" t="s">
+      <c r="E425" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="F424" s="21" t="s">
+      <c r="F425" s="21" t="s">
         <v>534</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6">
-      <c r="A425" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B425" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C425" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F425" s="14" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -16031,10 +16059,10 @@
         <v>4</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F426" s="14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -16045,27 +16073,41 @@
         <v>4</v>
       </c>
       <c r="C427" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F427" s="14" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
+      <c r="A428" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C428" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F427" s="14" t="s">
+      <c r="F428" s="14" t="s">
         <v>537</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A404:F404"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A382:F382"/>
+    <mergeCell ref="A383:F383"/>
     <mergeCell ref="A340:F340"/>
     <mergeCell ref="A291:F291"/>
     <mergeCell ref="A242:F242"/>
     <mergeCell ref="A87:F87"/>
     <mergeCell ref="A196:F196"/>
-    <mergeCell ref="A403:F403"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="C46:D46"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>

--- a/git-terminal-commands.xlsx
+++ b/git-terminal-commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Goofy/GIT/steves-git-commands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F25868C-F611-264F-B991-DE3BCC83FCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE6DC5D-263D-DF4A-9772-C6DA2730F7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26820" yWindow="460" windowWidth="24380" windowHeight="28340" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
   </bookViews>
@@ -11455,7 +11455,7 @@
   <dimension ref="A1:F428"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A351" zoomScale="181" zoomScaleNormal="181" zoomScaleSheetLayoutView="33" workbookViewId="0">
-      <selection activeCell="C373" sqref="C373"/>
+      <selection activeCell="C367" sqref="C367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/git-terminal-commands.xlsx
+++ b/git-terminal-commands.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Goofy/GIT/steves-git-commands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE6DC5D-263D-DF4A-9772-C6DA2730F7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0254F479-A29A-DF44-9931-EAE376C311CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26820" yWindow="460" windowWidth="24380" windowHeight="28340" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="677">
   <si>
     <t>Configuration</t>
   </si>
@@ -10673,6 +10673,9 @@
       </rPr>
       <t>branch_name branch_name</t>
     </r>
+  </si>
+  <si>
+    <t>Start tracking a remote repo</t>
   </si>
 </sst>
 </file>
@@ -11125,15 +11128,15 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" xr:uid="{ACEF5201-9FF9-AD44-AA4C-60ABCDBD9D8F}"/>
@@ -11455,7 +11458,7 @@
   <dimension ref="A1:F428"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A351" zoomScale="181" zoomScaleNormal="181" zoomScaleSheetLayoutView="33" workbookViewId="0">
-      <selection activeCell="C367" sqref="C367"/>
+      <selection activeCell="F367" sqref="F367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11532,14 +11535,14 @@
       <c r="A8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="27" thickBot="1">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="58"/>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="1" t="s">
@@ -11561,14 +11564,14 @@
       <c r="A12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="27" thickBot="1">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="55"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="1" t="s">
@@ -11922,10 +11925,10 @@
     </row>
     <row r="46" spans="1:6" ht="20" thickBot="1">
       <c r="A46" s="32"/>
-      <c r="C46" s="56" t="s">
+      <c r="C46" s="55" t="s">
         <v>607</v>
       </c>
-      <c r="D46" s="57"/>
+      <c r="D46" s="56"/>
       <c r="E46" s="36"/>
       <c r="F46" s="42"/>
     </row>
@@ -12121,14 +12124,14 @@
       <c r="F69" s="48"/>
     </row>
     <row r="70" spans="1:6" ht="27" thickBot="1">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="54"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="55"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="54"/>
     </row>
     <row r="71" spans="1:6">
       <c r="C71" s="1" t="s">
@@ -12254,14 +12257,14 @@
       <c r="A86" s="20"/>
     </row>
     <row r="87" spans="1:6" ht="27" thickBot="1">
-      <c r="A87" s="54" t="s">
+      <c r="A87" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="54"/>
-      <c r="C87" s="54"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="55"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="54"/>
     </row>
     <row r="88" spans="1:6">
       <c r="C88" s="1" t="s">
@@ -12336,14 +12339,14 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="27" thickBot="1">
-      <c r="A98" s="54" t="s">
+      <c r="A98" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B98" s="54"/>
-      <c r="C98" s="54"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="54"/>
-      <c r="F98" s="54"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="53"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="53"/>
     </row>
     <row r="99" spans="1:6">
       <c r="C99" s="1" t="s">
@@ -12673,14 +12676,14 @@
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:6" ht="27" thickBot="1">
-      <c r="A132" s="54" t="s">
+      <c r="A132" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B132" s="54"/>
-      <c r="C132" s="54"/>
-      <c r="D132" s="54"/>
-      <c r="E132" s="54"/>
-      <c r="F132" s="55"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="53"/>
+      <c r="D132" s="53"/>
+      <c r="E132" s="53"/>
+      <c r="F132" s="54"/>
     </row>
     <row r="133" spans="1:6">
       <c r="C133" s="1" t="s">
@@ -13483,14 +13486,14 @@
       <c r="C195" s="3"/>
     </row>
     <row r="196" spans="1:6" ht="27" thickBot="1">
-      <c r="A196" s="54" t="s">
+      <c r="A196" s="53" t="s">
         <v>420</v>
       </c>
-      <c r="B196" s="54"/>
-      <c r="C196" s="54"/>
-      <c r="D196" s="54"/>
-      <c r="E196" s="54"/>
-      <c r="F196" s="54"/>
+      <c r="B196" s="53"/>
+      <c r="C196" s="53"/>
+      <c r="D196" s="53"/>
+      <c r="E196" s="53"/>
+      <c r="F196" s="53"/>
     </row>
     <row r="197" spans="1:6">
       <c r="C197" s="8" t="s">
@@ -14085,14 +14088,14 @@
       </c>
     </row>
     <row r="242" spans="1:6" ht="27" thickBot="1">
-      <c r="A242" s="54" t="s">
+      <c r="A242" s="53" t="s">
         <v>573</v>
       </c>
-      <c r="B242" s="54"/>
-      <c r="C242" s="54"/>
-      <c r="D242" s="54"/>
-      <c r="E242" s="54"/>
-      <c r="F242" s="55"/>
+      <c r="B242" s="53"/>
+      <c r="C242" s="53"/>
+      <c r="D242" s="53"/>
+      <c r="E242" s="53"/>
+      <c r="F242" s="54"/>
     </row>
     <row r="243" spans="1:6">
       <c r="C243" s="1" t="s">
@@ -14658,14 +14661,14 @@
       </c>
     </row>
     <row r="291" spans="1:6" ht="27" thickBot="1">
-      <c r="A291" s="54" t="s">
+      <c r="A291" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="B291" s="54"/>
-      <c r="C291" s="54"/>
-      <c r="D291" s="54"/>
-      <c r="E291" s="54"/>
-      <c r="F291" s="55"/>
+      <c r="B291" s="53"/>
+      <c r="C291" s="53"/>
+      <c r="D291" s="53"/>
+      <c r="E291" s="53"/>
+      <c r="F291" s="54"/>
     </row>
     <row r="292" spans="1:6">
       <c r="C292" s="1" t="s">
@@ -15192,14 +15195,14 @@
       </c>
     </row>
     <row r="340" spans="1:6" ht="27" thickBot="1">
-      <c r="A340" s="54" t="s">
+      <c r="A340" s="53" t="s">
         <v>421</v>
       </c>
-      <c r="B340" s="54"/>
-      <c r="C340" s="54"/>
-      <c r="D340" s="54"/>
-      <c r="E340" s="54"/>
-      <c r="F340" s="55"/>
+      <c r="B340" s="53"/>
+      <c r="C340" s="53"/>
+      <c r="D340" s="53"/>
+      <c r="E340" s="53"/>
+      <c r="F340" s="54"/>
     </row>
     <row r="341" spans="1:6">
       <c r="C341" s="13" t="s">
@@ -15526,11 +15529,11 @@
       </c>
     </row>
     <row r="367" spans="1:6" ht="27">
-      <c r="C367" s="58" t="s">
+      <c r="C367" s="52" t="s">
         <v>675</v>
       </c>
       <c r="F367" s="41" t="s">
-        <v>307</v>
+        <v>676</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -15660,14 +15663,14 @@
       </c>
     </row>
     <row r="383" spans="1:6" ht="27" thickBot="1">
-      <c r="A383" s="54" t="s">
+      <c r="A383" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="B383" s="54"/>
-      <c r="C383" s="54"/>
-      <c r="D383" s="54"/>
-      <c r="E383" s="54"/>
-      <c r="F383" s="55"/>
+      <c r="B383" s="53"/>
+      <c r="C383" s="53"/>
+      <c r="D383" s="53"/>
+      <c r="E383" s="53"/>
+      <c r="F383" s="54"/>
     </row>
     <row r="384" spans="1:6">
       <c r="C384" s="1" t="s">
@@ -15801,14 +15804,14 @@
       </c>
     </row>
     <row r="404" spans="1:6" ht="27" thickBot="1">
-      <c r="A404" s="54" t="s">
+      <c r="A404" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="B404" s="54"/>
-      <c r="C404" s="54"/>
-      <c r="D404" s="54"/>
-      <c r="E404" s="54"/>
-      <c r="F404" s="55"/>
+      <c r="B404" s="53"/>
+      <c r="C404" s="53"/>
+      <c r="D404" s="53"/>
+      <c r="E404" s="53"/>
+      <c r="F404" s="54"/>
     </row>
     <row r="405" spans="1:6">
       <c r="C405" s="1" t="s">
@@ -16095,12 +16098,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A404:F404"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="C46:D46"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A383:F383"/>
     <mergeCell ref="A340:F340"/>
@@ -16108,6 +16105,12 @@
     <mergeCell ref="A242:F242"/>
     <mergeCell ref="A87:F87"/>
     <mergeCell ref="A196:F196"/>
+    <mergeCell ref="A404:F404"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="C46:D46"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>

--- a/git-terminal-commands.xlsx
+++ b/git-terminal-commands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Goofy/GIT/steves-git-commands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0254F479-A29A-DF44-9931-EAE376C311CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44901D34-F1A3-D549-ACB8-BD9BBD26F085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26820" yWindow="460" windowWidth="24380" windowHeight="28340" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
+    <workbookView xWindow="26800" yWindow="460" windowWidth="24380" windowHeight="28340" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10017,16 +10017,665 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">git tag </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>required option</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(-l </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> --list) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>option</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git remote </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>option</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">prune </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>option</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git add (-i </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> --interactive)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git commit </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>filename filename</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>required option</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Switch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (replaces checkout)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Move HEAD to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>another branch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Creates a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>new branch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and moves the HEAD to it</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Creates a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>new tracking branch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and moves the HEAD to it</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">--detached </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>tree-ish</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-m </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>branch_name</t>
+    </r>
+  </si>
+  <si>
+    <t>Switch and merge working trees</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">--discard-changes </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>branch_name</t>
+    </r>
+  </si>
+  <si>
+    <t>Switch to another branch without saving working files</t>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Restore changes from a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>commit directly to current work file</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create and switch to a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>new branch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>tag reference</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>orphaned commit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>tree-ish</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> reference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (detached HEAD)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Switch to another branch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>without saving working files</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Switch and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>merge working trees</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Move HEAD to a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>patch of changes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Move HEAD to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>another</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> branch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Creates a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>new tracking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> branch and moves the HEAD to it</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create and switch to a new branch from a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>tag reference</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>orphaned commit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>tree-ish</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> reference (detached HEAD)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Show </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>more information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of all remotes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Remove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (delete) a remote branch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Rename</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a remote branch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Update a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>repo URL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a new remote branch named </t>
+    </r>
+    <r>
       <rPr>
         <i/>
         <sz val="9"/>
         <color rgb="FFFFC000"/>
-        <rFont val="Menlo Regular"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
       </rPr>
       <t>origin</t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (convention) to an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>empty repo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git branch --set-upstream-to=</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>origin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>branch_name branch_name</t>
+    </r>
+  </si>
+  <si>
+    <t>Start tracking a remote repo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>set-url</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> origin</t>
+    </r>
+    <r>
+      <rPr>
         <i/>
         <sz val="9"/>
         <color rgb="FF0070C0"/>
@@ -10034,648 +10683,6 @@
       </rPr>
       <t xml:space="preserve"> remote_url</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git tag </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>required option</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(-l </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> --list) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>option</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git remote </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>option</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">prune </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>option</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git add (-i </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> --interactive)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git commit </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>filename filename</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>required option</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>Switch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (replaces checkout)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Move HEAD to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>another branch</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Creates a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>new branch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and moves the HEAD to it</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Creates a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>new tracking branch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and moves the HEAD to it</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">--detached </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>tree-ish</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-m </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>branch_name</t>
-    </r>
-  </si>
-  <si>
-    <t>Switch and merge working trees</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">--discard-changes </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>branch_name</t>
-    </r>
-  </si>
-  <si>
-    <t>Switch to another branch without saving working files</t>
-  </si>
-  <si>
-    <r>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Restore changes from a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>commit directly to current work file</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Create and switch to a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>new branch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> from a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>tag reference</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Create an </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>orphaned commit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> from a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>tree-ish</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> reference</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (detached HEAD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Switch to another branch </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>without saving working files</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Switch and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>merge working trees</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Move HEAD to a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>patch of changes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Move HEAD to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>another</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> branch</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Creates a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>new tracking</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> branch and moves the HEAD to it</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Create and switch to a new branch from a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>tag reference</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Create an </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>orphaned commit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> from a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>tree-ish</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> reference (detached HEAD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Show </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>more information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> of all remotes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>Remove</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (delete) a remote branch</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>Rename</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a remote branch</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Update a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>repo URL</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>Push</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a new remote branch named </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>origin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (convention) to an </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>empty repo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>git branch --set-upstream-to=</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>origin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>branch_name branch_name</t>
-    </r>
-  </si>
-  <si>
-    <t>Start tracking a remote repo</t>
   </si>
 </sst>
 </file>
@@ -11131,12 +11138,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" xr:uid="{ACEF5201-9FF9-AD44-AA4C-60ABCDBD9D8F}"/>
@@ -11457,8 +11464,8 @@
   </sheetPr>
   <dimension ref="A1:F428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A351" zoomScale="181" zoomScaleNormal="181" zoomScaleSheetLayoutView="33" workbookViewId="0">
-      <selection activeCell="F367" sqref="F367"/>
+    <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="181" zoomScaleSheetLayoutView="33" workbookViewId="0">
+      <selection activeCell="C347" sqref="C347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11535,14 +11542,14 @@
       <c r="A8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="27" thickBot="1">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="1" t="s">
@@ -11564,14 +11571,14 @@
       <c r="A12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="27" thickBot="1">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="54"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="1" t="s">
@@ -11925,10 +11932,10 @@
     </row>
     <row r="46" spans="1:6" ht="20" thickBot="1">
       <c r="A46" s="32"/>
-      <c r="C46" s="55" t="s">
+      <c r="C46" s="57" t="s">
         <v>607</v>
       </c>
-      <c r="D46" s="56"/>
+      <c r="D46" s="58"/>
       <c r="E46" s="36"/>
       <c r="F46" s="42"/>
     </row>
@@ -12124,14 +12131,14 @@
       <c r="F69" s="48"/>
     </row>
     <row r="70" spans="1:6" ht="27" thickBot="1">
-      <c r="A70" s="53" t="s">
+      <c r="A70" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="54"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="56"/>
     </row>
     <row r="71" spans="1:6">
       <c r="C71" s="1" t="s">
@@ -12257,14 +12264,14 @@
       <c r="A86" s="20"/>
     </row>
     <row r="87" spans="1:6" ht="27" thickBot="1">
-      <c r="A87" s="53" t="s">
+      <c r="A87" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="53"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="53"/>
-      <c r="E87" s="53"/>
-      <c r="F87" s="54"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="56"/>
     </row>
     <row r="88" spans="1:6">
       <c r="C88" s="1" t="s">
@@ -12339,14 +12346,14 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="27" thickBot="1">
-      <c r="A98" s="53" t="s">
+      <c r="A98" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B98" s="53"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="53"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="53"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="55"/>
     </row>
     <row r="99" spans="1:6">
       <c r="C99" s="1" t="s">
@@ -12576,7 +12583,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="C124" s="13" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D124" s="13" t="s">
         <v>5</v>
@@ -12676,14 +12683,14 @@
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:6" ht="27" thickBot="1">
-      <c r="A132" s="53" t="s">
+      <c r="A132" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B132" s="53"/>
-      <c r="C132" s="53"/>
-      <c r="D132" s="53"/>
-      <c r="E132" s="53"/>
-      <c r="F132" s="54"/>
+      <c r="B132" s="55"/>
+      <c r="C132" s="55"/>
+      <c r="D132" s="55"/>
+      <c r="E132" s="55"/>
+      <c r="F132" s="56"/>
     </row>
     <row r="133" spans="1:6">
       <c r="C133" s="1" t="s">
@@ -13486,14 +13493,14 @@
       <c r="C195" s="3"/>
     </row>
     <row r="196" spans="1:6" ht="27" thickBot="1">
-      <c r="A196" s="53" t="s">
+      <c r="A196" s="55" t="s">
         <v>420</v>
       </c>
-      <c r="B196" s="53"/>
-      <c r="C196" s="53"/>
-      <c r="D196" s="53"/>
-      <c r="E196" s="53"/>
-      <c r="F196" s="53"/>
+      <c r="B196" s="55"/>
+      <c r="C196" s="55"/>
+      <c r="D196" s="55"/>
+      <c r="E196" s="55"/>
+      <c r="F196" s="55"/>
     </row>
     <row r="197" spans="1:6">
       <c r="C197" s="8" t="s">
@@ -13959,7 +13966,7 @@
     </row>
     <row r="232" spans="1:6">
       <c r="C232" s="24" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D232" s="13" t="s">
         <v>5</v>
@@ -14033,7 +14040,7 @@
         <v>4</v>
       </c>
       <c r="C237" s="23" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D237" s="13" t="s">
         <v>5</v>
@@ -14088,14 +14095,14 @@
       </c>
     </row>
     <row r="242" spans="1:6" ht="27" thickBot="1">
-      <c r="A242" s="53" t="s">
+      <c r="A242" s="55" t="s">
         <v>573</v>
       </c>
-      <c r="B242" s="53"/>
-      <c r="C242" s="53"/>
-      <c r="D242" s="53"/>
-      <c r="E242" s="53"/>
-      <c r="F242" s="54"/>
+      <c r="B242" s="55"/>
+      <c r="C242" s="55"/>
+      <c r="D242" s="55"/>
+      <c r="E242" s="55"/>
+      <c r="F242" s="56"/>
     </row>
     <row r="243" spans="1:6">
       <c r="C243" s="1" t="s">
@@ -14189,7 +14196,7 @@
         <v>4</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F252" s="14" t="s">
         <v>555</v>
@@ -14262,7 +14269,7 @@
         <v>40</v>
       </c>
       <c r="F259" s="15" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -14276,7 +14283,7 @@
         <v>144</v>
       </c>
       <c r="F260" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -14290,7 +14297,7 @@
         <v>173</v>
       </c>
       <c r="F261" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -14304,7 +14311,7 @@
         <v>174</v>
       </c>
       <c r="F262" s="14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -14318,7 +14325,7 @@
         <v>211</v>
       </c>
       <c r="F263" s="14" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -14329,10 +14336,10 @@
         <v>4</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F264" s="14" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -14343,10 +14350,10 @@
         <v>4</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F265" s="14" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -14357,10 +14364,10 @@
         <v>4</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F266" s="14" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -14374,7 +14381,7 @@
         <v>239</v>
       </c>
       <c r="F267" s="14" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -14402,7 +14409,7 @@
         <v>144</v>
       </c>
       <c r="F270" s="14" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -14416,7 +14423,7 @@
         <v>145</v>
       </c>
       <c r="F271" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -14430,7 +14437,7 @@
         <v>146</v>
       </c>
       <c r="F272" s="14" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -14458,7 +14465,7 @@
         <v>550</v>
       </c>
       <c r="F274" s="14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -14472,7 +14479,7 @@
         <v>212</v>
       </c>
       <c r="F275" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -14486,7 +14493,7 @@
         <v>578</v>
       </c>
       <c r="F276" s="14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -14500,7 +14507,7 @@
         <v>239</v>
       </c>
       <c r="F277" s="14" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -14661,14 +14668,14 @@
       </c>
     </row>
     <row r="291" spans="1:6" ht="27" thickBot="1">
-      <c r="A291" s="53" t="s">
+      <c r="A291" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="B291" s="53"/>
-      <c r="C291" s="53"/>
-      <c r="D291" s="53"/>
-      <c r="E291" s="53"/>
-      <c r="F291" s="54"/>
+      <c r="B291" s="55"/>
+      <c r="C291" s="55"/>
+      <c r="D291" s="55"/>
+      <c r="E291" s="55"/>
+      <c r="F291" s="56"/>
     </row>
     <row r="292" spans="1:6">
       <c r="C292" s="1" t="s">
@@ -14877,7 +14884,7 @@
         <v>40</v>
       </c>
       <c r="F310" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -14891,7 +14898,7 @@
         <v>144</v>
       </c>
       <c r="F311" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -14905,7 +14912,7 @@
         <v>173</v>
       </c>
       <c r="F312" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -14919,7 +14926,7 @@
         <v>174</v>
       </c>
       <c r="F313" s="14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -14944,7 +14951,7 @@
         <v>4</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F315" s="14" t="s">
         <v>577</v>
@@ -14958,10 +14965,10 @@
         <v>4</v>
       </c>
       <c r="C316" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="F316" s="14" t="s">
         <v>657</v>
-      </c>
-      <c r="F316" s="14" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -14972,10 +14979,10 @@
         <v>4</v>
       </c>
       <c r="C317" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="F317" s="14" t="s">
         <v>655</v>
-      </c>
-      <c r="F317" s="14" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -15195,18 +15202,18 @@
       </c>
     </row>
     <row r="340" spans="1:6" ht="27" thickBot="1">
-      <c r="A340" s="53" t="s">
+      <c r="A340" s="55" t="s">
         <v>421</v>
       </c>
-      <c r="B340" s="53"/>
-      <c r="C340" s="53"/>
-      <c r="D340" s="53"/>
-      <c r="E340" s="53"/>
-      <c r="F340" s="54"/>
+      <c r="B340" s="55"/>
+      <c r="C340" s="55"/>
+      <c r="D340" s="55"/>
+      <c r="E340" s="55"/>
+      <c r="F340" s="56"/>
     </row>
     <row r="341" spans="1:6">
       <c r="C341" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D341" s="13" t="s">
         <v>5</v>
@@ -15229,7 +15236,7 @@
         <v>114</v>
       </c>
       <c r="F342" s="14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -15243,7 +15250,7 @@
         <v>115</v>
       </c>
       <c r="F343" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -15257,7 +15264,7 @@
         <v>180</v>
       </c>
       <c r="F344" s="14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -15271,7 +15278,7 @@
         <v>179</v>
       </c>
       <c r="F345" s="14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -15281,11 +15288,11 @@
       <c r="B346" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C346" s="2" t="s">
-        <v>643</v>
+      <c r="C346" s="11" t="s">
+        <v>676</v>
       </c>
       <c r="F346" s="14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -15296,7 +15303,7 @@
         <v>4</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D347" s="13" t="s">
         <v>5</v>
@@ -15530,10 +15537,10 @@
     </row>
     <row r="367" spans="1:6" ht="27">
       <c r="C367" s="52" t="s">
+        <v>674</v>
+      </c>
+      <c r="F367" s="41" t="s">
         <v>675</v>
-      </c>
-      <c r="F367" s="41" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -15663,18 +15670,18 @@
       </c>
     </row>
     <row r="383" spans="1:6" ht="27" thickBot="1">
-      <c r="A383" s="53" t="s">
+      <c r="A383" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="B383" s="53"/>
-      <c r="C383" s="53"/>
-      <c r="D383" s="53"/>
-      <c r="E383" s="53"/>
-      <c r="F383" s="54"/>
+      <c r="B383" s="55"/>
+      <c r="C383" s="55"/>
+      <c r="D383" s="55"/>
+      <c r="E383" s="55"/>
+      <c r="F383" s="56"/>
     </row>
     <row r="384" spans="1:6">
       <c r="C384" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>5</v>
@@ -15804,14 +15811,14 @@
       </c>
     </row>
     <row r="404" spans="1:6" ht="27" thickBot="1">
-      <c r="A404" s="53" t="s">
+      <c r="A404" s="55" t="s">
         <v>260</v>
       </c>
-      <c r="B404" s="53"/>
-      <c r="C404" s="53"/>
-      <c r="D404" s="53"/>
-      <c r="E404" s="53"/>
-      <c r="F404" s="54"/>
+      <c r="B404" s="55"/>
+      <c r="C404" s="55"/>
+      <c r="D404" s="55"/>
+      <c r="E404" s="55"/>
+      <c r="F404" s="56"/>
     </row>
     <row r="405" spans="1:6">
       <c r="C405" s="1" t="s">
@@ -16098,6 +16105,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A404:F404"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A383:F383"/>
     <mergeCell ref="A340:F340"/>
@@ -16105,12 +16118,6 @@
     <mergeCell ref="A242:F242"/>
     <mergeCell ref="A87:F87"/>
     <mergeCell ref="A196:F196"/>
-    <mergeCell ref="A404:F404"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="C46:D46"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>

--- a/git-terminal-commands.xlsx
+++ b/git-terminal-commands.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="811">
   <si>
     <t>GIT Keyboard Shortcuts</t>
   </si>
@@ -2395,6 +2395,1000 @@
         <color indexed="9"/>
         <rFont val="Menlo Regular"/>
       </rPr>
+      <t xml:space="preserve">Ls -l </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="1"/>
+        <sz val="9"/>
+        <color indexed="17"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>folder/file_path</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> a file’s permissions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="9"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">hmod </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="1"/>
+        <sz val="9"/>
+        <color indexed="16"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>700</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="1"/>
+        <sz val="9"/>
+        <color indexed="17"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>folder/file_path</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>Change</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> a file’s permissions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="9"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">hmod </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>u=</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="1"/>
+        <sz val="9"/>
+        <color indexed="16"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>rwx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>,g=</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="1"/>
+        <sz val="9"/>
+        <color indexed="16"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>rwx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>,0=</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="1"/>
+        <sz val="9"/>
+        <color indexed="16"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>rwx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="1"/>
+        <sz val="9"/>
+        <color indexed="17"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>folder/file_path</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">mkdir </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="1"/>
+        <sz val="9"/>
+        <color indexed="14"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>folder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>Create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> folder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="12"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>rmdir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="1"/>
+        <sz val="9"/>
+        <color indexed="14"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>folder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>Remove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> folder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="12"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>rm -rf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="1"/>
+        <sz val="9"/>
+        <color indexed="14"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>folder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>Remove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> folder and </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>contents</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">which </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="1"/>
+        <sz val="9"/>
+        <color indexed="14"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>module_name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve">Gives </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>location</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> of </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>module</t>
+    </r>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve">List of previous </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>exicuted commands</t>
+    </r>
+  </si>
+  <si>
+    <t>ifconfig</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve">List </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>network information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> (Mac/Unix includes wireless)</t>
+    </r>
+  </si>
+  <si>
+    <t>iwconfig</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve">List </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>wireless information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> (Windows)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">ping </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="1"/>
+        <sz val="9"/>
+        <color indexed="14"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>website.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>Server activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> readout</t>
+    </r>
+  </si>
+  <si>
+    <t>uname</t>
+  </si>
+  <si>
+    <t>Operating System</t>
+  </si>
+  <si>
+    <t>uname -a</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>Operating System</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> Details</t>
+    </r>
+  </si>
+  <si>
+    <t>blkid</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve">List </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>connected drives</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> (Windows)</t>
+    </r>
+  </si>
+  <si>
+    <t>diskutil list</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve">List </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>all drives</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> (Mac)</t>
+    </r>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve">List current </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>processes</t>
+    </r>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve">Used and available </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>disk space</t>
+    </r>
+  </si>
+  <si>
+    <t>lsusb</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve">List </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>attached USB devices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> (Windows)</t>
+    </r>
+  </si>
+  <si>
+    <t>system_profiler SPUSBDataType</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve">List </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>attached USB devices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> (Mac)</t>
+    </r>
+  </si>
+  <si>
+    <t>lspci</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve">List </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>attached PCI devices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> (Windows)</t>
+    </r>
+  </si>
+  <si>
+    <t>system_profiler SPPCIDataType</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve">List </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>attached PCI devices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> (Mac)</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo lsof -i -n -P | grep TCP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve">List </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>ports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> in use (Mac)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>lsof -i:</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="1"/>
+        <sz val="9"/>
+        <color indexed="14"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>port</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve">List </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>details</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> of a </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>port</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> (Mac)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">kill -9 </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="1"/>
+        <sz val="9"/>
+        <color indexed="14"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>PID</t>
+    </r>
+  </si>
+  <si>
+    <t>Kill or clear a port process (Mac)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">sudo shutdown -h (now </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="1"/>
+        <sz val="9"/>
+        <color indexed="21"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> 10)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>Shutdown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> system</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">sudo shutdown -r (now </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="1"/>
+        <sz val="9"/>
+        <color indexed="21"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> 10)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>Restart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> system</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
       <t xml:space="preserve">touch </t>
     </r>
     <r>
@@ -2548,813 +3542,6 @@
         <rFont val="Arial Narrow"/>
       </rPr>
       <t xml:space="preserve"> file for tracking of empty folder (Windows PowerShell)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">mkdir </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="1"/>
-        <sz val="9"/>
-        <color indexed="14"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>folder</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>Create</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> folder</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="12"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>rmdir</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="1"/>
-        <sz val="9"/>
-        <color indexed="14"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>folder</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>Remove</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>delete</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> folder</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="12"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>rm -rf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="1"/>
-        <sz val="9"/>
-        <color indexed="14"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>folder</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>Remove</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>delete</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> folder and </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>contents</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">which </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="1"/>
-        <sz val="9"/>
-        <color indexed="14"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>module_name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve">Gives </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>location</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> of </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>module</t>
-    </r>
-  </si>
-  <si>
-    <t>history</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve">List of previous </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>exicuted commands</t>
-    </r>
-  </si>
-  <si>
-    <t>ifconfig</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve">List </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>network information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> (Mac/Unix includes wireless)</t>
-    </r>
-  </si>
-  <si>
-    <t>iwconfig</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve">List </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>wireless information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> (Windows)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">ping </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="1"/>
-        <sz val="9"/>
-        <color indexed="14"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>website.com</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>Server activity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> readout</t>
-    </r>
-  </si>
-  <si>
-    <t>uname</t>
-  </si>
-  <si>
-    <t>Operating System</t>
-  </si>
-  <si>
-    <t>uname -a</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>Operating System</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> Details</t>
-    </r>
-  </si>
-  <si>
-    <t>blkid</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve">List </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>connected drives</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> (Windows)</t>
-    </r>
-  </si>
-  <si>
-    <t>diskutil list</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve">List </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>all drives</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> (Mac)</t>
-    </r>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve">List current </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>processes</t>
-    </r>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve">Used and available </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>disk space</t>
-    </r>
-  </si>
-  <si>
-    <t>lsusb</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve">List </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>attached USB devices</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> (Windows)</t>
-    </r>
-  </si>
-  <si>
-    <t>system_profiler SPUSBDataType</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve">List </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>attached USB devices</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> (Mac)</t>
-    </r>
-  </si>
-  <si>
-    <t>lspci</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve">List </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>attached PCI devices</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> (Windows)</t>
-    </r>
-  </si>
-  <si>
-    <t>system_profiler SPPCIDataType</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve">List </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>attached PCI devices</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> (Mac)</t>
-    </r>
-  </si>
-  <si>
-    <t>sudo lsof -i -n -P | grep TCP</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve">List </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>ports</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> in use (Mac)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>lsof -i:</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="1"/>
-        <sz val="9"/>
-        <color indexed="14"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>port</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve">List </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>details</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> of a </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>port</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> (Mac)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">kill -9 </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="1"/>
-        <sz val="9"/>
-        <color indexed="14"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>PID</t>
-    </r>
-  </si>
-  <si>
-    <t>Kill or clear a port process (Mac)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">sudo shutdown -h (now </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="1"/>
-        <sz val="9"/>
-        <color indexed="21"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> 10)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>Shutdown</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> system</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">sudo shutdown -r (now </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="1"/>
-        <sz val="9"/>
-        <color indexed="21"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> 10)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>Restart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Arial Narrow"/>
-      </rPr>
-      <t xml:space="preserve"> system</t>
     </r>
   </si>
   <si>
@@ -16915,7 +17102,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F512"/>
+  <dimension ref="A1:F515"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -18281,614 +18468,614 @@
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" t="s" s="6">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" t="s" s="6">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" t="s" s="6">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" t="s" s="6">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" t="s" s="6">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" t="s" s="6">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" t="s" s="6">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" t="s" s="6">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" t="s" s="6">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" t="s" s="6">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" t="s" s="6">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" t="s" s="6">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" t="s" s="6">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" t="s" s="6">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" t="s" s="6">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" t="s" s="6">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" t="s" s="6">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" t="s" s="6">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" t="s" s="6">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" t="s" s="6">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" t="s" s="6">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" t="s" s="6">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" t="s" s="6">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" t="s" s="6">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" t="s" s="6">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" t="s" s="6">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" t="s" s="6">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" t="s" s="6">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" t="s" s="6">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" t="s" s="6">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" t="s" s="6">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" t="s" s="6">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" t="s" s="6">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" t="s" s="6">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" t="s" s="6">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" t="s" s="6">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" t="s" s="6">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" t="s" s="6">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" t="s" s="6">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" t="s" s="6">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" t="s" s="6">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" t="s" s="6">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" t="s" s="6">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" t="s" s="6">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" t="s" s="6">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" t="s" s="6">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" t="s" s="6">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="139" ht="15" customHeight="1">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" t="s" s="6">
         <v>220</v>
       </c>
-    </row>
-    <row r="139" ht="15" customHeight="1">
-      <c r="A139" s="11"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-    </row>
-    <row r="140" ht="27" customHeight="1">
-      <c r="A140" t="s" s="12">
+      <c r="F139" t="s" s="6">
         <v>221</v>
       </c>
-      <c r="B140" s="13"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="14"/>
+    </row>
+    <row r="140" ht="15" customHeight="1">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" t="s" s="6">
+        <v>222</v>
+      </c>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" t="s" s="6">
+        <v>223</v>
+      </c>
     </row>
     <row r="141" ht="15" customHeight="1">
-      <c r="A141" s="15"/>
-      <c r="B141" s="15"/>
-      <c r="C141" t="s" s="16">
-        <v>222</v>
-      </c>
-      <c r="D141" s="15"/>
-      <c r="E141" s="15"/>
-      <c r="F141" t="s" s="16">
-        <v>223</v>
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" t="s" s="6">
+        <v>224</v>
+      </c>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" t="s" s="6">
+        <v>225</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
-      <c r="A142" s="4"/>
+      <c r="A142" s="11"/>
       <c r="B142" s="4"/>
-      <c r="C142" t="s" s="6">
-        <v>224</v>
-      </c>
+      <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
-      <c r="F142" t="s" s="6">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="143" ht="15" customHeight="1">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" t="s" s="6">
+      <c r="F142" s="4"/>
+    </row>
+    <row r="143" ht="27" customHeight="1">
+      <c r="A143" t="s" s="12">
         <v>226</v>
       </c>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" t="s" s="6">
+      <c r="B143" s="13"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="14"/>
+    </row>
+    <row r="144" ht="15" customHeight="1">
+      <c r="A144" s="15"/>
+      <c r="B144" s="15"/>
+      <c r="C144" t="s" s="16">
         <v>227</v>
       </c>
-    </row>
-    <row r="144" ht="15" customHeight="1">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" t="s" s="6">
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" t="s" s="16">
         <v>228</v>
-      </c>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" t="s" s="6">
-        <v>229</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" t="s" s="6">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" t="s" s="6">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" t="s" s="6">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" t="s" s="6">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" t="s" s="6">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" t="s" s="6">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" t="s" s="6">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" t="s" s="6">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" t="s" s="6">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" t="s" s="6">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
+      <c r="C150" t="s" s="6">
+        <v>239</v>
+      </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-    </row>
-    <row r="151" ht="27" customHeight="1">
-      <c r="A151" t="s" s="12">
+      <c r="F150" t="s" s="6">
         <v>240</v>
       </c>
-      <c r="B151" s="13"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="13"/>
+    </row>
+    <row r="151" ht="15" customHeight="1">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" t="s" s="6">
+        <v>241</v>
+      </c>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" t="s" s="6">
+        <v>242</v>
+      </c>
     </row>
     <row r="152" ht="15" customHeight="1">
-      <c r="A152" s="15"/>
-      <c r="B152" s="15"/>
-      <c r="C152" t="s" s="16">
-        <v>241</v>
-      </c>
-      <c r="D152" s="15"/>
-      <c r="E152" s="15"/>
-      <c r="F152" t="s" s="16">
-        <v>242</v>
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" t="s" s="6">
+        <v>243</v>
+      </c>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" t="s" s="6">
+        <v>244</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
-      <c r="C153" t="s" s="6">
-        <v>243</v>
-      </c>
+      <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
-      <c r="F153" t="s" s="6">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="154" ht="15" customHeight="1">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
-      <c r="C154" t="s" s="6">
+      <c r="F153" s="4"/>
+    </row>
+    <row r="154" ht="27" customHeight="1">
+      <c r="A154" t="s" s="12">
         <v>245</v>
       </c>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" t="s" s="6">
+      <c r="B154" s="13"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+    </row>
+    <row r="155" ht="15" customHeight="1">
+      <c r="A155" s="15"/>
+      <c r="B155" s="15"/>
+      <c r="C155" t="s" s="16">
         <v>246</v>
       </c>
-    </row>
-    <row r="155" ht="15" customHeight="1">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
-      <c r="C155" t="s" s="6">
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" t="s" s="16">
         <v>247</v>
-      </c>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
-      <c r="F155" t="s" s="6">
-        <v>248</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" t="s" s="6">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" t="s" s="6">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" t="s" s="6">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" t="s" s="6">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" t="s" s="6">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" t="s" s="6">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" t="s" s="6">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" t="s" s="6">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" t="s" s="6">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" t="s" s="6">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" t="s" s="6">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" t="s" s="6">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" t="s" s="6">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" t="s" s="6">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
-      <c r="C163" t="s" s="62">
-        <v>263</v>
+      <c r="C163" t="s" s="6">
+        <v>262</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" t="s" s="6">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
-      <c r="C164" t="s" s="62">
-        <v>265</v>
+      <c r="C164" t="s" s="6">
+        <v>264</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" t="s" s="6">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" t="s" s="6">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" t="s" s="6">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
-      <c r="C166" t="s" s="6">
-        <v>269</v>
+      <c r="C166" t="s" s="62">
+        <v>268</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" t="s" s="6">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
-      <c r="C167" t="s" s="6">
-        <v>169</v>
+      <c r="C167" t="s" s="62">
+        <v>270</v>
       </c>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
@@ -18900,133 +19087,121 @@
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" t="s" s="6">
-        <v>171</v>
+        <v>272</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" t="s" s="6">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" t="s" s="6">
-        <v>173</v>
+        <v>274</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" t="s" s="6">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
+      <c r="C170" t="s" s="6">
+        <v>220</v>
+      </c>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
-      <c r="F170" s="4"/>
+      <c r="F170" t="s" s="6">
+        <v>276</v>
+      </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
-      <c r="C171" t="s" s="31">
-        <v>274</v>
-      </c>
-      <c r="D171" t="s" s="31">
-        <v>2</v>
-      </c>
-      <c r="E171" t="s" s="31">
-        <v>275</v>
-      </c>
-      <c r="F171" t="s" s="31">
-        <v>276</v>
+      <c r="C171" t="s" s="6">
+        <v>222</v>
+      </c>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" t="s" s="6">
+        <v>277</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
-      <c r="A172" t="s" s="6">
-        <v>275</v>
-      </c>
-      <c r="B172" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C172" t="s" s="30">
-        <v>277</v>
-      </c>
-      <c r="D172" s="27"/>
-      <c r="E172" s="27"/>
-      <c r="F172" t="s" s="30">
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+      <c r="C172" t="s" s="6">
+        <v>224</v>
+      </c>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" t="s" s="6">
         <v>278</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
-      <c r="A173" t="s" s="6">
-        <v>275</v>
-      </c>
-      <c r="B173" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C173" t="s" s="6">
-        <v>279</v>
-      </c>
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
-      <c r="F173" t="s" s="6">
-        <v>278</v>
-      </c>
+      <c r="F173" s="4"/>
     </row>
     <row r="174" ht="15" customHeight="1">
-      <c r="A174" t="s" s="6">
-        <v>275</v>
-      </c>
-      <c r="B174" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C174" t="s" s="6">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" t="s" s="31">
+        <v>279</v>
+      </c>
+      <c r="D174" t="s" s="31">
+        <v>2</v>
+      </c>
+      <c r="E174" t="s" s="31">
         <v>280</v>
       </c>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
-      <c r="F174" t="s" s="6">
-        <v>278</v>
+      <c r="F174" t="s" s="31">
+        <v>281</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="s" s="6">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B175" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C175" t="s" s="6">
-        <v>281</v>
-      </c>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" t="s" s="6">
+      <c r="C175" t="s" s="30">
         <v>282</v>
+      </c>
+      <c r="D175" s="27"/>
+      <c r="E175" s="27"/>
+      <c r="F175" t="s" s="30">
+        <v>283</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="s" s="6">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B176" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C176" t="s" s="6">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" t="s" s="6">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="s" s="6">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B177" t="s" s="6">
         <v>37</v>
@@ -19037,170 +19212,170 @@
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" t="s" s="6">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="s" s="6">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B178" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C178" t="s" s="6">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" t="s" s="6">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="179" ht="15" customHeight="1">
+      <c r="A179" t="s" s="6">
+        <v>280</v>
+      </c>
+      <c r="B179" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C179" t="s" s="6">
         <v>288</v>
       </c>
-    </row>
-    <row r="179" ht="15" customHeight="1">
-      <c r="A179" s="4"/>
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
-      <c r="F179" s="4"/>
+      <c r="F179" t="s" s="6">
+        <v>289</v>
+      </c>
     </row>
     <row r="180" ht="15" customHeight="1">
-      <c r="A180" s="4"/>
-      <c r="B180" s="4"/>
-      <c r="C180" t="s" s="31">
-        <v>289</v>
-      </c>
-      <c r="D180" t="s" s="31">
-        <v>2</v>
-      </c>
-      <c r="E180" t="s" s="31">
+      <c r="A180" t="s" s="6">
+        <v>280</v>
+      </c>
+      <c r="B180" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C180" t="s" s="6">
         <v>290</v>
       </c>
-      <c r="F180" t="s" s="31">
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" t="s" s="6">
         <v>291</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="s" s="6">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B181" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C181" t="s" s="30">
+      <c r="C181" t="s" s="6">
         <v>292</v>
       </c>
-      <c r="D181" s="27"/>
-      <c r="E181" s="27"/>
-      <c r="F181" t="s" s="30">
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" t="s" s="6">
         <v>293</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
-      <c r="A182" t="s" s="6">
-        <v>290</v>
-      </c>
-      <c r="B182" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C182" t="s" s="6">
-        <v>294</v>
-      </c>
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
-      <c r="F182" t="s" s="6">
+      <c r="F182" s="4"/>
+    </row>
+    <row r="183" ht="15" customHeight="1">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
+      <c r="C183" t="s" s="31">
+        <v>294</v>
+      </c>
+      <c r="D183" t="s" s="31">
+        <v>2</v>
+      </c>
+      <c r="E183" t="s" s="31">
         <v>295</v>
       </c>
-    </row>
-    <row r="183" ht="15" customHeight="1">
-      <c r="A183" t="s" s="6">
-        <v>290</v>
-      </c>
-      <c r="B183" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C183" t="s" s="6">
+      <c r="F183" t="s" s="31">
         <v>296</v>
-      </c>
-      <c r="D183" s="4"/>
-      <c r="E183" s="4"/>
-      <c r="F183" t="s" s="6">
-        <v>297</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="s" s="6">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B184" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C184" t="s" s="6">
+      <c r="C184" t="s" s="30">
+        <v>297</v>
+      </c>
+      <c r="D184" s="27"/>
+      <c r="E184" s="27"/>
+      <c r="F184" t="s" s="30">
         <v>298</v>
-      </c>
-      <c r="D184" s="4"/>
-      <c r="E184" s="4"/>
-      <c r="F184" t="s" s="6">
-        <v>299</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="s" s="6">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B185" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C185" t="s" s="6">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" t="s" s="6">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="s" s="6">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B186" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C186" t="s" s="6">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" t="s" s="6">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="s" s="6">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B187" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C187" t="s" s="6">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" t="s" s="6">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="s" s="6">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B188" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C188" t="s" s="6">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
@@ -19209,129 +19384,147 @@
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
-      <c r="A189" s="4"/>
-      <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
+      <c r="A189" t="s" s="6">
+        <v>295</v>
+      </c>
+      <c r="B189" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C189" t="s" s="6">
+        <v>307</v>
+      </c>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
-      <c r="F189" s="4"/>
-    </row>
-    <row r="190" ht="18.4" customHeight="1">
-      <c r="A190" s="4"/>
-      <c r="B190" s="4"/>
-      <c r="C190" t="s" s="22">
-        <v>307</v>
-      </c>
-      <c r="D190" s="14"/>
-      <c r="E190" s="14"/>
-      <c r="F190" s="14"/>
+      <c r="F189" t="s" s="6">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="190" ht="15" customHeight="1">
+      <c r="A190" t="s" s="6">
+        <v>295</v>
+      </c>
+      <c r="B190" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C190" t="s" s="6">
+        <v>309</v>
+      </c>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+      <c r="F190" t="s" s="6">
+        <v>310</v>
+      </c>
     </row>
     <row r="191" ht="15" customHeight="1">
-      <c r="A191" s="4"/>
-      <c r="B191" s="4"/>
-      <c r="C191" s="23"/>
-      <c r="D191" s="24"/>
-      <c r="E191" s="24"/>
-      <c r="F191" t="s" s="25">
-        <v>308</v>
+      <c r="A191" t="s" s="6">
+        <v>295</v>
+      </c>
+      <c r="B191" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C191" t="s" s="6">
+        <v>290</v>
+      </c>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+      <c r="F191" t="s" s="6">
+        <v>311</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
-      <c r="C192" t="s" s="30">
-        <v>309</v>
-      </c>
-      <c r="D192" s="27"/>
-      <c r="E192" s="27"/>
-      <c r="F192" t="s" s="30">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="193" ht="15" customHeight="1">
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
+    </row>
+    <row r="193" ht="18.4" customHeight="1">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
-      <c r="C193" t="s" s="6">
-        <v>310</v>
-      </c>
-      <c r="D193" s="4"/>
-      <c r="E193" s="4"/>
-      <c r="F193" t="s" s="6">
-        <v>311</v>
-      </c>
+      <c r="C193" t="s" s="22">
+        <v>312</v>
+      </c>
+      <c r="D193" s="14"/>
+      <c r="E193" s="14"/>
+      <c r="F193" s="14"/>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
-      <c r="E194" t="s" s="63">
-        <v>312</v>
-      </c>
-      <c r="F194" s="4"/>
+      <c r="C194" s="23"/>
+      <c r="D194" s="24"/>
+      <c r="E194" s="24"/>
+      <c r="F194" t="s" s="25">
+        <v>313</v>
+      </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
-      <c r="C195" t="s" s="6">
-        <v>313</v>
-      </c>
-      <c r="D195" s="4"/>
-      <c r="E195" s="4"/>
-      <c r="F195" t="s" s="6">
-        <v>305</v>
+      <c r="C195" t="s" s="30">
+        <v>314</v>
+      </c>
+      <c r="D195" s="27"/>
+      <c r="E195" s="27"/>
+      <c r="F195" t="s" s="30">
+        <v>287</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
-      <c r="C196" s="4"/>
+      <c r="C196" t="s" s="6">
+        <v>315</v>
+      </c>
       <c r="D196" s="4"/>
-      <c r="E196" t="s" s="63">
-        <v>4</v>
-      </c>
-      <c r="F196" s="4"/>
+      <c r="E196" s="4"/>
+      <c r="F196" t="s" s="6">
+        <v>316</v>
+      </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
-      <c r="C197" t="s" s="6">
-        <v>314</v>
-      </c>
+      <c r="C197" s="4"/>
       <c r="D197" s="4"/>
-      <c r="E197" s="4"/>
-      <c r="F197" t="s" s="6">
-        <v>303</v>
-      </c>
+      <c r="E197" t="s" s="63">
+        <v>317</v>
+      </c>
+      <c r="F197" s="4"/>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
-      <c r="C198" s="4"/>
+      <c r="C198" t="s" s="6">
+        <v>318</v>
+      </c>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
-      <c r="F198" s="4"/>
-    </row>
-    <row r="199" ht="27" customHeight="1">
-      <c r="A199" t="s" s="12">
-        <v>315</v>
-      </c>
-      <c r="B199" s="13"/>
-      <c r="C199" s="13"/>
-      <c r="D199" s="13"/>
-      <c r="E199" s="13"/>
-      <c r="F199" s="14"/>
+      <c r="F198" t="s" s="6">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="199" ht="15" customHeight="1">
+      <c r="A199" s="4"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="E199" t="s" s="63">
+        <v>4</v>
+      </c>
+      <c r="F199" s="4"/>
     </row>
     <row r="200" ht="15" customHeight="1">
-      <c r="A200" s="15"/>
-      <c r="B200" s="15"/>
-      <c r="C200" t="s" s="16">
-        <v>316</v>
-      </c>
-      <c r="D200" s="15"/>
-      <c r="E200" s="15"/>
-      <c r="F200" t="s" s="16">
-        <v>317</v>
+      <c r="A200" s="4"/>
+      <c r="B200" s="4"/>
+      <c r="C200" t="s" s="6">
+        <v>319</v>
+      </c>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
+      <c r="F200" t="s" s="6">
+        <v>308</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
@@ -19342,115 +19535,103 @@
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
     </row>
-    <row r="202" ht="15" customHeight="1">
-      <c r="A202" s="4"/>
-      <c r="B202" s="4"/>
-      <c r="C202" t="s" s="31">
-        <v>318</v>
-      </c>
-      <c r="D202" t="s" s="31">
-        <v>2</v>
-      </c>
-      <c r="E202" t="s" s="31">
-        <v>319</v>
-      </c>
-      <c r="F202" t="s" s="31">
+    <row r="202" ht="27" customHeight="1">
+      <c r="A202" t="s" s="12">
         <v>320</v>
       </c>
+      <c r="B202" s="13"/>
+      <c r="C202" s="13"/>
+      <c r="D202" s="13"/>
+      <c r="E202" s="13"/>
+      <c r="F202" s="14"/>
     </row>
     <row r="203" ht="15" customHeight="1">
-      <c r="A203" t="s" s="6">
-        <v>319</v>
-      </c>
-      <c r="B203" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C203" t="s" s="30">
-        <v>285</v>
-      </c>
-      <c r="D203" s="27"/>
-      <c r="E203" s="27"/>
-      <c r="F203" t="s" s="30">
+      <c r="A203" s="15"/>
+      <c r="B203" s="15"/>
+      <c r="C203" t="s" s="16">
         <v>321</v>
       </c>
+      <c r="D203" s="15"/>
+      <c r="E203" s="15"/>
+      <c r="F203" t="s" s="16">
+        <v>322</v>
+      </c>
     </row>
     <row r="204" ht="15" customHeight="1">
-      <c r="A204" t="s" s="6">
-        <v>319</v>
-      </c>
-      <c r="B204" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C204" t="s" s="6">
-        <v>280</v>
-      </c>
+      <c r="A204" s="4"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
-      <c r="F204" t="s" s="6">
-        <v>322</v>
-      </c>
+      <c r="F204" s="4"/>
     </row>
     <row r="205" ht="15" customHeight="1">
-      <c r="A205" t="s" s="6">
-        <v>319</v>
-      </c>
-      <c r="B205" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C205" t="s" s="6">
+      <c r="A205" s="4"/>
+      <c r="B205" s="4"/>
+      <c r="C205" t="s" s="31">
         <v>323</v>
       </c>
-      <c r="D205" s="4"/>
-      <c r="E205" s="4"/>
-      <c r="F205" t="s" s="6">
+      <c r="D205" t="s" s="31">
+        <v>2</v>
+      </c>
+      <c r="E205" t="s" s="31">
         <v>324</v>
+      </c>
+      <c r="F205" t="s" s="31">
+        <v>325</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="s" s="6">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B206" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C206" t="s" s="6">
-        <v>325</v>
-      </c>
-      <c r="D206" s="4"/>
-      <c r="E206" s="4"/>
-      <c r="F206" t="s" s="6">
+      <c r="C206" t="s" s="30">
+        <v>290</v>
+      </c>
+      <c r="D206" s="27"/>
+      <c r="E206" s="27"/>
+      <c r="F206" t="s" s="30">
         <v>326</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="s" s="6">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B207" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C207" t="s" s="6">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" t="s" s="6">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="208" ht="15" customHeight="1">
+      <c r="A208" t="s" s="6">
+        <v>324</v>
+      </c>
+      <c r="B208" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C208" t="s" s="6">
         <v>328</v>
-      </c>
-    </row>
-    <row r="208" ht="15" customHeight="1">
-      <c r="A208" s="4"/>
-      <c r="B208" s="4"/>
-      <c r="C208" t="s" s="32">
-        <v>329</v>
       </c>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
-      <c r="F208" s="4"/>
+      <c r="F208" t="s" s="6">
+        <v>329</v>
+      </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="s" s="6">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B209" t="s" s="6">
         <v>37</v>
@@ -19466,7 +19647,7 @@
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="s" s="6">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B210" t="s" s="6">
         <v>37</v>
@@ -19481,226 +19662,220 @@
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
-      <c r="A211" t="s" s="6">
-        <v>319</v>
-      </c>
-      <c r="B211" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C211" t="s" s="6">
+      <c r="A211" s="4"/>
+      <c r="B211" s="4"/>
+      <c r="C211" t="s" s="32">
         <v>334</v>
       </c>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
-      <c r="F211" t="s" s="6">
-        <v>335</v>
-      </c>
+      <c r="F211" s="4"/>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="s" s="6">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B212" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C212" t="s" s="6">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
       <c r="F212" t="s" s="6">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="s" s="6">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B213" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C213" t="s" s="6">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
       <c r="F213" t="s" s="6">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="s" s="6">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B214" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C214" t="s" s="6">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
       <c r="F214" t="s" s="6">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="s" s="6">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B215" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C215" t="s" s="6">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
       <c r="F215" t="s" s="6">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="s" s="6">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B216" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C216" t="s" s="6">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
       <c r="F216" t="s" s="6">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="s" s="6">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B217" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C217" t="s" s="6">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
       <c r="F217" t="s" s="6">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="s" s="6">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B218" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C218" t="s" s="6">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
       <c r="F218" t="s" s="6">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="s" s="6">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B219" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C219" t="s" s="32">
-        <v>350</v>
+      <c r="C219" t="s" s="6">
+        <v>349</v>
       </c>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
       <c r="F219" t="s" s="6">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="s" s="6">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B220" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C220" t="s" s="32">
-        <v>352</v>
+      <c r="C220" t="s" s="6">
+        <v>351</v>
       </c>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
       <c r="F220" t="s" s="6">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="221" ht="15" customHeight="1">
+      <c r="A221" t="s" s="6">
+        <v>324</v>
+      </c>
+      <c r="B221" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C221" t="s" s="6">
         <v>353</v>
       </c>
-    </row>
-    <row r="221" ht="15" customHeight="1">
-      <c r="A221" s="4"/>
-      <c r="B221" s="4"/>
-      <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
-      <c r="F221" s="4"/>
+      <c r="F221" t="s" s="6">
+        <v>354</v>
+      </c>
     </row>
     <row r="222" ht="15" customHeight="1">
-      <c r="A222" s="4"/>
-      <c r="B222" s="4"/>
-      <c r="C222" t="s" s="6">
-        <v>354</v>
-      </c>
-      <c r="D222" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="E222" t="s" s="6">
-        <v>29</v>
-      </c>
+      <c r="A222" t="s" s="6">
+        <v>324</v>
+      </c>
+      <c r="B222" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C222" t="s" s="32">
+        <v>355</v>
+      </c>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4"/>
       <c r="F222" t="s" s="6">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
-      <c r="A223" s="4"/>
-      <c r="B223" s="4"/>
-      <c r="C223" t="s" s="6">
-        <v>356</v>
-      </c>
-      <c r="D223" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="E223" t="s" s="6">
-        <v>29</v>
-      </c>
+      <c r="A223" t="s" s="6">
+        <v>324</v>
+      </c>
+      <c r="B223" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C223" t="s" s="32">
+        <v>357</v>
+      </c>
+      <c r="D223" s="4"/>
+      <c r="E223" s="4"/>
       <c r="F223" t="s" s="6">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
-      <c r="C224" t="s" s="6">
-        <v>358</v>
-      </c>
-      <c r="D224" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="E224" t="s" s="6">
-        <v>359</v>
-      </c>
-      <c r="F224" t="s" s="6">
-        <v>360</v>
-      </c>
+      <c r="C224" s="4"/>
+      <c r="D224" s="4"/>
+      <c r="E224" s="4"/>
+      <c r="F224" s="4"/>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" t="s" s="6">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D225" t="s" s="6">
         <v>2</v>
@@ -19709,87 +19884,87 @@
         <v>29</v>
       </c>
       <c r="F225" t="s" s="6">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" t="s" s="6">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D226" t="s" s="6">
         <v>2</v>
       </c>
       <c r="E226" t="s" s="6">
-        <v>364</v>
+        <v>29</v>
       </c>
       <c r="F226" t="s" s="6">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
-      <c r="C227" t="s" s="31">
+      <c r="C227" t="s" s="6">
+        <v>363</v>
+      </c>
+      <c r="D227" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="E227" t="s" s="6">
+        <v>364</v>
+      </c>
+      <c r="F227" t="s" s="6">
         <v>365</v>
       </c>
-      <c r="D227" t="s" s="31">
+    </row>
+    <row r="228" ht="15" customHeight="1">
+      <c r="A228" s="4"/>
+      <c r="B228" s="4"/>
+      <c r="C228" t="s" s="6">
+        <v>366</v>
+      </c>
+      <c r="D228" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="E227" t="s" s="31">
-        <v>366</v>
-      </c>
-      <c r="F227" t="s" s="31">
+      <c r="E228" t="s" s="6">
+        <v>29</v>
+      </c>
+      <c r="F228" t="s" s="6">
         <v>367</v>
       </c>
     </row>
-    <row r="228" ht="15" customHeight="1">
-      <c r="A228" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="B228" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C228" t="s" s="37">
+    <row r="229" ht="15" customHeight="1">
+      <c r="A229" s="4"/>
+      <c r="B229" s="4"/>
+      <c r="C229" t="s" s="6">
         <v>368</v>
       </c>
-      <c r="D228" s="27"/>
-      <c r="E228" s="27"/>
-      <c r="F228" t="s" s="30">
+      <c r="D229" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="E229" t="s" s="6">
         <v>369</v>
       </c>
-    </row>
-    <row r="229" ht="15" customHeight="1">
-      <c r="A229" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="B229" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C229" t="s" s="6">
+      <c r="F229" t="s" s="6">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="230" ht="15" customHeight="1">
+      <c r="A230" s="4"/>
+      <c r="B230" s="4"/>
+      <c r="C230" t="s" s="31">
         <v>370</v>
       </c>
-      <c r="D229" s="4"/>
-      <c r="E229" s="4"/>
-      <c r="F229" t="s" s="6">
+      <c r="D230" t="s" s="31">
+        <v>2</v>
+      </c>
+      <c r="E230" t="s" s="31">
         <v>371</v>
       </c>
-    </row>
-    <row r="230" ht="15" customHeight="1">
-      <c r="A230" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="B230" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C230" t="s" s="6">
+      <c r="F230" t="s" s="31">
         <v>372</v>
-      </c>
-      <c r="D230" s="4"/>
-      <c r="E230" s="4"/>
-      <c r="F230" t="s" s="6">
-        <v>373</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
@@ -19799,13 +19974,13 @@
       <c r="B231" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C231" t="s" s="32">
+      <c r="C231" t="s" s="37">
+        <v>373</v>
+      </c>
+      <c r="D231" s="27"/>
+      <c r="E231" s="27"/>
+      <c r="F231" t="s" s="30">
         <v>374</v>
-      </c>
-      <c r="D231" s="4"/>
-      <c r="E231" s="4"/>
-      <c r="F231" t="s" s="6">
-        <v>375</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
@@ -19816,12 +19991,12 @@
         <v>37</v>
       </c>
       <c r="C232" t="s" s="6">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
       <c r="F232" t="s" s="6">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
@@ -19832,12 +20007,12 @@
         <v>37</v>
       </c>
       <c r="C233" t="s" s="6">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
       <c r="F233" t="s" s="6">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
@@ -19847,13 +20022,13 @@
       <c r="B234" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C234" t="s" s="6">
-        <v>380</v>
+      <c r="C234" t="s" s="32">
+        <v>379</v>
       </c>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
       <c r="F234" t="s" s="6">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
@@ -19863,13 +20038,13 @@
       <c r="B235" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C235" t="s" s="62">
-        <v>382</v>
+      <c r="C235" t="s" s="6">
+        <v>381</v>
       </c>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
       <c r="F235" t="s" s="6">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
@@ -19880,12 +20055,12 @@
         <v>37</v>
       </c>
       <c r="C236" t="s" s="6">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
       <c r="F236" t="s" s="6">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
@@ -19896,12 +20071,12 @@
         <v>37</v>
       </c>
       <c r="C237" t="s" s="6">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
       <c r="F237" t="s" s="6">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
@@ -19911,13 +20086,13 @@
       <c r="B238" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C238" t="s" s="6">
-        <v>388</v>
+      <c r="C238" t="s" s="62">
+        <v>387</v>
       </c>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
       <c r="F238" t="s" s="6">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
@@ -19928,12 +20103,12 @@
         <v>37</v>
       </c>
       <c r="C239" t="s" s="6">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
       <c r="F239" t="s" s="6">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
@@ -19944,12 +20119,12 @@
         <v>37</v>
       </c>
       <c r="C240" t="s" s="6">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
       <c r="F240" t="s" s="6">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
@@ -19960,12 +20135,12 @@
         <v>37</v>
       </c>
       <c r="C241" t="s" s="6">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
       <c r="F241" t="s" s="6">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
@@ -19976,12 +20151,12 @@
         <v>37</v>
       </c>
       <c r="C242" t="s" s="6">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
       <c r="F242" t="s" s="6">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
@@ -19991,13 +20166,13 @@
       <c r="B243" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C243" t="s" s="32">
-        <v>398</v>
+      <c r="C243" t="s" s="6">
+        <v>397</v>
       </c>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
       <c r="F243" t="s" s="6">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
@@ -20007,13 +20182,13 @@
       <c r="B244" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C244" t="s" s="32">
-        <v>400</v>
+      <c r="C244" t="s" s="6">
+        <v>399</v>
       </c>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
       <c r="F244" t="s" s="6">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
@@ -20024,138 +20199,146 @@
         <v>37</v>
       </c>
       <c r="C245" t="s" s="6">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
       <c r="F245" t="s" s="6">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="246" ht="15" customHeight="1">
+      <c r="A246" t="s" s="6">
+        <v>44</v>
+      </c>
+      <c r="B246" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C246" t="s" s="32">
         <v>403</v>
       </c>
-    </row>
-    <row r="246" ht="15" customHeight="1">
-      <c r="A246" s="4"/>
-      <c r="B246" s="4"/>
-      <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
-      <c r="F246" s="4"/>
+      <c r="F246" t="s" s="6">
+        <v>404</v>
+      </c>
     </row>
     <row r="247" ht="15" customHeight="1">
-      <c r="A247" s="4"/>
-      <c r="B247" s="4"/>
-      <c r="C247" t="s" s="31">
-        <v>404</v>
-      </c>
-      <c r="D247" t="s" s="31">
-        <v>2</v>
-      </c>
-      <c r="E247" t="s" s="31">
+      <c r="A247" t="s" s="6">
+        <v>44</v>
+      </c>
+      <c r="B247" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C247" t="s" s="32">
         <v>405</v>
       </c>
-      <c r="F247" t="s" s="31">
+      <c r="D247" s="4"/>
+      <c r="E247" s="4"/>
+      <c r="F247" t="s" s="6">
         <v>406</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="s" s="6">
-        <v>405</v>
+        <v>44</v>
       </c>
       <c r="B248" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C248" t="s" s="30">
+      <c r="C248" t="s" s="6">
         <v>407</v>
       </c>
-      <c r="D248" s="27"/>
-      <c r="E248" s="27"/>
-      <c r="F248" t="s" s="30">
+      <c r="D248" s="4"/>
+      <c r="E248" s="4"/>
+      <c r="F248" t="s" s="6">
         <v>408</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
-      <c r="A249" t="s" s="6">
-        <v>405</v>
-      </c>
-      <c r="B249" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C249" t="s" s="6">
-        <v>409</v>
-      </c>
+      <c r="A249" s="4"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
-      <c r="F249" t="s" s="6">
+      <c r="F249" s="4"/>
+    </row>
+    <row r="250" ht="15" customHeight="1">
+      <c r="A250" s="4"/>
+      <c r="B250" s="4"/>
+      <c r="C250" t="s" s="31">
+        <v>409</v>
+      </c>
+      <c r="D250" t="s" s="31">
+        <v>2</v>
+      </c>
+      <c r="E250" t="s" s="31">
         <v>410</v>
       </c>
-    </row>
-    <row r="250" ht="15" customHeight="1">
-      <c r="A250" t="s" s="6">
-        <v>405</v>
-      </c>
-      <c r="B250" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C250" t="s" s="6">
+      <c r="F250" t="s" s="31">
         <v>411</v>
-      </c>
-      <c r="D250" s="4"/>
-      <c r="E250" s="4"/>
-      <c r="F250" t="s" s="6">
-        <v>412</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="s" s="6">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B251" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C251" t="s" s="6">
+      <c r="C251" t="s" s="30">
+        <v>412</v>
+      </c>
+      <c r="D251" s="27"/>
+      <c r="E251" s="27"/>
+      <c r="F251" t="s" s="30">
         <v>413</v>
       </c>
-      <c r="D251" s="4"/>
-      <c r="E251" s="4"/>
-      <c r="F251" t="s" s="6">
+    </row>
+    <row r="252" ht="15" customHeight="1">
+      <c r="A252" t="s" s="6">
+        <v>410</v>
+      </c>
+      <c r="B252" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C252" t="s" s="6">
         <v>414</v>
       </c>
-    </row>
-    <row r="252" ht="15" customHeight="1">
-      <c r="A252" s="4"/>
-      <c r="B252" s="4"/>
-      <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
-      <c r="F252" s="4"/>
+      <c r="F252" t="s" s="6">
+        <v>415</v>
+      </c>
     </row>
     <row r="253" ht="15" customHeight="1">
-      <c r="A253" s="4"/>
-      <c r="B253" s="4"/>
+      <c r="A253" t="s" s="6">
+        <v>410</v>
+      </c>
+      <c r="B253" t="s" s="6">
+        <v>37</v>
+      </c>
       <c r="C253" t="s" s="6">
-        <v>415</v>
-      </c>
-      <c r="D253" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="E253" t="s" s="6">
-        <v>275</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="D253" s="4"/>
+      <c r="E253" s="4"/>
       <c r="F253" t="s" s="6">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
-      <c r="A254" s="4"/>
-      <c r="B254" s="4"/>
+      <c r="A254" t="s" s="6">
+        <v>410</v>
+      </c>
+      <c r="B254" t="s" s="6">
+        <v>37</v>
+      </c>
       <c r="C254" t="s" s="6">
-        <v>417</v>
-      </c>
-      <c r="D254" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="E254" t="s" s="6">
         <v>418</v>
       </c>
+      <c r="D254" s="4"/>
+      <c r="E254" s="4"/>
       <c r="F254" t="s" s="6">
         <v>419</v>
       </c>
@@ -20163,65 +20346,57 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
-      <c r="C255" t="s" s="6">
+      <c r="C255" s="4"/>
+      <c r="D255" s="4"/>
+      <c r="E255" s="4"/>
+      <c r="F255" s="4"/>
+    </row>
+    <row r="256" ht="15" customHeight="1">
+      <c r="A256" s="4"/>
+      <c r="B256" s="4"/>
+      <c r="C256" t="s" s="6">
         <v>420</v>
       </c>
-      <c r="D255" t="s" s="6">
+      <c r="D256" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="E255" t="s" s="6">
+      <c r="E256" t="s" s="6">
+        <v>280</v>
+      </c>
+      <c r="F256" t="s" s="6">
         <v>421</v>
       </c>
-      <c r="F255" t="s" s="6">
+    </row>
+    <row r="257" ht="15" customHeight="1">
+      <c r="A257" s="4"/>
+      <c r="B257" s="4"/>
+      <c r="C257" t="s" s="6">
         <v>422</v>
       </c>
-    </row>
-    <row r="256" ht="15" customHeight="1">
-      <c r="A256" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="B256" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C256" t="s" s="8">
+      <c r="D257" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="E257" t="s" s="6">
         <v>423</v>
       </c>
-      <c r="D256" s="4"/>
-      <c r="E256" s="4"/>
-      <c r="F256" t="s" s="6">
+      <c r="F257" t="s" s="6">
         <v>424</v>
       </c>
     </row>
-    <row r="257" ht="15" customHeight="1">
-      <c r="A257" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="B257" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C257" t="s" s="8">
+    <row r="258" ht="15" customHeight="1">
+      <c r="A258" s="4"/>
+      <c r="B258" s="4"/>
+      <c r="C258" t="s" s="6">
         <v>425</v>
       </c>
-      <c r="D257" s="4"/>
-      <c r="E257" s="4"/>
-      <c r="F257" t="s" s="6">
+      <c r="D258" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="E258" t="s" s="6">
         <v>426</v>
       </c>
-    </row>
-    <row r="258" ht="15" customHeight="1">
-      <c r="A258" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="B258" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C258" t="s" s="32">
+      <c r="F258" t="s" s="6">
         <v>427</v>
-      </c>
-      <c r="D258" s="4"/>
-      <c r="E258" s="4"/>
-      <c r="F258" t="s" s="6">
-        <v>428</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
@@ -20231,13 +20406,13 @@
       <c r="B259" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C259" t="s" s="32">
-        <v>429</v>
+      <c r="C259" t="s" s="8">
+        <v>428</v>
       </c>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
       <c r="F259" t="s" s="6">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
@@ -20247,13 +20422,13 @@
       <c r="B260" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C260" t="s" s="32">
-        <v>431</v>
+      <c r="C260" t="s" s="8">
+        <v>430</v>
       </c>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
       <c r="F260" t="s" s="6">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
@@ -20264,42 +20439,60 @@
         <v>37</v>
       </c>
       <c r="C261" t="s" s="32">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
       <c r="F261" t="s" s="6">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="262" ht="15" customHeight="1">
+      <c r="A262" t="s" s="6">
+        <v>44</v>
+      </c>
+      <c r="B262" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C262" t="s" s="32">
         <v>434</v>
       </c>
-    </row>
-    <row r="262" ht="15" customHeight="1">
-      <c r="A262" s="4"/>
-      <c r="B262" s="4"/>
-      <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
-      <c r="F262" s="4"/>
-    </row>
-    <row r="263" ht="27" customHeight="1">
-      <c r="A263" t="s" s="12">
+      <c r="F262" t="s" s="6">
         <v>435</v>
       </c>
-      <c r="B263" s="13"/>
-      <c r="C263" s="13"/>
-      <c r="D263" s="13"/>
-      <c r="E263" s="13"/>
-      <c r="F263" s="13"/>
+    </row>
+    <row r="263" ht="15" customHeight="1">
+      <c r="A263" t="s" s="6">
+        <v>44</v>
+      </c>
+      <c r="B263" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C263" t="s" s="32">
+        <v>436</v>
+      </c>
+      <c r="D263" s="4"/>
+      <c r="E263" s="4"/>
+      <c r="F263" t="s" s="6">
+        <v>437</v>
+      </c>
     </row>
     <row r="264" ht="15" customHeight="1">
-      <c r="A264" s="15"/>
-      <c r="B264" s="15"/>
-      <c r="C264" t="s" s="16">
-        <v>436</v>
-      </c>
-      <c r="D264" s="15"/>
-      <c r="E264" s="15"/>
-      <c r="F264" t="s" s="16">
-        <v>437</v>
+      <c r="A264" t="s" s="6">
+        <v>44</v>
+      </c>
+      <c r="B264" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C264" t="s" s="32">
+        <v>438</v>
+      </c>
+      <c r="D264" s="4"/>
+      <c r="E264" s="4"/>
+      <c r="F264" t="s" s="6">
+        <v>439</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1">
@@ -20310,217 +20503,191 @@
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
     </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="A266" s="4"/>
-      <c r="B266" s="4"/>
-      <c r="C266" t="s" s="31">
-        <v>354</v>
-      </c>
-      <c r="D266" t="s" s="31">
-        <v>2</v>
-      </c>
-      <c r="E266" t="s" s="31">
-        <v>438</v>
-      </c>
-      <c r="F266" t="s" s="31">
-        <v>355</v>
-      </c>
+    <row r="266" ht="27" customHeight="1">
+      <c r="A266" t="s" s="12">
+        <v>440</v>
+      </c>
+      <c r="B266" s="13"/>
+      <c r="C266" s="13"/>
+      <c r="D266" s="13"/>
+      <c r="E266" s="13"/>
+      <c r="F266" s="13"/>
     </row>
     <row r="267" ht="15" customHeight="1">
-      <c r="A267" t="s" s="6">
-        <v>438</v>
-      </c>
-      <c r="B267" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C267" t="s" s="30">
-        <v>439</v>
-      </c>
-      <c r="D267" s="27"/>
-      <c r="E267" s="27"/>
-      <c r="F267" t="s" s="30">
-        <v>440</v>
+      <c r="A267" s="15"/>
+      <c r="B267" s="15"/>
+      <c r="C267" t="s" s="16">
+        <v>441</v>
+      </c>
+      <c r="D267" s="15"/>
+      <c r="E267" s="15"/>
+      <c r="F267" t="s" s="16">
+        <v>442</v>
       </c>
     </row>
     <row r="268" ht="15" customHeight="1">
-      <c r="A268" t="s" s="6">
-        <v>438</v>
-      </c>
-      <c r="B268" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C268" t="s" s="6">
-        <v>441</v>
-      </c>
+      <c r="A268" s="4"/>
+      <c r="B268" s="4"/>
+      <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
-      <c r="F268" t="s" s="6">
-        <v>442</v>
-      </c>
+      <c r="F268" s="4"/>
     </row>
     <row r="269" ht="15" customHeight="1">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
-      <c r="C269" s="4"/>
-      <c r="D269" s="4"/>
-      <c r="E269" s="4"/>
-      <c r="F269" s="4"/>
+      <c r="C269" t="s" s="31">
+        <v>359</v>
+      </c>
+      <c r="D269" t="s" s="31">
+        <v>2</v>
+      </c>
+      <c r="E269" t="s" s="31">
+        <v>443</v>
+      </c>
+      <c r="F269" t="s" s="31">
+        <v>360</v>
+      </c>
     </row>
     <row r="270" ht="15" customHeight="1">
-      <c r="A270" s="4"/>
-      <c r="B270" s="4"/>
-      <c r="C270" t="s" s="31">
+      <c r="A270" t="s" s="6">
         <v>443</v>
       </c>
-      <c r="D270" t="s" s="31">
-        <v>2</v>
-      </c>
-      <c r="E270" t="s" s="31">
+      <c r="B270" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C270" t="s" s="30">
         <v>444</v>
       </c>
-      <c r="F270" t="s" s="31">
+      <c r="D270" s="27"/>
+      <c r="E270" s="27"/>
+      <c r="F270" t="s" s="30">
         <v>445</v>
       </c>
     </row>
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="s" s="6">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B271" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C271" t="s" s="30">
+      <c r="C271" t="s" s="6">
         <v>446</v>
       </c>
-      <c r="D271" t="s" s="30">
+      <c r="D271" s="4"/>
+      <c r="E271" s="4"/>
+      <c r="F271" t="s" s="6">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="A272" s="4"/>
+      <c r="B272" s="4"/>
+      <c r="C272" s="4"/>
+      <c r="D272" s="4"/>
+      <c r="E272" s="4"/>
+      <c r="F272" s="4"/>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="A273" s="4"/>
+      <c r="B273" s="4"/>
+      <c r="C273" t="s" s="31">
+        <v>448</v>
+      </c>
+      <c r="D273" t="s" s="31">
         <v>2</v>
       </c>
-      <c r="E271" t="s" s="30">
-        <v>447</v>
-      </c>
-      <c r="F271" t="s" s="30">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="A272" t="s" s="6">
-        <v>444</v>
-      </c>
-      <c r="B272" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C272" t="s" s="6">
+      <c r="E273" t="s" s="31">
         <v>449</v>
       </c>
-      <c r="D272" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="E272" t="s" s="6">
-        <v>447</v>
-      </c>
-      <c r="F272" t="s" s="6">
+      <c r="F273" t="s" s="31">
         <v>450</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="A273" t="s" s="6">
-        <v>444</v>
-      </c>
-      <c r="B273" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C273" t="s" s="62">
-        <v>451</v>
-      </c>
-      <c r="D273" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="E273" t="s" s="6">
-        <v>447</v>
-      </c>
-      <c r="F273" t="s" s="6">
-        <v>452</v>
       </c>
     </row>
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="s" s="6">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B274" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C274" t="s" s="62">
+      <c r="C274" t="s" s="30">
+        <v>451</v>
+      </c>
+      <c r="D274" t="s" s="30">
+        <v>2</v>
+      </c>
+      <c r="E274" t="s" s="30">
+        <v>452</v>
+      </c>
+      <c r="F274" t="s" s="30">
         <v>453</v>
-      </c>
-      <c r="D274" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="E274" t="s" s="6">
-        <v>447</v>
-      </c>
-      <c r="F274" t="s" s="6">
-        <v>454</v>
       </c>
     </row>
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="s" s="6">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B275" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C275" t="s" s="6">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D275" t="s" s="6">
         <v>2</v>
       </c>
       <c r="E275" t="s" s="6">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="F275" t="s" s="6">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="s" s="6">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B276" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C276" t="s" s="31">
+      <c r="C276" t="s" s="62">
         <v>456</v>
       </c>
-      <c r="D276" t="s" s="31">
+      <c r="D276" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="E276" t="s" s="31">
-        <v>447</v>
-      </c>
-      <c r="F276" t="s" s="31">
+      <c r="E276" t="s" s="6">
+        <v>452</v>
+      </c>
+      <c r="F276" t="s" s="6">
         <v>457</v>
       </c>
     </row>
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="s" s="6">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B277" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C277" t="s" s="30">
+      <c r="C277" t="s" s="62">
         <v>458</v>
       </c>
-      <c r="D277" s="27"/>
-      <c r="E277" s="27"/>
-      <c r="F277" t="s" s="30">
+      <c r="D277" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="E277" t="s" s="6">
+        <v>452</v>
+      </c>
+      <c r="F277" t="s" s="6">
         <v>459</v>
       </c>
     </row>
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="s" s="6">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B278" t="s" s="6">
         <v>37</v>
@@ -20528,170 +20695,178 @@
       <c r="C278" t="s" s="6">
         <v>460</v>
       </c>
-      <c r="D278" s="4"/>
-      <c r="E278" s="4"/>
+      <c r="D278" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="E278" t="s" s="6">
+        <v>452</v>
+      </c>
       <c r="F278" t="s" s="6">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="A279" t="s" s="6">
+        <v>449</v>
+      </c>
+      <c r="B279" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C279" t="s" s="31">
         <v>461</v>
       </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="A279" s="4"/>
-      <c r="B279" s="4"/>
-      <c r="C279" s="4"/>
-      <c r="D279" s="4"/>
-      <c r="E279" s="4"/>
-      <c r="F279" s="4"/>
+      <c r="D279" t="s" s="31">
+        <v>2</v>
+      </c>
+      <c r="E279" t="s" s="31">
+        <v>452</v>
+      </c>
+      <c r="F279" t="s" s="31">
+        <v>462</v>
+      </c>
     </row>
     <row r="280" ht="15" customHeight="1">
-      <c r="A280" s="4"/>
-      <c r="B280" s="4"/>
-      <c r="C280" t="s" s="31">
-        <v>462</v>
-      </c>
-      <c r="D280" t="s" s="31">
-        <v>2</v>
-      </c>
-      <c r="E280" t="s" s="31">
+      <c r="A280" t="s" s="6">
+        <v>452</v>
+      </c>
+      <c r="B280" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C280" t="s" s="30">
         <v>463</v>
       </c>
-      <c r="F280" t="s" s="31">
+      <c r="D280" s="27"/>
+      <c r="E280" s="27"/>
+      <c r="F280" t="s" s="30">
         <v>464</v>
       </c>
     </row>
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="s" s="6">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="B281" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C281" t="s" s="64">
+      <c r="C281" t="s" s="6">
         <v>465</v>
       </c>
-      <c r="D281" s="27"/>
-      <c r="E281" s="27"/>
-      <c r="F281" t="s" s="30">
+      <c r="D281" s="4"/>
+      <c r="E281" s="4"/>
+      <c r="F281" t="s" s="6">
         <v>466</v>
       </c>
     </row>
     <row r="282" ht="15" customHeight="1">
-      <c r="A282" t="s" s="6">
-        <v>463</v>
-      </c>
-      <c r="B282" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C282" t="s" s="62">
-        <v>467</v>
-      </c>
+      <c r="A282" s="4"/>
+      <c r="B282" s="4"/>
+      <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
-      <c r="F282" t="s" s="6">
+      <c r="F282" s="4"/>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="A283" s="4"/>
+      <c r="B283" s="4"/>
+      <c r="C283" t="s" s="31">
+        <v>467</v>
+      </c>
+      <c r="D283" t="s" s="31">
+        <v>2</v>
+      </c>
+      <c r="E283" t="s" s="31">
         <v>468</v>
       </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="A283" t="s" s="6">
-        <v>463</v>
-      </c>
-      <c r="B283" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C283" t="s" s="6">
+      <c r="F283" t="s" s="31">
         <v>469</v>
-      </c>
-      <c r="D283" s="4"/>
-      <c r="E283" s="4"/>
-      <c r="F283" t="s" s="6">
-        <v>470</v>
       </c>
     </row>
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="s" s="6">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B284" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C284" t="s" s="6">
+      <c r="C284" t="s" s="64">
+        <v>470</v>
+      </c>
+      <c r="D284" s="27"/>
+      <c r="E284" s="27"/>
+      <c r="F284" t="s" s="30">
         <v>471</v>
       </c>
-      <c r="D284" s="4"/>
-      <c r="E284" s="4"/>
-      <c r="F284" t="s" s="6">
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="A285" t="s" s="6">
+        <v>468</v>
+      </c>
+      <c r="B285" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C285" t="s" s="62">
         <v>472</v>
       </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="A285" s="4"/>
-      <c r="B285" s="4"/>
-      <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
-      <c r="F285" s="4"/>
+      <c r="F285" t="s" s="6">
+        <v>473</v>
+      </c>
     </row>
     <row r="286" ht="15" customHeight="1">
-      <c r="A286" s="4"/>
-      <c r="B286" s="4"/>
-      <c r="C286" t="s" s="31">
-        <v>473</v>
-      </c>
-      <c r="D286" t="s" s="31">
-        <v>2</v>
-      </c>
-      <c r="E286" t="s" s="31">
-        <v>29</v>
-      </c>
-      <c r="F286" t="s" s="31">
+      <c r="A286" t="s" s="6">
+        <v>468</v>
+      </c>
+      <c r="B286" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C286" t="s" s="6">
         <v>474</v>
+      </c>
+      <c r="D286" s="4"/>
+      <c r="E286" s="4"/>
+      <c r="F286" t="s" s="6">
+        <v>475</v>
       </c>
     </row>
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="s" s="6">
-        <v>29</v>
+        <v>468</v>
       </c>
       <c r="B287" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C287" t="s" s="30">
-        <v>475</v>
-      </c>
-      <c r="D287" s="27"/>
-      <c r="E287" s="27"/>
-      <c r="F287" t="s" s="30">
+      <c r="C287" t="s" s="6">
         <v>476</v>
       </c>
+      <c r="D287" s="4"/>
+      <c r="E287" s="4"/>
+      <c r="F287" t="s" s="6">
+        <v>477</v>
+      </c>
     </row>
     <row r="288" ht="15" customHeight="1">
-      <c r="A288" t="s" s="6">
-        <v>29</v>
-      </c>
-      <c r="B288" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C288" t="s" s="6">
-        <v>477</v>
-      </c>
+      <c r="A288" s="4"/>
+      <c r="B288" s="4"/>
+      <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
-      <c r="F288" t="s" s="6">
+      <c r="F288" s="4"/>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="A289" s="4"/>
+      <c r="B289" s="4"/>
+      <c r="C289" t="s" s="31">
         <v>478</v>
       </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="A289" t="s" s="6">
+      <c r="D289" t="s" s="31">
+        <v>2</v>
+      </c>
+      <c r="E289" t="s" s="31">
         <v>29</v>
       </c>
-      <c r="B289" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C289" t="s" s="6">
+      <c r="F289" t="s" s="31">
         <v>479</v>
-      </c>
-      <c r="D289" s="4"/>
-      <c r="E289" s="4"/>
-      <c r="F289" t="s" s="6">
-        <v>480</v>
       </c>
     </row>
     <row r="290" ht="15" customHeight="1">
@@ -20701,13 +20876,13 @@
       <c r="B290" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C290" t="s" s="6">
+      <c r="C290" t="s" s="30">
+        <v>480</v>
+      </c>
+      <c r="D290" s="27"/>
+      <c r="E290" s="27"/>
+      <c r="F290" t="s" s="30">
         <v>481</v>
-      </c>
-      <c r="D290" s="4"/>
-      <c r="E290" s="4"/>
-      <c r="F290" t="s" s="6">
-        <v>482</v>
       </c>
     </row>
     <row r="291" ht="15" customHeight="1">
@@ -20718,12 +20893,12 @@
         <v>37</v>
       </c>
       <c r="C291" t="s" s="6">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
       <c r="F291" t="s" s="6">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="292" ht="15" customHeight="1">
@@ -20734,12 +20909,12 @@
         <v>37</v>
       </c>
       <c r="C292" t="s" s="6">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
       <c r="F292" t="s" s="6">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="293" ht="15" customHeight="1">
@@ -20750,12 +20925,12 @@
         <v>37</v>
       </c>
       <c r="C293" t="s" s="6">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
       <c r="F293" t="s" s="6">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="294" ht="15" customHeight="1">
@@ -20766,12 +20941,12 @@
         <v>37</v>
       </c>
       <c r="C294" t="s" s="6">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
       <c r="F294" t="s" s="6">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="295" ht="15" customHeight="1">
@@ -20782,12 +20957,12 @@
         <v>37</v>
       </c>
       <c r="C295" t="s" s="6">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
       <c r="F295" t="s" s="6">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="296" ht="15" customHeight="1">
@@ -20797,8 +20972,8 @@
       <c r="B296" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C296" t="s" s="5">
-        <v>147</v>
+      <c r="C296" t="s" s="6">
+        <v>492</v>
       </c>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
@@ -20823,526 +20998,526 @@
       </c>
     </row>
     <row r="298" ht="15" customHeight="1">
-      <c r="A298" s="4"/>
-      <c r="B298" s="4"/>
-      <c r="C298" s="4"/>
+      <c r="A298" t="s" s="6">
+        <v>29</v>
+      </c>
+      <c r="B298" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C298" t="s" s="6">
+        <v>496</v>
+      </c>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
-      <c r="F298" s="4"/>
+      <c r="F298" t="s" s="6">
+        <v>497</v>
+      </c>
     </row>
     <row r="299" ht="15" customHeight="1">
-      <c r="A299" s="4"/>
-      <c r="B299" s="4"/>
-      <c r="C299" t="s" s="31">
-        <v>496</v>
-      </c>
-      <c r="D299" t="s" s="31">
-        <v>2</v>
-      </c>
-      <c r="E299" t="s" s="31">
-        <v>497</v>
-      </c>
-      <c r="F299" s="35"/>
+      <c r="A299" t="s" s="6">
+        <v>29</v>
+      </c>
+      <c r="B299" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C299" t="s" s="5">
+        <v>147</v>
+      </c>
+      <c r="D299" s="4"/>
+      <c r="E299" s="4"/>
+      <c r="F299" t="s" s="6">
+        <v>498</v>
+      </c>
     </row>
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="s" s="6">
-        <v>497</v>
+        <v>29</v>
       </c>
       <c r="B300" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C300" t="s" s="65">
-        <v>498</v>
-      </c>
-      <c r="D300" s="27"/>
-      <c r="E300" s="27"/>
-      <c r="F300" t="s" s="30">
+      <c r="C300" t="s" s="6">
         <v>499</v>
       </c>
+      <c r="D300" s="4"/>
+      <c r="E300" s="4"/>
+      <c r="F300" t="s" s="6">
+        <v>500</v>
+      </c>
     </row>
     <row r="301" ht="15" customHeight="1">
-      <c r="A301" t="s" s="6">
-        <v>497</v>
-      </c>
-      <c r="B301" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C301" t="s" s="6">
-        <v>500</v>
-      </c>
+      <c r="A301" s="4"/>
+      <c r="B301" s="4"/>
+      <c r="C301" s="4"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
-      <c r="F301" t="s" s="6">
+      <c r="F301" s="4"/>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="A302" s="4"/>
+      <c r="B302" s="4"/>
+      <c r="C302" t="s" s="31">
         <v>501</v>
       </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="A302" t="s" s="6">
-        <v>497</v>
-      </c>
-      <c r="B302" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C302" t="s" s="6">
+      <c r="D302" t="s" s="31">
+        <v>2</v>
+      </c>
+      <c r="E302" t="s" s="31">
         <v>502</v>
       </c>
-      <c r="D302" s="4"/>
-      <c r="E302" s="4"/>
-      <c r="F302" t="s" s="6">
-        <v>501</v>
-      </c>
+      <c r="F302" s="35"/>
     </row>
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="s" s="6">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B303" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C303" t="s" s="6">
+      <c r="C303" t="s" s="65">
         <v>503</v>
       </c>
-      <c r="D303" s="4"/>
-      <c r="E303" s="4"/>
-      <c r="F303" t="s" s="6">
+      <c r="D303" s="27"/>
+      <c r="E303" s="27"/>
+      <c r="F303" t="s" s="30">
         <v>504</v>
       </c>
     </row>
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="s" s="6">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B304" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C304" t="s" s="31">
+      <c r="C304" t="s" s="6">
         <v>505</v>
       </c>
-      <c r="D304" t="s" s="31">
-        <v>2</v>
-      </c>
-      <c r="E304" t="s" s="31">
+      <c r="D304" s="4"/>
+      <c r="E304" s="4"/>
+      <c r="F304" t="s" s="6">
         <v>506</v>
-      </c>
-      <c r="F304" t="s" s="31">
-        <v>507</v>
       </c>
     </row>
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="s" s="6">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B305" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C305" t="s" s="30">
-        <v>508</v>
-      </c>
-      <c r="D305" s="27"/>
-      <c r="E305" s="27"/>
-      <c r="F305" t="s" s="30">
-        <v>509</v>
+      <c r="C305" t="s" s="6">
+        <v>507</v>
+      </c>
+      <c r="D305" s="4"/>
+      <c r="E305" s="4"/>
+      <c r="F305" t="s" s="6">
+        <v>506</v>
       </c>
     </row>
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="s" s="6">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B306" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C306" t="s" s="6">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
       <c r="F306" t="s" s="6">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="s" s="6">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B307" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C307" t="s" s="6">
+      <c r="C307" t="s" s="31">
+        <v>510</v>
+      </c>
+      <c r="D307" t="s" s="31">
+        <v>2</v>
+      </c>
+      <c r="E307" t="s" s="31">
+        <v>511</v>
+      </c>
+      <c r="F307" t="s" s="31">
         <v>512</v>
       </c>
-      <c r="D307" s="4"/>
-      <c r="E307" s="4"/>
-      <c r="F307" t="s" s="6">
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="A308" t="s" s="6">
+        <v>511</v>
+      </c>
+      <c r="B308" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C308" t="s" s="30">
         <v>513</v>
       </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="A308" s="4"/>
-      <c r="B308" s="4"/>
-      <c r="C308" s="4"/>
-      <c r="D308" s="4"/>
-      <c r="E308" s="4"/>
-      <c r="F308" s="4"/>
-    </row>
-    <row r="309" ht="27" customHeight="1">
-      <c r="A309" t="s" s="12">
+      <c r="D308" s="27"/>
+      <c r="E308" s="27"/>
+      <c r="F308" t="s" s="30">
         <v>514</v>
       </c>
-      <c r="B309" s="13"/>
-      <c r="C309" s="13"/>
-      <c r="D309" s="13"/>
-      <c r="E309" s="13"/>
-      <c r="F309" s="14"/>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="A309" t="s" s="6">
+        <v>511</v>
+      </c>
+      <c r="B309" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C309" t="s" s="6">
+        <v>515</v>
+      </c>
+      <c r="D309" s="4"/>
+      <c r="E309" s="4"/>
+      <c r="F309" t="s" s="6">
+        <v>516</v>
+      </c>
     </row>
     <row r="310" ht="15" customHeight="1">
-      <c r="A310" s="15"/>
-      <c r="B310" s="15"/>
-      <c r="C310" t="s" s="16">
-        <v>515</v>
-      </c>
-      <c r="D310" s="15"/>
-      <c r="E310" s="15"/>
-      <c r="F310" t="s" s="16">
-        <v>516</v>
+      <c r="A310" t="s" s="6">
+        <v>511</v>
+      </c>
+      <c r="B310" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C310" t="s" s="6">
+        <v>517</v>
+      </c>
+      <c r="D310" s="4"/>
+      <c r="E310" s="4"/>
+      <c r="F310" t="s" s="6">
+        <v>518</v>
       </c>
     </row>
     <row r="311" ht="15" customHeight="1">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
-      <c r="C311" t="s" s="6">
-        <v>241</v>
-      </c>
+      <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
-      <c r="F311" t="s" s="6">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="A312" s="4"/>
-      <c r="B312" s="4"/>
-      <c r="C312" t="s" s="6">
-        <v>243</v>
-      </c>
-      <c r="D312" s="4"/>
-      <c r="E312" s="4"/>
-      <c r="F312" t="s" s="6">
-        <v>244</v>
-      </c>
+      <c r="F311" s="4"/>
+    </row>
+    <row r="312" ht="27" customHeight="1">
+      <c r="A312" t="s" s="12">
+        <v>519</v>
+      </c>
+      <c r="B312" s="13"/>
+      <c r="C312" s="13"/>
+      <c r="D312" s="13"/>
+      <c r="E312" s="13"/>
+      <c r="F312" s="14"/>
     </row>
     <row r="313" ht="15" customHeight="1">
-      <c r="A313" s="4"/>
-      <c r="B313" s="4"/>
-      <c r="C313" t="s" s="6">
-        <v>245</v>
-      </c>
-      <c r="D313" s="4"/>
-      <c r="E313" s="4"/>
-      <c r="F313" t="s" s="6">
-        <v>246</v>
+      <c r="A313" s="15"/>
+      <c r="B313" s="15"/>
+      <c r="C313" t="s" s="16">
+        <v>520</v>
+      </c>
+      <c r="D313" s="15"/>
+      <c r="E313" s="15"/>
+      <c r="F313" t="s" s="16">
+        <v>521</v>
       </c>
     </row>
     <row r="314" ht="15" customHeight="1">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" t="s" s="6">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
       <c r="F314" t="s" s="6">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="315" ht="15" customHeight="1">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
-      <c r="C315" s="4"/>
+      <c r="C315" t="s" s="6">
+        <v>248</v>
+      </c>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
-      <c r="F315" s="4"/>
+      <c r="F315" t="s" s="6">
+        <v>249</v>
+      </c>
     </row>
     <row r="316" ht="15" customHeight="1">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" t="s" s="6">
-        <v>517</v>
-      </c>
-      <c r="D316" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="E316" t="s" s="6">
-        <v>518</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D316" s="4"/>
+      <c r="E316" s="4"/>
       <c r="F316" t="s" s="6">
-        <v>519</v>
+        <v>251</v>
       </c>
     </row>
     <row r="317" ht="15" customHeight="1">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
-      <c r="C317" t="s" s="31">
-        <v>520</v>
-      </c>
-      <c r="D317" t="s" s="31">
+      <c r="C317" t="s" s="6">
+        <v>252</v>
+      </c>
+      <c r="D317" s="4"/>
+      <c r="E317" s="4"/>
+      <c r="F317" t="s" s="6">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="A318" s="4"/>
+      <c r="B318" s="4"/>
+      <c r="C318" s="4"/>
+      <c r="D318" s="4"/>
+      <c r="E318" s="4"/>
+      <c r="F318" s="4"/>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="A319" s="4"/>
+      <c r="B319" s="4"/>
+      <c r="C319" t="s" s="6">
+        <v>522</v>
+      </c>
+      <c r="D319" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="E317" t="s" s="31">
-        <v>521</v>
-      </c>
-      <c r="F317" t="s" s="31">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="A318" t="s" s="6">
+      <c r="E319" t="s" s="6">
+        <v>523</v>
+      </c>
+      <c r="F319" t="s" s="6">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="A320" s="4"/>
+      <c r="B320" s="4"/>
+      <c r="C320" t="s" s="31">
+        <v>525</v>
+      </c>
+      <c r="D320" t="s" s="31">
+        <v>2</v>
+      </c>
+      <c r="E320" t="s" s="31">
+        <v>526</v>
+      </c>
+      <c r="F320" t="s" s="31">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="A321" t="s" s="6">
         <v>44</v>
       </c>
-      <c r="B318" t="s" s="6">
+      <c r="B321" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C318" t="s" s="37">
-        <v>523</v>
-      </c>
-      <c r="D318" s="27"/>
-      <c r="E318" s="27"/>
-      <c r="F318" t="s" s="30">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="A319" t="s" s="6">
+      <c r="C321" t="s" s="37">
+        <v>528</v>
+      </c>
+      <c r="D321" s="27"/>
+      <c r="E321" s="27"/>
+      <c r="F321" t="s" s="30">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="A322" t="s" s="6">
         <v>44</v>
       </c>
-      <c r="B319" t="s" s="6">
+      <c r="B322" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C319" t="s" s="32">
-        <v>525</v>
-      </c>
-      <c r="D319" s="4"/>
-      <c r="E319" s="4"/>
-      <c r="F319" t="s" s="6">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="A320" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="B320" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C320" t="s" s="6">
-        <v>527</v>
-      </c>
-      <c r="D320" s="4"/>
-      <c r="E320" s="4"/>
-      <c r="F320" t="s" s="6">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="A321" s="4"/>
-      <c r="B321" s="4"/>
-      <c r="C321" s="4"/>
-      <c r="D321" s="4"/>
-      <c r="E321" s="4"/>
-      <c r="F321" s="4"/>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="A322" s="4"/>
-      <c r="B322" s="4"/>
-      <c r="C322" t="s" s="31">
-        <v>529</v>
-      </c>
-      <c r="D322" t="s" s="31">
-        <v>2</v>
-      </c>
-      <c r="E322" t="s" s="31">
+      <c r="C322" t="s" s="32">
         <v>530</v>
       </c>
-      <c r="F322" t="s" s="31">
+      <c r="D322" s="4"/>
+      <c r="E322" s="4"/>
+      <c r="F322" t="s" s="6">
         <v>531</v>
       </c>
     </row>
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="s" s="6">
-        <v>530</v>
+        <v>44</v>
       </c>
       <c r="B323" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C323" t="s" s="65">
+      <c r="C323" t="s" s="6">
         <v>532</v>
       </c>
-      <c r="D323" s="27"/>
-      <c r="E323" s="27"/>
-      <c r="F323" t="s" s="30">
+      <c r="D323" s="4"/>
+      <c r="E323" s="4"/>
+      <c r="F323" t="s" s="6">
         <v>533</v>
       </c>
     </row>
     <row r="324" ht="15" customHeight="1">
-      <c r="A324" t="s" s="6">
-        <v>530</v>
-      </c>
-      <c r="B324" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C324" t="s" s="6">
-        <v>534</v>
-      </c>
+      <c r="A324" s="4"/>
+      <c r="B324" s="4"/>
+      <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
-      <c r="F324" t="s" s="6">
-        <v>535</v>
-      </c>
+      <c r="F324" s="4"/>
     </row>
     <row r="325" ht="15" customHeight="1">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
-      <c r="C325" s="4"/>
-      <c r="D325" s="4"/>
-      <c r="E325" s="4"/>
-      <c r="F325" s="4"/>
+      <c r="C325" t="s" s="31">
+        <v>534</v>
+      </c>
+      <c r="D325" t="s" s="31">
+        <v>2</v>
+      </c>
+      <c r="E325" t="s" s="31">
+        <v>535</v>
+      </c>
+      <c r="F325" t="s" s="31">
+        <v>536</v>
+      </c>
     </row>
     <row r="326" ht="15" customHeight="1">
-      <c r="A326" s="4"/>
-      <c r="B326" s="4"/>
-      <c r="C326" t="s" s="31">
-        <v>536</v>
-      </c>
-      <c r="D326" t="s" s="31">
-        <v>2</v>
-      </c>
-      <c r="E326" t="s" s="31">
-        <v>366</v>
-      </c>
-      <c r="F326" t="s" s="31">
+      <c r="A326" t="s" s="6">
+        <v>535</v>
+      </c>
+      <c r="B326" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C326" t="s" s="65">
         <v>537</v>
+      </c>
+      <c r="D326" s="27"/>
+      <c r="E326" s="27"/>
+      <c r="F326" t="s" s="30">
+        <v>538</v>
       </c>
     </row>
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="s" s="6">
-        <v>366</v>
+        <v>535</v>
       </c>
       <c r="B327" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C327" t="s" s="37">
-        <v>538</v>
-      </c>
-      <c r="D327" s="27"/>
-      <c r="E327" s="27"/>
-      <c r="F327" t="s" s="30">
+      <c r="C327" t="s" s="6">
         <v>539</v>
       </c>
+      <c r="D327" s="4"/>
+      <c r="E327" s="4"/>
+      <c r="F327" t="s" s="6">
+        <v>540</v>
+      </c>
     </row>
     <row r="328" ht="15" customHeight="1">
-      <c r="A328" t="s" s="6">
-        <v>366</v>
-      </c>
-      <c r="B328" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C328" t="s" s="6">
-        <v>540</v>
-      </c>
+      <c r="A328" s="4"/>
+      <c r="B328" s="4"/>
+      <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
-      <c r="F328" t="s" s="6">
+      <c r="F328" s="4"/>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="A329" s="4"/>
+      <c r="B329" s="4"/>
+      <c r="C329" t="s" s="31">
         <v>541</v>
       </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="A329" t="s" s="6">
-        <v>366</v>
-      </c>
-      <c r="B329" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C329" t="s" s="6">
+      <c r="D329" t="s" s="31">
+        <v>2</v>
+      </c>
+      <c r="E329" t="s" s="31">
+        <v>371</v>
+      </c>
+      <c r="F329" t="s" s="31">
         <v>542</v>
-      </c>
-      <c r="D329" s="4"/>
-      <c r="E329" s="4"/>
-      <c r="F329" t="s" s="6">
-        <v>543</v>
       </c>
     </row>
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="s" s="6">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B330" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C330" t="s" s="6">
+      <c r="C330" t="s" s="37">
+        <v>543</v>
+      </c>
+      <c r="D330" s="27"/>
+      <c r="E330" s="27"/>
+      <c r="F330" t="s" s="30">
         <v>544</v>
-      </c>
-      <c r="D330" s="4"/>
-      <c r="E330" s="4"/>
-      <c r="F330" t="s" s="6">
-        <v>545</v>
       </c>
     </row>
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="s" s="6">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B331" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C331" t="s" s="6">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
       <c r="F331" t="s" s="6">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="s" s="6">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B332" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C332" t="s" s="6">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
       <c r="F332" t="s" s="6">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="s" s="6">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B333" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C333" t="s" s="6">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
       <c r="F333" t="s" s="6">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="s" s="6">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B334" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C334" t="s" s="6">
-        <v>285</v>
+        <v>551</v>
       </c>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
@@ -21351,96 +21526,96 @@
       </c>
     </row>
     <row r="335" ht="15" customHeight="1">
-      <c r="A335" s="4"/>
-      <c r="B335" s="4"/>
-      <c r="C335" s="4"/>
+      <c r="A335" t="s" s="6">
+        <v>371</v>
+      </c>
+      <c r="B335" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C335" t="s" s="6">
+        <v>553</v>
+      </c>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
-      <c r="F335" s="4"/>
+      <c r="F335" t="s" s="6">
+        <v>554</v>
+      </c>
     </row>
     <row r="336" ht="15" customHeight="1">
-      <c r="A336" s="4"/>
-      <c r="B336" s="4"/>
-      <c r="C336" t="s" s="31">
-        <v>553</v>
-      </c>
-      <c r="D336" t="s" s="31">
-        <v>2</v>
-      </c>
-      <c r="E336" t="s" s="31">
-        <v>554</v>
-      </c>
-      <c r="F336" t="s" s="31">
+      <c r="A336" t="s" s="6">
+        <v>371</v>
+      </c>
+      <c r="B336" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C336" t="s" s="6">
         <v>555</v>
+      </c>
+      <c r="D336" s="4"/>
+      <c r="E336" s="4"/>
+      <c r="F336" t="s" s="6">
+        <v>556</v>
       </c>
     </row>
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="s" s="6">
-        <v>554</v>
+        <v>371</v>
       </c>
       <c r="B337" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C337" t="s" s="37">
-        <v>538</v>
-      </c>
-      <c r="D337" s="27"/>
-      <c r="E337" s="27"/>
-      <c r="F337" t="s" s="30">
-        <v>556</v>
+      <c r="C337" t="s" s="6">
+        <v>290</v>
+      </c>
+      <c r="D337" s="4"/>
+      <c r="E337" s="4"/>
+      <c r="F337" t="s" s="6">
+        <v>557</v>
       </c>
     </row>
     <row r="338" ht="15" customHeight="1">
-      <c r="A338" t="s" s="6">
-        <v>554</v>
-      </c>
-      <c r="B338" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C338" t="s" s="6">
-        <v>557</v>
-      </c>
+      <c r="A338" s="4"/>
+      <c r="B338" s="4"/>
+      <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
-      <c r="F338" t="s" s="6">
-        <v>541</v>
-      </c>
+      <c r="F338" s="4"/>
     </row>
     <row r="339" ht="15" customHeight="1">
-      <c r="A339" t="s" s="6">
-        <v>554</v>
-      </c>
-      <c r="B339" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C339" t="s" s="6">
+      <c r="A339" s="4"/>
+      <c r="B339" s="4"/>
+      <c r="C339" t="s" s="31">
         <v>558</v>
       </c>
-      <c r="D339" s="4"/>
-      <c r="E339" s="4"/>
-      <c r="F339" t="s" s="6">
+      <c r="D339" t="s" s="31">
+        <v>2</v>
+      </c>
+      <c r="E339" t="s" s="31">
         <v>559</v>
+      </c>
+      <c r="F339" t="s" s="31">
+        <v>560</v>
       </c>
     </row>
     <row r="340" ht="15" customHeight="1">
       <c r="A340" t="s" s="6">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B340" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C340" t="s" s="6">
-        <v>560</v>
-      </c>
-      <c r="D340" s="4"/>
-      <c r="E340" s="4"/>
-      <c r="F340" t="s" s="6">
+      <c r="C340" t="s" s="37">
+        <v>543</v>
+      </c>
+      <c r="D340" s="27"/>
+      <c r="E340" s="27"/>
+      <c r="F340" t="s" s="30">
         <v>561</v>
       </c>
     </row>
     <row r="341" ht="15" customHeight="1">
       <c r="A341" t="s" s="6">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B341" t="s" s="6">
         <v>37</v>
@@ -21451,266 +21626,266 @@
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
       <c r="F341" t="s" s="6">
-        <v>563</v>
+        <v>546</v>
       </c>
     </row>
     <row r="342" ht="15" customHeight="1">
       <c r="A342" t="s" s="6">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B342" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C342" t="s" s="6">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
       <c r="F342" t="s" s="6">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="343" ht="15" customHeight="1">
       <c r="A343" t="s" s="6">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B343" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C343" t="s" s="6">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
       <c r="F343" t="s" s="6">
-        <v>547</v>
+        <v>566</v>
       </c>
     </row>
     <row r="344" ht="15" customHeight="1">
       <c r="A344" t="s" s="6">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B344" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C344" t="s" s="6">
-        <v>285</v>
+        <v>567</v>
       </c>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
       <c r="F344" t="s" s="6">
-        <v>552</v>
+        <v>568</v>
       </c>
     </row>
     <row r="345" ht="15" customHeight="1">
       <c r="A345" t="s" s="6">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B345" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C345" t="s" s="6">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
       <c r="F345" t="s" s="6">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="346" ht="15" customHeight="1">
       <c r="A346" t="s" s="6">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B346" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C346" t="s" s="6">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
       <c r="F346" t="s" s="6">
-        <v>570</v>
+        <v>552</v>
       </c>
     </row>
     <row r="347" ht="15" customHeight="1">
       <c r="A347" t="s" s="6">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B347" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C347" t="s" s="6">
-        <v>571</v>
+        <v>290</v>
       </c>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
       <c r="F347" t="s" s="6">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="A348" t="s" s="6">
+        <v>559</v>
+      </c>
+      <c r="B348" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C348" t="s" s="6">
         <v>572</v>
       </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="A348" s="4"/>
-      <c r="B348" s="4"/>
-      <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
-      <c r="F348" s="4"/>
+      <c r="F348" t="s" s="6">
+        <v>573</v>
+      </c>
     </row>
     <row r="349" ht="15" customHeight="1">
-      <c r="A349" s="4"/>
-      <c r="B349" s="4"/>
-      <c r="C349" t="s" s="31">
-        <v>573</v>
-      </c>
-      <c r="D349" t="s" s="31">
-        <v>2</v>
-      </c>
-      <c r="E349" t="s" s="31">
+      <c r="A349" t="s" s="6">
+        <v>559</v>
+      </c>
+      <c r="B349" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C349" t="s" s="6">
         <v>574</v>
       </c>
-      <c r="F349" t="s" s="31">
+      <c r="D349" s="4"/>
+      <c r="E349" s="4"/>
+      <c r="F349" t="s" s="6">
         <v>575</v>
       </c>
     </row>
     <row r="350" ht="15" customHeight="1">
       <c r="A350" t="s" s="6">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="B350" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C350" t="s" s="30">
+      <c r="C350" t="s" s="6">
         <v>576</v>
       </c>
-      <c r="D350" s="27"/>
-      <c r="E350" s="27"/>
-      <c r="F350" t="s" s="30">
+      <c r="D350" s="4"/>
+      <c r="E350" s="4"/>
+      <c r="F350" t="s" s="6">
         <v>577</v>
       </c>
     </row>
     <row r="351" ht="15" customHeight="1">
-      <c r="A351" t="s" s="6">
-        <v>574</v>
-      </c>
-      <c r="B351" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C351" t="s" s="6">
-        <v>370</v>
-      </c>
+      <c r="A351" s="4"/>
+      <c r="B351" s="4"/>
+      <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
-      <c r="F351" t="s" s="6">
+      <c r="F351" s="4"/>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="A352" s="4"/>
+      <c r="B352" s="4"/>
+      <c r="C352" t="s" s="31">
         <v>578</v>
       </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="A352" t="s" s="6">
-        <v>574</v>
-      </c>
-      <c r="B352" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C352" t="s" s="6">
+      <c r="D352" t="s" s="31">
+        <v>2</v>
+      </c>
+      <c r="E352" t="s" s="31">
         <v>579</v>
       </c>
-      <c r="D352" s="4"/>
-      <c r="E352" s="4"/>
-      <c r="F352" t="s" s="6">
+      <c r="F352" t="s" s="31">
         <v>580</v>
       </c>
     </row>
     <row r="353" ht="15" customHeight="1">
       <c r="A353" t="s" s="6">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B353" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C353" t="s" s="6">
+      <c r="C353" t="s" s="30">
         <v>581</v>
       </c>
-      <c r="D353" s="4"/>
-      <c r="E353" s="4"/>
-      <c r="F353" t="s" s="6">
+      <c r="D353" s="27"/>
+      <c r="E353" s="27"/>
+      <c r="F353" t="s" s="30">
         <v>582</v>
       </c>
     </row>
     <row r="354" ht="15" customHeight="1">
       <c r="A354" t="s" s="6">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B354" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C354" t="s" s="6">
-        <v>583</v>
+        <v>375</v>
       </c>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
       <c r="F354" t="s" s="6">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="355" ht="15" customHeight="1">
       <c r="A355" t="s" s="6">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B355" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C355" t="s" s="6">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
       <c r="F355" t="s" s="6">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="356" ht="15" customHeight="1">
       <c r="A356" t="s" s="6">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B356" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C356" t="s" s="6">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
       <c r="F356" t="s" s="6">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="357" ht="15" customHeight="1">
       <c r="A357" t="s" s="6">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B357" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C357" t="s" s="6">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
       <c r="F357" t="s" s="6">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="358" ht="15" customHeight="1">
       <c r="A358" t="s" s="6">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B358" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C358" t="s" s="6">
-        <v>285</v>
+        <v>590</v>
       </c>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
@@ -21720,7 +21895,7 @@
     </row>
     <row r="359" ht="15" customHeight="1">
       <c r="A359" t="s" s="6">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B359" t="s" s="6">
         <v>37</v>
@@ -21736,7 +21911,7 @@
     </row>
     <row r="360" ht="15" customHeight="1">
       <c r="A360" t="s" s="6">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B360" t="s" s="6">
         <v>37</v>
@@ -21751,560 +21926,560 @@
       </c>
     </row>
     <row r="361" ht="15" customHeight="1">
-      <c r="A361" s="4"/>
-      <c r="B361" s="4"/>
-      <c r="C361" s="4"/>
+      <c r="A361" t="s" s="6">
+        <v>579</v>
+      </c>
+      <c r="B361" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C361" t="s" s="6">
+        <v>290</v>
+      </c>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
-      <c r="F361" s="4"/>
-    </row>
-    <row r="362" ht="18.4" customHeight="1">
-      <c r="A362" s="4"/>
-      <c r="B362" s="4"/>
-      <c r="C362" t="s" s="22">
+      <c r="F361" t="s" s="6">
         <v>596</v>
       </c>
-      <c r="D362" s="14"/>
-      <c r="E362" s="14"/>
-      <c r="F362" s="14"/>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="A362" t="s" s="6">
+        <v>579</v>
+      </c>
+      <c r="B362" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C362" t="s" s="6">
+        <v>597</v>
+      </c>
+      <c r="D362" s="4"/>
+      <c r="E362" s="4"/>
+      <c r="F362" t="s" s="6">
+        <v>598</v>
+      </c>
     </row>
     <row r="363" ht="15" customHeight="1">
-      <c r="A363" s="4"/>
-      <c r="B363" s="4"/>
-      <c r="C363" s="23"/>
-      <c r="D363" s="24"/>
-      <c r="E363" s="24"/>
-      <c r="F363" t="s" s="25">
-        <v>308</v>
+      <c r="A363" t="s" s="6">
+        <v>579</v>
+      </c>
+      <c r="B363" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C363" t="s" s="6">
+        <v>599</v>
+      </c>
+      <c r="D363" s="4"/>
+      <c r="E363" s="4"/>
+      <c r="F363" t="s" s="6">
+        <v>600</v>
       </c>
     </row>
     <row r="364" ht="15" customHeight="1">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
-      <c r="C364" t="s" s="30">
-        <v>597</v>
-      </c>
-      <c r="D364" s="27"/>
-      <c r="E364" s="27"/>
-      <c r="F364" t="s" s="30">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
+      <c r="C364" s="4"/>
+      <c r="D364" s="4"/>
+      <c r="E364" s="4"/>
+      <c r="F364" s="4"/>
+    </row>
+    <row r="365" ht="18.4" customHeight="1">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
-      <c r="C365" t="s" s="6">
-        <v>310</v>
-      </c>
-      <c r="D365" s="4"/>
-      <c r="E365" s="4"/>
-      <c r="F365" t="s" s="6">
-        <v>311</v>
-      </c>
+      <c r="C365" t="s" s="22">
+        <v>601</v>
+      </c>
+      <c r="D365" s="14"/>
+      <c r="E365" s="14"/>
+      <c r="F365" s="14"/>
     </row>
     <row r="366" ht="15" customHeight="1">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
-      <c r="C366" t="s" s="6">
-        <v>598</v>
-      </c>
-      <c r="D366" s="4"/>
-      <c r="E366" s="4"/>
-      <c r="F366" t="s" s="6">
-        <v>599</v>
+      <c r="C366" s="23"/>
+      <c r="D366" s="24"/>
+      <c r="E366" s="24"/>
+      <c r="F366" t="s" s="25">
+        <v>313</v>
       </c>
     </row>
     <row r="367" ht="15" customHeight="1">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
-      <c r="C367" s="4"/>
-      <c r="D367" s="4"/>
-      <c r="E367" s="4"/>
-      <c r="F367" s="4"/>
-    </row>
-    <row r="368" ht="27" customHeight="1">
-      <c r="A368" t="s" s="12">
-        <v>600</v>
-      </c>
-      <c r="B368" s="13"/>
-      <c r="C368" s="13"/>
-      <c r="D368" s="13"/>
-      <c r="E368" s="13"/>
-      <c r="F368" s="14"/>
+      <c r="C367" t="s" s="30">
+        <v>602</v>
+      </c>
+      <c r="D367" s="27"/>
+      <c r="E367" s="27"/>
+      <c r="F367" t="s" s="30">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="A368" s="4"/>
+      <c r="B368" s="4"/>
+      <c r="C368" t="s" s="6">
+        <v>315</v>
+      </c>
+      <c r="D368" s="4"/>
+      <c r="E368" s="4"/>
+      <c r="F368" t="s" s="6">
+        <v>316</v>
+      </c>
     </row>
     <row r="369" ht="15" customHeight="1">
-      <c r="A369" s="15"/>
-      <c r="B369" s="15"/>
-      <c r="C369" t="s" s="16">
-        <v>601</v>
-      </c>
-      <c r="D369" t="s" s="16">
-        <v>2</v>
-      </c>
-      <c r="E369" t="s" s="16">
-        <v>574</v>
-      </c>
-      <c r="F369" t="s" s="16">
-        <v>602</v>
+      <c r="A369" s="4"/>
+      <c r="B369" s="4"/>
+      <c r="C369" t="s" s="6">
+        <v>603</v>
+      </c>
+      <c r="D369" s="4"/>
+      <c r="E369" s="4"/>
+      <c r="F369" t="s" s="6">
+        <v>604</v>
       </c>
     </row>
     <row r="370" ht="15" customHeight="1">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
-      <c r="C370" t="s" s="6">
-        <v>603</v>
-      </c>
-      <c r="D370" t="s" s="6">
+      <c r="C370" s="4"/>
+      <c r="D370" s="4"/>
+      <c r="E370" s="4"/>
+      <c r="F370" s="4"/>
+    </row>
+    <row r="371" ht="27" customHeight="1">
+      <c r="A371" t="s" s="12">
+        <v>605</v>
+      </c>
+      <c r="B371" s="13"/>
+      <c r="C371" s="13"/>
+      <c r="D371" s="13"/>
+      <c r="E371" s="13"/>
+      <c r="F371" s="14"/>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="A372" s="15"/>
+      <c r="B372" s="15"/>
+      <c r="C372" t="s" s="16">
+        <v>606</v>
+      </c>
+      <c r="D372" t="s" s="16">
         <v>2</v>
       </c>
-      <c r="E370" t="s" s="6">
-        <v>518</v>
-      </c>
-      <c r="F370" t="s" s="6">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="A371" s="4"/>
-      <c r="B371" s="4"/>
-      <c r="C371" t="s" s="6">
-        <v>605</v>
-      </c>
-      <c r="D371" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="E371" t="s" s="6">
-        <v>521</v>
-      </c>
-      <c r="F371" t="s" s="6">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="A372" s="4"/>
-      <c r="B372" s="4"/>
-      <c r="C372" s="4"/>
-      <c r="D372" s="4"/>
-      <c r="E372" s="4"/>
-      <c r="F372" s="4"/>
+      <c r="E372" t="s" s="16">
+        <v>579</v>
+      </c>
+      <c r="F372" t="s" s="16">
+        <v>607</v>
+      </c>
     </row>
     <row r="373" ht="15" customHeight="1">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" t="s" s="6">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D373" t="s" s="6">
         <v>2</v>
       </c>
       <c r="E373" t="s" s="6">
-        <v>418</v>
+        <v>523</v>
       </c>
       <c r="F373" t="s" s="6">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="374" ht="15" customHeight="1">
-      <c r="A374" t="s" s="6">
-        <v>418</v>
-      </c>
-      <c r="B374" t="s" s="6">
-        <v>37</v>
-      </c>
+      <c r="A374" s="4"/>
+      <c r="B374" s="4"/>
       <c r="C374" t="s" s="6">
-        <v>609</v>
-      </c>
-      <c r="D374" s="4"/>
-      <c r="E374" s="4"/>
+        <v>610</v>
+      </c>
+      <c r="D374" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="E374" t="s" s="6">
+        <v>526</v>
+      </c>
       <c r="F374" t="s" s="6">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="375" ht="15" customHeight="1">
-      <c r="A375" t="s" s="6">
-        <v>418</v>
-      </c>
-      <c r="B375" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C375" t="s" s="6">
-        <v>611</v>
-      </c>
+      <c r="A375" s="4"/>
+      <c r="B375" s="4"/>
+      <c r="C375" s="4"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
-      <c r="F375" t="s" s="6">
+      <c r="F375" s="4"/>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="A376" s="4"/>
+      <c r="B376" s="4"/>
+      <c r="C376" t="s" s="6">
         <v>612</v>
       </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="A376" t="s" s="6">
-        <v>418</v>
-      </c>
-      <c r="B376" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C376" t="s" s="32">
+      <c r="D376" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="E376" t="s" s="6">
+        <v>423</v>
+      </c>
+      <c r="F376" t="s" s="6">
         <v>613</v>
-      </c>
-      <c r="D376" s="4"/>
-      <c r="E376" s="4"/>
-      <c r="F376" t="s" s="6">
-        <v>614</v>
       </c>
     </row>
     <row r="377" ht="15" customHeight="1">
       <c r="A377" t="s" s="6">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B377" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C377" t="s" s="32">
-        <v>615</v>
+      <c r="C377" t="s" s="6">
+        <v>614</v>
       </c>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
       <c r="F377" t="s" s="6">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="378" ht="15" customHeight="1">
       <c r="A378" t="s" s="6">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B378" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C378" t="s" s="6">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
       <c r="F378" t="s" s="6">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="379" ht="15" customHeight="1">
       <c r="A379" t="s" s="6">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B379" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C379" t="s" s="6">
-        <v>619</v>
+      <c r="C379" t="s" s="32">
+        <v>618</v>
       </c>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
       <c r="F379" t="s" s="6">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="380" ht="15" customHeight="1">
       <c r="A380" t="s" s="6">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B380" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C380" t="s" s="6">
-        <v>621</v>
+      <c r="C380" t="s" s="32">
+        <v>620</v>
       </c>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
       <c r="F380" t="s" s="6">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="381" ht="15" customHeight="1">
       <c r="A381" t="s" s="6">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B381" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C381" t="s" s="6">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
       <c r="F381" t="s" s="6">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="382" ht="15" customHeight="1">
       <c r="A382" t="s" s="6">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B382" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C382" t="s" s="6">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
       <c r="F382" t="s" s="6">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="383" ht="15" customHeight="1">
       <c r="A383" t="s" s="6">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B383" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C383" t="s" s="6">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
       <c r="F383" t="s" s="6">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="A384" t="s" s="6">
+        <v>423</v>
+      </c>
+      <c r="B384" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C384" t="s" s="6">
         <v>628</v>
       </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="A384" s="4"/>
-      <c r="B384" s="4"/>
-      <c r="C384" t="s" s="6">
-        <v>536</v>
-      </c>
-      <c r="D384" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="E384" t="s" s="6">
-        <v>366</v>
-      </c>
+      <c r="D384" s="4"/>
+      <c r="E384" s="4"/>
       <c r="F384" t="s" s="6">
-        <v>537</v>
+        <v>629</v>
       </c>
     </row>
     <row r="385" ht="15" customHeight="1">
       <c r="A385" t="s" s="6">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="B385" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C385" t="s" s="32">
-        <v>538</v>
+      <c r="C385" t="s" s="6">
+        <v>630</v>
       </c>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
       <c r="F385" t="s" s="6">
-        <v>539</v>
+        <v>631</v>
       </c>
     </row>
     <row r="386" ht="15" customHeight="1">
       <c r="A386" t="s" s="6">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="B386" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C386" t="s" s="6">
-        <v>540</v>
+        <v>632</v>
       </c>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
       <c r="F386" t="s" s="6">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="A387" s="4"/>
+      <c r="B387" s="4"/>
+      <c r="C387" t="s" s="6">
         <v>541</v>
       </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="A387" t="s" s="6">
-        <v>366</v>
-      </c>
-      <c r="B387" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C387" t="s" s="6">
-        <v>629</v>
-      </c>
-      <c r="D387" s="4"/>
-      <c r="E387" s="4"/>
+      <c r="D387" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="E387" t="s" s="6">
+        <v>371</v>
+      </c>
       <c r="F387" t="s" s="6">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="388" ht="15" customHeight="1">
       <c r="A388" t="s" s="6">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B388" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C388" t="s" s="6">
-        <v>630</v>
+      <c r="C388" t="s" s="32">
+        <v>543</v>
       </c>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
       <c r="F388" t="s" s="6">
-        <v>631</v>
+        <v>544</v>
       </c>
     </row>
     <row r="389" ht="15" customHeight="1">
       <c r="A389" t="s" s="6">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B389" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C389" t="s" s="6">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
       <c r="F389" t="s" s="6">
-        <v>632</v>
+        <v>546</v>
       </c>
     </row>
     <row r="390" ht="15" customHeight="1">
       <c r="A390" t="s" s="6">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B390" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C390" t="s" s="6">
-        <v>548</v>
+        <v>634</v>
       </c>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
       <c r="F390" t="s" s="6">
-        <v>633</v>
+        <v>548</v>
       </c>
     </row>
     <row r="391" ht="15" customHeight="1">
       <c r="A391" t="s" s="6">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B391" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C391" t="s" s="6">
-        <v>550</v>
+        <v>635</v>
       </c>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
       <c r="F391" t="s" s="6">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="392" ht="15" customHeight="1">
       <c r="A392" t="s" s="6">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B392" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C392" t="s" s="6">
-        <v>285</v>
+        <v>551</v>
       </c>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
       <c r="F392" t="s" s="6">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="393" ht="15" customHeight="1">
-      <c r="A393" s="4"/>
-      <c r="B393" s="4"/>
-      <c r="C393" s="4"/>
+      <c r="A393" t="s" s="6">
+        <v>371</v>
+      </c>
+      <c r="B393" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C393" t="s" s="6">
+        <v>553</v>
+      </c>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
-      <c r="F393" s="4"/>
+      <c r="F393" t="s" s="6">
+        <v>638</v>
+      </c>
     </row>
     <row r="394" ht="15" customHeight="1">
-      <c r="A394" s="4"/>
-      <c r="B394" s="4"/>
+      <c r="A394" t="s" s="6">
+        <v>371</v>
+      </c>
+      <c r="B394" t="s" s="6">
+        <v>37</v>
+      </c>
       <c r="C394" t="s" s="6">
-        <v>553</v>
-      </c>
-      <c r="D394" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="E394" t="s" s="6">
-        <v>554</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="D394" s="4"/>
+      <c r="E394" s="4"/>
       <c r="F394" t="s" s="6">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="395" ht="15" customHeight="1">
       <c r="A395" t="s" s="6">
-        <v>554</v>
+        <v>371</v>
       </c>
       <c r="B395" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C395" t="s" s="32">
-        <v>538</v>
+      <c r="C395" t="s" s="6">
+        <v>290</v>
       </c>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
       <c r="F395" t="s" s="6">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="396" ht="15" customHeight="1">
-      <c r="A396" t="s" s="6">
-        <v>554</v>
-      </c>
-      <c r="B396" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C396" t="s" s="6">
-        <v>557</v>
-      </c>
+      <c r="A396" s="4"/>
+      <c r="B396" s="4"/>
+      <c r="C396" s="4"/>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
-      <c r="F396" t="s" s="6">
-        <v>638</v>
-      </c>
+      <c r="F396" s="4"/>
     </row>
     <row r="397" ht="15" customHeight="1">
-      <c r="A397" t="s" s="6">
-        <v>554</v>
-      </c>
-      <c r="B397" t="s" s="6">
-        <v>37</v>
-      </c>
+      <c r="A397" s="4"/>
+      <c r="B397" s="4"/>
       <c r="C397" t="s" s="6">
-        <v>639</v>
-      </c>
-      <c r="D397" s="4"/>
-      <c r="E397" s="4"/>
+        <v>558</v>
+      </c>
+      <c r="D397" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="E397" t="s" s="6">
+        <v>559</v>
+      </c>
       <c r="F397" t="s" s="6">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="398" ht="15" customHeight="1">
       <c r="A398" t="s" s="6">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B398" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C398" t="s" s="6">
-        <v>560</v>
+      <c r="C398" t="s" s="32">
+        <v>543</v>
       </c>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
       <c r="F398" t="s" s="6">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="399" ht="15" customHeight="1">
       <c r="A399" t="s" s="6">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B399" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C399" t="s" s="6">
-        <v>642</v>
+        <v>562</v>
       </c>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
@@ -22314,103 +22489,123 @@
     </row>
     <row r="400" ht="15" customHeight="1">
       <c r="A400" t="s" s="6">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B400" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C400" t="s" s="6">
-        <v>564</v>
+        <v>644</v>
       </c>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
       <c r="F400" t="s" s="6">
-        <v>631</v>
+        <v>645</v>
       </c>
     </row>
     <row r="401" ht="15" customHeight="1">
       <c r="A401" t="s" s="6">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B401" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C401" t="s" s="6">
-        <v>644</v>
+        <v>565</v>
       </c>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
       <c r="F401" t="s" s="6">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="402" ht="15" customHeight="1">
       <c r="A402" t="s" s="6">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B402" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C402" t="s" s="6">
-        <v>285</v>
+        <v>647</v>
       </c>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
       <c r="F402" t="s" s="6">
-        <v>635</v>
+        <v>648</v>
       </c>
     </row>
     <row r="403" ht="15" customHeight="1">
-      <c r="A403" s="4"/>
-      <c r="B403" s="4"/>
+      <c r="A403" t="s" s="6">
+        <v>559</v>
+      </c>
+      <c r="B403" t="s" s="6">
+        <v>37</v>
+      </c>
       <c r="C403" t="s" s="6">
-        <v>646</v>
+        <v>569</v>
       </c>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
       <c r="F403" t="s" s="6">
-        <v>647</v>
+        <v>636</v>
       </c>
     </row>
     <row r="404" ht="15" customHeight="1">
-      <c r="A404" s="4"/>
-      <c r="B404" s="4"/>
+      <c r="A404" t="s" s="6">
+        <v>559</v>
+      </c>
+      <c r="B404" t="s" s="6">
+        <v>37</v>
+      </c>
       <c r="C404" t="s" s="6">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
       <c r="F404" t="s" s="6">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="405" ht="15" customHeight="1">
-      <c r="A405" s="4"/>
-      <c r="B405" s="4"/>
-      <c r="C405" s="4"/>
+      <c r="A405" t="s" s="6">
+        <v>559</v>
+      </c>
+      <c r="B405" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C405" t="s" s="6">
+        <v>290</v>
+      </c>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
-      <c r="F405" s="4"/>
+      <c r="F405" t="s" s="6">
+        <v>640</v>
+      </c>
     </row>
     <row r="406" ht="15" customHeight="1">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" t="s" s="6">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
       <c r="F406" t="s" s="6">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="407" ht="15" customHeight="1">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
-      <c r="C407" s="4"/>
+      <c r="C407" t="s" s="6">
+        <v>653</v>
+      </c>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
-      <c r="F407" s="4"/>
+      <c r="F407" t="s" s="6">
+        <v>654</v>
+      </c>
     </row>
     <row r="408" ht="15" customHeight="1">
       <c r="A408" s="4"/>
@@ -22424,298 +22619,278 @@
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" t="s" s="6">
-        <v>515</v>
+        <v>655</v>
       </c>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
       <c r="F409" t="s" s="6">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="410" ht="15" customHeight="1">
-      <c r="A410" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="B410" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C410" t="s" s="32">
-        <v>653</v>
-      </c>
+      <c r="A410" s="4"/>
+      <c r="B410" s="4"/>
+      <c r="C410" s="4"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
-      <c r="F410" t="s" s="6">
-        <v>654</v>
-      </c>
+      <c r="F410" s="4"/>
     </row>
     <row r="411" ht="15" customHeight="1">
-      <c r="A411" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="B411" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C411" t="s" s="32">
-        <v>655</v>
-      </c>
+      <c r="A411" s="4"/>
+      <c r="B411" s="4"/>
+      <c r="C411" s="4"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
-      <c r="F411" t="s" s="6">
-        <v>656</v>
-      </c>
+      <c r="F411" s="4"/>
     </row>
     <row r="412" ht="15" customHeight="1">
-      <c r="A412" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="B412" t="s" s="6">
-        <v>37</v>
-      </c>
+      <c r="A412" s="4"/>
+      <c r="B412" s="4"/>
       <c r="C412" t="s" s="6">
-        <v>657</v>
+        <v>520</v>
       </c>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
       <c r="F412" t="s" s="6">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="A413" t="s" s="6">
+        <v>44</v>
+      </c>
+      <c r="B413" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C413" t="s" s="32">
         <v>658</v>
       </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="A413" s="4"/>
-      <c r="B413" s="4"/>
-      <c r="C413" s="4"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
-      <c r="F413" s="4"/>
-    </row>
-    <row r="414" ht="27" customHeight="1">
-      <c r="A414" t="s" s="12">
+      <c r="F413" t="s" s="6">
         <v>659</v>
       </c>
-      <c r="B414" s="13"/>
-      <c r="C414" s="13"/>
-      <c r="D414" s="13"/>
-      <c r="E414" s="13"/>
-      <c r="F414" s="14"/>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="A414" t="s" s="6">
+        <v>44</v>
+      </c>
+      <c r="B414" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C414" t="s" s="32">
+        <v>660</v>
+      </c>
+      <c r="D414" s="4"/>
+      <c r="E414" s="4"/>
+      <c r="F414" t="s" s="6">
+        <v>661</v>
+      </c>
     </row>
     <row r="415" ht="15" customHeight="1">
-      <c r="A415" s="15"/>
-      <c r="B415" s="15"/>
-      <c r="C415" t="s" s="25">
-        <v>660</v>
-      </c>
-      <c r="D415" t="s" s="25">
+      <c r="A415" t="s" s="6">
+        <v>44</v>
+      </c>
+      <c r="B415" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C415" t="s" s="6">
+        <v>662</v>
+      </c>
+      <c r="D415" s="4"/>
+      <c r="E415" s="4"/>
+      <c r="F415" t="s" s="6">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="A416" s="4"/>
+      <c r="B416" s="4"/>
+      <c r="C416" s="4"/>
+      <c r="D416" s="4"/>
+      <c r="E416" s="4"/>
+      <c r="F416" s="4"/>
+    </row>
+    <row r="417" ht="27" customHeight="1">
+      <c r="A417" t="s" s="12">
+        <v>664</v>
+      </c>
+      <c r="B417" s="13"/>
+      <c r="C417" s="13"/>
+      <c r="D417" s="13"/>
+      <c r="E417" s="13"/>
+      <c r="F417" s="14"/>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="A418" s="15"/>
+      <c r="B418" s="15"/>
+      <c r="C418" t="s" s="25">
+        <v>665</v>
+      </c>
+      <c r="D418" t="s" s="25">
         <v>2</v>
       </c>
-      <c r="E415" t="s" s="25">
-        <v>661</v>
-      </c>
-      <c r="F415" t="s" s="25">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="A416" t="s" s="6">
-        <v>661</v>
-      </c>
-      <c r="B416" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C416" t="s" s="30">
-        <v>663</v>
-      </c>
-      <c r="D416" s="27"/>
-      <c r="E416" s="27"/>
-      <c r="F416" t="s" s="30">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="A417" t="s" s="6">
-        <v>661</v>
-      </c>
-      <c r="B417" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C417" t="s" s="6">
-        <v>665</v>
-      </c>
-      <c r="D417" s="4"/>
-      <c r="E417" s="4"/>
-      <c r="F417" t="s" s="6">
+      <c r="E418" t="s" s="25">
         <v>666</v>
       </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="A418" t="s" s="6">
-        <v>661</v>
-      </c>
-      <c r="B418" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C418" t="s" s="6">
+      <c r="F418" t="s" s="25">
         <v>667</v>
-      </c>
-      <c r="D418" s="4"/>
-      <c r="E418" s="4"/>
-      <c r="F418" t="s" s="6">
-        <v>668</v>
       </c>
     </row>
     <row r="419" ht="15" customHeight="1">
       <c r="A419" t="s" s="6">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="B419" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C419" t="s" s="6">
+      <c r="C419" t="s" s="30">
+        <v>668</v>
+      </c>
+      <c r="D419" s="27"/>
+      <c r="E419" s="27"/>
+      <c r="F419" t="s" s="30">
         <v>669</v>
-      </c>
-      <c r="D419" s="4"/>
-      <c r="E419" s="4"/>
-      <c r="F419" t="s" s="6">
-        <v>670</v>
       </c>
     </row>
     <row r="420" ht="15" customHeight="1">
       <c r="A420" t="s" s="6">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="B420" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C420" t="s" s="62">
-        <v>671</v>
+      <c r="C420" t="s" s="6">
+        <v>670</v>
       </c>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
       <c r="F420" t="s" s="6">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="421" ht="15" customHeight="1">
       <c r="A421" t="s" s="6">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="B421" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C421" t="s" s="31">
+      <c r="C421" t="s" s="6">
+        <v>672</v>
+      </c>
+      <c r="D421" s="4"/>
+      <c r="E421" s="4"/>
+      <c r="F421" t="s" s="6">
         <v>673</v>
-      </c>
-      <c r="D421" t="s" s="31">
-        <v>2</v>
-      </c>
-      <c r="E421" t="s" s="31">
-        <v>421</v>
-      </c>
-      <c r="F421" t="s" s="31">
-        <v>674</v>
       </c>
     </row>
     <row r="422" ht="15" customHeight="1">
       <c r="A422" t="s" s="6">
-        <v>421</v>
+        <v>666</v>
       </c>
       <c r="B422" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C422" t="s" s="30">
+      <c r="C422" t="s" s="6">
+        <v>674</v>
+      </c>
+      <c r="D422" s="4"/>
+      <c r="E422" s="4"/>
+      <c r="F422" t="s" s="6">
         <v>675</v>
-      </c>
-      <c r="D422" s="27"/>
-      <c r="E422" s="27"/>
-      <c r="F422" t="s" s="30">
-        <v>676</v>
       </c>
     </row>
     <row r="423" ht="15" customHeight="1">
       <c r="A423" t="s" s="6">
-        <v>421</v>
+        <v>666</v>
       </c>
       <c r="B423" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C423" t="s" s="6">
-        <v>677</v>
+      <c r="C423" t="s" s="62">
+        <v>676</v>
       </c>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
       <c r="F423" t="s" s="6">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="A424" t="s" s="6">
+        <v>666</v>
+      </c>
+      <c r="B424" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C424" t="s" s="31">
         <v>678</v>
       </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="A424" s="4"/>
-      <c r="B424" s="4"/>
-      <c r="C424" s="4"/>
-      <c r="D424" s="4"/>
-      <c r="E424" s="4"/>
-      <c r="F424" s="4"/>
+      <c r="D424" t="s" s="31">
+        <v>2</v>
+      </c>
+      <c r="E424" t="s" s="31">
+        <v>426</v>
+      </c>
+      <c r="F424" t="s" s="31">
+        <v>679</v>
+      </c>
     </row>
     <row r="425" ht="15" customHeight="1">
-      <c r="A425" s="4"/>
-      <c r="B425" s="4"/>
-      <c r="C425" t="s" s="31">
-        <v>679</v>
-      </c>
-      <c r="D425" t="s" s="31">
-        <v>2</v>
-      </c>
-      <c r="E425" t="s" s="31">
-        <v>35</v>
-      </c>
-      <c r="F425" t="s" s="31">
+      <c r="A425" t="s" s="6">
+        <v>426</v>
+      </c>
+      <c r="B425" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C425" t="s" s="30">
         <v>680</v>
+      </c>
+      <c r="D425" s="27"/>
+      <c r="E425" s="27"/>
+      <c r="F425" t="s" s="30">
+        <v>681</v>
       </c>
     </row>
     <row r="426" ht="15" customHeight="1">
       <c r="A426" t="s" s="6">
-        <v>35</v>
+        <v>426</v>
       </c>
       <c r="B426" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C426" t="s" s="64">
-        <v>681</v>
-      </c>
-      <c r="D426" s="27"/>
-      <c r="E426" s="27"/>
-      <c r="F426" t="s" s="30">
+      <c r="C426" t="s" s="6">
         <v>682</v>
       </c>
+      <c r="D426" s="4"/>
+      <c r="E426" s="4"/>
+      <c r="F426" t="s" s="6">
+        <v>683</v>
+      </c>
     </row>
     <row r="427" ht="15" customHeight="1">
-      <c r="A427" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="B427" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C427" t="s" s="62">
-        <v>683</v>
-      </c>
+      <c r="A427" s="4"/>
+      <c r="B427" s="4"/>
+      <c r="C427" s="4"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
-      <c r="F427" t="s" s="6">
+      <c r="F427" s="4"/>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="A428" s="4"/>
+      <c r="B428" s="4"/>
+      <c r="C428" t="s" s="31">
         <v>684</v>
       </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="A428" t="s" s="6">
+      <c r="D428" t="s" s="31">
+        <v>2</v>
+      </c>
+      <c r="E428" t="s" s="31">
         <v>35</v>
       </c>
-      <c r="B428" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C428" t="s" s="62">
+      <c r="F428" t="s" s="31">
         <v>685</v>
-      </c>
-      <c r="D428" s="4"/>
-      <c r="E428" s="4"/>
-      <c r="F428" t="s" s="6">
-        <v>686</v>
       </c>
     </row>
     <row r="429" ht="15" customHeight="1">
@@ -22725,13 +22900,13 @@
       <c r="B429" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C429" t="s" s="6">
+      <c r="C429" t="s" s="64">
+        <v>686</v>
+      </c>
+      <c r="D429" s="27"/>
+      <c r="E429" s="27"/>
+      <c r="F429" t="s" s="30">
         <v>687</v>
-      </c>
-      <c r="D429" s="4"/>
-      <c r="E429" s="4"/>
-      <c r="F429" t="s" s="6">
-        <v>688</v>
       </c>
     </row>
     <row r="430" ht="15" customHeight="1">
@@ -22741,13 +22916,13 @@
       <c r="B430" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C430" t="s" s="6">
-        <v>689</v>
+      <c r="C430" t="s" s="62">
+        <v>688</v>
       </c>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
       <c r="F430" t="s" s="6">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="431" ht="15" customHeight="1">
@@ -22757,7 +22932,7 @@
       <c r="B431" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C431" t="s" s="6">
+      <c r="C431" t="s" s="62">
         <v>690</v>
       </c>
       <c r="D431" s="4"/>
@@ -22790,12 +22965,12 @@
         <v>37</v>
       </c>
       <c r="C433" t="s" s="6">
-        <v>280</v>
+        <v>694</v>
       </c>
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
       <c r="F433" t="s" s="6">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="434" ht="15" customHeight="1">
@@ -22838,201 +23013,201 @@
         <v>37</v>
       </c>
       <c r="C436" t="s" s="6">
-        <v>699</v>
+        <v>285</v>
       </c>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
       <c r="F436" t="s" s="6">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="437" ht="15" customHeight="1">
-      <c r="A437" s="4"/>
-      <c r="B437" s="4"/>
-      <c r="C437" s="4"/>
+      <c r="A437" t="s" s="6">
+        <v>35</v>
+      </c>
+      <c r="B437" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C437" t="s" s="6">
+        <v>700</v>
+      </c>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
-      <c r="F437" s="4"/>
+      <c r="F437" t="s" s="6">
+        <v>701</v>
+      </c>
     </row>
     <row r="438" ht="15" customHeight="1">
-      <c r="A438" s="4"/>
-      <c r="B438" s="4"/>
+      <c r="A438" t="s" s="6">
+        <v>35</v>
+      </c>
+      <c r="B438" t="s" s="6">
+        <v>37</v>
+      </c>
       <c r="C438" t="s" s="6">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
       <c r="F438" t="s" s="6">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="439" ht="15" customHeight="1">
-      <c r="A439" s="4"/>
-      <c r="B439" s="4"/>
+      <c r="A439" t="s" s="6">
+        <v>35</v>
+      </c>
+      <c r="B439" t="s" s="6">
+        <v>37</v>
+      </c>
       <c r="C439" t="s" s="6">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
       <c r="F439" t="s" s="6">
-        <v>610</v>
+        <v>703</v>
       </c>
     </row>
     <row r="440" ht="15" customHeight="1">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
-      <c r="C440" t="s" s="6">
-        <v>703</v>
-      </c>
+      <c r="C440" s="4"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
-      <c r="F440" t="s" s="6">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="441" ht="27" customHeight="1">
+      <c r="F440" s="4"/>
+    </row>
+    <row r="441" ht="15" customHeight="1">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
-      <c r="C441" t="s" s="38">
-        <v>704</v>
+      <c r="C441" t="s" s="6">
+        <v>705</v>
       </c>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
-      <c r="F441" t="s" s="40">
-        <v>705</v>
+      <c r="F441" t="s" s="6">
+        <v>706</v>
       </c>
     </row>
     <row r="442" ht="15" customHeight="1">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" t="s" s="6">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
       <c r="F442" t="s" s="6">
-        <v>628</v>
+        <v>615</v>
       </c>
     </row>
     <row r="443" ht="15" customHeight="1">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
-      <c r="C443" t="s" s="32">
-        <v>707</v>
+      <c r="C443" t="s" s="6">
+        <v>708</v>
       </c>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
       <c r="F443" t="s" s="6">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="444" ht="27" customHeight="1">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
-      <c r="C444" t="s" s="6">
-        <v>708</v>
+      <c r="C444" t="s" s="38">
+        <v>709</v>
       </c>
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
-      <c r="F444" t="s" s="6">
-        <v>640</v>
+      <c r="F444" t="s" s="40">
+        <v>710</v>
       </c>
     </row>
     <row r="445" ht="15" customHeight="1">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
-      <c r="C445" s="4"/>
+      <c r="C445" t="s" s="6">
+        <v>711</v>
+      </c>
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
-      <c r="F445" s="4"/>
+      <c r="F445" t="s" s="6">
+        <v>633</v>
+      </c>
     </row>
     <row r="446" ht="15" customHeight="1">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
-      <c r="C446" t="s" s="6">
-        <v>709</v>
+      <c r="C446" t="s" s="32">
+        <v>712</v>
       </c>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
       <c r="F446" t="s" s="6">
-        <v>710</v>
+        <v>621</v>
       </c>
     </row>
     <row r="447" ht="15" customHeight="1">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" t="s" s="6">
-        <v>267</v>
+        <v>713</v>
       </c>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
       <c r="F447" t="s" s="6">
-        <v>711</v>
+        <v>645</v>
       </c>
     </row>
     <row r="448" ht="15" customHeight="1">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
-      <c r="C448" t="s" s="6">
-        <v>712</v>
-      </c>
+      <c r="C448" s="4"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
-      <c r="F448" t="s" s="6">
-        <v>710</v>
-      </c>
+      <c r="F448" s="4"/>
     </row>
     <row r="449" ht="15" customHeight="1">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" t="s" s="6">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
       <c r="F449" t="s" s="6">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="450" ht="15" customHeight="1">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" t="s" s="6">
-        <v>715</v>
-      </c>
-      <c r="D450" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="E450" t="s" s="6">
+        <v>272</v>
+      </c>
+      <c r="D450" s="4"/>
+      <c r="E450" s="4"/>
+      <c r="F450" t="s" s="6">
         <v>716</v>
       </c>
-      <c r="F450" t="s" s="6">
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="A451" s="4"/>
+      <c r="B451" s="4"/>
+      <c r="C451" t="s" s="6">
         <v>717</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="A451" t="s" s="6">
-        <v>716</v>
-      </c>
-      <c r="B451" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C451" t="s" s="6">
-        <v>280</v>
       </c>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
       <c r="F451" t="s" s="6">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="452" ht="15" customHeight="1">
-      <c r="A452" t="s" s="6">
-        <v>716</v>
-      </c>
-      <c r="B452" t="s" s="6">
-        <v>37</v>
-      </c>
+      <c r="A452" s="4"/>
+      <c r="B452" s="4"/>
       <c r="C452" t="s" s="6">
         <v>718</v>
       </c>
@@ -23043,269 +23218,281 @@
       </c>
     </row>
     <row r="453" ht="15" customHeight="1">
-      <c r="A453" t="s" s="6">
-        <v>716</v>
-      </c>
-      <c r="B453" t="s" s="6">
-        <v>37</v>
-      </c>
+      <c r="A453" s="4"/>
+      <c r="B453" s="4"/>
       <c r="C453" t="s" s="6">
         <v>720</v>
       </c>
-      <c r="D453" s="4"/>
-      <c r="E453" s="4"/>
+      <c r="D453" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="E453" t="s" s="6">
+        <v>721</v>
+      </c>
       <c r="F453" t="s" s="6">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="454" ht="15" customHeight="1">
       <c r="A454" t="s" s="6">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="B454" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C454" t="s" s="6">
-        <v>722</v>
+        <v>285</v>
       </c>
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
       <c r="F454" t="s" s="6">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="A455" t="s" s="6">
+        <v>721</v>
+      </c>
+      <c r="B455" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C455" t="s" s="6">
         <v>723</v>
       </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="A455" s="4"/>
-      <c r="B455" s="4"/>
-      <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
-      <c r="F455" s="4"/>
-    </row>
-    <row r="456" ht="18.4" customHeight="1">
-      <c r="A456" s="4"/>
-      <c r="B456" s="4"/>
-      <c r="C456" t="s" s="22">
+      <c r="F455" t="s" s="6">
         <v>724</v>
       </c>
-      <c r="D456" s="14"/>
-      <c r="E456" s="14"/>
-      <c r="F456" s="14"/>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="A456" t="s" s="6">
+        <v>721</v>
+      </c>
+      <c r="B456" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C456" t="s" s="6">
+        <v>725</v>
+      </c>
+      <c r="D456" s="4"/>
+      <c r="E456" s="4"/>
+      <c r="F456" t="s" s="6">
+        <v>726</v>
+      </c>
     </row>
     <row r="457" ht="15" customHeight="1">
-      <c r="A457" s="4"/>
-      <c r="B457" s="4"/>
-      <c r="C457" s="66"/>
-      <c r="D457" s="66"/>
-      <c r="E457" s="66"/>
-      <c r="F457" t="s" s="67">
-        <v>725</v>
+      <c r="A457" t="s" s="6">
+        <v>721</v>
+      </c>
+      <c r="B457" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C457" t="s" s="6">
+        <v>727</v>
+      </c>
+      <c r="D457" s="4"/>
+      <c r="E457" s="4"/>
+      <c r="F457" t="s" s="6">
+        <v>728</v>
       </c>
     </row>
     <row r="458" ht="15" customHeight="1">
       <c r="A458" s="4"/>
-      <c r="B458" s="68"/>
-      <c r="C458" t="s" s="69">
-        <v>726</v>
-      </c>
-      <c r="D458" s="70"/>
-      <c r="E458" s="70"/>
-      <c r="F458" t="s" s="6">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
+      <c r="B458" s="4"/>
+      <c r="C458" s="4"/>
+      <c r="D458" s="4"/>
+      <c r="E458" s="4"/>
+      <c r="F458" s="4"/>
+    </row>
+    <row r="459" ht="18.4" customHeight="1">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
-      <c r="C459" t="s" s="6">
-        <v>727</v>
-      </c>
-      <c r="D459" s="4"/>
-      <c r="E459" s="4"/>
-      <c r="F459" t="s" s="6">
-        <v>728</v>
-      </c>
+      <c r="C459" t="s" s="22">
+        <v>729</v>
+      </c>
+      <c r="D459" s="14"/>
+      <c r="E459" s="14"/>
+      <c r="F459" s="14"/>
     </row>
     <row r="460" ht="15" customHeight="1">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
-      <c r="C460" s="4"/>
-      <c r="D460" s="4"/>
-      <c r="E460" s="4"/>
-      <c r="F460" s="4"/>
-    </row>
-    <row r="461" ht="18.4" customHeight="1">
+      <c r="C460" s="66"/>
+      <c r="D460" s="66"/>
+      <c r="E460" s="66"/>
+      <c r="F460" t="s" s="67">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
       <c r="A461" s="4"/>
-      <c r="B461" s="4"/>
-      <c r="C461" t="s" s="22">
-        <v>729</v>
-      </c>
-      <c r="D461" s="14"/>
-      <c r="E461" s="14"/>
-      <c r="F461" s="14"/>
+      <c r="B461" s="68"/>
+      <c r="C461" t="s" s="69">
+        <v>731</v>
+      </c>
+      <c r="D461" s="70"/>
+      <c r="E461" s="70"/>
+      <c r="F461" t="s" s="6">
+        <v>671</v>
+      </c>
     </row>
     <row r="462" ht="15" customHeight="1">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
-      <c r="C462" s="66"/>
-      <c r="D462" s="66"/>
-      <c r="E462" s="66"/>
-      <c r="F462" t="s" s="71">
-        <v>730</v>
+      <c r="C462" t="s" s="6">
+        <v>732</v>
+      </c>
+      <c r="D462" s="4"/>
+      <c r="E462" s="4"/>
+      <c r="F462" t="s" s="6">
+        <v>733</v>
       </c>
     </row>
     <row r="463" ht="15" customHeight="1">
       <c r="A463" s="4"/>
-      <c r="B463" s="72"/>
-      <c r="C463" t="s" s="73">
-        <v>731</v>
-      </c>
-      <c r="D463" s="74"/>
-      <c r="E463" s="74"/>
-      <c r="F463" t="s" s="75">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
+      <c r="B463" s="4"/>
+      <c r="C463" s="4"/>
+      <c r="D463" s="4"/>
+      <c r="E463" s="4"/>
+      <c r="F463" s="4"/>
+    </row>
+    <row r="464" ht="18.4" customHeight="1">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
-      <c r="C464" t="s" s="6">
-        <v>733</v>
-      </c>
-      <c r="D464" s="4"/>
-      <c r="E464" s="4"/>
-      <c r="F464" t="s" s="6">
+      <c r="C464" t="s" s="22">
         <v>734</v>
       </c>
+      <c r="D464" s="14"/>
+      <c r="E464" s="14"/>
+      <c r="F464" s="14"/>
     </row>
     <row r="465" ht="15" customHeight="1">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
-      <c r="C465" t="s" s="6">
+      <c r="C465" s="66"/>
+      <c r="D465" s="66"/>
+      <c r="E465" s="66"/>
+      <c r="F465" t="s" s="71">
         <v>735</v>
-      </c>
-      <c r="D465" s="4"/>
-      <c r="E465" s="4"/>
-      <c r="F465" t="s" s="6">
-        <v>736</v>
       </c>
     </row>
     <row r="466" ht="15" customHeight="1">
       <c r="A466" s="4"/>
-      <c r="B466" s="4"/>
-      <c r="C466" t="s" s="6">
+      <c r="B466" s="72"/>
+      <c r="C466" t="s" s="73">
+        <v>736</v>
+      </c>
+      <c r="D466" s="74"/>
+      <c r="E466" s="74"/>
+      <c r="F466" t="s" s="75">
         <v>737</v>
-      </c>
-      <c r="D466" s="4"/>
-      <c r="E466" s="4"/>
-      <c r="F466" t="s" s="6">
-        <v>738</v>
       </c>
     </row>
     <row r="467" ht="15" customHeight="1">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
-      <c r="C467" s="4"/>
+      <c r="C467" t="s" s="6">
+        <v>738</v>
+      </c>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
-      <c r="F467" s="4"/>
-    </row>
-    <row r="468" ht="27" customHeight="1">
-      <c r="A468" t="s" s="12">
+      <c r="F467" t="s" s="6">
         <v>739</v>
       </c>
-      <c r="B468" s="13"/>
-      <c r="C468" s="13"/>
-      <c r="D468" s="13"/>
-      <c r="E468" s="13"/>
-      <c r="F468" s="14"/>
+    </row>
+    <row r="468" ht="15" customHeight="1">
+      <c r="A468" s="4"/>
+      <c r="B468" s="4"/>
+      <c r="C468" t="s" s="6">
+        <v>740</v>
+      </c>
+      <c r="D468" s="4"/>
+      <c r="E468" s="4"/>
+      <c r="F468" t="s" s="6">
+        <v>741</v>
+      </c>
     </row>
     <row r="469" ht="15" customHeight="1">
-      <c r="A469" s="15"/>
-      <c r="B469" s="15"/>
-      <c r="C469" t="s" s="16">
-        <v>740</v>
-      </c>
-      <c r="D469" t="s" s="16">
-        <v>2</v>
-      </c>
-      <c r="E469" t="s" s="16">
-        <v>741</v>
-      </c>
-      <c r="F469" t="s" s="16">
+      <c r="A469" s="4"/>
+      <c r="B469" s="4"/>
+      <c r="C469" t="s" s="6">
         <v>742</v>
+      </c>
+      <c r="D469" s="4"/>
+      <c r="E469" s="4"/>
+      <c r="F469" t="s" s="6">
+        <v>743</v>
       </c>
     </row>
     <row r="470" ht="15" customHeight="1">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
-      <c r="C470" t="s" s="6">
-        <v>743</v>
-      </c>
+      <c r="C470" s="4"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
-      <c r="F470" t="s" s="6">
+      <c r="F470" s="4"/>
+    </row>
+    <row r="471" ht="27" customHeight="1">
+      <c r="A471" t="s" s="12">
         <v>744</v>
       </c>
-    </row>
-    <row r="471" ht="15" customHeight="1">
-      <c r="A471" s="4"/>
-      <c r="B471" s="4"/>
-      <c r="C471" t="s" s="6">
+      <c r="B471" s="13"/>
+      <c r="C471" s="13"/>
+      <c r="D471" s="13"/>
+      <c r="E471" s="13"/>
+      <c r="F471" s="14"/>
+    </row>
+    <row r="472" ht="15" customHeight="1">
+      <c r="A472" s="15"/>
+      <c r="B472" s="15"/>
+      <c r="C472" t="s" s="16">
         <v>745</v>
       </c>
-      <c r="D471" s="4"/>
-      <c r="E471" s="4"/>
-      <c r="F471" t="s" s="6">
+      <c r="D472" t="s" s="16">
+        <v>2</v>
+      </c>
+      <c r="E472" t="s" s="16">
         <v>746</v>
       </c>
-    </row>
-    <row r="472" ht="15" customHeight="1">
-      <c r="A472" s="4"/>
-      <c r="B472" s="4"/>
-      <c r="C472" t="s" s="6">
+      <c r="F472" t="s" s="16">
         <v>747</v>
-      </c>
-      <c r="D472" s="4"/>
-      <c r="E472" s="4"/>
-      <c r="F472" t="s" s="6">
-        <v>748</v>
       </c>
     </row>
     <row r="473" ht="15" customHeight="1">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" t="s" s="6">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
       <c r="F473" t="s" s="6">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="474" ht="15" customHeight="1">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" t="s" s="6">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
       <c r="F474" t="s" s="6">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="475" ht="15" customHeight="1">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" t="s" s="6">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
       <c r="F475" t="s" s="6">
-        <v>355</v>
+        <v>753</v>
       </c>
     </row>
     <row r="476" ht="15" customHeight="1">
@@ -23341,124 +23528,130 @@
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
       <c r="F478" t="s" s="6">
-        <v>759</v>
+        <v>360</v>
       </c>
     </row>
     <row r="479" ht="15" customHeight="1">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" t="s" s="6">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
       <c r="F479" t="s" s="6">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="480" ht="15" customHeight="1">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
-      <c r="C480" s="4"/>
+      <c r="C480" t="s" s="6">
+        <v>761</v>
+      </c>
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
-      <c r="F480" s="4"/>
+      <c r="F480" t="s" s="6">
+        <v>762</v>
+      </c>
     </row>
     <row r="481" ht="15" customHeight="1">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" t="s" s="6">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
       <c r="F481" t="s" s="6">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="482" ht="15" customHeight="1">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" t="s" s="6">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D482" s="4"/>
       <c r="E482" s="4"/>
       <c r="F482" t="s" s="6">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="483" ht="15" customHeight="1">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
-      <c r="C483" t="s" s="6">
-        <v>766</v>
-      </c>
+      <c r="C483" s="4"/>
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
-      <c r="F483" t="s" s="6">
-        <v>767</v>
-      </c>
+      <c r="F483" s="4"/>
     </row>
     <row r="484" ht="15" customHeight="1">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" t="s" s="6">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D484" s="4"/>
       <c r="E484" s="4"/>
       <c r="F484" t="s" s="6">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="485" ht="15" customHeight="1">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
-      <c r="C485" s="4"/>
+      <c r="C485" t="s" s="6">
+        <v>769</v>
+      </c>
       <c r="D485" s="4"/>
       <c r="E485" s="4"/>
-      <c r="F485" s="4"/>
+      <c r="F485" t="s" s="6">
+        <v>770</v>
+      </c>
     </row>
     <row r="486" ht="15" customHeight="1">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" t="s" s="6">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D486" s="4"/>
       <c r="E486" s="4"/>
-      <c r="F486" s="4"/>
+      <c r="F486" t="s" s="6">
+        <v>772</v>
+      </c>
     </row>
     <row r="487" ht="15" customHeight="1">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
-      <c r="C487" s="4"/>
+      <c r="C487" t="s" s="6">
+        <v>773</v>
+      </c>
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
-      <c r="F487" s="4"/>
-    </row>
-    <row r="488" ht="27" customHeight="1">
-      <c r="A488" t="s" s="12">
-        <v>771</v>
-      </c>
-      <c r="B488" s="13"/>
-      <c r="C488" s="13"/>
-      <c r="D488" s="13"/>
-      <c r="E488" s="13"/>
-      <c r="F488" s="14"/>
+      <c r="F487" t="s" s="6">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="488" ht="15" customHeight="1">
+      <c r="A488" s="4"/>
+      <c r="B488" s="4"/>
+      <c r="C488" s="4"/>
+      <c r="D488" s="4"/>
+      <c r="E488" s="4"/>
+      <c r="F488" s="4"/>
     </row>
     <row r="489" ht="15" customHeight="1">
-      <c r="A489" s="15"/>
-      <c r="B489" s="15"/>
-      <c r="C489" t="s" s="16">
-        <v>772</v>
-      </c>
-      <c r="D489" s="15"/>
-      <c r="E489" s="15"/>
-      <c r="F489" t="s" s="16">
-        <v>773</v>
-      </c>
+      <c r="A489" s="4"/>
+      <c r="B489" s="4"/>
+      <c r="C489" t="s" s="6">
+        <v>775</v>
+      </c>
+      <c r="D489" s="4"/>
+      <c r="E489" s="4"/>
+      <c r="F489" s="4"/>
     </row>
     <row r="490" ht="15" customHeight="1">
       <c r="A490" s="4"/>
@@ -23468,36 +23661,26 @@
       <c r="E490" s="4"/>
       <c r="F490" s="4"/>
     </row>
-    <row r="491" ht="15" customHeight="1">
-      <c r="A491" s="4"/>
-      <c r="B491" s="4"/>
-      <c r="C491" t="s" s="31">
-        <v>318</v>
-      </c>
-      <c r="D491" t="s" s="31">
-        <v>2</v>
-      </c>
-      <c r="E491" t="s" s="31">
-        <v>319</v>
-      </c>
-      <c r="F491" t="s" s="31">
-        <v>774</v>
-      </c>
+    <row r="491" ht="27" customHeight="1">
+      <c r="A491" t="s" s="12">
+        <v>776</v>
+      </c>
+      <c r="B491" s="13"/>
+      <c r="C491" s="13"/>
+      <c r="D491" s="13"/>
+      <c r="E491" s="13"/>
+      <c r="F491" s="14"/>
     </row>
     <row r="492" ht="15" customHeight="1">
-      <c r="A492" t="s" s="6">
-        <v>319</v>
-      </c>
-      <c r="B492" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C492" t="s" s="30">
-        <v>330</v>
-      </c>
-      <c r="D492" s="27"/>
-      <c r="E492" s="27"/>
-      <c r="F492" t="s" s="30">
-        <v>331</v>
+      <c r="A492" s="15"/>
+      <c r="B492" s="15"/>
+      <c r="C492" t="s" s="16">
+        <v>777</v>
+      </c>
+      <c r="D492" s="15"/>
+      <c r="E492" s="15"/>
+      <c r="F492" t="s" s="16">
+        <v>778</v>
       </c>
     </row>
     <row r="493" ht="15" customHeight="1">
@@ -23512,32 +23695,32 @@
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" t="s" s="31">
-        <v>775</v>
+        <v>323</v>
       </c>
       <c r="D494" t="s" s="31">
         <v>2</v>
       </c>
       <c r="E494" t="s" s="31">
-        <v>574</v>
+        <v>324</v>
       </c>
       <c r="F494" t="s" s="31">
-        <v>575</v>
+        <v>779</v>
       </c>
     </row>
     <row r="495" ht="15" customHeight="1">
       <c r="A495" t="s" s="6">
-        <v>574</v>
+        <v>324</v>
       </c>
       <c r="B495" t="s" s="6">
         <v>37</v>
       </c>
       <c r="C495" t="s" s="30">
-        <v>594</v>
+        <v>335</v>
       </c>
       <c r="D495" s="27"/>
       <c r="E495" s="27"/>
       <c r="F495" t="s" s="30">
-        <v>776</v>
+        <v>336</v>
       </c>
     </row>
     <row r="496" ht="15" customHeight="1">
@@ -23551,81 +23734,73 @@
     <row r="497" ht="15" customHeight="1">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
-      <c r="C497" t="s" s="6">
-        <v>777</v>
-      </c>
-      <c r="D497" t="s" s="6">
+      <c r="C497" t="s" s="31">
+        <v>780</v>
+      </c>
+      <c r="D497" t="s" s="31">
         <v>2</v>
       </c>
-      <c r="E497" t="s" s="6">
-        <v>778</v>
-      </c>
-      <c r="F497" t="s" s="6">
-        <v>771</v>
+      <c r="E497" t="s" s="31">
+        <v>579</v>
+      </c>
+      <c r="F497" t="s" s="31">
+        <v>580</v>
       </c>
     </row>
     <row r="498" ht="15" customHeight="1">
-      <c r="A498" s="4"/>
-      <c r="B498" s="4"/>
-      <c r="C498" t="s" s="31">
-        <v>779</v>
-      </c>
-      <c r="D498" t="s" s="31">
+      <c r="A498" t="s" s="6">
+        <v>579</v>
+      </c>
+      <c r="B498" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C498" t="s" s="30">
+        <v>599</v>
+      </c>
+      <c r="D498" s="27"/>
+      <c r="E498" s="27"/>
+      <c r="F498" t="s" s="30">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="499" ht="15" customHeight="1">
+      <c r="A499" s="4"/>
+      <c r="B499" s="4"/>
+      <c r="C499" s="4"/>
+      <c r="D499" s="4"/>
+      <c r="E499" s="4"/>
+      <c r="F499" s="4"/>
+    </row>
+    <row r="500" ht="15" customHeight="1">
+      <c r="A500" s="4"/>
+      <c r="B500" s="4"/>
+      <c r="C500" t="s" s="6">
+        <v>782</v>
+      </c>
+      <c r="D500" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="E498" t="s" s="31">
-        <v>780</v>
-      </c>
-      <c r="F498" t="s" s="31">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="499" ht="15" customHeight="1">
-      <c r="A499" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="B499" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C499" t="s" s="65">
-        <v>782</v>
-      </c>
-      <c r="D499" s="27"/>
-      <c r="E499" s="27"/>
-      <c r="F499" t="s" s="30">
+      <c r="E500" t="s" s="6">
         <v>783</v>
       </c>
-    </row>
-    <row r="500" ht="15" customHeight="1">
-      <c r="A500" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="B500" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C500" t="s" s="62">
+      <c r="F500" t="s" s="6">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="501" ht="15" customHeight="1">
+      <c r="A501" s="4"/>
+      <c r="B501" s="4"/>
+      <c r="C501" t="s" s="31">
         <v>784</v>
       </c>
-      <c r="D500" s="4"/>
-      <c r="E500" s="4"/>
-      <c r="F500" t="s" s="6">
+      <c r="D501" t="s" s="31">
+        <v>2</v>
+      </c>
+      <c r="E501" t="s" s="31">
         <v>785</v>
       </c>
-    </row>
-    <row r="501" ht="15" customHeight="1">
-      <c r="A501" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="B501" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C501" t="s" s="8">
+      <c r="F501" t="s" s="31">
         <v>786</v>
-      </c>
-      <c r="D501" s="4"/>
-      <c r="E501" s="4"/>
-      <c r="F501" t="s" s="6">
-        <v>787</v>
       </c>
     </row>
     <row r="502" ht="15" customHeight="1">
@@ -23635,13 +23810,13 @@
       <c r="B502" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C502" t="s" s="8">
+      <c r="C502" t="s" s="65">
+        <v>787</v>
+      </c>
+      <c r="D502" s="27"/>
+      <c r="E502" s="27"/>
+      <c r="F502" t="s" s="30">
         <v>788</v>
-      </c>
-      <c r="D502" s="4"/>
-      <c r="E502" s="4"/>
-      <c r="F502" t="s" s="6">
-        <v>789</v>
       </c>
     </row>
     <row r="503" ht="15" customHeight="1">
@@ -23651,13 +23826,13 @@
       <c r="B503" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C503" t="s" s="8">
-        <v>790</v>
+      <c r="C503" t="s" s="62">
+        <v>789</v>
       </c>
       <c r="D503" s="4"/>
       <c r="E503" s="4"/>
       <c r="F503" t="s" s="6">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="504" ht="15" customHeight="1">
@@ -23667,13 +23842,13 @@
       <c r="B504" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C504" t="s" s="6">
-        <v>792</v>
+      <c r="C504" t="s" s="8">
+        <v>791</v>
       </c>
       <c r="D504" s="4"/>
       <c r="E504" s="4"/>
       <c r="F504" t="s" s="6">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="505" ht="15" customHeight="1">
@@ -23683,13 +23858,13 @@
       <c r="B505" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C505" t="s" s="6">
-        <v>794</v>
+      <c r="C505" t="s" s="8">
+        <v>793</v>
       </c>
       <c r="D505" s="4"/>
       <c r="E505" s="4"/>
       <c r="F505" t="s" s="6">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="506" ht="15" customHeight="1">
@@ -23699,8 +23874,8 @@
       <c r="B506" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C506" t="s" s="6">
-        <v>469</v>
+      <c r="C506" t="s" s="8">
+        <v>795</v>
       </c>
       <c r="D506" s="4"/>
       <c r="E506" s="4"/>
@@ -23725,95 +23900,143 @@
       </c>
     </row>
     <row r="508" ht="15" customHeight="1">
-      <c r="A508" s="4"/>
-      <c r="B508" s="4"/>
-      <c r="C508" s="4"/>
+      <c r="A508" t="s" s="6">
+        <v>44</v>
+      </c>
+      <c r="B508" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C508" t="s" s="6">
+        <v>799</v>
+      </c>
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
-      <c r="F508" s="4"/>
+      <c r="F508" t="s" s="6">
+        <v>800</v>
+      </c>
     </row>
     <row r="509" ht="15" customHeight="1">
-      <c r="A509" s="4"/>
-      <c r="B509" s="4"/>
-      <c r="C509" t="s" s="31">
-        <v>715</v>
-      </c>
-      <c r="D509" t="s" s="31">
-        <v>2</v>
-      </c>
-      <c r="E509" t="s" s="31">
-        <v>716</v>
-      </c>
-      <c r="F509" t="s" s="31">
-        <v>799</v>
+      <c r="A509" t="s" s="6">
+        <v>44</v>
+      </c>
+      <c r="B509" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C509" t="s" s="6">
+        <v>474</v>
+      </c>
+      <c r="D509" s="4"/>
+      <c r="E509" s="4"/>
+      <c r="F509" t="s" s="6">
+        <v>801</v>
       </c>
     </row>
     <row r="510" ht="15" customHeight="1">
       <c r="A510" t="s" s="6">
-        <v>716</v>
+        <v>44</v>
       </c>
       <c r="B510" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C510" t="s" s="30">
-        <v>800</v>
-      </c>
-      <c r="D510" s="27"/>
-      <c r="E510" s="27"/>
-      <c r="F510" t="s" s="30">
-        <v>801</v>
+      <c r="C510" t="s" s="6">
+        <v>802</v>
+      </c>
+      <c r="D510" s="4"/>
+      <c r="E510" s="4"/>
+      <c r="F510" t="s" s="6">
+        <v>803</v>
       </c>
     </row>
     <row r="511" ht="15" customHeight="1">
-      <c r="A511" t="s" s="6">
-        <v>716</v>
-      </c>
-      <c r="B511" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C511" t="s" s="6">
-        <v>802</v>
-      </c>
+      <c r="A511" s="4"/>
+      <c r="B511" s="4"/>
+      <c r="C511" s="4"/>
       <c r="D511" s="4"/>
       <c r="E511" s="4"/>
-      <c r="F511" t="s" s="6">
-        <v>803</v>
-      </c>
+      <c r="F511" s="4"/>
     </row>
     <row r="512" ht="15" customHeight="1">
-      <c r="A512" t="s" s="76">
-        <v>716</v>
-      </c>
-      <c r="B512" t="s" s="76">
+      <c r="A512" s="4"/>
+      <c r="B512" s="4"/>
+      <c r="C512" t="s" s="31">
+        <v>720</v>
+      </c>
+      <c r="D512" t="s" s="31">
+        <v>2</v>
+      </c>
+      <c r="E512" t="s" s="31">
+        <v>721</v>
+      </c>
+      <c r="F512" t="s" s="31">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="513" ht="15" customHeight="1">
+      <c r="A513" t="s" s="6">
+        <v>721</v>
+      </c>
+      <c r="B513" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C512" t="s" s="76">
-        <v>804</v>
-      </c>
-      <c r="D512" s="77"/>
-      <c r="E512" s="77"/>
-      <c r="F512" t="s" s="76">
+      <c r="C513" t="s" s="30">
         <v>805</v>
+      </c>
+      <c r="D513" s="27"/>
+      <c r="E513" s="27"/>
+      <c r="F513" t="s" s="30">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="514" ht="15" customHeight="1">
+      <c r="A514" t="s" s="6">
+        <v>721</v>
+      </c>
+      <c r="B514" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C514" t="s" s="6">
+        <v>807</v>
+      </c>
+      <c r="D514" s="4"/>
+      <c r="E514" s="4"/>
+      <c r="F514" t="s" s="6">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="515" ht="15" customHeight="1">
+      <c r="A515" t="s" s="76">
+        <v>721</v>
+      </c>
+      <c r="B515" t="s" s="76">
+        <v>37</v>
+      </c>
+      <c r="C515" t="s" s="76">
+        <v>809</v>
+      </c>
+      <c r="D515" s="77"/>
+      <c r="E515" s="77"/>
+      <c r="F515" t="s" s="76">
+        <v>810</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A488:F488"/>
-    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="A491:F491"/>
+    <mergeCell ref="A154:F154"/>
     <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A202:F202"/>
     <mergeCell ref="A91:F91"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A468:F468"/>
-    <mergeCell ref="A414:F414"/>
-    <mergeCell ref="A368:F368"/>
-    <mergeCell ref="A309:F309"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="A263:F263"/>
+    <mergeCell ref="A471:F471"/>
+    <mergeCell ref="A417:F417"/>
+    <mergeCell ref="A371:F371"/>
+    <mergeCell ref="A312:F312"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="A266:F266"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="C362:D362"/>
-    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="C365:D365"/>
+    <mergeCell ref="C193:D193"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C24" r:id="rId1" location="" tooltip="" display="sourceforge.net/projects/git-osx-installer"/>

--- a/git-terminal-commands.xlsx
+++ b/git-terminal-commands.xlsx
@@ -11108,7 +11108,7 @@
         <color indexed="9"/>
         <rFont val="Menlo Regular"/>
       </rPr>
-      <t>git reset HEAD</t>
+      <t>HEAD</t>
     </r>
   </si>
   <si>
